--- a/static/Tasas_y_Deuda.xlsx
+++ b/static/Tasas_y_Deuda.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="310" windowWidth="18820" windowHeight="6810" activeTab="1"/>
+    <workbookView xWindow="400" yWindow="310" windowWidth="18820" windowHeight="6810" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tasas en tanto por uno" sheetId="1" r:id="rId1"/>
     <sheet name="Deuda" sheetId="2" r:id="rId2"/>
+    <sheet name="Cálculo realizado" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
@@ -58,6 +58,7 @@
     <externalReference r:id="rId47"/>
     <externalReference r:id="rId48"/>
     <externalReference r:id="rId49"/>
+    <externalReference r:id="rId50"/>
   </externalReferences>
   <definedNames>
     <definedName name="________mma2" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Aging Summary";#N/A,#N/A,FALSE,"Ratio Analysis";#N/A,#N/A,FALSE,"Test 120 Day Accts";#N/A,#N/A,FALSE,"Tickmarks"}</definedName>
@@ -2862,7 +2863,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>F_Desde</t>
   </si>
@@ -2880,6 +2881,63 @@
   </si>
   <si>
     <t>Importe_Deuda</t>
+  </si>
+  <si>
+    <t>Fecha de Cálculo, inclusive: 21-03-2025</t>
+  </si>
+  <si>
+    <t>Cant_Días (0.03)</t>
+  </si>
+  <si>
+    <t>Cant_Días (0.0562)</t>
+  </si>
+  <si>
+    <t>Cant_Días (0.0583)</t>
+  </si>
+  <si>
+    <t>Cant_Días (0.0882)</t>
+  </si>
+  <si>
+    <t>Cant_Días (0.0577)</t>
+  </si>
+  <si>
+    <t>Cant_Días (0.0357)</t>
+  </si>
+  <si>
+    <t>Coef_Acumulado</t>
+  </si>
+  <si>
+    <t>Importe_Intereses</t>
+  </si>
+  <si>
+    <t>Deuda_Actualizada</t>
+  </si>
+  <si>
+    <t>Subtotales por Año</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Subtotal Importe_Deuda</t>
+  </si>
+  <si>
+    <t>Subtotal Importe_Intereses</t>
+  </si>
+  <si>
+    <t>Subtotal Deuda_Actualizada</t>
+  </si>
+  <si>
+    <t>Total General</t>
+  </si>
+  <si>
+    <t>Total Importe_Deuda</t>
+  </si>
+  <si>
+    <t>Total Importe_Intereses</t>
+  </si>
+  <si>
+    <t>Total Deuda_Actualizada</t>
   </si>
 </sst>
 </file>
@@ -3018,7 +3076,7 @@
     <numFmt numFmtId="291" formatCode="dd\-mm\-yyyy;@"/>
     <numFmt numFmtId="292" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="180">
+  <fonts count="184">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4200,8 +4258,38 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="129">
+  <fills count="130">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4930,6 +5018,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="61">
     <border>
@@ -10459,7 +10553,7 @@
     <xf numFmtId="287" fontId="25" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="288" fontId="177" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -10507,11 +10601,35 @@
     <xf numFmtId="291" fontId="20" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="33" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="180" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="180" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="180" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="129" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="182" fillId="129" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="183" fillId="129" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="181" fillId="129" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="129" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="181" fillId="129" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="129" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="179" fillId="129" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -33182,7 +33300,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="15.25" customHeight="1"/>
@@ -34076,13 +34194,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.5" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
     </row>
@@ -34187,8 +34305,8 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="15.25" customHeight="1"/>
@@ -35083,13 +35201,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="12" customFormat="1" ht="25" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="28" t="s">
         <v>5</v>
       </c>
     </row>
@@ -35386,4 +35504,1199 @@
   <pageMargins left="0.3" right="0.37" top="1.4" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:L37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.26953125" defaultRowHeight="12"/>
+  <cols>
+    <col min="1" max="1" width="12.08984375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" style="17"/>
+    <col min="3" max="3" width="13.90625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="12" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" style="17" customWidth="1"/>
+    <col min="8" max="9" width="8.36328125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" style="17" customWidth="1"/>
+    <col min="11" max="12" width="11.1796875" style="17" customWidth="1"/>
+    <col min="13" max="16384" width="14.26953125" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.5" customHeight="1">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="24"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+    </row>
+    <row r="2" spans="1:12" ht="24">
+      <c r="A2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="18">
+        <v>44197</v>
+      </c>
+      <c r="B3" s="19">
+        <v>44245</v>
+      </c>
+      <c r="C3" s="20">
+        <v>1049701.6599999999</v>
+      </c>
+      <c r="D3" s="21">
+        <v>682</v>
+      </c>
+      <c r="E3" s="21">
+        <v>181</v>
+      </c>
+      <c r="F3" s="21">
+        <v>184</v>
+      </c>
+      <c r="G3" s="21">
+        <v>182</v>
+      </c>
+      <c r="H3" s="21">
+        <v>184</v>
+      </c>
+      <c r="I3" s="21">
+        <v>80</v>
+      </c>
+      <c r="J3" s="21">
+        <v>2.3628200000000001</v>
+      </c>
+      <c r="K3" s="20">
+        <v>2480256.08</v>
+      </c>
+      <c r="L3" s="20">
+        <v>3529957.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="18">
+        <v>44228</v>
+      </c>
+      <c r="B4" s="19">
+        <v>44271</v>
+      </c>
+      <c r="C4" s="20">
+        <v>980907.98</v>
+      </c>
+      <c r="D4" s="21">
+        <v>656</v>
+      </c>
+      <c r="E4" s="21">
+        <v>181</v>
+      </c>
+      <c r="F4" s="21">
+        <v>184</v>
+      </c>
+      <c r="G4" s="21">
+        <v>182</v>
+      </c>
+      <c r="H4" s="21">
+        <v>184</v>
+      </c>
+      <c r="I4" s="21">
+        <v>80</v>
+      </c>
+      <c r="J4" s="21">
+        <v>2.3368199999999999</v>
+      </c>
+      <c r="K4" s="20">
+        <v>2292205.39</v>
+      </c>
+      <c r="L4" s="20">
+        <v>3273113.37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="18">
+        <v>44256</v>
+      </c>
+      <c r="B5" s="19">
+        <v>44302</v>
+      </c>
+      <c r="C5" s="20">
+        <v>970699.5</v>
+      </c>
+      <c r="D5" s="21">
+        <v>625</v>
+      </c>
+      <c r="E5" s="21">
+        <v>181</v>
+      </c>
+      <c r="F5" s="21">
+        <v>184</v>
+      </c>
+      <c r="G5" s="21">
+        <v>182</v>
+      </c>
+      <c r="H5" s="21">
+        <v>184</v>
+      </c>
+      <c r="I5" s="21">
+        <v>80</v>
+      </c>
+      <c r="J5" s="21">
+        <v>2.3058200000000002</v>
+      </c>
+      <c r="K5" s="20">
+        <v>2238258.3199999998</v>
+      </c>
+      <c r="L5" s="20">
+        <v>3208957.82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="18">
+        <v>44287</v>
+      </c>
+      <c r="B6" s="19">
+        <v>44334</v>
+      </c>
+      <c r="C6" s="20">
+        <v>910843.84</v>
+      </c>
+      <c r="D6" s="21">
+        <v>593</v>
+      </c>
+      <c r="E6" s="21">
+        <v>181</v>
+      </c>
+      <c r="F6" s="21">
+        <v>184</v>
+      </c>
+      <c r="G6" s="21">
+        <v>182</v>
+      </c>
+      <c r="H6" s="21">
+        <v>184</v>
+      </c>
+      <c r="I6" s="21">
+        <v>80</v>
+      </c>
+      <c r="J6" s="21">
+        <v>2.2738200000000002</v>
+      </c>
+      <c r="K6" s="20">
+        <v>2071094.94</v>
+      </c>
+      <c r="L6" s="20">
+        <v>2981938.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="18">
+        <v>44317</v>
+      </c>
+      <c r="B7" s="19">
+        <v>44363</v>
+      </c>
+      <c r="C7" s="20">
+        <v>872453.59</v>
+      </c>
+      <c r="D7" s="21">
+        <v>564</v>
+      </c>
+      <c r="E7" s="21">
+        <v>181</v>
+      </c>
+      <c r="F7" s="21">
+        <v>184</v>
+      </c>
+      <c r="G7" s="21">
+        <v>182</v>
+      </c>
+      <c r="H7" s="21">
+        <v>184</v>
+      </c>
+      <c r="I7" s="21">
+        <v>80</v>
+      </c>
+      <c r="J7" s="21">
+        <v>2.2448199999999998</v>
+      </c>
+      <c r="K7" s="20">
+        <v>1958501.27</v>
+      </c>
+      <c r="L7" s="20">
+        <v>2830954.86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="18">
+        <v>44348</v>
+      </c>
+      <c r="B8" s="19">
+        <v>44393</v>
+      </c>
+      <c r="C8" s="20">
+        <v>909699.34</v>
+      </c>
+      <c r="D8" s="21">
+        <v>534</v>
+      </c>
+      <c r="E8" s="21">
+        <v>181</v>
+      </c>
+      <c r="F8" s="21">
+        <v>184</v>
+      </c>
+      <c r="G8" s="21">
+        <v>182</v>
+      </c>
+      <c r="H8" s="21">
+        <v>184</v>
+      </c>
+      <c r="I8" s="21">
+        <v>80</v>
+      </c>
+      <c r="J8" s="21">
+        <v>2.21482</v>
+      </c>
+      <c r="K8" s="20">
+        <v>2014820.29</v>
+      </c>
+      <c r="L8" s="20">
+        <v>2924519.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="18">
+        <v>44378</v>
+      </c>
+      <c r="B9" s="19">
+        <v>44426</v>
+      </c>
+      <c r="C9" s="20">
+        <v>898519.07</v>
+      </c>
+      <c r="D9" s="21">
+        <v>501</v>
+      </c>
+      <c r="E9" s="21">
+        <v>181</v>
+      </c>
+      <c r="F9" s="21">
+        <v>184</v>
+      </c>
+      <c r="G9" s="21">
+        <v>182</v>
+      </c>
+      <c r="H9" s="21">
+        <v>184</v>
+      </c>
+      <c r="I9" s="21">
+        <v>80</v>
+      </c>
+      <c r="J9" s="21">
+        <v>2.1818200000000001</v>
+      </c>
+      <c r="K9" s="20">
+        <v>1960406.88</v>
+      </c>
+      <c r="L9" s="20">
+        <v>2858925.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="18">
+        <v>44409</v>
+      </c>
+      <c r="B10" s="19">
+        <v>44455</v>
+      </c>
+      <c r="C10" s="20">
+        <v>972874.76</v>
+      </c>
+      <c r="D10" s="21">
+        <v>472</v>
+      </c>
+      <c r="E10" s="21">
+        <v>181</v>
+      </c>
+      <c r="F10" s="21">
+        <v>184</v>
+      </c>
+      <c r="G10" s="21">
+        <v>182</v>
+      </c>
+      <c r="H10" s="21">
+        <v>184</v>
+      </c>
+      <c r="I10" s="21">
+        <v>80</v>
+      </c>
+      <c r="J10" s="21">
+        <v>2.1528200000000002</v>
+      </c>
+      <c r="K10" s="20">
+        <v>2094424.24</v>
+      </c>
+      <c r="L10" s="20">
+        <v>3067299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="18">
+        <v>44440</v>
+      </c>
+      <c r="B11" s="19">
+        <v>44487</v>
+      </c>
+      <c r="C11" s="20">
+        <v>1200555.97</v>
+      </c>
+      <c r="D11" s="21">
+        <v>440</v>
+      </c>
+      <c r="E11" s="21">
+        <v>181</v>
+      </c>
+      <c r="F11" s="21">
+        <v>184</v>
+      </c>
+      <c r="G11" s="21">
+        <v>182</v>
+      </c>
+      <c r="H11" s="21">
+        <v>184</v>
+      </c>
+      <c r="I11" s="21">
+        <v>80</v>
+      </c>
+      <c r="J11" s="21">
+        <v>2.1208200000000001</v>
+      </c>
+      <c r="K11" s="20">
+        <v>2546163.11</v>
+      </c>
+      <c r="L11" s="20">
+        <v>3746719.08</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="18">
+        <v>44470</v>
+      </c>
+      <c r="B12" s="19">
+        <v>44516</v>
+      </c>
+      <c r="C12" s="20">
+        <v>1252203.6599999999</v>
+      </c>
+      <c r="D12" s="21">
+        <v>411</v>
+      </c>
+      <c r="E12" s="21">
+        <v>181</v>
+      </c>
+      <c r="F12" s="21">
+        <v>184</v>
+      </c>
+      <c r="G12" s="21">
+        <v>182</v>
+      </c>
+      <c r="H12" s="21">
+        <v>184</v>
+      </c>
+      <c r="I12" s="21">
+        <v>80</v>
+      </c>
+      <c r="J12" s="21">
+        <v>2.0918199999999998</v>
+      </c>
+      <c r="K12" s="20">
+        <v>2619384.66</v>
+      </c>
+      <c r="L12" s="20">
+        <v>3871588.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="18">
+        <v>44501</v>
+      </c>
+      <c r="B13" s="19">
+        <v>44546</v>
+      </c>
+      <c r="C13" s="20">
+        <v>1633095.81</v>
+      </c>
+      <c r="D13" s="21">
+        <v>381</v>
+      </c>
+      <c r="E13" s="21">
+        <v>181</v>
+      </c>
+      <c r="F13" s="21">
+        <v>184</v>
+      </c>
+      <c r="G13" s="21">
+        <v>182</v>
+      </c>
+      <c r="H13" s="21">
+        <v>184</v>
+      </c>
+      <c r="I13" s="21">
+        <v>80</v>
+      </c>
+      <c r="J13" s="21">
+        <v>2.06182</v>
+      </c>
+      <c r="K13" s="20">
+        <v>3367149.6</v>
+      </c>
+      <c r="L13" s="20">
+        <v>5000245.41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="18">
+        <v>44531</v>
+      </c>
+      <c r="B14" s="19">
+        <v>44579</v>
+      </c>
+      <c r="C14" s="20">
+        <v>9254377.9900000002</v>
+      </c>
+      <c r="D14" s="21">
+        <v>348</v>
+      </c>
+      <c r="E14" s="21">
+        <v>181</v>
+      </c>
+      <c r="F14" s="21">
+        <v>184</v>
+      </c>
+      <c r="G14" s="21">
+        <v>182</v>
+      </c>
+      <c r="H14" s="21">
+        <v>184</v>
+      </c>
+      <c r="I14" s="21">
+        <v>80</v>
+      </c>
+      <c r="J14" s="21">
+        <v>2.0288200000000001</v>
+      </c>
+      <c r="K14" s="20">
+        <v>18775467.149999999</v>
+      </c>
+      <c r="L14" s="20">
+        <v>28029845.140000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="18">
+        <v>44562</v>
+      </c>
+      <c r="B15" s="19">
+        <v>44608</v>
+      </c>
+      <c r="C15" s="20">
+        <v>1496121.51</v>
+      </c>
+      <c r="D15" s="21">
+        <v>319</v>
+      </c>
+      <c r="E15" s="21">
+        <v>181</v>
+      </c>
+      <c r="F15" s="21">
+        <v>184</v>
+      </c>
+      <c r="G15" s="21">
+        <v>182</v>
+      </c>
+      <c r="H15" s="21">
+        <v>184</v>
+      </c>
+      <c r="I15" s="21">
+        <v>80</v>
+      </c>
+      <c r="J15" s="21">
+        <v>1.9998199999999999</v>
+      </c>
+      <c r="K15" s="20">
+        <v>2991973.72</v>
+      </c>
+      <c r="L15" s="20">
+        <v>4488095.2300000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="18">
+        <v>44593</v>
+      </c>
+      <c r="B16" s="19">
+        <v>44636</v>
+      </c>
+      <c r="C16" s="20">
+        <v>1403817.6</v>
+      </c>
+      <c r="D16" s="21">
+        <v>291</v>
+      </c>
+      <c r="E16" s="21">
+        <v>181</v>
+      </c>
+      <c r="F16" s="21">
+        <v>184</v>
+      </c>
+      <c r="G16" s="21">
+        <v>182</v>
+      </c>
+      <c r="H16" s="21">
+        <v>184</v>
+      </c>
+      <c r="I16" s="21">
+        <v>80</v>
+      </c>
+      <c r="J16" s="21">
+        <v>1.9718199999999999</v>
+      </c>
+      <c r="K16" s="20">
+        <v>2768075.62</v>
+      </c>
+      <c r="L16" s="20">
+        <v>4171893.22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="18">
+        <v>44621</v>
+      </c>
+      <c r="B17" s="19">
+        <v>44670</v>
+      </c>
+      <c r="C17" s="20">
+        <v>1541435.3</v>
+      </c>
+      <c r="D17" s="21">
+        <v>257</v>
+      </c>
+      <c r="E17" s="21">
+        <v>181</v>
+      </c>
+      <c r="F17" s="21">
+        <v>184</v>
+      </c>
+      <c r="G17" s="21">
+        <v>182</v>
+      </c>
+      <c r="H17" s="21">
+        <v>184</v>
+      </c>
+      <c r="I17" s="21">
+        <v>80</v>
+      </c>
+      <c r="J17" s="21">
+        <v>1.9378200000000001</v>
+      </c>
+      <c r="K17" s="20">
+        <v>2987024.15</v>
+      </c>
+      <c r="L17" s="20">
+        <v>4528459.45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="18">
+        <v>44652</v>
+      </c>
+      <c r="B18" s="19">
+        <v>44698</v>
+      </c>
+      <c r="C18" s="20">
+        <v>1476771.71</v>
+      </c>
+      <c r="D18" s="21">
+        <v>229</v>
+      </c>
+      <c r="E18" s="21">
+        <v>181</v>
+      </c>
+      <c r="F18" s="21">
+        <v>184</v>
+      </c>
+      <c r="G18" s="21">
+        <v>182</v>
+      </c>
+      <c r="H18" s="21">
+        <v>184</v>
+      </c>
+      <c r="I18" s="21">
+        <v>80</v>
+      </c>
+      <c r="J18" s="21">
+        <v>1.9098200000000001</v>
+      </c>
+      <c r="K18" s="20">
+        <v>2820368.15</v>
+      </c>
+      <c r="L18" s="20">
+        <v>4297139.8600000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="18">
+        <v>44682</v>
+      </c>
+      <c r="B19" s="19">
+        <v>44728</v>
+      </c>
+      <c r="C19" s="20">
+        <v>1652402.8</v>
+      </c>
+      <c r="D19" s="21">
+        <v>199</v>
+      </c>
+      <c r="E19" s="21">
+        <v>181</v>
+      </c>
+      <c r="F19" s="21">
+        <v>184</v>
+      </c>
+      <c r="G19" s="21">
+        <v>182</v>
+      </c>
+      <c r="H19" s="21">
+        <v>184</v>
+      </c>
+      <c r="I19" s="21">
+        <v>80</v>
+      </c>
+      <c r="J19" s="21">
+        <v>1.87982</v>
+      </c>
+      <c r="K19" s="20">
+        <v>3106219.83</v>
+      </c>
+      <c r="L19" s="20">
+        <v>4758622.63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="18">
+        <v>44713</v>
+      </c>
+      <c r="B20" s="19">
+        <v>44760</v>
+      </c>
+      <c r="C20" s="20">
+        <v>1957556.31</v>
+      </c>
+      <c r="D20" s="21">
+        <v>167</v>
+      </c>
+      <c r="E20" s="21">
+        <v>181</v>
+      </c>
+      <c r="F20" s="21">
+        <v>184</v>
+      </c>
+      <c r="G20" s="21">
+        <v>182</v>
+      </c>
+      <c r="H20" s="21">
+        <v>184</v>
+      </c>
+      <c r="I20" s="21">
+        <v>80</v>
+      </c>
+      <c r="J20" s="21">
+        <v>1.84782</v>
+      </c>
+      <c r="K20" s="20">
+        <v>3617211.7</v>
+      </c>
+      <c r="L20" s="20">
+        <v>5574768.0099999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="18">
+        <v>44743</v>
+      </c>
+      <c r="B21" s="19">
+        <v>44790</v>
+      </c>
+      <c r="C21" s="20">
+        <v>3015291.35</v>
+      </c>
+      <c r="D21" s="21">
+        <v>137</v>
+      </c>
+      <c r="E21" s="21">
+        <v>181</v>
+      </c>
+      <c r="F21" s="21">
+        <v>184</v>
+      </c>
+      <c r="G21" s="21">
+        <v>182</v>
+      </c>
+      <c r="H21" s="21">
+        <v>184</v>
+      </c>
+      <c r="I21" s="21">
+        <v>80</v>
+      </c>
+      <c r="J21" s="21">
+        <v>1.81782</v>
+      </c>
+      <c r="K21" s="20">
+        <v>5481256.9199999999</v>
+      </c>
+      <c r="L21" s="20">
+        <v>8496548.2699999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="18">
+        <v>44774</v>
+      </c>
+      <c r="B22" s="19">
+        <v>44820</v>
+      </c>
+      <c r="C22" s="20">
+        <v>2613388.7999999998</v>
+      </c>
+      <c r="D22" s="21">
+        <v>107</v>
+      </c>
+      <c r="E22" s="21">
+        <v>181</v>
+      </c>
+      <c r="F22" s="21">
+        <v>184</v>
+      </c>
+      <c r="G22" s="21">
+        <v>182</v>
+      </c>
+      <c r="H22" s="21">
+        <v>184</v>
+      </c>
+      <c r="I22" s="21">
+        <v>80</v>
+      </c>
+      <c r="J22" s="21">
+        <v>1.78782</v>
+      </c>
+      <c r="K22" s="20">
+        <v>4672268.76</v>
+      </c>
+      <c r="L22" s="20">
+        <v>7285657.5599999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="18">
+        <v>44805</v>
+      </c>
+      <c r="B23" s="19">
+        <v>44852</v>
+      </c>
+      <c r="C23" s="20">
+        <v>2674546.46</v>
+      </c>
+      <c r="D23" s="21">
+        <v>75</v>
+      </c>
+      <c r="E23" s="21">
+        <v>181</v>
+      </c>
+      <c r="F23" s="21">
+        <v>184</v>
+      </c>
+      <c r="G23" s="21">
+        <v>182</v>
+      </c>
+      <c r="H23" s="21">
+        <v>184</v>
+      </c>
+      <c r="I23" s="21">
+        <v>80</v>
+      </c>
+      <c r="J23" s="21">
+        <v>1.7558199999999999</v>
+      </c>
+      <c r="K23" s="20">
+        <v>4696022.17</v>
+      </c>
+      <c r="L23" s="20">
+        <v>7370568.6299999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="18">
+        <v>44835</v>
+      </c>
+      <c r="B24" s="19">
+        <v>44881</v>
+      </c>
+      <c r="C24" s="20">
+        <v>2486449.64</v>
+      </c>
+      <c r="D24" s="21">
+        <v>46</v>
+      </c>
+      <c r="E24" s="21">
+        <v>181</v>
+      </c>
+      <c r="F24" s="21">
+        <v>184</v>
+      </c>
+      <c r="G24" s="21">
+        <v>182</v>
+      </c>
+      <c r="H24" s="21">
+        <v>184</v>
+      </c>
+      <c r="I24" s="21">
+        <v>80</v>
+      </c>
+      <c r="J24" s="21">
+        <v>1.72682</v>
+      </c>
+      <c r="K24" s="20">
+        <v>4293650.97</v>
+      </c>
+      <c r="L24" s="20">
+        <v>6780100.6100000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="18">
+        <v>44866</v>
+      </c>
+      <c r="B25" s="19">
+        <v>44911</v>
+      </c>
+      <c r="C25" s="20">
+        <v>2845086.27</v>
+      </c>
+      <c r="D25" s="21">
+        <v>16</v>
+      </c>
+      <c r="E25" s="21">
+        <v>181</v>
+      </c>
+      <c r="F25" s="21">
+        <v>184</v>
+      </c>
+      <c r="G25" s="21">
+        <v>182</v>
+      </c>
+      <c r="H25" s="21">
+        <v>184</v>
+      </c>
+      <c r="I25" s="21">
+        <v>80</v>
+      </c>
+      <c r="J25" s="21">
+        <v>1.69682</v>
+      </c>
+      <c r="K25" s="20">
+        <v>4827599.28</v>
+      </c>
+      <c r="L25" s="20">
+        <v>7672685.5499999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="18">
+        <v>44896</v>
+      </c>
+      <c r="B26" s="19">
+        <v>44943</v>
+      </c>
+      <c r="C26" s="20">
+        <v>37750817.140000001</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0</v>
+      </c>
+      <c r="E26" s="21">
+        <v>165</v>
+      </c>
+      <c r="F26" s="21">
+        <v>184</v>
+      </c>
+      <c r="G26" s="21">
+        <v>182</v>
+      </c>
+      <c r="H26" s="21">
+        <v>184</v>
+      </c>
+      <c r="I26" s="21">
+        <v>80</v>
+      </c>
+      <c r="J26" s="21">
+        <v>1.65084667</v>
+      </c>
+      <c r="K26" s="20">
+        <v>62320810.640000001</v>
+      </c>
+      <c r="L26" s="20">
+        <v>100071627.78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="16"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+    </row>
+    <row r="30" spans="1:12" ht="36">
+      <c r="A30" s="16"/>
+      <c r="B30" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="16"/>
+      <c r="B31" s="21">
+        <v>2021</v>
+      </c>
+      <c r="C31" s="20">
+        <v>20905933.170000002</v>
+      </c>
+      <c r="D31" s="20">
+        <v>44418131.93</v>
+      </c>
+      <c r="E31" s="20">
+        <v>65324065.100000001</v>
+      </c>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="16"/>
+      <c r="B32" s="21">
+        <v>2022</v>
+      </c>
+      <c r="C32" s="20">
+        <v>60913684.890000001</v>
+      </c>
+      <c r="D32" s="20">
+        <v>104582481.91</v>
+      </c>
+      <c r="E32" s="20">
+        <v>165496166.80000001</v>
+      </c>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="16"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+    </row>
+    <row r="35" spans="1:12" ht="36">
+      <c r="A35" s="16"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="20">
+        <v>81819618.060000002</v>
+      </c>
+      <c r="D36" s="20">
+        <v>149000613.84</v>
+      </c>
+      <c r="E36" s="20">
+        <v>230820231.90000001</v>
+      </c>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/static/Tasas_y_Deuda.xlsx
+++ b/static/Tasas_y_Deuda.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="310" windowWidth="18820" windowHeight="6810" activeTab="2"/>
+    <workbookView xWindow="402" yWindow="309" windowWidth="18159" windowHeight="6807"/>
   </bookViews>
   <sheets>
     <sheet name="Tasas en tanto por uno" sheetId="1" r:id="rId1"/>
@@ -2858,7 +2858,7 @@
     <definedName name="Z_3A3B21B8_32D8_11D3_AD40_0060979BFA9E_.wvu.Rows" localSheetId="0" hidden="1">'[47]GMP|CIA'!#REF!</definedName>
     <definedName name="Z_3A3B21B8_32D8_11D3_AD40_0060979BFA9E_.wvu.Rows" hidden="1">'[47]GMP|CIA'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -3076,7 +3076,7 @@
     <numFmt numFmtId="291" formatCode="dd\-mm\-yyyy;@"/>
     <numFmt numFmtId="292" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="184">
+  <fonts count="185">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4287,6 +4287,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="130">
@@ -10553,7 +10559,7 @@
     <xf numFmtId="287" fontId="25" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="288" fontId="177" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -10574,19 +10580,10 @@
     <xf numFmtId="289" fontId="178" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="291" fontId="163" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
@@ -10631,6 +10628,13 @@
     </xf>
     <xf numFmtId="0" fontId="179" fillId="129" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="289" fontId="184" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="290" fontId="184" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -33297,910 +33301,910 @@
     <tabColor rgb="FF00CCFF"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="15.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" style="3" customWidth="1"/>
-    <col min="4" max="233" width="11.36328125" style="1"/>
-    <col min="234" max="234" width="17.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="3" customWidth="1"/>
+    <col min="4" max="233" width="11.33203125" style="1"/>
+    <col min="234" max="234" width="17.08203125" style="1" customWidth="1"/>
     <col min="235" max="235" width="23" style="1" customWidth="1"/>
-    <col min="236" max="236" width="9.08984375" style="1" customWidth="1"/>
+    <col min="236" max="236" width="9.08203125" style="1" customWidth="1"/>
     <col min="237" max="237" width="8" style="1" customWidth="1"/>
-    <col min="238" max="238" width="11.08984375" style="1" customWidth="1"/>
-    <col min="239" max="239" width="15.36328125" style="1" customWidth="1"/>
-    <col min="240" max="240" width="15.453125" style="1" customWidth="1"/>
-    <col min="241" max="241" width="11.453125" style="1" customWidth="1"/>
-    <col min="242" max="242" width="17.90625" style="1" customWidth="1"/>
-    <col min="243" max="243" width="15.36328125" style="1" customWidth="1"/>
-    <col min="244" max="244" width="14.6328125" style="1" customWidth="1"/>
-    <col min="245" max="245" width="2.90625" style="1" customWidth="1"/>
+    <col min="238" max="238" width="11.08203125" style="1" customWidth="1"/>
+    <col min="239" max="239" width="15.33203125" style="1" customWidth="1"/>
+    <col min="240" max="240" width="15.4140625" style="1" customWidth="1"/>
+    <col min="241" max="241" width="11.4140625" style="1" customWidth="1"/>
+    <col min="242" max="242" width="17.9140625" style="1" customWidth="1"/>
+    <col min="243" max="243" width="15.33203125" style="1" customWidth="1"/>
+    <col min="244" max="244" width="14.6640625" style="1" customWidth="1"/>
+    <col min="245" max="245" width="2.9140625" style="1" customWidth="1"/>
     <col min="246" max="246" width="15" style="1" customWidth="1"/>
-    <col min="247" max="489" width="11.36328125" style="1"/>
-    <col min="490" max="490" width="17.08984375" style="1" customWidth="1"/>
+    <col min="247" max="489" width="11.33203125" style="1"/>
+    <col min="490" max="490" width="17.08203125" style="1" customWidth="1"/>
     <col min="491" max="491" width="23" style="1" customWidth="1"/>
-    <col min="492" max="492" width="9.08984375" style="1" customWidth="1"/>
+    <col min="492" max="492" width="9.08203125" style="1" customWidth="1"/>
     <col min="493" max="493" width="8" style="1" customWidth="1"/>
-    <col min="494" max="494" width="11.08984375" style="1" customWidth="1"/>
-    <col min="495" max="495" width="15.36328125" style="1" customWidth="1"/>
-    <col min="496" max="496" width="15.453125" style="1" customWidth="1"/>
-    <col min="497" max="497" width="11.453125" style="1" customWidth="1"/>
-    <col min="498" max="498" width="17.90625" style="1" customWidth="1"/>
-    <col min="499" max="499" width="15.36328125" style="1" customWidth="1"/>
-    <col min="500" max="500" width="14.6328125" style="1" customWidth="1"/>
-    <col min="501" max="501" width="2.90625" style="1" customWidth="1"/>
+    <col min="494" max="494" width="11.08203125" style="1" customWidth="1"/>
+    <col min="495" max="495" width="15.33203125" style="1" customWidth="1"/>
+    <col min="496" max="496" width="15.4140625" style="1" customWidth="1"/>
+    <col min="497" max="497" width="11.4140625" style="1" customWidth="1"/>
+    <col min="498" max="498" width="17.9140625" style="1" customWidth="1"/>
+    <col min="499" max="499" width="15.33203125" style="1" customWidth="1"/>
+    <col min="500" max="500" width="14.6640625" style="1" customWidth="1"/>
+    <col min="501" max="501" width="2.9140625" style="1" customWidth="1"/>
     <col min="502" max="502" width="15" style="1" customWidth="1"/>
-    <col min="503" max="745" width="11.36328125" style="1"/>
-    <col min="746" max="746" width="17.08984375" style="1" customWidth="1"/>
+    <col min="503" max="745" width="11.33203125" style="1"/>
+    <col min="746" max="746" width="17.08203125" style="1" customWidth="1"/>
     <col min="747" max="747" width="23" style="1" customWidth="1"/>
-    <col min="748" max="748" width="9.08984375" style="1" customWidth="1"/>
+    <col min="748" max="748" width="9.08203125" style="1" customWidth="1"/>
     <col min="749" max="749" width="8" style="1" customWidth="1"/>
-    <col min="750" max="750" width="11.08984375" style="1" customWidth="1"/>
-    <col min="751" max="751" width="15.36328125" style="1" customWidth="1"/>
-    <col min="752" max="752" width="15.453125" style="1" customWidth="1"/>
-    <col min="753" max="753" width="11.453125" style="1" customWidth="1"/>
-    <col min="754" max="754" width="17.90625" style="1" customWidth="1"/>
-    <col min="755" max="755" width="15.36328125" style="1" customWidth="1"/>
-    <col min="756" max="756" width="14.6328125" style="1" customWidth="1"/>
-    <col min="757" max="757" width="2.90625" style="1" customWidth="1"/>
+    <col min="750" max="750" width="11.08203125" style="1" customWidth="1"/>
+    <col min="751" max="751" width="15.33203125" style="1" customWidth="1"/>
+    <col min="752" max="752" width="15.4140625" style="1" customWidth="1"/>
+    <col min="753" max="753" width="11.4140625" style="1" customWidth="1"/>
+    <col min="754" max="754" width="17.9140625" style="1" customWidth="1"/>
+    <col min="755" max="755" width="15.33203125" style="1" customWidth="1"/>
+    <col min="756" max="756" width="14.6640625" style="1" customWidth="1"/>
+    <col min="757" max="757" width="2.9140625" style="1" customWidth="1"/>
     <col min="758" max="758" width="15" style="1" customWidth="1"/>
-    <col min="759" max="1001" width="11.36328125" style="1"/>
-    <col min="1002" max="1002" width="17.08984375" style="1" customWidth="1"/>
+    <col min="759" max="1001" width="11.33203125" style="1"/>
+    <col min="1002" max="1002" width="17.08203125" style="1" customWidth="1"/>
     <col min="1003" max="1003" width="23" style="1" customWidth="1"/>
-    <col min="1004" max="1004" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1004" max="1004" width="9.08203125" style="1" customWidth="1"/>
     <col min="1005" max="1005" width="8" style="1" customWidth="1"/>
-    <col min="1006" max="1006" width="11.08984375" style="1" customWidth="1"/>
-    <col min="1007" max="1007" width="15.36328125" style="1" customWidth="1"/>
-    <col min="1008" max="1008" width="15.453125" style="1" customWidth="1"/>
-    <col min="1009" max="1009" width="11.453125" style="1" customWidth="1"/>
-    <col min="1010" max="1010" width="17.90625" style="1" customWidth="1"/>
-    <col min="1011" max="1011" width="15.36328125" style="1" customWidth="1"/>
-    <col min="1012" max="1012" width="14.6328125" style="1" customWidth="1"/>
-    <col min="1013" max="1013" width="2.90625" style="1" customWidth="1"/>
+    <col min="1006" max="1006" width="11.08203125" style="1" customWidth="1"/>
+    <col min="1007" max="1007" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1008" max="1008" width="15.4140625" style="1" customWidth="1"/>
+    <col min="1009" max="1009" width="11.4140625" style="1" customWidth="1"/>
+    <col min="1010" max="1010" width="17.9140625" style="1" customWidth="1"/>
+    <col min="1011" max="1011" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1012" max="1012" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1013" max="1013" width="2.9140625" style="1" customWidth="1"/>
     <col min="1014" max="1014" width="15" style="1" customWidth="1"/>
-    <col min="1015" max="1257" width="11.36328125" style="1"/>
-    <col min="1258" max="1258" width="17.08984375" style="1" customWidth="1"/>
+    <col min="1015" max="1257" width="11.33203125" style="1"/>
+    <col min="1258" max="1258" width="17.08203125" style="1" customWidth="1"/>
     <col min="1259" max="1259" width="23" style="1" customWidth="1"/>
-    <col min="1260" max="1260" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1260" max="1260" width="9.08203125" style="1" customWidth="1"/>
     <col min="1261" max="1261" width="8" style="1" customWidth="1"/>
-    <col min="1262" max="1262" width="11.08984375" style="1" customWidth="1"/>
-    <col min="1263" max="1263" width="15.36328125" style="1" customWidth="1"/>
-    <col min="1264" max="1264" width="15.453125" style="1" customWidth="1"/>
-    <col min="1265" max="1265" width="11.453125" style="1" customWidth="1"/>
-    <col min="1266" max="1266" width="17.90625" style="1" customWidth="1"/>
-    <col min="1267" max="1267" width="15.36328125" style="1" customWidth="1"/>
-    <col min="1268" max="1268" width="14.6328125" style="1" customWidth="1"/>
-    <col min="1269" max="1269" width="2.90625" style="1" customWidth="1"/>
+    <col min="1262" max="1262" width="11.08203125" style="1" customWidth="1"/>
+    <col min="1263" max="1263" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1264" max="1264" width="15.4140625" style="1" customWidth="1"/>
+    <col min="1265" max="1265" width="11.4140625" style="1" customWidth="1"/>
+    <col min="1266" max="1266" width="17.9140625" style="1" customWidth="1"/>
+    <col min="1267" max="1267" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1268" max="1268" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1269" max="1269" width="2.9140625" style="1" customWidth="1"/>
     <col min="1270" max="1270" width="15" style="1" customWidth="1"/>
-    <col min="1271" max="1513" width="11.36328125" style="1"/>
-    <col min="1514" max="1514" width="17.08984375" style="1" customWidth="1"/>
+    <col min="1271" max="1513" width="11.33203125" style="1"/>
+    <col min="1514" max="1514" width="17.08203125" style="1" customWidth="1"/>
     <col min="1515" max="1515" width="23" style="1" customWidth="1"/>
-    <col min="1516" max="1516" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1516" max="1516" width="9.08203125" style="1" customWidth="1"/>
     <col min="1517" max="1517" width="8" style="1" customWidth="1"/>
-    <col min="1518" max="1518" width="11.08984375" style="1" customWidth="1"/>
-    <col min="1519" max="1519" width="15.36328125" style="1" customWidth="1"/>
-    <col min="1520" max="1520" width="15.453125" style="1" customWidth="1"/>
-    <col min="1521" max="1521" width="11.453125" style="1" customWidth="1"/>
-    <col min="1522" max="1522" width="17.90625" style="1" customWidth="1"/>
-    <col min="1523" max="1523" width="15.36328125" style="1" customWidth="1"/>
-    <col min="1524" max="1524" width="14.6328125" style="1" customWidth="1"/>
-    <col min="1525" max="1525" width="2.90625" style="1" customWidth="1"/>
+    <col min="1518" max="1518" width="11.08203125" style="1" customWidth="1"/>
+    <col min="1519" max="1519" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1520" max="1520" width="15.4140625" style="1" customWidth="1"/>
+    <col min="1521" max="1521" width="11.4140625" style="1" customWidth="1"/>
+    <col min="1522" max="1522" width="17.9140625" style="1" customWidth="1"/>
+    <col min="1523" max="1523" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1524" max="1524" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1525" max="1525" width="2.9140625" style="1" customWidth="1"/>
     <col min="1526" max="1526" width="15" style="1" customWidth="1"/>
-    <col min="1527" max="1769" width="11.36328125" style="1"/>
-    <col min="1770" max="1770" width="17.08984375" style="1" customWidth="1"/>
+    <col min="1527" max="1769" width="11.33203125" style="1"/>
+    <col min="1770" max="1770" width="17.08203125" style="1" customWidth="1"/>
     <col min="1771" max="1771" width="23" style="1" customWidth="1"/>
-    <col min="1772" max="1772" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1772" max="1772" width="9.08203125" style="1" customWidth="1"/>
     <col min="1773" max="1773" width="8" style="1" customWidth="1"/>
-    <col min="1774" max="1774" width="11.08984375" style="1" customWidth="1"/>
-    <col min="1775" max="1775" width="15.36328125" style="1" customWidth="1"/>
-    <col min="1776" max="1776" width="15.453125" style="1" customWidth="1"/>
-    <col min="1777" max="1777" width="11.453125" style="1" customWidth="1"/>
-    <col min="1778" max="1778" width="17.90625" style="1" customWidth="1"/>
-    <col min="1779" max="1779" width="15.36328125" style="1" customWidth="1"/>
-    <col min="1780" max="1780" width="14.6328125" style="1" customWidth="1"/>
-    <col min="1781" max="1781" width="2.90625" style="1" customWidth="1"/>
+    <col min="1774" max="1774" width="11.08203125" style="1" customWidth="1"/>
+    <col min="1775" max="1775" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1776" max="1776" width="15.4140625" style="1" customWidth="1"/>
+    <col min="1777" max="1777" width="11.4140625" style="1" customWidth="1"/>
+    <col min="1778" max="1778" width="17.9140625" style="1" customWidth="1"/>
+    <col min="1779" max="1779" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1780" max="1780" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1781" max="1781" width="2.9140625" style="1" customWidth="1"/>
     <col min="1782" max="1782" width="15" style="1" customWidth="1"/>
-    <col min="1783" max="2025" width="11.36328125" style="1"/>
-    <col min="2026" max="2026" width="17.08984375" style="1" customWidth="1"/>
+    <col min="1783" max="2025" width="11.33203125" style="1"/>
+    <col min="2026" max="2026" width="17.08203125" style="1" customWidth="1"/>
     <col min="2027" max="2027" width="23" style="1" customWidth="1"/>
-    <col min="2028" max="2028" width="9.08984375" style="1" customWidth="1"/>
+    <col min="2028" max="2028" width="9.08203125" style="1" customWidth="1"/>
     <col min="2029" max="2029" width="8" style="1" customWidth="1"/>
-    <col min="2030" max="2030" width="11.08984375" style="1" customWidth="1"/>
-    <col min="2031" max="2031" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2032" max="2032" width="15.453125" style="1" customWidth="1"/>
-    <col min="2033" max="2033" width="11.453125" style="1" customWidth="1"/>
-    <col min="2034" max="2034" width="17.90625" style="1" customWidth="1"/>
-    <col min="2035" max="2035" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2036" max="2036" width="14.6328125" style="1" customWidth="1"/>
-    <col min="2037" max="2037" width="2.90625" style="1" customWidth="1"/>
+    <col min="2030" max="2030" width="11.08203125" style="1" customWidth="1"/>
+    <col min="2031" max="2031" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2032" max="2032" width="15.4140625" style="1" customWidth="1"/>
+    <col min="2033" max="2033" width="11.4140625" style="1" customWidth="1"/>
+    <col min="2034" max="2034" width="17.9140625" style="1" customWidth="1"/>
+    <col min="2035" max="2035" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2036" max="2036" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2037" max="2037" width="2.9140625" style="1" customWidth="1"/>
     <col min="2038" max="2038" width="15" style="1" customWidth="1"/>
-    <col min="2039" max="2281" width="11.36328125" style="1"/>
-    <col min="2282" max="2282" width="17.08984375" style="1" customWidth="1"/>
+    <col min="2039" max="2281" width="11.33203125" style="1"/>
+    <col min="2282" max="2282" width="17.08203125" style="1" customWidth="1"/>
     <col min="2283" max="2283" width="23" style="1" customWidth="1"/>
-    <col min="2284" max="2284" width="9.08984375" style="1" customWidth="1"/>
+    <col min="2284" max="2284" width="9.08203125" style="1" customWidth="1"/>
     <col min="2285" max="2285" width="8" style="1" customWidth="1"/>
-    <col min="2286" max="2286" width="11.08984375" style="1" customWidth="1"/>
-    <col min="2287" max="2287" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2288" max="2288" width="15.453125" style="1" customWidth="1"/>
-    <col min="2289" max="2289" width="11.453125" style="1" customWidth="1"/>
-    <col min="2290" max="2290" width="17.90625" style="1" customWidth="1"/>
-    <col min="2291" max="2291" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2292" max="2292" width="14.6328125" style="1" customWidth="1"/>
-    <col min="2293" max="2293" width="2.90625" style="1" customWidth="1"/>
+    <col min="2286" max="2286" width="11.08203125" style="1" customWidth="1"/>
+    <col min="2287" max="2287" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2288" max="2288" width="15.4140625" style="1" customWidth="1"/>
+    <col min="2289" max="2289" width="11.4140625" style="1" customWidth="1"/>
+    <col min="2290" max="2290" width="17.9140625" style="1" customWidth="1"/>
+    <col min="2291" max="2291" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2292" max="2292" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2293" max="2293" width="2.9140625" style="1" customWidth="1"/>
     <col min="2294" max="2294" width="15" style="1" customWidth="1"/>
-    <col min="2295" max="2537" width="11.36328125" style="1"/>
-    <col min="2538" max="2538" width="17.08984375" style="1" customWidth="1"/>
+    <col min="2295" max="2537" width="11.33203125" style="1"/>
+    <col min="2538" max="2538" width="17.08203125" style="1" customWidth="1"/>
     <col min="2539" max="2539" width="23" style="1" customWidth="1"/>
-    <col min="2540" max="2540" width="9.08984375" style="1" customWidth="1"/>
+    <col min="2540" max="2540" width="9.08203125" style="1" customWidth="1"/>
     <col min="2541" max="2541" width="8" style="1" customWidth="1"/>
-    <col min="2542" max="2542" width="11.08984375" style="1" customWidth="1"/>
-    <col min="2543" max="2543" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2544" max="2544" width="15.453125" style="1" customWidth="1"/>
-    <col min="2545" max="2545" width="11.453125" style="1" customWidth="1"/>
-    <col min="2546" max="2546" width="17.90625" style="1" customWidth="1"/>
-    <col min="2547" max="2547" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2548" max="2548" width="14.6328125" style="1" customWidth="1"/>
-    <col min="2549" max="2549" width="2.90625" style="1" customWidth="1"/>
+    <col min="2542" max="2542" width="11.08203125" style="1" customWidth="1"/>
+    <col min="2543" max="2543" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2544" max="2544" width="15.4140625" style="1" customWidth="1"/>
+    <col min="2545" max="2545" width="11.4140625" style="1" customWidth="1"/>
+    <col min="2546" max="2546" width="17.9140625" style="1" customWidth="1"/>
+    <col min="2547" max="2547" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2548" max="2548" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2549" max="2549" width="2.9140625" style="1" customWidth="1"/>
     <col min="2550" max="2550" width="15" style="1" customWidth="1"/>
-    <col min="2551" max="2793" width="11.36328125" style="1"/>
-    <col min="2794" max="2794" width="17.08984375" style="1" customWidth="1"/>
+    <col min="2551" max="2793" width="11.33203125" style="1"/>
+    <col min="2794" max="2794" width="17.08203125" style="1" customWidth="1"/>
     <col min="2795" max="2795" width="23" style="1" customWidth="1"/>
-    <col min="2796" max="2796" width="9.08984375" style="1" customWidth="1"/>
+    <col min="2796" max="2796" width="9.08203125" style="1" customWidth="1"/>
     <col min="2797" max="2797" width="8" style="1" customWidth="1"/>
-    <col min="2798" max="2798" width="11.08984375" style="1" customWidth="1"/>
-    <col min="2799" max="2799" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2800" max="2800" width="15.453125" style="1" customWidth="1"/>
-    <col min="2801" max="2801" width="11.453125" style="1" customWidth="1"/>
-    <col min="2802" max="2802" width="17.90625" style="1" customWidth="1"/>
-    <col min="2803" max="2803" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2804" max="2804" width="14.6328125" style="1" customWidth="1"/>
-    <col min="2805" max="2805" width="2.90625" style="1" customWidth="1"/>
+    <col min="2798" max="2798" width="11.08203125" style="1" customWidth="1"/>
+    <col min="2799" max="2799" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2800" max="2800" width="15.4140625" style="1" customWidth="1"/>
+    <col min="2801" max="2801" width="11.4140625" style="1" customWidth="1"/>
+    <col min="2802" max="2802" width="17.9140625" style="1" customWidth="1"/>
+    <col min="2803" max="2803" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2804" max="2804" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2805" max="2805" width="2.9140625" style="1" customWidth="1"/>
     <col min="2806" max="2806" width="15" style="1" customWidth="1"/>
-    <col min="2807" max="3049" width="11.36328125" style="1"/>
-    <col min="3050" max="3050" width="17.08984375" style="1" customWidth="1"/>
+    <col min="2807" max="3049" width="11.33203125" style="1"/>
+    <col min="3050" max="3050" width="17.08203125" style="1" customWidth="1"/>
     <col min="3051" max="3051" width="23" style="1" customWidth="1"/>
-    <col min="3052" max="3052" width="9.08984375" style="1" customWidth="1"/>
+    <col min="3052" max="3052" width="9.08203125" style="1" customWidth="1"/>
     <col min="3053" max="3053" width="8" style="1" customWidth="1"/>
-    <col min="3054" max="3054" width="11.08984375" style="1" customWidth="1"/>
-    <col min="3055" max="3055" width="15.36328125" style="1" customWidth="1"/>
-    <col min="3056" max="3056" width="15.453125" style="1" customWidth="1"/>
-    <col min="3057" max="3057" width="11.453125" style="1" customWidth="1"/>
-    <col min="3058" max="3058" width="17.90625" style="1" customWidth="1"/>
-    <col min="3059" max="3059" width="15.36328125" style="1" customWidth="1"/>
-    <col min="3060" max="3060" width="14.6328125" style="1" customWidth="1"/>
-    <col min="3061" max="3061" width="2.90625" style="1" customWidth="1"/>
+    <col min="3054" max="3054" width="11.08203125" style="1" customWidth="1"/>
+    <col min="3055" max="3055" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3056" max="3056" width="15.4140625" style="1" customWidth="1"/>
+    <col min="3057" max="3057" width="11.4140625" style="1" customWidth="1"/>
+    <col min="3058" max="3058" width="17.9140625" style="1" customWidth="1"/>
+    <col min="3059" max="3059" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3060" max="3060" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3061" max="3061" width="2.9140625" style="1" customWidth="1"/>
     <col min="3062" max="3062" width="15" style="1" customWidth="1"/>
-    <col min="3063" max="3305" width="11.36328125" style="1"/>
-    <col min="3306" max="3306" width="17.08984375" style="1" customWidth="1"/>
+    <col min="3063" max="3305" width="11.33203125" style="1"/>
+    <col min="3306" max="3306" width="17.08203125" style="1" customWidth="1"/>
     <col min="3307" max="3307" width="23" style="1" customWidth="1"/>
-    <col min="3308" max="3308" width="9.08984375" style="1" customWidth="1"/>
+    <col min="3308" max="3308" width="9.08203125" style="1" customWidth="1"/>
     <col min="3309" max="3309" width="8" style="1" customWidth="1"/>
-    <col min="3310" max="3310" width="11.08984375" style="1" customWidth="1"/>
-    <col min="3311" max="3311" width="15.36328125" style="1" customWidth="1"/>
-    <col min="3312" max="3312" width="15.453125" style="1" customWidth="1"/>
-    <col min="3313" max="3313" width="11.453125" style="1" customWidth="1"/>
-    <col min="3314" max="3314" width="17.90625" style="1" customWidth="1"/>
-    <col min="3315" max="3315" width="15.36328125" style="1" customWidth="1"/>
-    <col min="3316" max="3316" width="14.6328125" style="1" customWidth="1"/>
-    <col min="3317" max="3317" width="2.90625" style="1" customWidth="1"/>
+    <col min="3310" max="3310" width="11.08203125" style="1" customWidth="1"/>
+    <col min="3311" max="3311" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3312" max="3312" width="15.4140625" style="1" customWidth="1"/>
+    <col min="3313" max="3313" width="11.4140625" style="1" customWidth="1"/>
+    <col min="3314" max="3314" width="17.9140625" style="1" customWidth="1"/>
+    <col min="3315" max="3315" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3316" max="3316" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3317" max="3317" width="2.9140625" style="1" customWidth="1"/>
     <col min="3318" max="3318" width="15" style="1" customWidth="1"/>
-    <col min="3319" max="3561" width="11.36328125" style="1"/>
-    <col min="3562" max="3562" width="17.08984375" style="1" customWidth="1"/>
+    <col min="3319" max="3561" width="11.33203125" style="1"/>
+    <col min="3562" max="3562" width="17.08203125" style="1" customWidth="1"/>
     <col min="3563" max="3563" width="23" style="1" customWidth="1"/>
-    <col min="3564" max="3564" width="9.08984375" style="1" customWidth="1"/>
+    <col min="3564" max="3564" width="9.08203125" style="1" customWidth="1"/>
     <col min="3565" max="3565" width="8" style="1" customWidth="1"/>
-    <col min="3566" max="3566" width="11.08984375" style="1" customWidth="1"/>
-    <col min="3567" max="3567" width="15.36328125" style="1" customWidth="1"/>
-    <col min="3568" max="3568" width="15.453125" style="1" customWidth="1"/>
-    <col min="3569" max="3569" width="11.453125" style="1" customWidth="1"/>
-    <col min="3570" max="3570" width="17.90625" style="1" customWidth="1"/>
-    <col min="3571" max="3571" width="15.36328125" style="1" customWidth="1"/>
-    <col min="3572" max="3572" width="14.6328125" style="1" customWidth="1"/>
-    <col min="3573" max="3573" width="2.90625" style="1" customWidth="1"/>
+    <col min="3566" max="3566" width="11.08203125" style="1" customWidth="1"/>
+    <col min="3567" max="3567" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3568" max="3568" width="15.4140625" style="1" customWidth="1"/>
+    <col min="3569" max="3569" width="11.4140625" style="1" customWidth="1"/>
+    <col min="3570" max="3570" width="17.9140625" style="1" customWidth="1"/>
+    <col min="3571" max="3571" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3572" max="3572" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3573" max="3573" width="2.9140625" style="1" customWidth="1"/>
     <col min="3574" max="3574" width="15" style="1" customWidth="1"/>
-    <col min="3575" max="3817" width="11.36328125" style="1"/>
-    <col min="3818" max="3818" width="17.08984375" style="1" customWidth="1"/>
+    <col min="3575" max="3817" width="11.33203125" style="1"/>
+    <col min="3818" max="3818" width="17.08203125" style="1" customWidth="1"/>
     <col min="3819" max="3819" width="23" style="1" customWidth="1"/>
-    <col min="3820" max="3820" width="9.08984375" style="1" customWidth="1"/>
+    <col min="3820" max="3820" width="9.08203125" style="1" customWidth="1"/>
     <col min="3821" max="3821" width="8" style="1" customWidth="1"/>
-    <col min="3822" max="3822" width="11.08984375" style="1" customWidth="1"/>
-    <col min="3823" max="3823" width="15.36328125" style="1" customWidth="1"/>
-    <col min="3824" max="3824" width="15.453125" style="1" customWidth="1"/>
-    <col min="3825" max="3825" width="11.453125" style="1" customWidth="1"/>
-    <col min="3826" max="3826" width="17.90625" style="1" customWidth="1"/>
-    <col min="3827" max="3827" width="15.36328125" style="1" customWidth="1"/>
-    <col min="3828" max="3828" width="14.6328125" style="1" customWidth="1"/>
-    <col min="3829" max="3829" width="2.90625" style="1" customWidth="1"/>
+    <col min="3822" max="3822" width="11.08203125" style="1" customWidth="1"/>
+    <col min="3823" max="3823" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3824" max="3824" width="15.4140625" style="1" customWidth="1"/>
+    <col min="3825" max="3825" width="11.4140625" style="1" customWidth="1"/>
+    <col min="3826" max="3826" width="17.9140625" style="1" customWidth="1"/>
+    <col min="3827" max="3827" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3828" max="3828" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3829" max="3829" width="2.9140625" style="1" customWidth="1"/>
     <col min="3830" max="3830" width="15" style="1" customWidth="1"/>
-    <col min="3831" max="4073" width="11.36328125" style="1"/>
-    <col min="4074" max="4074" width="17.08984375" style="1" customWidth="1"/>
+    <col min="3831" max="4073" width="11.33203125" style="1"/>
+    <col min="4074" max="4074" width="17.08203125" style="1" customWidth="1"/>
     <col min="4075" max="4075" width="23" style="1" customWidth="1"/>
-    <col min="4076" max="4076" width="9.08984375" style="1" customWidth="1"/>
+    <col min="4076" max="4076" width="9.08203125" style="1" customWidth="1"/>
     <col min="4077" max="4077" width="8" style="1" customWidth="1"/>
-    <col min="4078" max="4078" width="11.08984375" style="1" customWidth="1"/>
-    <col min="4079" max="4079" width="15.36328125" style="1" customWidth="1"/>
-    <col min="4080" max="4080" width="15.453125" style="1" customWidth="1"/>
-    <col min="4081" max="4081" width="11.453125" style="1" customWidth="1"/>
-    <col min="4082" max="4082" width="17.90625" style="1" customWidth="1"/>
-    <col min="4083" max="4083" width="15.36328125" style="1" customWidth="1"/>
-    <col min="4084" max="4084" width="14.6328125" style="1" customWidth="1"/>
-    <col min="4085" max="4085" width="2.90625" style="1" customWidth="1"/>
+    <col min="4078" max="4078" width="11.08203125" style="1" customWidth="1"/>
+    <col min="4079" max="4079" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4080" max="4080" width="15.4140625" style="1" customWidth="1"/>
+    <col min="4081" max="4081" width="11.4140625" style="1" customWidth="1"/>
+    <col min="4082" max="4082" width="17.9140625" style="1" customWidth="1"/>
+    <col min="4083" max="4083" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4084" max="4084" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4085" max="4085" width="2.9140625" style="1" customWidth="1"/>
     <col min="4086" max="4086" width="15" style="1" customWidth="1"/>
-    <col min="4087" max="4329" width="11.36328125" style="1"/>
-    <col min="4330" max="4330" width="17.08984375" style="1" customWidth="1"/>
+    <col min="4087" max="4329" width="11.33203125" style="1"/>
+    <col min="4330" max="4330" width="17.08203125" style="1" customWidth="1"/>
     <col min="4331" max="4331" width="23" style="1" customWidth="1"/>
-    <col min="4332" max="4332" width="9.08984375" style="1" customWidth="1"/>
+    <col min="4332" max="4332" width="9.08203125" style="1" customWidth="1"/>
     <col min="4333" max="4333" width="8" style="1" customWidth="1"/>
-    <col min="4334" max="4334" width="11.08984375" style="1" customWidth="1"/>
-    <col min="4335" max="4335" width="15.36328125" style="1" customWidth="1"/>
-    <col min="4336" max="4336" width="15.453125" style="1" customWidth="1"/>
-    <col min="4337" max="4337" width="11.453125" style="1" customWidth="1"/>
-    <col min="4338" max="4338" width="17.90625" style="1" customWidth="1"/>
-    <col min="4339" max="4339" width="15.36328125" style="1" customWidth="1"/>
-    <col min="4340" max="4340" width="14.6328125" style="1" customWidth="1"/>
-    <col min="4341" max="4341" width="2.90625" style="1" customWidth="1"/>
+    <col min="4334" max="4334" width="11.08203125" style="1" customWidth="1"/>
+    <col min="4335" max="4335" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4336" max="4336" width="15.4140625" style="1" customWidth="1"/>
+    <col min="4337" max="4337" width="11.4140625" style="1" customWidth="1"/>
+    <col min="4338" max="4338" width="17.9140625" style="1" customWidth="1"/>
+    <col min="4339" max="4339" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4340" max="4340" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4341" max="4341" width="2.9140625" style="1" customWidth="1"/>
     <col min="4342" max="4342" width="15" style="1" customWidth="1"/>
-    <col min="4343" max="4585" width="11.36328125" style="1"/>
-    <col min="4586" max="4586" width="17.08984375" style="1" customWidth="1"/>
+    <col min="4343" max="4585" width="11.33203125" style="1"/>
+    <col min="4586" max="4586" width="17.08203125" style="1" customWidth="1"/>
     <col min="4587" max="4587" width="23" style="1" customWidth="1"/>
-    <col min="4588" max="4588" width="9.08984375" style="1" customWidth="1"/>
+    <col min="4588" max="4588" width="9.08203125" style="1" customWidth="1"/>
     <col min="4589" max="4589" width="8" style="1" customWidth="1"/>
-    <col min="4590" max="4590" width="11.08984375" style="1" customWidth="1"/>
-    <col min="4591" max="4591" width="15.36328125" style="1" customWidth="1"/>
-    <col min="4592" max="4592" width="15.453125" style="1" customWidth="1"/>
-    <col min="4593" max="4593" width="11.453125" style="1" customWidth="1"/>
-    <col min="4594" max="4594" width="17.90625" style="1" customWidth="1"/>
-    <col min="4595" max="4595" width="15.36328125" style="1" customWidth="1"/>
-    <col min="4596" max="4596" width="14.6328125" style="1" customWidth="1"/>
-    <col min="4597" max="4597" width="2.90625" style="1" customWidth="1"/>
+    <col min="4590" max="4590" width="11.08203125" style="1" customWidth="1"/>
+    <col min="4591" max="4591" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4592" max="4592" width="15.4140625" style="1" customWidth="1"/>
+    <col min="4593" max="4593" width="11.4140625" style="1" customWidth="1"/>
+    <col min="4594" max="4594" width="17.9140625" style="1" customWidth="1"/>
+    <col min="4595" max="4595" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4596" max="4596" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4597" max="4597" width="2.9140625" style="1" customWidth="1"/>
     <col min="4598" max="4598" width="15" style="1" customWidth="1"/>
-    <col min="4599" max="4841" width="11.36328125" style="1"/>
-    <col min="4842" max="4842" width="17.08984375" style="1" customWidth="1"/>
+    <col min="4599" max="4841" width="11.33203125" style="1"/>
+    <col min="4842" max="4842" width="17.08203125" style="1" customWidth="1"/>
     <col min="4843" max="4843" width="23" style="1" customWidth="1"/>
-    <col min="4844" max="4844" width="9.08984375" style="1" customWidth="1"/>
+    <col min="4844" max="4844" width="9.08203125" style="1" customWidth="1"/>
     <col min="4845" max="4845" width="8" style="1" customWidth="1"/>
-    <col min="4846" max="4846" width="11.08984375" style="1" customWidth="1"/>
-    <col min="4847" max="4847" width="15.36328125" style="1" customWidth="1"/>
-    <col min="4848" max="4848" width="15.453125" style="1" customWidth="1"/>
-    <col min="4849" max="4849" width="11.453125" style="1" customWidth="1"/>
-    <col min="4850" max="4850" width="17.90625" style="1" customWidth="1"/>
-    <col min="4851" max="4851" width="15.36328125" style="1" customWidth="1"/>
-    <col min="4852" max="4852" width="14.6328125" style="1" customWidth="1"/>
-    <col min="4853" max="4853" width="2.90625" style="1" customWidth="1"/>
+    <col min="4846" max="4846" width="11.08203125" style="1" customWidth="1"/>
+    <col min="4847" max="4847" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4848" max="4848" width="15.4140625" style="1" customWidth="1"/>
+    <col min="4849" max="4849" width="11.4140625" style="1" customWidth="1"/>
+    <col min="4850" max="4850" width="17.9140625" style="1" customWidth="1"/>
+    <col min="4851" max="4851" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4852" max="4852" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4853" max="4853" width="2.9140625" style="1" customWidth="1"/>
     <col min="4854" max="4854" width="15" style="1" customWidth="1"/>
-    <col min="4855" max="5097" width="11.36328125" style="1"/>
-    <col min="5098" max="5098" width="17.08984375" style="1" customWidth="1"/>
+    <col min="4855" max="5097" width="11.33203125" style="1"/>
+    <col min="5098" max="5098" width="17.08203125" style="1" customWidth="1"/>
     <col min="5099" max="5099" width="23" style="1" customWidth="1"/>
-    <col min="5100" max="5100" width="9.08984375" style="1" customWidth="1"/>
+    <col min="5100" max="5100" width="9.08203125" style="1" customWidth="1"/>
     <col min="5101" max="5101" width="8" style="1" customWidth="1"/>
-    <col min="5102" max="5102" width="11.08984375" style="1" customWidth="1"/>
-    <col min="5103" max="5103" width="15.36328125" style="1" customWidth="1"/>
-    <col min="5104" max="5104" width="15.453125" style="1" customWidth="1"/>
-    <col min="5105" max="5105" width="11.453125" style="1" customWidth="1"/>
-    <col min="5106" max="5106" width="17.90625" style="1" customWidth="1"/>
-    <col min="5107" max="5107" width="15.36328125" style="1" customWidth="1"/>
-    <col min="5108" max="5108" width="14.6328125" style="1" customWidth="1"/>
-    <col min="5109" max="5109" width="2.90625" style="1" customWidth="1"/>
+    <col min="5102" max="5102" width="11.08203125" style="1" customWidth="1"/>
+    <col min="5103" max="5103" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5104" max="5104" width="15.4140625" style="1" customWidth="1"/>
+    <col min="5105" max="5105" width="11.4140625" style="1" customWidth="1"/>
+    <col min="5106" max="5106" width="17.9140625" style="1" customWidth="1"/>
+    <col min="5107" max="5107" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5108" max="5108" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5109" max="5109" width="2.9140625" style="1" customWidth="1"/>
     <col min="5110" max="5110" width="15" style="1" customWidth="1"/>
-    <col min="5111" max="5353" width="11.36328125" style="1"/>
-    <col min="5354" max="5354" width="17.08984375" style="1" customWidth="1"/>
+    <col min="5111" max="5353" width="11.33203125" style="1"/>
+    <col min="5354" max="5354" width="17.08203125" style="1" customWidth="1"/>
     <col min="5355" max="5355" width="23" style="1" customWidth="1"/>
-    <col min="5356" max="5356" width="9.08984375" style="1" customWidth="1"/>
+    <col min="5356" max="5356" width="9.08203125" style="1" customWidth="1"/>
     <col min="5357" max="5357" width="8" style="1" customWidth="1"/>
-    <col min="5358" max="5358" width="11.08984375" style="1" customWidth="1"/>
-    <col min="5359" max="5359" width="15.36328125" style="1" customWidth="1"/>
-    <col min="5360" max="5360" width="15.453125" style="1" customWidth="1"/>
-    <col min="5361" max="5361" width="11.453125" style="1" customWidth="1"/>
-    <col min="5362" max="5362" width="17.90625" style="1" customWidth="1"/>
-    <col min="5363" max="5363" width="15.36328125" style="1" customWidth="1"/>
-    <col min="5364" max="5364" width="14.6328125" style="1" customWidth="1"/>
-    <col min="5365" max="5365" width="2.90625" style="1" customWidth="1"/>
+    <col min="5358" max="5358" width="11.08203125" style="1" customWidth="1"/>
+    <col min="5359" max="5359" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5360" max="5360" width="15.4140625" style="1" customWidth="1"/>
+    <col min="5361" max="5361" width="11.4140625" style="1" customWidth="1"/>
+    <col min="5362" max="5362" width="17.9140625" style="1" customWidth="1"/>
+    <col min="5363" max="5363" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5364" max="5364" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5365" max="5365" width="2.9140625" style="1" customWidth="1"/>
     <col min="5366" max="5366" width="15" style="1" customWidth="1"/>
-    <col min="5367" max="5609" width="11.36328125" style="1"/>
-    <col min="5610" max="5610" width="17.08984375" style="1" customWidth="1"/>
+    <col min="5367" max="5609" width="11.33203125" style="1"/>
+    <col min="5610" max="5610" width="17.08203125" style="1" customWidth="1"/>
     <col min="5611" max="5611" width="23" style="1" customWidth="1"/>
-    <col min="5612" max="5612" width="9.08984375" style="1" customWidth="1"/>
+    <col min="5612" max="5612" width="9.08203125" style="1" customWidth="1"/>
     <col min="5613" max="5613" width="8" style="1" customWidth="1"/>
-    <col min="5614" max="5614" width="11.08984375" style="1" customWidth="1"/>
-    <col min="5615" max="5615" width="15.36328125" style="1" customWidth="1"/>
-    <col min="5616" max="5616" width="15.453125" style="1" customWidth="1"/>
-    <col min="5617" max="5617" width="11.453125" style="1" customWidth="1"/>
-    <col min="5618" max="5618" width="17.90625" style="1" customWidth="1"/>
-    <col min="5619" max="5619" width="15.36328125" style="1" customWidth="1"/>
-    <col min="5620" max="5620" width="14.6328125" style="1" customWidth="1"/>
-    <col min="5621" max="5621" width="2.90625" style="1" customWidth="1"/>
+    <col min="5614" max="5614" width="11.08203125" style="1" customWidth="1"/>
+    <col min="5615" max="5615" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5616" max="5616" width="15.4140625" style="1" customWidth="1"/>
+    <col min="5617" max="5617" width="11.4140625" style="1" customWidth="1"/>
+    <col min="5618" max="5618" width="17.9140625" style="1" customWidth="1"/>
+    <col min="5619" max="5619" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5620" max="5620" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5621" max="5621" width="2.9140625" style="1" customWidth="1"/>
     <col min="5622" max="5622" width="15" style="1" customWidth="1"/>
-    <col min="5623" max="5865" width="11.36328125" style="1"/>
-    <col min="5866" max="5866" width="17.08984375" style="1" customWidth="1"/>
+    <col min="5623" max="5865" width="11.33203125" style="1"/>
+    <col min="5866" max="5866" width="17.08203125" style="1" customWidth="1"/>
     <col min="5867" max="5867" width="23" style="1" customWidth="1"/>
-    <col min="5868" max="5868" width="9.08984375" style="1" customWidth="1"/>
+    <col min="5868" max="5868" width="9.08203125" style="1" customWidth="1"/>
     <col min="5869" max="5869" width="8" style="1" customWidth="1"/>
-    <col min="5870" max="5870" width="11.08984375" style="1" customWidth="1"/>
-    <col min="5871" max="5871" width="15.36328125" style="1" customWidth="1"/>
-    <col min="5872" max="5872" width="15.453125" style="1" customWidth="1"/>
-    <col min="5873" max="5873" width="11.453125" style="1" customWidth="1"/>
-    <col min="5874" max="5874" width="17.90625" style="1" customWidth="1"/>
-    <col min="5875" max="5875" width="15.36328125" style="1" customWidth="1"/>
-    <col min="5876" max="5876" width="14.6328125" style="1" customWidth="1"/>
-    <col min="5877" max="5877" width="2.90625" style="1" customWidth="1"/>
+    <col min="5870" max="5870" width="11.08203125" style="1" customWidth="1"/>
+    <col min="5871" max="5871" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5872" max="5872" width="15.4140625" style="1" customWidth="1"/>
+    <col min="5873" max="5873" width="11.4140625" style="1" customWidth="1"/>
+    <col min="5874" max="5874" width="17.9140625" style="1" customWidth="1"/>
+    <col min="5875" max="5875" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5876" max="5876" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5877" max="5877" width="2.9140625" style="1" customWidth="1"/>
     <col min="5878" max="5878" width="15" style="1" customWidth="1"/>
-    <col min="5879" max="6121" width="11.36328125" style="1"/>
-    <col min="6122" max="6122" width="17.08984375" style="1" customWidth="1"/>
+    <col min="5879" max="6121" width="11.33203125" style="1"/>
+    <col min="6122" max="6122" width="17.08203125" style="1" customWidth="1"/>
     <col min="6123" max="6123" width="23" style="1" customWidth="1"/>
-    <col min="6124" max="6124" width="9.08984375" style="1" customWidth="1"/>
+    <col min="6124" max="6124" width="9.08203125" style="1" customWidth="1"/>
     <col min="6125" max="6125" width="8" style="1" customWidth="1"/>
-    <col min="6126" max="6126" width="11.08984375" style="1" customWidth="1"/>
-    <col min="6127" max="6127" width="15.36328125" style="1" customWidth="1"/>
-    <col min="6128" max="6128" width="15.453125" style="1" customWidth="1"/>
-    <col min="6129" max="6129" width="11.453125" style="1" customWidth="1"/>
-    <col min="6130" max="6130" width="17.90625" style="1" customWidth="1"/>
-    <col min="6131" max="6131" width="15.36328125" style="1" customWidth="1"/>
-    <col min="6132" max="6132" width="14.6328125" style="1" customWidth="1"/>
-    <col min="6133" max="6133" width="2.90625" style="1" customWidth="1"/>
+    <col min="6126" max="6126" width="11.08203125" style="1" customWidth="1"/>
+    <col min="6127" max="6127" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6128" max="6128" width="15.4140625" style="1" customWidth="1"/>
+    <col min="6129" max="6129" width="11.4140625" style="1" customWidth="1"/>
+    <col min="6130" max="6130" width="17.9140625" style="1" customWidth="1"/>
+    <col min="6131" max="6131" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6132" max="6132" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6133" max="6133" width="2.9140625" style="1" customWidth="1"/>
     <col min="6134" max="6134" width="15" style="1" customWidth="1"/>
-    <col min="6135" max="6377" width="11.36328125" style="1"/>
-    <col min="6378" max="6378" width="17.08984375" style="1" customWidth="1"/>
+    <col min="6135" max="6377" width="11.33203125" style="1"/>
+    <col min="6378" max="6378" width="17.08203125" style="1" customWidth="1"/>
     <col min="6379" max="6379" width="23" style="1" customWidth="1"/>
-    <col min="6380" max="6380" width="9.08984375" style="1" customWidth="1"/>
+    <col min="6380" max="6380" width="9.08203125" style="1" customWidth="1"/>
     <col min="6381" max="6381" width="8" style="1" customWidth="1"/>
-    <col min="6382" max="6382" width="11.08984375" style="1" customWidth="1"/>
-    <col min="6383" max="6383" width="15.36328125" style="1" customWidth="1"/>
-    <col min="6384" max="6384" width="15.453125" style="1" customWidth="1"/>
-    <col min="6385" max="6385" width="11.453125" style="1" customWidth="1"/>
-    <col min="6386" max="6386" width="17.90625" style="1" customWidth="1"/>
-    <col min="6387" max="6387" width="15.36328125" style="1" customWidth="1"/>
-    <col min="6388" max="6388" width="14.6328125" style="1" customWidth="1"/>
-    <col min="6389" max="6389" width="2.90625" style="1" customWidth="1"/>
+    <col min="6382" max="6382" width="11.08203125" style="1" customWidth="1"/>
+    <col min="6383" max="6383" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6384" max="6384" width="15.4140625" style="1" customWidth="1"/>
+    <col min="6385" max="6385" width="11.4140625" style="1" customWidth="1"/>
+    <col min="6386" max="6386" width="17.9140625" style="1" customWidth="1"/>
+    <col min="6387" max="6387" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6388" max="6388" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6389" max="6389" width="2.9140625" style="1" customWidth="1"/>
     <col min="6390" max="6390" width="15" style="1" customWidth="1"/>
-    <col min="6391" max="6633" width="11.36328125" style="1"/>
-    <col min="6634" max="6634" width="17.08984375" style="1" customWidth="1"/>
+    <col min="6391" max="6633" width="11.33203125" style="1"/>
+    <col min="6634" max="6634" width="17.08203125" style="1" customWidth="1"/>
     <col min="6635" max="6635" width="23" style="1" customWidth="1"/>
-    <col min="6636" max="6636" width="9.08984375" style="1" customWidth="1"/>
+    <col min="6636" max="6636" width="9.08203125" style="1" customWidth="1"/>
     <col min="6637" max="6637" width="8" style="1" customWidth="1"/>
-    <col min="6638" max="6638" width="11.08984375" style="1" customWidth="1"/>
-    <col min="6639" max="6639" width="15.36328125" style="1" customWidth="1"/>
-    <col min="6640" max="6640" width="15.453125" style="1" customWidth="1"/>
-    <col min="6641" max="6641" width="11.453125" style="1" customWidth="1"/>
-    <col min="6642" max="6642" width="17.90625" style="1" customWidth="1"/>
-    <col min="6643" max="6643" width="15.36328125" style="1" customWidth="1"/>
-    <col min="6644" max="6644" width="14.6328125" style="1" customWidth="1"/>
-    <col min="6645" max="6645" width="2.90625" style="1" customWidth="1"/>
+    <col min="6638" max="6638" width="11.08203125" style="1" customWidth="1"/>
+    <col min="6639" max="6639" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6640" max="6640" width="15.4140625" style="1" customWidth="1"/>
+    <col min="6641" max="6641" width="11.4140625" style="1" customWidth="1"/>
+    <col min="6642" max="6642" width="17.9140625" style="1" customWidth="1"/>
+    <col min="6643" max="6643" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6644" max="6644" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6645" max="6645" width="2.9140625" style="1" customWidth="1"/>
     <col min="6646" max="6646" width="15" style="1" customWidth="1"/>
-    <col min="6647" max="6889" width="11.36328125" style="1"/>
-    <col min="6890" max="6890" width="17.08984375" style="1" customWidth="1"/>
+    <col min="6647" max="6889" width="11.33203125" style="1"/>
+    <col min="6890" max="6890" width="17.08203125" style="1" customWidth="1"/>
     <col min="6891" max="6891" width="23" style="1" customWidth="1"/>
-    <col min="6892" max="6892" width="9.08984375" style="1" customWidth="1"/>
+    <col min="6892" max="6892" width="9.08203125" style="1" customWidth="1"/>
     <col min="6893" max="6893" width="8" style="1" customWidth="1"/>
-    <col min="6894" max="6894" width="11.08984375" style="1" customWidth="1"/>
-    <col min="6895" max="6895" width="15.36328125" style="1" customWidth="1"/>
-    <col min="6896" max="6896" width="15.453125" style="1" customWidth="1"/>
-    <col min="6897" max="6897" width="11.453125" style="1" customWidth="1"/>
-    <col min="6898" max="6898" width="17.90625" style="1" customWidth="1"/>
-    <col min="6899" max="6899" width="15.36328125" style="1" customWidth="1"/>
-    <col min="6900" max="6900" width="14.6328125" style="1" customWidth="1"/>
-    <col min="6901" max="6901" width="2.90625" style="1" customWidth="1"/>
+    <col min="6894" max="6894" width="11.08203125" style="1" customWidth="1"/>
+    <col min="6895" max="6895" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6896" max="6896" width="15.4140625" style="1" customWidth="1"/>
+    <col min="6897" max="6897" width="11.4140625" style="1" customWidth="1"/>
+    <col min="6898" max="6898" width="17.9140625" style="1" customWidth="1"/>
+    <col min="6899" max="6899" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6900" max="6900" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6901" max="6901" width="2.9140625" style="1" customWidth="1"/>
     <col min="6902" max="6902" width="15" style="1" customWidth="1"/>
-    <col min="6903" max="7145" width="11.36328125" style="1"/>
-    <col min="7146" max="7146" width="17.08984375" style="1" customWidth="1"/>
+    <col min="6903" max="7145" width="11.33203125" style="1"/>
+    <col min="7146" max="7146" width="17.08203125" style="1" customWidth="1"/>
     <col min="7147" max="7147" width="23" style="1" customWidth="1"/>
-    <col min="7148" max="7148" width="9.08984375" style="1" customWidth="1"/>
+    <col min="7148" max="7148" width="9.08203125" style="1" customWidth="1"/>
     <col min="7149" max="7149" width="8" style="1" customWidth="1"/>
-    <col min="7150" max="7150" width="11.08984375" style="1" customWidth="1"/>
-    <col min="7151" max="7151" width="15.36328125" style="1" customWidth="1"/>
-    <col min="7152" max="7152" width="15.453125" style="1" customWidth="1"/>
-    <col min="7153" max="7153" width="11.453125" style="1" customWidth="1"/>
-    <col min="7154" max="7154" width="17.90625" style="1" customWidth="1"/>
-    <col min="7155" max="7155" width="15.36328125" style="1" customWidth="1"/>
-    <col min="7156" max="7156" width="14.6328125" style="1" customWidth="1"/>
-    <col min="7157" max="7157" width="2.90625" style="1" customWidth="1"/>
+    <col min="7150" max="7150" width="11.08203125" style="1" customWidth="1"/>
+    <col min="7151" max="7151" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7152" max="7152" width="15.4140625" style="1" customWidth="1"/>
+    <col min="7153" max="7153" width="11.4140625" style="1" customWidth="1"/>
+    <col min="7154" max="7154" width="17.9140625" style="1" customWidth="1"/>
+    <col min="7155" max="7155" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7156" max="7156" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7157" max="7157" width="2.9140625" style="1" customWidth="1"/>
     <col min="7158" max="7158" width="15" style="1" customWidth="1"/>
-    <col min="7159" max="7401" width="11.36328125" style="1"/>
-    <col min="7402" max="7402" width="17.08984375" style="1" customWidth="1"/>
+    <col min="7159" max="7401" width="11.33203125" style="1"/>
+    <col min="7402" max="7402" width="17.08203125" style="1" customWidth="1"/>
     <col min="7403" max="7403" width="23" style="1" customWidth="1"/>
-    <col min="7404" max="7404" width="9.08984375" style="1" customWidth="1"/>
+    <col min="7404" max="7404" width="9.08203125" style="1" customWidth="1"/>
     <col min="7405" max="7405" width="8" style="1" customWidth="1"/>
-    <col min="7406" max="7406" width="11.08984375" style="1" customWidth="1"/>
-    <col min="7407" max="7407" width="15.36328125" style="1" customWidth="1"/>
-    <col min="7408" max="7408" width="15.453125" style="1" customWidth="1"/>
-    <col min="7409" max="7409" width="11.453125" style="1" customWidth="1"/>
-    <col min="7410" max="7410" width="17.90625" style="1" customWidth="1"/>
-    <col min="7411" max="7411" width="15.36328125" style="1" customWidth="1"/>
-    <col min="7412" max="7412" width="14.6328125" style="1" customWidth="1"/>
-    <col min="7413" max="7413" width="2.90625" style="1" customWidth="1"/>
+    <col min="7406" max="7406" width="11.08203125" style="1" customWidth="1"/>
+    <col min="7407" max="7407" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7408" max="7408" width="15.4140625" style="1" customWidth="1"/>
+    <col min="7409" max="7409" width="11.4140625" style="1" customWidth="1"/>
+    <col min="7410" max="7410" width="17.9140625" style="1" customWidth="1"/>
+    <col min="7411" max="7411" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7412" max="7412" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7413" max="7413" width="2.9140625" style="1" customWidth="1"/>
     <col min="7414" max="7414" width="15" style="1" customWidth="1"/>
-    <col min="7415" max="7657" width="11.36328125" style="1"/>
-    <col min="7658" max="7658" width="17.08984375" style="1" customWidth="1"/>
+    <col min="7415" max="7657" width="11.33203125" style="1"/>
+    <col min="7658" max="7658" width="17.08203125" style="1" customWidth="1"/>
     <col min="7659" max="7659" width="23" style="1" customWidth="1"/>
-    <col min="7660" max="7660" width="9.08984375" style="1" customWidth="1"/>
+    <col min="7660" max="7660" width="9.08203125" style="1" customWidth="1"/>
     <col min="7661" max="7661" width="8" style="1" customWidth="1"/>
-    <col min="7662" max="7662" width="11.08984375" style="1" customWidth="1"/>
-    <col min="7663" max="7663" width="15.36328125" style="1" customWidth="1"/>
-    <col min="7664" max="7664" width="15.453125" style="1" customWidth="1"/>
-    <col min="7665" max="7665" width="11.453125" style="1" customWidth="1"/>
-    <col min="7666" max="7666" width="17.90625" style="1" customWidth="1"/>
-    <col min="7667" max="7667" width="15.36328125" style="1" customWidth="1"/>
-    <col min="7668" max="7668" width="14.6328125" style="1" customWidth="1"/>
-    <col min="7669" max="7669" width="2.90625" style="1" customWidth="1"/>
+    <col min="7662" max="7662" width="11.08203125" style="1" customWidth="1"/>
+    <col min="7663" max="7663" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7664" max="7664" width="15.4140625" style="1" customWidth="1"/>
+    <col min="7665" max="7665" width="11.4140625" style="1" customWidth="1"/>
+    <col min="7666" max="7666" width="17.9140625" style="1" customWidth="1"/>
+    <col min="7667" max="7667" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7668" max="7668" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7669" max="7669" width="2.9140625" style="1" customWidth="1"/>
     <col min="7670" max="7670" width="15" style="1" customWidth="1"/>
-    <col min="7671" max="7913" width="11.36328125" style="1"/>
-    <col min="7914" max="7914" width="17.08984375" style="1" customWidth="1"/>
+    <col min="7671" max="7913" width="11.33203125" style="1"/>
+    <col min="7914" max="7914" width="17.08203125" style="1" customWidth="1"/>
     <col min="7915" max="7915" width="23" style="1" customWidth="1"/>
-    <col min="7916" max="7916" width="9.08984375" style="1" customWidth="1"/>
+    <col min="7916" max="7916" width="9.08203125" style="1" customWidth="1"/>
     <col min="7917" max="7917" width="8" style="1" customWidth="1"/>
-    <col min="7918" max="7918" width="11.08984375" style="1" customWidth="1"/>
-    <col min="7919" max="7919" width="15.36328125" style="1" customWidth="1"/>
-    <col min="7920" max="7920" width="15.453125" style="1" customWidth="1"/>
-    <col min="7921" max="7921" width="11.453125" style="1" customWidth="1"/>
-    <col min="7922" max="7922" width="17.90625" style="1" customWidth="1"/>
-    <col min="7923" max="7923" width="15.36328125" style="1" customWidth="1"/>
-    <col min="7924" max="7924" width="14.6328125" style="1" customWidth="1"/>
-    <col min="7925" max="7925" width="2.90625" style="1" customWidth="1"/>
+    <col min="7918" max="7918" width="11.08203125" style="1" customWidth="1"/>
+    <col min="7919" max="7919" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7920" max="7920" width="15.4140625" style="1" customWidth="1"/>
+    <col min="7921" max="7921" width="11.4140625" style="1" customWidth="1"/>
+    <col min="7922" max="7922" width="17.9140625" style="1" customWidth="1"/>
+    <col min="7923" max="7923" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7924" max="7924" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7925" max="7925" width="2.9140625" style="1" customWidth="1"/>
     <col min="7926" max="7926" width="15" style="1" customWidth="1"/>
-    <col min="7927" max="8169" width="11.36328125" style="1"/>
-    <col min="8170" max="8170" width="17.08984375" style="1" customWidth="1"/>
+    <col min="7927" max="8169" width="11.33203125" style="1"/>
+    <col min="8170" max="8170" width="17.08203125" style="1" customWidth="1"/>
     <col min="8171" max="8171" width="23" style="1" customWidth="1"/>
-    <col min="8172" max="8172" width="9.08984375" style="1" customWidth="1"/>
+    <col min="8172" max="8172" width="9.08203125" style="1" customWidth="1"/>
     <col min="8173" max="8173" width="8" style="1" customWidth="1"/>
-    <col min="8174" max="8174" width="11.08984375" style="1" customWidth="1"/>
-    <col min="8175" max="8175" width="15.36328125" style="1" customWidth="1"/>
-    <col min="8176" max="8176" width="15.453125" style="1" customWidth="1"/>
-    <col min="8177" max="8177" width="11.453125" style="1" customWidth="1"/>
-    <col min="8178" max="8178" width="17.90625" style="1" customWidth="1"/>
-    <col min="8179" max="8179" width="15.36328125" style="1" customWidth="1"/>
-    <col min="8180" max="8180" width="14.6328125" style="1" customWidth="1"/>
-    <col min="8181" max="8181" width="2.90625" style="1" customWidth="1"/>
+    <col min="8174" max="8174" width="11.08203125" style="1" customWidth="1"/>
+    <col min="8175" max="8175" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8176" max="8176" width="15.4140625" style="1" customWidth="1"/>
+    <col min="8177" max="8177" width="11.4140625" style="1" customWidth="1"/>
+    <col min="8178" max="8178" width="17.9140625" style="1" customWidth="1"/>
+    <col min="8179" max="8179" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8180" max="8180" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8181" max="8181" width="2.9140625" style="1" customWidth="1"/>
     <col min="8182" max="8182" width="15" style="1" customWidth="1"/>
-    <col min="8183" max="8425" width="11.36328125" style="1"/>
-    <col min="8426" max="8426" width="17.08984375" style="1" customWidth="1"/>
+    <col min="8183" max="8425" width="11.33203125" style="1"/>
+    <col min="8426" max="8426" width="17.08203125" style="1" customWidth="1"/>
     <col min="8427" max="8427" width="23" style="1" customWidth="1"/>
-    <col min="8428" max="8428" width="9.08984375" style="1" customWidth="1"/>
+    <col min="8428" max="8428" width="9.08203125" style="1" customWidth="1"/>
     <col min="8429" max="8429" width="8" style="1" customWidth="1"/>
-    <col min="8430" max="8430" width="11.08984375" style="1" customWidth="1"/>
-    <col min="8431" max="8431" width="15.36328125" style="1" customWidth="1"/>
-    <col min="8432" max="8432" width="15.453125" style="1" customWidth="1"/>
-    <col min="8433" max="8433" width="11.453125" style="1" customWidth="1"/>
-    <col min="8434" max="8434" width="17.90625" style="1" customWidth="1"/>
-    <col min="8435" max="8435" width="15.36328125" style="1" customWidth="1"/>
-    <col min="8436" max="8436" width="14.6328125" style="1" customWidth="1"/>
-    <col min="8437" max="8437" width="2.90625" style="1" customWidth="1"/>
+    <col min="8430" max="8430" width="11.08203125" style="1" customWidth="1"/>
+    <col min="8431" max="8431" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8432" max="8432" width="15.4140625" style="1" customWidth="1"/>
+    <col min="8433" max="8433" width="11.4140625" style="1" customWidth="1"/>
+    <col min="8434" max="8434" width="17.9140625" style="1" customWidth="1"/>
+    <col min="8435" max="8435" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8436" max="8436" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8437" max="8437" width="2.9140625" style="1" customWidth="1"/>
     <col min="8438" max="8438" width="15" style="1" customWidth="1"/>
-    <col min="8439" max="8681" width="11.36328125" style="1"/>
-    <col min="8682" max="8682" width="17.08984375" style="1" customWidth="1"/>
+    <col min="8439" max="8681" width="11.33203125" style="1"/>
+    <col min="8682" max="8682" width="17.08203125" style="1" customWidth="1"/>
     <col min="8683" max="8683" width="23" style="1" customWidth="1"/>
-    <col min="8684" max="8684" width="9.08984375" style="1" customWidth="1"/>
+    <col min="8684" max="8684" width="9.08203125" style="1" customWidth="1"/>
     <col min="8685" max="8685" width="8" style="1" customWidth="1"/>
-    <col min="8686" max="8686" width="11.08984375" style="1" customWidth="1"/>
-    <col min="8687" max="8687" width="15.36328125" style="1" customWidth="1"/>
-    <col min="8688" max="8688" width="15.453125" style="1" customWidth="1"/>
-    <col min="8689" max="8689" width="11.453125" style="1" customWidth="1"/>
-    <col min="8690" max="8690" width="17.90625" style="1" customWidth="1"/>
-    <col min="8691" max="8691" width="15.36328125" style="1" customWidth="1"/>
-    <col min="8692" max="8692" width="14.6328125" style="1" customWidth="1"/>
-    <col min="8693" max="8693" width="2.90625" style="1" customWidth="1"/>
+    <col min="8686" max="8686" width="11.08203125" style="1" customWidth="1"/>
+    <col min="8687" max="8687" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8688" max="8688" width="15.4140625" style="1" customWidth="1"/>
+    <col min="8689" max="8689" width="11.4140625" style="1" customWidth="1"/>
+    <col min="8690" max="8690" width="17.9140625" style="1" customWidth="1"/>
+    <col min="8691" max="8691" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8692" max="8692" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8693" max="8693" width="2.9140625" style="1" customWidth="1"/>
     <col min="8694" max="8694" width="15" style="1" customWidth="1"/>
-    <col min="8695" max="8937" width="11.36328125" style="1"/>
-    <col min="8938" max="8938" width="17.08984375" style="1" customWidth="1"/>
+    <col min="8695" max="8937" width="11.33203125" style="1"/>
+    <col min="8938" max="8938" width="17.08203125" style="1" customWidth="1"/>
     <col min="8939" max="8939" width="23" style="1" customWidth="1"/>
-    <col min="8940" max="8940" width="9.08984375" style="1" customWidth="1"/>
+    <col min="8940" max="8940" width="9.08203125" style="1" customWidth="1"/>
     <col min="8941" max="8941" width="8" style="1" customWidth="1"/>
-    <col min="8942" max="8942" width="11.08984375" style="1" customWidth="1"/>
-    <col min="8943" max="8943" width="15.36328125" style="1" customWidth="1"/>
-    <col min="8944" max="8944" width="15.453125" style="1" customWidth="1"/>
-    <col min="8945" max="8945" width="11.453125" style="1" customWidth="1"/>
-    <col min="8946" max="8946" width="17.90625" style="1" customWidth="1"/>
-    <col min="8947" max="8947" width="15.36328125" style="1" customWidth="1"/>
-    <col min="8948" max="8948" width="14.6328125" style="1" customWidth="1"/>
-    <col min="8949" max="8949" width="2.90625" style="1" customWidth="1"/>
+    <col min="8942" max="8942" width="11.08203125" style="1" customWidth="1"/>
+    <col min="8943" max="8943" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8944" max="8944" width="15.4140625" style="1" customWidth="1"/>
+    <col min="8945" max="8945" width="11.4140625" style="1" customWidth="1"/>
+    <col min="8946" max="8946" width="17.9140625" style="1" customWidth="1"/>
+    <col min="8947" max="8947" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8948" max="8948" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8949" max="8949" width="2.9140625" style="1" customWidth="1"/>
     <col min="8950" max="8950" width="15" style="1" customWidth="1"/>
-    <col min="8951" max="9193" width="11.36328125" style="1"/>
-    <col min="9194" max="9194" width="17.08984375" style="1" customWidth="1"/>
+    <col min="8951" max="9193" width="11.33203125" style="1"/>
+    <col min="9194" max="9194" width="17.08203125" style="1" customWidth="1"/>
     <col min="9195" max="9195" width="23" style="1" customWidth="1"/>
-    <col min="9196" max="9196" width="9.08984375" style="1" customWidth="1"/>
+    <col min="9196" max="9196" width="9.08203125" style="1" customWidth="1"/>
     <col min="9197" max="9197" width="8" style="1" customWidth="1"/>
-    <col min="9198" max="9198" width="11.08984375" style="1" customWidth="1"/>
-    <col min="9199" max="9199" width="15.36328125" style="1" customWidth="1"/>
-    <col min="9200" max="9200" width="15.453125" style="1" customWidth="1"/>
-    <col min="9201" max="9201" width="11.453125" style="1" customWidth="1"/>
-    <col min="9202" max="9202" width="17.90625" style="1" customWidth="1"/>
-    <col min="9203" max="9203" width="15.36328125" style="1" customWidth="1"/>
-    <col min="9204" max="9204" width="14.6328125" style="1" customWidth="1"/>
-    <col min="9205" max="9205" width="2.90625" style="1" customWidth="1"/>
+    <col min="9198" max="9198" width="11.08203125" style="1" customWidth="1"/>
+    <col min="9199" max="9199" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9200" max="9200" width="15.4140625" style="1" customWidth="1"/>
+    <col min="9201" max="9201" width="11.4140625" style="1" customWidth="1"/>
+    <col min="9202" max="9202" width="17.9140625" style="1" customWidth="1"/>
+    <col min="9203" max="9203" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9204" max="9204" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9205" max="9205" width="2.9140625" style="1" customWidth="1"/>
     <col min="9206" max="9206" width="15" style="1" customWidth="1"/>
-    <col min="9207" max="9449" width="11.36328125" style="1"/>
-    <col min="9450" max="9450" width="17.08984375" style="1" customWidth="1"/>
+    <col min="9207" max="9449" width="11.33203125" style="1"/>
+    <col min="9450" max="9450" width="17.08203125" style="1" customWidth="1"/>
     <col min="9451" max="9451" width="23" style="1" customWidth="1"/>
-    <col min="9452" max="9452" width="9.08984375" style="1" customWidth="1"/>
+    <col min="9452" max="9452" width="9.08203125" style="1" customWidth="1"/>
     <col min="9453" max="9453" width="8" style="1" customWidth="1"/>
-    <col min="9454" max="9454" width="11.08984375" style="1" customWidth="1"/>
-    <col min="9455" max="9455" width="15.36328125" style="1" customWidth="1"/>
-    <col min="9456" max="9456" width="15.453125" style="1" customWidth="1"/>
-    <col min="9457" max="9457" width="11.453125" style="1" customWidth="1"/>
-    <col min="9458" max="9458" width="17.90625" style="1" customWidth="1"/>
-    <col min="9459" max="9459" width="15.36328125" style="1" customWidth="1"/>
-    <col min="9460" max="9460" width="14.6328125" style="1" customWidth="1"/>
-    <col min="9461" max="9461" width="2.90625" style="1" customWidth="1"/>
+    <col min="9454" max="9454" width="11.08203125" style="1" customWidth="1"/>
+    <col min="9455" max="9455" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9456" max="9456" width="15.4140625" style="1" customWidth="1"/>
+    <col min="9457" max="9457" width="11.4140625" style="1" customWidth="1"/>
+    <col min="9458" max="9458" width="17.9140625" style="1" customWidth="1"/>
+    <col min="9459" max="9459" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9460" max="9460" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9461" max="9461" width="2.9140625" style="1" customWidth="1"/>
     <col min="9462" max="9462" width="15" style="1" customWidth="1"/>
-    <col min="9463" max="9705" width="11.36328125" style="1"/>
-    <col min="9706" max="9706" width="17.08984375" style="1" customWidth="1"/>
+    <col min="9463" max="9705" width="11.33203125" style="1"/>
+    <col min="9706" max="9706" width="17.08203125" style="1" customWidth="1"/>
     <col min="9707" max="9707" width="23" style="1" customWidth="1"/>
-    <col min="9708" max="9708" width="9.08984375" style="1" customWidth="1"/>
+    <col min="9708" max="9708" width="9.08203125" style="1" customWidth="1"/>
     <col min="9709" max="9709" width="8" style="1" customWidth="1"/>
-    <col min="9710" max="9710" width="11.08984375" style="1" customWidth="1"/>
-    <col min="9711" max="9711" width="15.36328125" style="1" customWidth="1"/>
-    <col min="9712" max="9712" width="15.453125" style="1" customWidth="1"/>
-    <col min="9713" max="9713" width="11.453125" style="1" customWidth="1"/>
-    <col min="9714" max="9714" width="17.90625" style="1" customWidth="1"/>
-    <col min="9715" max="9715" width="15.36328125" style="1" customWidth="1"/>
-    <col min="9716" max="9716" width="14.6328125" style="1" customWidth="1"/>
-    <col min="9717" max="9717" width="2.90625" style="1" customWidth="1"/>
+    <col min="9710" max="9710" width="11.08203125" style="1" customWidth="1"/>
+    <col min="9711" max="9711" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9712" max="9712" width="15.4140625" style="1" customWidth="1"/>
+    <col min="9713" max="9713" width="11.4140625" style="1" customWidth="1"/>
+    <col min="9714" max="9714" width="17.9140625" style="1" customWidth="1"/>
+    <col min="9715" max="9715" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9716" max="9716" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9717" max="9717" width="2.9140625" style="1" customWidth="1"/>
     <col min="9718" max="9718" width="15" style="1" customWidth="1"/>
-    <col min="9719" max="9961" width="11.36328125" style="1"/>
-    <col min="9962" max="9962" width="17.08984375" style="1" customWidth="1"/>
+    <col min="9719" max="9961" width="11.33203125" style="1"/>
+    <col min="9962" max="9962" width="17.08203125" style="1" customWidth="1"/>
     <col min="9963" max="9963" width="23" style="1" customWidth="1"/>
-    <col min="9964" max="9964" width="9.08984375" style="1" customWidth="1"/>
+    <col min="9964" max="9964" width="9.08203125" style="1" customWidth="1"/>
     <col min="9965" max="9965" width="8" style="1" customWidth="1"/>
-    <col min="9966" max="9966" width="11.08984375" style="1" customWidth="1"/>
-    <col min="9967" max="9967" width="15.36328125" style="1" customWidth="1"/>
-    <col min="9968" max="9968" width="15.453125" style="1" customWidth="1"/>
-    <col min="9969" max="9969" width="11.453125" style="1" customWidth="1"/>
-    <col min="9970" max="9970" width="17.90625" style="1" customWidth="1"/>
-    <col min="9971" max="9971" width="15.36328125" style="1" customWidth="1"/>
-    <col min="9972" max="9972" width="14.6328125" style="1" customWidth="1"/>
-    <col min="9973" max="9973" width="2.90625" style="1" customWidth="1"/>
+    <col min="9966" max="9966" width="11.08203125" style="1" customWidth="1"/>
+    <col min="9967" max="9967" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9968" max="9968" width="15.4140625" style="1" customWidth="1"/>
+    <col min="9969" max="9969" width="11.4140625" style="1" customWidth="1"/>
+    <col min="9970" max="9970" width="17.9140625" style="1" customWidth="1"/>
+    <col min="9971" max="9971" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9972" max="9972" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9973" max="9973" width="2.9140625" style="1" customWidth="1"/>
     <col min="9974" max="9974" width="15" style="1" customWidth="1"/>
-    <col min="9975" max="10217" width="11.36328125" style="1"/>
-    <col min="10218" max="10218" width="17.08984375" style="1" customWidth="1"/>
+    <col min="9975" max="10217" width="11.33203125" style="1"/>
+    <col min="10218" max="10218" width="17.08203125" style="1" customWidth="1"/>
     <col min="10219" max="10219" width="23" style="1" customWidth="1"/>
-    <col min="10220" max="10220" width="9.08984375" style="1" customWidth="1"/>
+    <col min="10220" max="10220" width="9.08203125" style="1" customWidth="1"/>
     <col min="10221" max="10221" width="8" style="1" customWidth="1"/>
-    <col min="10222" max="10222" width="11.08984375" style="1" customWidth="1"/>
-    <col min="10223" max="10223" width="15.36328125" style="1" customWidth="1"/>
-    <col min="10224" max="10224" width="15.453125" style="1" customWidth="1"/>
-    <col min="10225" max="10225" width="11.453125" style="1" customWidth="1"/>
-    <col min="10226" max="10226" width="17.90625" style="1" customWidth="1"/>
-    <col min="10227" max="10227" width="15.36328125" style="1" customWidth="1"/>
-    <col min="10228" max="10228" width="14.6328125" style="1" customWidth="1"/>
-    <col min="10229" max="10229" width="2.90625" style="1" customWidth="1"/>
+    <col min="10222" max="10222" width="11.08203125" style="1" customWidth="1"/>
+    <col min="10223" max="10223" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10224" max="10224" width="15.4140625" style="1" customWidth="1"/>
+    <col min="10225" max="10225" width="11.4140625" style="1" customWidth="1"/>
+    <col min="10226" max="10226" width="17.9140625" style="1" customWidth="1"/>
+    <col min="10227" max="10227" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10228" max="10228" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10229" max="10229" width="2.9140625" style="1" customWidth="1"/>
     <col min="10230" max="10230" width="15" style="1" customWidth="1"/>
-    <col min="10231" max="10473" width="11.36328125" style="1"/>
-    <col min="10474" max="10474" width="17.08984375" style="1" customWidth="1"/>
+    <col min="10231" max="10473" width="11.33203125" style="1"/>
+    <col min="10474" max="10474" width="17.08203125" style="1" customWidth="1"/>
     <col min="10475" max="10475" width="23" style="1" customWidth="1"/>
-    <col min="10476" max="10476" width="9.08984375" style="1" customWidth="1"/>
+    <col min="10476" max="10476" width="9.08203125" style="1" customWidth="1"/>
     <col min="10477" max="10477" width="8" style="1" customWidth="1"/>
-    <col min="10478" max="10478" width="11.08984375" style="1" customWidth="1"/>
-    <col min="10479" max="10479" width="15.36328125" style="1" customWidth="1"/>
-    <col min="10480" max="10480" width="15.453125" style="1" customWidth="1"/>
-    <col min="10481" max="10481" width="11.453125" style="1" customWidth="1"/>
-    <col min="10482" max="10482" width="17.90625" style="1" customWidth="1"/>
-    <col min="10483" max="10483" width="15.36328125" style="1" customWidth="1"/>
-    <col min="10484" max="10484" width="14.6328125" style="1" customWidth="1"/>
-    <col min="10485" max="10485" width="2.90625" style="1" customWidth="1"/>
+    <col min="10478" max="10478" width="11.08203125" style="1" customWidth="1"/>
+    <col min="10479" max="10479" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10480" max="10480" width="15.4140625" style="1" customWidth="1"/>
+    <col min="10481" max="10481" width="11.4140625" style="1" customWidth="1"/>
+    <col min="10482" max="10482" width="17.9140625" style="1" customWidth="1"/>
+    <col min="10483" max="10483" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10484" max="10484" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10485" max="10485" width="2.9140625" style="1" customWidth="1"/>
     <col min="10486" max="10486" width="15" style="1" customWidth="1"/>
-    <col min="10487" max="10729" width="11.36328125" style="1"/>
-    <col min="10730" max="10730" width="17.08984375" style="1" customWidth="1"/>
+    <col min="10487" max="10729" width="11.33203125" style="1"/>
+    <col min="10730" max="10730" width="17.08203125" style="1" customWidth="1"/>
     <col min="10731" max="10731" width="23" style="1" customWidth="1"/>
-    <col min="10732" max="10732" width="9.08984375" style="1" customWidth="1"/>
+    <col min="10732" max="10732" width="9.08203125" style="1" customWidth="1"/>
     <col min="10733" max="10733" width="8" style="1" customWidth="1"/>
-    <col min="10734" max="10734" width="11.08984375" style="1" customWidth="1"/>
-    <col min="10735" max="10735" width="15.36328125" style="1" customWidth="1"/>
-    <col min="10736" max="10736" width="15.453125" style="1" customWidth="1"/>
-    <col min="10737" max="10737" width="11.453125" style="1" customWidth="1"/>
-    <col min="10738" max="10738" width="17.90625" style="1" customWidth="1"/>
-    <col min="10739" max="10739" width="15.36328125" style="1" customWidth="1"/>
-    <col min="10740" max="10740" width="14.6328125" style="1" customWidth="1"/>
-    <col min="10741" max="10741" width="2.90625" style="1" customWidth="1"/>
+    <col min="10734" max="10734" width="11.08203125" style="1" customWidth="1"/>
+    <col min="10735" max="10735" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10736" max="10736" width="15.4140625" style="1" customWidth="1"/>
+    <col min="10737" max="10737" width="11.4140625" style="1" customWidth="1"/>
+    <col min="10738" max="10738" width="17.9140625" style="1" customWidth="1"/>
+    <col min="10739" max="10739" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10740" max="10740" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10741" max="10741" width="2.9140625" style="1" customWidth="1"/>
     <col min="10742" max="10742" width="15" style="1" customWidth="1"/>
-    <col min="10743" max="10985" width="11.36328125" style="1"/>
-    <col min="10986" max="10986" width="17.08984375" style="1" customWidth="1"/>
+    <col min="10743" max="10985" width="11.33203125" style="1"/>
+    <col min="10986" max="10986" width="17.08203125" style="1" customWidth="1"/>
     <col min="10987" max="10987" width="23" style="1" customWidth="1"/>
-    <col min="10988" max="10988" width="9.08984375" style="1" customWidth="1"/>
+    <col min="10988" max="10988" width="9.08203125" style="1" customWidth="1"/>
     <col min="10989" max="10989" width="8" style="1" customWidth="1"/>
-    <col min="10990" max="10990" width="11.08984375" style="1" customWidth="1"/>
-    <col min="10991" max="10991" width="15.36328125" style="1" customWidth="1"/>
-    <col min="10992" max="10992" width="15.453125" style="1" customWidth="1"/>
-    <col min="10993" max="10993" width="11.453125" style="1" customWidth="1"/>
-    <col min="10994" max="10994" width="17.90625" style="1" customWidth="1"/>
-    <col min="10995" max="10995" width="15.36328125" style="1" customWidth="1"/>
-    <col min="10996" max="10996" width="14.6328125" style="1" customWidth="1"/>
-    <col min="10997" max="10997" width="2.90625" style="1" customWidth="1"/>
+    <col min="10990" max="10990" width="11.08203125" style="1" customWidth="1"/>
+    <col min="10991" max="10991" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10992" max="10992" width="15.4140625" style="1" customWidth="1"/>
+    <col min="10993" max="10993" width="11.4140625" style="1" customWidth="1"/>
+    <col min="10994" max="10994" width="17.9140625" style="1" customWidth="1"/>
+    <col min="10995" max="10995" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10996" max="10996" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10997" max="10997" width="2.9140625" style="1" customWidth="1"/>
     <col min="10998" max="10998" width="15" style="1" customWidth="1"/>
-    <col min="10999" max="11241" width="11.36328125" style="1"/>
-    <col min="11242" max="11242" width="17.08984375" style="1" customWidth="1"/>
+    <col min="10999" max="11241" width="11.33203125" style="1"/>
+    <col min="11242" max="11242" width="17.08203125" style="1" customWidth="1"/>
     <col min="11243" max="11243" width="23" style="1" customWidth="1"/>
-    <col min="11244" max="11244" width="9.08984375" style="1" customWidth="1"/>
+    <col min="11244" max="11244" width="9.08203125" style="1" customWidth="1"/>
     <col min="11245" max="11245" width="8" style="1" customWidth="1"/>
-    <col min="11246" max="11246" width="11.08984375" style="1" customWidth="1"/>
-    <col min="11247" max="11247" width="15.36328125" style="1" customWidth="1"/>
-    <col min="11248" max="11248" width="15.453125" style="1" customWidth="1"/>
-    <col min="11249" max="11249" width="11.453125" style="1" customWidth="1"/>
-    <col min="11250" max="11250" width="17.90625" style="1" customWidth="1"/>
-    <col min="11251" max="11251" width="15.36328125" style="1" customWidth="1"/>
-    <col min="11252" max="11252" width="14.6328125" style="1" customWidth="1"/>
-    <col min="11253" max="11253" width="2.90625" style="1" customWidth="1"/>
+    <col min="11246" max="11246" width="11.08203125" style="1" customWidth="1"/>
+    <col min="11247" max="11247" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11248" max="11248" width="15.4140625" style="1" customWidth="1"/>
+    <col min="11249" max="11249" width="11.4140625" style="1" customWidth="1"/>
+    <col min="11250" max="11250" width="17.9140625" style="1" customWidth="1"/>
+    <col min="11251" max="11251" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11252" max="11252" width="14.6640625" style="1" customWidth="1"/>
+    <col min="11253" max="11253" width="2.9140625" style="1" customWidth="1"/>
     <col min="11254" max="11254" width="15" style="1" customWidth="1"/>
-    <col min="11255" max="11497" width="11.36328125" style="1"/>
-    <col min="11498" max="11498" width="17.08984375" style="1" customWidth="1"/>
+    <col min="11255" max="11497" width="11.33203125" style="1"/>
+    <col min="11498" max="11498" width="17.08203125" style="1" customWidth="1"/>
     <col min="11499" max="11499" width="23" style="1" customWidth="1"/>
-    <col min="11500" max="11500" width="9.08984375" style="1" customWidth="1"/>
+    <col min="11500" max="11500" width="9.08203125" style="1" customWidth="1"/>
     <col min="11501" max="11501" width="8" style="1" customWidth="1"/>
-    <col min="11502" max="11502" width="11.08984375" style="1" customWidth="1"/>
-    <col min="11503" max="11503" width="15.36328125" style="1" customWidth="1"/>
-    <col min="11504" max="11504" width="15.453125" style="1" customWidth="1"/>
-    <col min="11505" max="11505" width="11.453125" style="1" customWidth="1"/>
-    <col min="11506" max="11506" width="17.90625" style="1" customWidth="1"/>
-    <col min="11507" max="11507" width="15.36328125" style="1" customWidth="1"/>
-    <col min="11508" max="11508" width="14.6328125" style="1" customWidth="1"/>
-    <col min="11509" max="11509" width="2.90625" style="1" customWidth="1"/>
+    <col min="11502" max="11502" width="11.08203125" style="1" customWidth="1"/>
+    <col min="11503" max="11503" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11504" max="11504" width="15.4140625" style="1" customWidth="1"/>
+    <col min="11505" max="11505" width="11.4140625" style="1" customWidth="1"/>
+    <col min="11506" max="11506" width="17.9140625" style="1" customWidth="1"/>
+    <col min="11507" max="11507" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11508" max="11508" width="14.6640625" style="1" customWidth="1"/>
+    <col min="11509" max="11509" width="2.9140625" style="1" customWidth="1"/>
     <col min="11510" max="11510" width="15" style="1" customWidth="1"/>
-    <col min="11511" max="11753" width="11.36328125" style="1"/>
-    <col min="11754" max="11754" width="17.08984375" style="1" customWidth="1"/>
+    <col min="11511" max="11753" width="11.33203125" style="1"/>
+    <col min="11754" max="11754" width="17.08203125" style="1" customWidth="1"/>
     <col min="11755" max="11755" width="23" style="1" customWidth="1"/>
-    <col min="11756" max="11756" width="9.08984375" style="1" customWidth="1"/>
+    <col min="11756" max="11756" width="9.08203125" style="1" customWidth="1"/>
     <col min="11757" max="11757" width="8" style="1" customWidth="1"/>
-    <col min="11758" max="11758" width="11.08984375" style="1" customWidth="1"/>
-    <col min="11759" max="11759" width="15.36328125" style="1" customWidth="1"/>
-    <col min="11760" max="11760" width="15.453125" style="1" customWidth="1"/>
-    <col min="11761" max="11761" width="11.453125" style="1" customWidth="1"/>
-    <col min="11762" max="11762" width="17.90625" style="1" customWidth="1"/>
-    <col min="11763" max="11763" width="15.36328125" style="1" customWidth="1"/>
-    <col min="11764" max="11764" width="14.6328125" style="1" customWidth="1"/>
-    <col min="11765" max="11765" width="2.90625" style="1" customWidth="1"/>
+    <col min="11758" max="11758" width="11.08203125" style="1" customWidth="1"/>
+    <col min="11759" max="11759" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11760" max="11760" width="15.4140625" style="1" customWidth="1"/>
+    <col min="11761" max="11761" width="11.4140625" style="1" customWidth="1"/>
+    <col min="11762" max="11762" width="17.9140625" style="1" customWidth="1"/>
+    <col min="11763" max="11763" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11764" max="11764" width="14.6640625" style="1" customWidth="1"/>
+    <col min="11765" max="11765" width="2.9140625" style="1" customWidth="1"/>
     <col min="11766" max="11766" width="15" style="1" customWidth="1"/>
-    <col min="11767" max="12009" width="11.36328125" style="1"/>
-    <col min="12010" max="12010" width="17.08984375" style="1" customWidth="1"/>
+    <col min="11767" max="12009" width="11.33203125" style="1"/>
+    <col min="12010" max="12010" width="17.08203125" style="1" customWidth="1"/>
     <col min="12011" max="12011" width="23" style="1" customWidth="1"/>
-    <col min="12012" max="12012" width="9.08984375" style="1" customWidth="1"/>
+    <col min="12012" max="12012" width="9.08203125" style="1" customWidth="1"/>
     <col min="12013" max="12013" width="8" style="1" customWidth="1"/>
-    <col min="12014" max="12014" width="11.08984375" style="1" customWidth="1"/>
-    <col min="12015" max="12015" width="15.36328125" style="1" customWidth="1"/>
-    <col min="12016" max="12016" width="15.453125" style="1" customWidth="1"/>
-    <col min="12017" max="12017" width="11.453125" style="1" customWidth="1"/>
-    <col min="12018" max="12018" width="17.90625" style="1" customWidth="1"/>
-    <col min="12019" max="12019" width="15.36328125" style="1" customWidth="1"/>
-    <col min="12020" max="12020" width="14.6328125" style="1" customWidth="1"/>
-    <col min="12021" max="12021" width="2.90625" style="1" customWidth="1"/>
+    <col min="12014" max="12014" width="11.08203125" style="1" customWidth="1"/>
+    <col min="12015" max="12015" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12016" max="12016" width="15.4140625" style="1" customWidth="1"/>
+    <col min="12017" max="12017" width="11.4140625" style="1" customWidth="1"/>
+    <col min="12018" max="12018" width="17.9140625" style="1" customWidth="1"/>
+    <col min="12019" max="12019" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12020" max="12020" width="14.6640625" style="1" customWidth="1"/>
+    <col min="12021" max="12021" width="2.9140625" style="1" customWidth="1"/>
     <col min="12022" max="12022" width="15" style="1" customWidth="1"/>
-    <col min="12023" max="12265" width="11.36328125" style="1"/>
-    <col min="12266" max="12266" width="17.08984375" style="1" customWidth="1"/>
+    <col min="12023" max="12265" width="11.33203125" style="1"/>
+    <col min="12266" max="12266" width="17.08203125" style="1" customWidth="1"/>
     <col min="12267" max="12267" width="23" style="1" customWidth="1"/>
-    <col min="12268" max="12268" width="9.08984375" style="1" customWidth="1"/>
+    <col min="12268" max="12268" width="9.08203125" style="1" customWidth="1"/>
     <col min="12269" max="12269" width="8" style="1" customWidth="1"/>
-    <col min="12270" max="12270" width="11.08984375" style="1" customWidth="1"/>
-    <col min="12271" max="12271" width="15.36328125" style="1" customWidth="1"/>
-    <col min="12272" max="12272" width="15.453125" style="1" customWidth="1"/>
-    <col min="12273" max="12273" width="11.453125" style="1" customWidth="1"/>
-    <col min="12274" max="12274" width="17.90625" style="1" customWidth="1"/>
-    <col min="12275" max="12275" width="15.36328125" style="1" customWidth="1"/>
-    <col min="12276" max="12276" width="14.6328125" style="1" customWidth="1"/>
-    <col min="12277" max="12277" width="2.90625" style="1" customWidth="1"/>
+    <col min="12270" max="12270" width="11.08203125" style="1" customWidth="1"/>
+    <col min="12271" max="12271" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12272" max="12272" width="15.4140625" style="1" customWidth="1"/>
+    <col min="12273" max="12273" width="11.4140625" style="1" customWidth="1"/>
+    <col min="12274" max="12274" width="17.9140625" style="1" customWidth="1"/>
+    <col min="12275" max="12275" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12276" max="12276" width="14.6640625" style="1" customWidth="1"/>
+    <col min="12277" max="12277" width="2.9140625" style="1" customWidth="1"/>
     <col min="12278" max="12278" width="15" style="1" customWidth="1"/>
-    <col min="12279" max="12521" width="11.36328125" style="1"/>
-    <col min="12522" max="12522" width="17.08984375" style="1" customWidth="1"/>
+    <col min="12279" max="12521" width="11.33203125" style="1"/>
+    <col min="12522" max="12522" width="17.08203125" style="1" customWidth="1"/>
     <col min="12523" max="12523" width="23" style="1" customWidth="1"/>
-    <col min="12524" max="12524" width="9.08984375" style="1" customWidth="1"/>
+    <col min="12524" max="12524" width="9.08203125" style="1" customWidth="1"/>
     <col min="12525" max="12525" width="8" style="1" customWidth="1"/>
-    <col min="12526" max="12526" width="11.08984375" style="1" customWidth="1"/>
-    <col min="12527" max="12527" width="15.36328125" style="1" customWidth="1"/>
-    <col min="12528" max="12528" width="15.453125" style="1" customWidth="1"/>
-    <col min="12529" max="12529" width="11.453125" style="1" customWidth="1"/>
-    <col min="12530" max="12530" width="17.90625" style="1" customWidth="1"/>
-    <col min="12531" max="12531" width="15.36328125" style="1" customWidth="1"/>
-    <col min="12532" max="12532" width="14.6328125" style="1" customWidth="1"/>
-    <col min="12533" max="12533" width="2.90625" style="1" customWidth="1"/>
+    <col min="12526" max="12526" width="11.08203125" style="1" customWidth="1"/>
+    <col min="12527" max="12527" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12528" max="12528" width="15.4140625" style="1" customWidth="1"/>
+    <col min="12529" max="12529" width="11.4140625" style="1" customWidth="1"/>
+    <col min="12530" max="12530" width="17.9140625" style="1" customWidth="1"/>
+    <col min="12531" max="12531" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12532" max="12532" width="14.6640625" style="1" customWidth="1"/>
+    <col min="12533" max="12533" width="2.9140625" style="1" customWidth="1"/>
     <col min="12534" max="12534" width="15" style="1" customWidth="1"/>
-    <col min="12535" max="12777" width="11.36328125" style="1"/>
-    <col min="12778" max="12778" width="17.08984375" style="1" customWidth="1"/>
+    <col min="12535" max="12777" width="11.33203125" style="1"/>
+    <col min="12778" max="12778" width="17.08203125" style="1" customWidth="1"/>
     <col min="12779" max="12779" width="23" style="1" customWidth="1"/>
-    <col min="12780" max="12780" width="9.08984375" style="1" customWidth="1"/>
+    <col min="12780" max="12780" width="9.08203125" style="1" customWidth="1"/>
     <col min="12781" max="12781" width="8" style="1" customWidth="1"/>
-    <col min="12782" max="12782" width="11.08984375" style="1" customWidth="1"/>
-    <col min="12783" max="12783" width="15.36328125" style="1" customWidth="1"/>
-    <col min="12784" max="12784" width="15.453125" style="1" customWidth="1"/>
-    <col min="12785" max="12785" width="11.453125" style="1" customWidth="1"/>
-    <col min="12786" max="12786" width="17.90625" style="1" customWidth="1"/>
-    <col min="12787" max="12787" width="15.36328125" style="1" customWidth="1"/>
-    <col min="12788" max="12788" width="14.6328125" style="1" customWidth="1"/>
-    <col min="12789" max="12789" width="2.90625" style="1" customWidth="1"/>
+    <col min="12782" max="12782" width="11.08203125" style="1" customWidth="1"/>
+    <col min="12783" max="12783" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12784" max="12784" width="15.4140625" style="1" customWidth="1"/>
+    <col min="12785" max="12785" width="11.4140625" style="1" customWidth="1"/>
+    <col min="12786" max="12786" width="17.9140625" style="1" customWidth="1"/>
+    <col min="12787" max="12787" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12788" max="12788" width="14.6640625" style="1" customWidth="1"/>
+    <col min="12789" max="12789" width="2.9140625" style="1" customWidth="1"/>
     <col min="12790" max="12790" width="15" style="1" customWidth="1"/>
-    <col min="12791" max="13033" width="11.36328125" style="1"/>
-    <col min="13034" max="13034" width="17.08984375" style="1" customWidth="1"/>
+    <col min="12791" max="13033" width="11.33203125" style="1"/>
+    <col min="13034" max="13034" width="17.08203125" style="1" customWidth="1"/>
     <col min="13035" max="13035" width="23" style="1" customWidth="1"/>
-    <col min="13036" max="13036" width="9.08984375" style="1" customWidth="1"/>
+    <col min="13036" max="13036" width="9.08203125" style="1" customWidth="1"/>
     <col min="13037" max="13037" width="8" style="1" customWidth="1"/>
-    <col min="13038" max="13038" width="11.08984375" style="1" customWidth="1"/>
-    <col min="13039" max="13039" width="15.36328125" style="1" customWidth="1"/>
-    <col min="13040" max="13040" width="15.453125" style="1" customWidth="1"/>
-    <col min="13041" max="13041" width="11.453125" style="1" customWidth="1"/>
-    <col min="13042" max="13042" width="17.90625" style="1" customWidth="1"/>
-    <col min="13043" max="13043" width="15.36328125" style="1" customWidth="1"/>
-    <col min="13044" max="13044" width="14.6328125" style="1" customWidth="1"/>
-    <col min="13045" max="13045" width="2.90625" style="1" customWidth="1"/>
+    <col min="13038" max="13038" width="11.08203125" style="1" customWidth="1"/>
+    <col min="13039" max="13039" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13040" max="13040" width="15.4140625" style="1" customWidth="1"/>
+    <col min="13041" max="13041" width="11.4140625" style="1" customWidth="1"/>
+    <col min="13042" max="13042" width="17.9140625" style="1" customWidth="1"/>
+    <col min="13043" max="13043" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13044" max="13044" width="14.6640625" style="1" customWidth="1"/>
+    <col min="13045" max="13045" width="2.9140625" style="1" customWidth="1"/>
     <col min="13046" max="13046" width="15" style="1" customWidth="1"/>
-    <col min="13047" max="13289" width="11.36328125" style="1"/>
-    <col min="13290" max="13290" width="17.08984375" style="1" customWidth="1"/>
+    <col min="13047" max="13289" width="11.33203125" style="1"/>
+    <col min="13290" max="13290" width="17.08203125" style="1" customWidth="1"/>
     <col min="13291" max="13291" width="23" style="1" customWidth="1"/>
-    <col min="13292" max="13292" width="9.08984375" style="1" customWidth="1"/>
+    <col min="13292" max="13292" width="9.08203125" style="1" customWidth="1"/>
     <col min="13293" max="13293" width="8" style="1" customWidth="1"/>
-    <col min="13294" max="13294" width="11.08984375" style="1" customWidth="1"/>
-    <col min="13295" max="13295" width="15.36328125" style="1" customWidth="1"/>
-    <col min="13296" max="13296" width="15.453125" style="1" customWidth="1"/>
-    <col min="13297" max="13297" width="11.453125" style="1" customWidth="1"/>
-    <col min="13298" max="13298" width="17.90625" style="1" customWidth="1"/>
-    <col min="13299" max="13299" width="15.36328125" style="1" customWidth="1"/>
-    <col min="13300" max="13300" width="14.6328125" style="1" customWidth="1"/>
-    <col min="13301" max="13301" width="2.90625" style="1" customWidth="1"/>
+    <col min="13294" max="13294" width="11.08203125" style="1" customWidth="1"/>
+    <col min="13295" max="13295" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13296" max="13296" width="15.4140625" style="1" customWidth="1"/>
+    <col min="13297" max="13297" width="11.4140625" style="1" customWidth="1"/>
+    <col min="13298" max="13298" width="17.9140625" style="1" customWidth="1"/>
+    <col min="13299" max="13299" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13300" max="13300" width="14.6640625" style="1" customWidth="1"/>
+    <col min="13301" max="13301" width="2.9140625" style="1" customWidth="1"/>
     <col min="13302" max="13302" width="15" style="1" customWidth="1"/>
-    <col min="13303" max="13545" width="11.36328125" style="1"/>
-    <col min="13546" max="13546" width="17.08984375" style="1" customWidth="1"/>
+    <col min="13303" max="13545" width="11.33203125" style="1"/>
+    <col min="13546" max="13546" width="17.08203125" style="1" customWidth="1"/>
     <col min="13547" max="13547" width="23" style="1" customWidth="1"/>
-    <col min="13548" max="13548" width="9.08984375" style="1" customWidth="1"/>
+    <col min="13548" max="13548" width="9.08203125" style="1" customWidth="1"/>
     <col min="13549" max="13549" width="8" style="1" customWidth="1"/>
-    <col min="13550" max="13550" width="11.08984375" style="1" customWidth="1"/>
-    <col min="13551" max="13551" width="15.36328125" style="1" customWidth="1"/>
-    <col min="13552" max="13552" width="15.453125" style="1" customWidth="1"/>
-    <col min="13553" max="13553" width="11.453125" style="1" customWidth="1"/>
-    <col min="13554" max="13554" width="17.90625" style="1" customWidth="1"/>
-    <col min="13555" max="13555" width="15.36328125" style="1" customWidth="1"/>
-    <col min="13556" max="13556" width="14.6328125" style="1" customWidth="1"/>
-    <col min="13557" max="13557" width="2.90625" style="1" customWidth="1"/>
+    <col min="13550" max="13550" width="11.08203125" style="1" customWidth="1"/>
+    <col min="13551" max="13551" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13552" max="13552" width="15.4140625" style="1" customWidth="1"/>
+    <col min="13553" max="13553" width="11.4140625" style="1" customWidth="1"/>
+    <col min="13554" max="13554" width="17.9140625" style="1" customWidth="1"/>
+    <col min="13555" max="13555" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13556" max="13556" width="14.6640625" style="1" customWidth="1"/>
+    <col min="13557" max="13557" width="2.9140625" style="1" customWidth="1"/>
     <col min="13558" max="13558" width="15" style="1" customWidth="1"/>
-    <col min="13559" max="13801" width="11.36328125" style="1"/>
-    <col min="13802" max="13802" width="17.08984375" style="1" customWidth="1"/>
+    <col min="13559" max="13801" width="11.33203125" style="1"/>
+    <col min="13802" max="13802" width="17.08203125" style="1" customWidth="1"/>
     <col min="13803" max="13803" width="23" style="1" customWidth="1"/>
-    <col min="13804" max="13804" width="9.08984375" style="1" customWidth="1"/>
+    <col min="13804" max="13804" width="9.08203125" style="1" customWidth="1"/>
     <col min="13805" max="13805" width="8" style="1" customWidth="1"/>
-    <col min="13806" max="13806" width="11.08984375" style="1" customWidth="1"/>
-    <col min="13807" max="13807" width="15.36328125" style="1" customWidth="1"/>
-    <col min="13808" max="13808" width="15.453125" style="1" customWidth="1"/>
-    <col min="13809" max="13809" width="11.453125" style="1" customWidth="1"/>
-    <col min="13810" max="13810" width="17.90625" style="1" customWidth="1"/>
-    <col min="13811" max="13811" width="15.36328125" style="1" customWidth="1"/>
-    <col min="13812" max="13812" width="14.6328125" style="1" customWidth="1"/>
-    <col min="13813" max="13813" width="2.90625" style="1" customWidth="1"/>
+    <col min="13806" max="13806" width="11.08203125" style="1" customWidth="1"/>
+    <col min="13807" max="13807" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13808" max="13808" width="15.4140625" style="1" customWidth="1"/>
+    <col min="13809" max="13809" width="11.4140625" style="1" customWidth="1"/>
+    <col min="13810" max="13810" width="17.9140625" style="1" customWidth="1"/>
+    <col min="13811" max="13811" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13812" max="13812" width="14.6640625" style="1" customWidth="1"/>
+    <col min="13813" max="13813" width="2.9140625" style="1" customWidth="1"/>
     <col min="13814" max="13814" width="15" style="1" customWidth="1"/>
-    <col min="13815" max="14057" width="11.36328125" style="1"/>
-    <col min="14058" max="14058" width="17.08984375" style="1" customWidth="1"/>
+    <col min="13815" max="14057" width="11.33203125" style="1"/>
+    <col min="14058" max="14058" width="17.08203125" style="1" customWidth="1"/>
     <col min="14059" max="14059" width="23" style="1" customWidth="1"/>
-    <col min="14060" max="14060" width="9.08984375" style="1" customWidth="1"/>
+    <col min="14060" max="14060" width="9.08203125" style="1" customWidth="1"/>
     <col min="14061" max="14061" width="8" style="1" customWidth="1"/>
-    <col min="14062" max="14062" width="11.08984375" style="1" customWidth="1"/>
-    <col min="14063" max="14063" width="15.36328125" style="1" customWidth="1"/>
-    <col min="14064" max="14064" width="15.453125" style="1" customWidth="1"/>
-    <col min="14065" max="14065" width="11.453125" style="1" customWidth="1"/>
-    <col min="14066" max="14066" width="17.90625" style="1" customWidth="1"/>
-    <col min="14067" max="14067" width="15.36328125" style="1" customWidth="1"/>
-    <col min="14068" max="14068" width="14.6328125" style="1" customWidth="1"/>
-    <col min="14069" max="14069" width="2.90625" style="1" customWidth="1"/>
+    <col min="14062" max="14062" width="11.08203125" style="1" customWidth="1"/>
+    <col min="14063" max="14063" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14064" max="14064" width="15.4140625" style="1" customWidth="1"/>
+    <col min="14065" max="14065" width="11.4140625" style="1" customWidth="1"/>
+    <col min="14066" max="14066" width="17.9140625" style="1" customWidth="1"/>
+    <col min="14067" max="14067" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14068" max="14068" width="14.6640625" style="1" customWidth="1"/>
+    <col min="14069" max="14069" width="2.9140625" style="1" customWidth="1"/>
     <col min="14070" max="14070" width="15" style="1" customWidth="1"/>
-    <col min="14071" max="14313" width="11.36328125" style="1"/>
-    <col min="14314" max="14314" width="17.08984375" style="1" customWidth="1"/>
+    <col min="14071" max="14313" width="11.33203125" style="1"/>
+    <col min="14314" max="14314" width="17.08203125" style="1" customWidth="1"/>
     <col min="14315" max="14315" width="23" style="1" customWidth="1"/>
-    <col min="14316" max="14316" width="9.08984375" style="1" customWidth="1"/>
+    <col min="14316" max="14316" width="9.08203125" style="1" customWidth="1"/>
     <col min="14317" max="14317" width="8" style="1" customWidth="1"/>
-    <col min="14318" max="14318" width="11.08984375" style="1" customWidth="1"/>
-    <col min="14319" max="14319" width="15.36328125" style="1" customWidth="1"/>
-    <col min="14320" max="14320" width="15.453125" style="1" customWidth="1"/>
-    <col min="14321" max="14321" width="11.453125" style="1" customWidth="1"/>
-    <col min="14322" max="14322" width="17.90625" style="1" customWidth="1"/>
-    <col min="14323" max="14323" width="15.36328125" style="1" customWidth="1"/>
-    <col min="14324" max="14324" width="14.6328125" style="1" customWidth="1"/>
-    <col min="14325" max="14325" width="2.90625" style="1" customWidth="1"/>
+    <col min="14318" max="14318" width="11.08203125" style="1" customWidth="1"/>
+    <col min="14319" max="14319" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14320" max="14320" width="15.4140625" style="1" customWidth="1"/>
+    <col min="14321" max="14321" width="11.4140625" style="1" customWidth="1"/>
+    <col min="14322" max="14322" width="17.9140625" style="1" customWidth="1"/>
+    <col min="14323" max="14323" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14324" max="14324" width="14.6640625" style="1" customWidth="1"/>
+    <col min="14325" max="14325" width="2.9140625" style="1" customWidth="1"/>
     <col min="14326" max="14326" width="15" style="1" customWidth="1"/>
-    <col min="14327" max="14569" width="11.36328125" style="1"/>
-    <col min="14570" max="14570" width="17.08984375" style="1" customWidth="1"/>
+    <col min="14327" max="14569" width="11.33203125" style="1"/>
+    <col min="14570" max="14570" width="17.08203125" style="1" customWidth="1"/>
     <col min="14571" max="14571" width="23" style="1" customWidth="1"/>
-    <col min="14572" max="14572" width="9.08984375" style="1" customWidth="1"/>
+    <col min="14572" max="14572" width="9.08203125" style="1" customWidth="1"/>
     <col min="14573" max="14573" width="8" style="1" customWidth="1"/>
-    <col min="14574" max="14574" width="11.08984375" style="1" customWidth="1"/>
-    <col min="14575" max="14575" width="15.36328125" style="1" customWidth="1"/>
-    <col min="14576" max="14576" width="15.453125" style="1" customWidth="1"/>
-    <col min="14577" max="14577" width="11.453125" style="1" customWidth="1"/>
-    <col min="14578" max="14578" width="17.90625" style="1" customWidth="1"/>
-    <col min="14579" max="14579" width="15.36328125" style="1" customWidth="1"/>
-    <col min="14580" max="14580" width="14.6328125" style="1" customWidth="1"/>
-    <col min="14581" max="14581" width="2.90625" style="1" customWidth="1"/>
+    <col min="14574" max="14574" width="11.08203125" style="1" customWidth="1"/>
+    <col min="14575" max="14575" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14576" max="14576" width="15.4140625" style="1" customWidth="1"/>
+    <col min="14577" max="14577" width="11.4140625" style="1" customWidth="1"/>
+    <col min="14578" max="14578" width="17.9140625" style="1" customWidth="1"/>
+    <col min="14579" max="14579" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14580" max="14580" width="14.6640625" style="1" customWidth="1"/>
+    <col min="14581" max="14581" width="2.9140625" style="1" customWidth="1"/>
     <col min="14582" max="14582" width="15" style="1" customWidth="1"/>
-    <col min="14583" max="14825" width="11.36328125" style="1"/>
-    <col min="14826" max="14826" width="17.08984375" style="1" customWidth="1"/>
+    <col min="14583" max="14825" width="11.33203125" style="1"/>
+    <col min="14826" max="14826" width="17.08203125" style="1" customWidth="1"/>
     <col min="14827" max="14827" width="23" style="1" customWidth="1"/>
-    <col min="14828" max="14828" width="9.08984375" style="1" customWidth="1"/>
+    <col min="14828" max="14828" width="9.08203125" style="1" customWidth="1"/>
     <col min="14829" max="14829" width="8" style="1" customWidth="1"/>
-    <col min="14830" max="14830" width="11.08984375" style="1" customWidth="1"/>
-    <col min="14831" max="14831" width="15.36328125" style="1" customWidth="1"/>
-    <col min="14832" max="14832" width="15.453125" style="1" customWidth="1"/>
-    <col min="14833" max="14833" width="11.453125" style="1" customWidth="1"/>
-    <col min="14834" max="14834" width="17.90625" style="1" customWidth="1"/>
-    <col min="14835" max="14835" width="15.36328125" style="1" customWidth="1"/>
-    <col min="14836" max="14836" width="14.6328125" style="1" customWidth="1"/>
-    <col min="14837" max="14837" width="2.90625" style="1" customWidth="1"/>
+    <col min="14830" max="14830" width="11.08203125" style="1" customWidth="1"/>
+    <col min="14831" max="14831" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14832" max="14832" width="15.4140625" style="1" customWidth="1"/>
+    <col min="14833" max="14833" width="11.4140625" style="1" customWidth="1"/>
+    <col min="14834" max="14834" width="17.9140625" style="1" customWidth="1"/>
+    <col min="14835" max="14835" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14836" max="14836" width="14.6640625" style="1" customWidth="1"/>
+    <col min="14837" max="14837" width="2.9140625" style="1" customWidth="1"/>
     <col min="14838" max="14838" width="15" style="1" customWidth="1"/>
-    <col min="14839" max="15081" width="11.36328125" style="1"/>
-    <col min="15082" max="15082" width="17.08984375" style="1" customWidth="1"/>
+    <col min="14839" max="15081" width="11.33203125" style="1"/>
+    <col min="15082" max="15082" width="17.08203125" style="1" customWidth="1"/>
     <col min="15083" max="15083" width="23" style="1" customWidth="1"/>
-    <col min="15084" max="15084" width="9.08984375" style="1" customWidth="1"/>
+    <col min="15084" max="15084" width="9.08203125" style="1" customWidth="1"/>
     <col min="15085" max="15085" width="8" style="1" customWidth="1"/>
-    <col min="15086" max="15086" width="11.08984375" style="1" customWidth="1"/>
-    <col min="15087" max="15087" width="15.36328125" style="1" customWidth="1"/>
-    <col min="15088" max="15088" width="15.453125" style="1" customWidth="1"/>
-    <col min="15089" max="15089" width="11.453125" style="1" customWidth="1"/>
-    <col min="15090" max="15090" width="17.90625" style="1" customWidth="1"/>
-    <col min="15091" max="15091" width="15.36328125" style="1" customWidth="1"/>
-    <col min="15092" max="15092" width="14.6328125" style="1" customWidth="1"/>
-    <col min="15093" max="15093" width="2.90625" style="1" customWidth="1"/>
+    <col min="15086" max="15086" width="11.08203125" style="1" customWidth="1"/>
+    <col min="15087" max="15087" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15088" max="15088" width="15.4140625" style="1" customWidth="1"/>
+    <col min="15089" max="15089" width="11.4140625" style="1" customWidth="1"/>
+    <col min="15090" max="15090" width="17.9140625" style="1" customWidth="1"/>
+    <col min="15091" max="15091" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15092" max="15092" width="14.6640625" style="1" customWidth="1"/>
+    <col min="15093" max="15093" width="2.9140625" style="1" customWidth="1"/>
     <col min="15094" max="15094" width="15" style="1" customWidth="1"/>
-    <col min="15095" max="15337" width="11.36328125" style="1"/>
-    <col min="15338" max="15338" width="17.08984375" style="1" customWidth="1"/>
+    <col min="15095" max="15337" width="11.33203125" style="1"/>
+    <col min="15338" max="15338" width="17.08203125" style="1" customWidth="1"/>
     <col min="15339" max="15339" width="23" style="1" customWidth="1"/>
-    <col min="15340" max="15340" width="9.08984375" style="1" customWidth="1"/>
+    <col min="15340" max="15340" width="9.08203125" style="1" customWidth="1"/>
     <col min="15341" max="15341" width="8" style="1" customWidth="1"/>
-    <col min="15342" max="15342" width="11.08984375" style="1" customWidth="1"/>
-    <col min="15343" max="15343" width="15.36328125" style="1" customWidth="1"/>
-    <col min="15344" max="15344" width="15.453125" style="1" customWidth="1"/>
-    <col min="15345" max="15345" width="11.453125" style="1" customWidth="1"/>
-    <col min="15346" max="15346" width="17.90625" style="1" customWidth="1"/>
-    <col min="15347" max="15347" width="15.36328125" style="1" customWidth="1"/>
-    <col min="15348" max="15348" width="14.6328125" style="1" customWidth="1"/>
-    <col min="15349" max="15349" width="2.90625" style="1" customWidth="1"/>
+    <col min="15342" max="15342" width="11.08203125" style="1" customWidth="1"/>
+    <col min="15343" max="15343" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15344" max="15344" width="15.4140625" style="1" customWidth="1"/>
+    <col min="15345" max="15345" width="11.4140625" style="1" customWidth="1"/>
+    <col min="15346" max="15346" width="17.9140625" style="1" customWidth="1"/>
+    <col min="15347" max="15347" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15348" max="15348" width="14.6640625" style="1" customWidth="1"/>
+    <col min="15349" max="15349" width="2.9140625" style="1" customWidth="1"/>
     <col min="15350" max="15350" width="15" style="1" customWidth="1"/>
-    <col min="15351" max="15593" width="11.36328125" style="1"/>
-    <col min="15594" max="15594" width="17.08984375" style="1" customWidth="1"/>
+    <col min="15351" max="15593" width="11.33203125" style="1"/>
+    <col min="15594" max="15594" width="17.08203125" style="1" customWidth="1"/>
     <col min="15595" max="15595" width="23" style="1" customWidth="1"/>
-    <col min="15596" max="15596" width="9.08984375" style="1" customWidth="1"/>
+    <col min="15596" max="15596" width="9.08203125" style="1" customWidth="1"/>
     <col min="15597" max="15597" width="8" style="1" customWidth="1"/>
-    <col min="15598" max="15598" width="11.08984375" style="1" customWidth="1"/>
-    <col min="15599" max="15599" width="15.36328125" style="1" customWidth="1"/>
-    <col min="15600" max="15600" width="15.453125" style="1" customWidth="1"/>
-    <col min="15601" max="15601" width="11.453125" style="1" customWidth="1"/>
-    <col min="15602" max="15602" width="17.90625" style="1" customWidth="1"/>
-    <col min="15603" max="15603" width="15.36328125" style="1" customWidth="1"/>
-    <col min="15604" max="15604" width="14.6328125" style="1" customWidth="1"/>
-    <col min="15605" max="15605" width="2.90625" style="1" customWidth="1"/>
+    <col min="15598" max="15598" width="11.08203125" style="1" customWidth="1"/>
+    <col min="15599" max="15599" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15600" max="15600" width="15.4140625" style="1" customWidth="1"/>
+    <col min="15601" max="15601" width="11.4140625" style="1" customWidth="1"/>
+    <col min="15602" max="15602" width="17.9140625" style="1" customWidth="1"/>
+    <col min="15603" max="15603" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15604" max="15604" width="14.6640625" style="1" customWidth="1"/>
+    <col min="15605" max="15605" width="2.9140625" style="1" customWidth="1"/>
     <col min="15606" max="15606" width="15" style="1" customWidth="1"/>
-    <col min="15607" max="15849" width="11.36328125" style="1"/>
-    <col min="15850" max="15850" width="17.08984375" style="1" customWidth="1"/>
+    <col min="15607" max="15849" width="11.33203125" style="1"/>
+    <col min="15850" max="15850" width="17.08203125" style="1" customWidth="1"/>
     <col min="15851" max="15851" width="23" style="1" customWidth="1"/>
-    <col min="15852" max="15852" width="9.08984375" style="1" customWidth="1"/>
+    <col min="15852" max="15852" width="9.08203125" style="1" customWidth="1"/>
     <col min="15853" max="15853" width="8" style="1" customWidth="1"/>
-    <col min="15854" max="15854" width="11.08984375" style="1" customWidth="1"/>
-    <col min="15855" max="15855" width="15.36328125" style="1" customWidth="1"/>
-    <col min="15856" max="15856" width="15.453125" style="1" customWidth="1"/>
-    <col min="15857" max="15857" width="11.453125" style="1" customWidth="1"/>
-    <col min="15858" max="15858" width="17.90625" style="1" customWidth="1"/>
-    <col min="15859" max="15859" width="15.36328125" style="1" customWidth="1"/>
-    <col min="15860" max="15860" width="14.6328125" style="1" customWidth="1"/>
-    <col min="15861" max="15861" width="2.90625" style="1" customWidth="1"/>
+    <col min="15854" max="15854" width="11.08203125" style="1" customWidth="1"/>
+    <col min="15855" max="15855" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15856" max="15856" width="15.4140625" style="1" customWidth="1"/>
+    <col min="15857" max="15857" width="11.4140625" style="1" customWidth="1"/>
+    <col min="15858" max="15858" width="17.9140625" style="1" customWidth="1"/>
+    <col min="15859" max="15859" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15860" max="15860" width="14.6640625" style="1" customWidth="1"/>
+    <col min="15861" max="15861" width="2.9140625" style="1" customWidth="1"/>
     <col min="15862" max="15862" width="15" style="1" customWidth="1"/>
-    <col min="15863" max="16105" width="11.36328125" style="1"/>
-    <col min="16106" max="16106" width="17.08984375" style="1" customWidth="1"/>
+    <col min="15863" max="16105" width="11.33203125" style="1"/>
+    <col min="16106" max="16106" width="17.08203125" style="1" customWidth="1"/>
     <col min="16107" max="16107" width="23" style="1" customWidth="1"/>
-    <col min="16108" max="16108" width="9.08984375" style="1" customWidth="1"/>
+    <col min="16108" max="16108" width="9.08203125" style="1" customWidth="1"/>
     <col min="16109" max="16109" width="8" style="1" customWidth="1"/>
-    <col min="16110" max="16110" width="11.08984375" style="1" customWidth="1"/>
-    <col min="16111" max="16111" width="15.36328125" style="1" customWidth="1"/>
-    <col min="16112" max="16112" width="15.453125" style="1" customWidth="1"/>
-    <col min="16113" max="16113" width="11.453125" style="1" customWidth="1"/>
-    <col min="16114" max="16114" width="17.90625" style="1" customWidth="1"/>
-    <col min="16115" max="16115" width="15.36328125" style="1" customWidth="1"/>
-    <col min="16116" max="16116" width="14.6328125" style="1" customWidth="1"/>
-    <col min="16117" max="16117" width="2.90625" style="1" customWidth="1"/>
+    <col min="16110" max="16110" width="11.08203125" style="1" customWidth="1"/>
+    <col min="16111" max="16111" width="15.33203125" style="1" customWidth="1"/>
+    <col min="16112" max="16112" width="15.4140625" style="1" customWidth="1"/>
+    <col min="16113" max="16113" width="11.4140625" style="1" customWidth="1"/>
+    <col min="16114" max="16114" width="17.9140625" style="1" customWidth="1"/>
+    <col min="16115" max="16115" width="15.33203125" style="1" customWidth="1"/>
+    <col min="16116" max="16116" width="14.6640625" style="1" customWidth="1"/>
+    <col min="16117" max="16117" width="2.9140625" style="1" customWidth="1"/>
     <col min="16118" max="16118" width="15" style="1" customWidth="1"/>
-    <col min="16119" max="16384" width="11.36328125" style="1"/>
+    <col min="16119" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.5" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
     </row>
@@ -34215,7 +34219,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="11.5">
+    <row r="3" spans="1:4" s="2" customFormat="1" ht="11.25">
       <c r="A3" s="6">
         <v>44927</v>
       </c>
@@ -34226,7 +34230,7 @@
         <v>5.62E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="11.5">
+    <row r="4" spans="1:4" s="2" customFormat="1" ht="11.25">
       <c r="A4" s="6">
         <v>45108</v>
       </c>
@@ -34237,7 +34241,7 @@
         <v>5.8299999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" ht="11.5">
+    <row r="5" spans="1:4" s="2" customFormat="1" ht="11.25">
       <c r="A5" s="6">
         <v>45292</v>
       </c>
@@ -34248,7 +34252,7 @@
         <v>8.8200000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" ht="11.5">
+    <row r="6" spans="1:4" s="2" customFormat="1" ht="11.25">
       <c r="A6" s="6">
         <v>45474</v>
       </c>
@@ -34259,7 +34263,7 @@
         <v>5.7700000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" ht="11.5">
+    <row r="7" spans="1:4" s="2" customFormat="1" ht="11.25">
       <c r="A7" s="6">
         <v>45658</v>
       </c>
@@ -34270,25 +34274,20 @@
         <v>3.5700000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.25" customHeight="1">
-      <c r="B9" s="8"/>
-      <c r="D9" s="9"/>
+    <row r="8" spans="1:4" s="2" customFormat="1" ht="11.25">
+      <c r="A8" s="27">
+        <v>45839</v>
+      </c>
+      <c r="B8" s="27">
+        <v>46022</v>
+      </c>
+      <c r="C8" s="28">
+        <v>2.7799999999999998E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" ht="15.25" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.25" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" s="10"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.25" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="D12" s="9"/>
+    <row r="9" spans="1:4" ht="15.2" customHeight="1">
+      <c r="B9" s="7"/>
+      <c r="D9" s="8"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -34305,1199 +34304,1199 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.36328125" defaultRowHeight="15.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="4" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" style="4" customWidth="1"/>
-    <col min="4" max="5" width="11.36328125" style="1"/>
-    <col min="7" max="207" width="11.36328125" style="1"/>
-    <col min="208" max="208" width="17.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="4" customWidth="1"/>
+    <col min="4" max="5" width="11.33203125" style="1"/>
+    <col min="7" max="207" width="11.33203125" style="1"/>
+    <col min="208" max="208" width="17.08203125" style="1" customWidth="1"/>
     <col min="209" max="209" width="23" style="1" customWidth="1"/>
-    <col min="210" max="210" width="9.08984375" style="1" customWidth="1"/>
+    <col min="210" max="210" width="9.08203125" style="1" customWidth="1"/>
     <col min="211" max="211" width="8" style="1" customWidth="1"/>
-    <col min="212" max="212" width="11.08984375" style="1" customWidth="1"/>
-    <col min="213" max="213" width="15.36328125" style="1" customWidth="1"/>
-    <col min="214" max="214" width="15.453125" style="1" customWidth="1"/>
-    <col min="215" max="215" width="11.453125" style="1" customWidth="1"/>
-    <col min="216" max="216" width="17.90625" style="1" customWidth="1"/>
-    <col min="217" max="217" width="15.36328125" style="1" customWidth="1"/>
-    <col min="218" max="218" width="14.6328125" style="1" customWidth="1"/>
-    <col min="219" max="219" width="2.90625" style="1" customWidth="1"/>
+    <col min="212" max="212" width="11.08203125" style="1" customWidth="1"/>
+    <col min="213" max="213" width="15.33203125" style="1" customWidth="1"/>
+    <col min="214" max="214" width="15.4140625" style="1" customWidth="1"/>
+    <col min="215" max="215" width="11.4140625" style="1" customWidth="1"/>
+    <col min="216" max="216" width="17.9140625" style="1" customWidth="1"/>
+    <col min="217" max="217" width="15.33203125" style="1" customWidth="1"/>
+    <col min="218" max="218" width="14.6640625" style="1" customWidth="1"/>
+    <col min="219" max="219" width="2.9140625" style="1" customWidth="1"/>
     <col min="220" max="220" width="15" style="1" customWidth="1"/>
-    <col min="221" max="463" width="11.36328125" style="1"/>
-    <col min="464" max="464" width="17.08984375" style="1" customWidth="1"/>
+    <col min="221" max="463" width="11.33203125" style="1"/>
+    <col min="464" max="464" width="17.08203125" style="1" customWidth="1"/>
     <col min="465" max="465" width="23" style="1" customWidth="1"/>
-    <col min="466" max="466" width="9.08984375" style="1" customWidth="1"/>
+    <col min="466" max="466" width="9.08203125" style="1" customWidth="1"/>
     <col min="467" max="467" width="8" style="1" customWidth="1"/>
-    <col min="468" max="468" width="11.08984375" style="1" customWidth="1"/>
-    <col min="469" max="469" width="15.36328125" style="1" customWidth="1"/>
-    <col min="470" max="470" width="15.453125" style="1" customWidth="1"/>
-    <col min="471" max="471" width="11.453125" style="1" customWidth="1"/>
-    <col min="472" max="472" width="17.90625" style="1" customWidth="1"/>
-    <col min="473" max="473" width="15.36328125" style="1" customWidth="1"/>
-    <col min="474" max="474" width="14.6328125" style="1" customWidth="1"/>
-    <col min="475" max="475" width="2.90625" style="1" customWidth="1"/>
+    <col min="468" max="468" width="11.08203125" style="1" customWidth="1"/>
+    <col min="469" max="469" width="15.33203125" style="1" customWidth="1"/>
+    <col min="470" max="470" width="15.4140625" style="1" customWidth="1"/>
+    <col min="471" max="471" width="11.4140625" style="1" customWidth="1"/>
+    <col min="472" max="472" width="17.9140625" style="1" customWidth="1"/>
+    <col min="473" max="473" width="15.33203125" style="1" customWidth="1"/>
+    <col min="474" max="474" width="14.6640625" style="1" customWidth="1"/>
+    <col min="475" max="475" width="2.9140625" style="1" customWidth="1"/>
     <col min="476" max="476" width="15" style="1" customWidth="1"/>
-    <col min="477" max="719" width="11.36328125" style="1"/>
-    <col min="720" max="720" width="17.08984375" style="1" customWidth="1"/>
+    <col min="477" max="719" width="11.33203125" style="1"/>
+    <col min="720" max="720" width="17.08203125" style="1" customWidth="1"/>
     <col min="721" max="721" width="23" style="1" customWidth="1"/>
-    <col min="722" max="722" width="9.08984375" style="1" customWidth="1"/>
+    <col min="722" max="722" width="9.08203125" style="1" customWidth="1"/>
     <col min="723" max="723" width="8" style="1" customWidth="1"/>
-    <col min="724" max="724" width="11.08984375" style="1" customWidth="1"/>
-    <col min="725" max="725" width="15.36328125" style="1" customWidth="1"/>
-    <col min="726" max="726" width="15.453125" style="1" customWidth="1"/>
-    <col min="727" max="727" width="11.453125" style="1" customWidth="1"/>
-    <col min="728" max="728" width="17.90625" style="1" customWidth="1"/>
-    <col min="729" max="729" width="15.36328125" style="1" customWidth="1"/>
-    <col min="730" max="730" width="14.6328125" style="1" customWidth="1"/>
-    <col min="731" max="731" width="2.90625" style="1" customWidth="1"/>
+    <col min="724" max="724" width="11.08203125" style="1" customWidth="1"/>
+    <col min="725" max="725" width="15.33203125" style="1" customWidth="1"/>
+    <col min="726" max="726" width="15.4140625" style="1" customWidth="1"/>
+    <col min="727" max="727" width="11.4140625" style="1" customWidth="1"/>
+    <col min="728" max="728" width="17.9140625" style="1" customWidth="1"/>
+    <col min="729" max="729" width="15.33203125" style="1" customWidth="1"/>
+    <col min="730" max="730" width="14.6640625" style="1" customWidth="1"/>
+    <col min="731" max="731" width="2.9140625" style="1" customWidth="1"/>
     <col min="732" max="732" width="15" style="1" customWidth="1"/>
-    <col min="733" max="975" width="11.36328125" style="1"/>
-    <col min="976" max="976" width="17.08984375" style="1" customWidth="1"/>
+    <col min="733" max="975" width="11.33203125" style="1"/>
+    <col min="976" max="976" width="17.08203125" style="1" customWidth="1"/>
     <col min="977" max="977" width="23" style="1" customWidth="1"/>
-    <col min="978" max="978" width="9.08984375" style="1" customWidth="1"/>
+    <col min="978" max="978" width="9.08203125" style="1" customWidth="1"/>
     <col min="979" max="979" width="8" style="1" customWidth="1"/>
-    <col min="980" max="980" width="11.08984375" style="1" customWidth="1"/>
-    <col min="981" max="981" width="15.36328125" style="1" customWidth="1"/>
-    <col min="982" max="982" width="15.453125" style="1" customWidth="1"/>
-    <col min="983" max="983" width="11.453125" style="1" customWidth="1"/>
-    <col min="984" max="984" width="17.90625" style="1" customWidth="1"/>
-    <col min="985" max="985" width="15.36328125" style="1" customWidth="1"/>
-    <col min="986" max="986" width="14.6328125" style="1" customWidth="1"/>
-    <col min="987" max="987" width="2.90625" style="1" customWidth="1"/>
+    <col min="980" max="980" width="11.08203125" style="1" customWidth="1"/>
+    <col min="981" max="981" width="15.33203125" style="1" customWidth="1"/>
+    <col min="982" max="982" width="15.4140625" style="1" customWidth="1"/>
+    <col min="983" max="983" width="11.4140625" style="1" customWidth="1"/>
+    <col min="984" max="984" width="17.9140625" style="1" customWidth="1"/>
+    <col min="985" max="985" width="15.33203125" style="1" customWidth="1"/>
+    <col min="986" max="986" width="14.6640625" style="1" customWidth="1"/>
+    <col min="987" max="987" width="2.9140625" style="1" customWidth="1"/>
     <col min="988" max="988" width="15" style="1" customWidth="1"/>
-    <col min="989" max="1231" width="11.36328125" style="1"/>
-    <col min="1232" max="1232" width="17.08984375" style="1" customWidth="1"/>
+    <col min="989" max="1231" width="11.33203125" style="1"/>
+    <col min="1232" max="1232" width="17.08203125" style="1" customWidth="1"/>
     <col min="1233" max="1233" width="23" style="1" customWidth="1"/>
-    <col min="1234" max="1234" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1234" max="1234" width="9.08203125" style="1" customWidth="1"/>
     <col min="1235" max="1235" width="8" style="1" customWidth="1"/>
-    <col min="1236" max="1236" width="11.08984375" style="1" customWidth="1"/>
-    <col min="1237" max="1237" width="15.36328125" style="1" customWidth="1"/>
-    <col min="1238" max="1238" width="15.453125" style="1" customWidth="1"/>
-    <col min="1239" max="1239" width="11.453125" style="1" customWidth="1"/>
-    <col min="1240" max="1240" width="17.90625" style="1" customWidth="1"/>
-    <col min="1241" max="1241" width="15.36328125" style="1" customWidth="1"/>
-    <col min="1242" max="1242" width="14.6328125" style="1" customWidth="1"/>
-    <col min="1243" max="1243" width="2.90625" style="1" customWidth="1"/>
+    <col min="1236" max="1236" width="11.08203125" style="1" customWidth="1"/>
+    <col min="1237" max="1237" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1238" max="1238" width="15.4140625" style="1" customWidth="1"/>
+    <col min="1239" max="1239" width="11.4140625" style="1" customWidth="1"/>
+    <col min="1240" max="1240" width="17.9140625" style="1" customWidth="1"/>
+    <col min="1241" max="1241" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1242" max="1242" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1243" max="1243" width="2.9140625" style="1" customWidth="1"/>
     <col min="1244" max="1244" width="15" style="1" customWidth="1"/>
-    <col min="1245" max="1487" width="11.36328125" style="1"/>
-    <col min="1488" max="1488" width="17.08984375" style="1" customWidth="1"/>
+    <col min="1245" max="1487" width="11.33203125" style="1"/>
+    <col min="1488" max="1488" width="17.08203125" style="1" customWidth="1"/>
     <col min="1489" max="1489" width="23" style="1" customWidth="1"/>
-    <col min="1490" max="1490" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1490" max="1490" width="9.08203125" style="1" customWidth="1"/>
     <col min="1491" max="1491" width="8" style="1" customWidth="1"/>
-    <col min="1492" max="1492" width="11.08984375" style="1" customWidth="1"/>
-    <col min="1493" max="1493" width="15.36328125" style="1" customWidth="1"/>
-    <col min="1494" max="1494" width="15.453125" style="1" customWidth="1"/>
-    <col min="1495" max="1495" width="11.453125" style="1" customWidth="1"/>
-    <col min="1496" max="1496" width="17.90625" style="1" customWidth="1"/>
-    <col min="1497" max="1497" width="15.36328125" style="1" customWidth="1"/>
-    <col min="1498" max="1498" width="14.6328125" style="1" customWidth="1"/>
-    <col min="1499" max="1499" width="2.90625" style="1" customWidth="1"/>
+    <col min="1492" max="1492" width="11.08203125" style="1" customWidth="1"/>
+    <col min="1493" max="1493" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1494" max="1494" width="15.4140625" style="1" customWidth="1"/>
+    <col min="1495" max="1495" width="11.4140625" style="1" customWidth="1"/>
+    <col min="1496" max="1496" width="17.9140625" style="1" customWidth="1"/>
+    <col min="1497" max="1497" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1498" max="1498" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1499" max="1499" width="2.9140625" style="1" customWidth="1"/>
     <col min="1500" max="1500" width="15" style="1" customWidth="1"/>
-    <col min="1501" max="1743" width="11.36328125" style="1"/>
-    <col min="1744" max="1744" width="17.08984375" style="1" customWidth="1"/>
+    <col min="1501" max="1743" width="11.33203125" style="1"/>
+    <col min="1744" max="1744" width="17.08203125" style="1" customWidth="1"/>
     <col min="1745" max="1745" width="23" style="1" customWidth="1"/>
-    <col min="1746" max="1746" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1746" max="1746" width="9.08203125" style="1" customWidth="1"/>
     <col min="1747" max="1747" width="8" style="1" customWidth="1"/>
-    <col min="1748" max="1748" width="11.08984375" style="1" customWidth="1"/>
-    <col min="1749" max="1749" width="15.36328125" style="1" customWidth="1"/>
-    <col min="1750" max="1750" width="15.453125" style="1" customWidth="1"/>
-    <col min="1751" max="1751" width="11.453125" style="1" customWidth="1"/>
-    <col min="1752" max="1752" width="17.90625" style="1" customWidth="1"/>
-    <col min="1753" max="1753" width="15.36328125" style="1" customWidth="1"/>
-    <col min="1754" max="1754" width="14.6328125" style="1" customWidth="1"/>
-    <col min="1755" max="1755" width="2.90625" style="1" customWidth="1"/>
+    <col min="1748" max="1748" width="11.08203125" style="1" customWidth="1"/>
+    <col min="1749" max="1749" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1750" max="1750" width="15.4140625" style="1" customWidth="1"/>
+    <col min="1751" max="1751" width="11.4140625" style="1" customWidth="1"/>
+    <col min="1752" max="1752" width="17.9140625" style="1" customWidth="1"/>
+    <col min="1753" max="1753" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1754" max="1754" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1755" max="1755" width="2.9140625" style="1" customWidth="1"/>
     <col min="1756" max="1756" width="15" style="1" customWidth="1"/>
-    <col min="1757" max="1999" width="11.36328125" style="1"/>
-    <col min="2000" max="2000" width="17.08984375" style="1" customWidth="1"/>
+    <col min="1757" max="1999" width="11.33203125" style="1"/>
+    <col min="2000" max="2000" width="17.08203125" style="1" customWidth="1"/>
     <col min="2001" max="2001" width="23" style="1" customWidth="1"/>
-    <col min="2002" max="2002" width="9.08984375" style="1" customWidth="1"/>
+    <col min="2002" max="2002" width="9.08203125" style="1" customWidth="1"/>
     <col min="2003" max="2003" width="8" style="1" customWidth="1"/>
-    <col min="2004" max="2004" width="11.08984375" style="1" customWidth="1"/>
-    <col min="2005" max="2005" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2006" max="2006" width="15.453125" style="1" customWidth="1"/>
-    <col min="2007" max="2007" width="11.453125" style="1" customWidth="1"/>
-    <col min="2008" max="2008" width="17.90625" style="1" customWidth="1"/>
-    <col min="2009" max="2009" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2010" max="2010" width="14.6328125" style="1" customWidth="1"/>
-    <col min="2011" max="2011" width="2.90625" style="1" customWidth="1"/>
+    <col min="2004" max="2004" width="11.08203125" style="1" customWidth="1"/>
+    <col min="2005" max="2005" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2006" max="2006" width="15.4140625" style="1" customWidth="1"/>
+    <col min="2007" max="2007" width="11.4140625" style="1" customWidth="1"/>
+    <col min="2008" max="2008" width="17.9140625" style="1" customWidth="1"/>
+    <col min="2009" max="2009" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2010" max="2010" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2011" max="2011" width="2.9140625" style="1" customWidth="1"/>
     <col min="2012" max="2012" width="15" style="1" customWidth="1"/>
-    <col min="2013" max="2255" width="11.36328125" style="1"/>
-    <col min="2256" max="2256" width="17.08984375" style="1" customWidth="1"/>
+    <col min="2013" max="2255" width="11.33203125" style="1"/>
+    <col min="2256" max="2256" width="17.08203125" style="1" customWidth="1"/>
     <col min="2257" max="2257" width="23" style="1" customWidth="1"/>
-    <col min="2258" max="2258" width="9.08984375" style="1" customWidth="1"/>
+    <col min="2258" max="2258" width="9.08203125" style="1" customWidth="1"/>
     <col min="2259" max="2259" width="8" style="1" customWidth="1"/>
-    <col min="2260" max="2260" width="11.08984375" style="1" customWidth="1"/>
-    <col min="2261" max="2261" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2262" max="2262" width="15.453125" style="1" customWidth="1"/>
-    <col min="2263" max="2263" width="11.453125" style="1" customWidth="1"/>
-    <col min="2264" max="2264" width="17.90625" style="1" customWidth="1"/>
-    <col min="2265" max="2265" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2266" max="2266" width="14.6328125" style="1" customWidth="1"/>
-    <col min="2267" max="2267" width="2.90625" style="1" customWidth="1"/>
+    <col min="2260" max="2260" width="11.08203125" style="1" customWidth="1"/>
+    <col min="2261" max="2261" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2262" max="2262" width="15.4140625" style="1" customWidth="1"/>
+    <col min="2263" max="2263" width="11.4140625" style="1" customWidth="1"/>
+    <col min="2264" max="2264" width="17.9140625" style="1" customWidth="1"/>
+    <col min="2265" max="2265" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2266" max="2266" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2267" max="2267" width="2.9140625" style="1" customWidth="1"/>
     <col min="2268" max="2268" width="15" style="1" customWidth="1"/>
-    <col min="2269" max="2511" width="11.36328125" style="1"/>
-    <col min="2512" max="2512" width="17.08984375" style="1" customWidth="1"/>
+    <col min="2269" max="2511" width="11.33203125" style="1"/>
+    <col min="2512" max="2512" width="17.08203125" style="1" customWidth="1"/>
     <col min="2513" max="2513" width="23" style="1" customWidth="1"/>
-    <col min="2514" max="2514" width="9.08984375" style="1" customWidth="1"/>
+    <col min="2514" max="2514" width="9.08203125" style="1" customWidth="1"/>
     <col min="2515" max="2515" width="8" style="1" customWidth="1"/>
-    <col min="2516" max="2516" width="11.08984375" style="1" customWidth="1"/>
-    <col min="2517" max="2517" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2518" max="2518" width="15.453125" style="1" customWidth="1"/>
-    <col min="2519" max="2519" width="11.453125" style="1" customWidth="1"/>
-    <col min="2520" max="2520" width="17.90625" style="1" customWidth="1"/>
-    <col min="2521" max="2521" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2522" max="2522" width="14.6328125" style="1" customWidth="1"/>
-    <col min="2523" max="2523" width="2.90625" style="1" customWidth="1"/>
+    <col min="2516" max="2516" width="11.08203125" style="1" customWidth="1"/>
+    <col min="2517" max="2517" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2518" max="2518" width="15.4140625" style="1" customWidth="1"/>
+    <col min="2519" max="2519" width="11.4140625" style="1" customWidth="1"/>
+    <col min="2520" max="2520" width="17.9140625" style="1" customWidth="1"/>
+    <col min="2521" max="2521" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2522" max="2522" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2523" max="2523" width="2.9140625" style="1" customWidth="1"/>
     <col min="2524" max="2524" width="15" style="1" customWidth="1"/>
-    <col min="2525" max="2767" width="11.36328125" style="1"/>
-    <col min="2768" max="2768" width="17.08984375" style="1" customWidth="1"/>
+    <col min="2525" max="2767" width="11.33203125" style="1"/>
+    <col min="2768" max="2768" width="17.08203125" style="1" customWidth="1"/>
     <col min="2769" max="2769" width="23" style="1" customWidth="1"/>
-    <col min="2770" max="2770" width="9.08984375" style="1" customWidth="1"/>
+    <col min="2770" max="2770" width="9.08203125" style="1" customWidth="1"/>
     <col min="2771" max="2771" width="8" style="1" customWidth="1"/>
-    <col min="2772" max="2772" width="11.08984375" style="1" customWidth="1"/>
-    <col min="2773" max="2773" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2774" max="2774" width="15.453125" style="1" customWidth="1"/>
-    <col min="2775" max="2775" width="11.453125" style="1" customWidth="1"/>
-    <col min="2776" max="2776" width="17.90625" style="1" customWidth="1"/>
-    <col min="2777" max="2777" width="15.36328125" style="1" customWidth="1"/>
-    <col min="2778" max="2778" width="14.6328125" style="1" customWidth="1"/>
-    <col min="2779" max="2779" width="2.90625" style="1" customWidth="1"/>
+    <col min="2772" max="2772" width="11.08203125" style="1" customWidth="1"/>
+    <col min="2773" max="2773" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2774" max="2774" width="15.4140625" style="1" customWidth="1"/>
+    <col min="2775" max="2775" width="11.4140625" style="1" customWidth="1"/>
+    <col min="2776" max="2776" width="17.9140625" style="1" customWidth="1"/>
+    <col min="2777" max="2777" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2778" max="2778" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2779" max="2779" width="2.9140625" style="1" customWidth="1"/>
     <col min="2780" max="2780" width="15" style="1" customWidth="1"/>
-    <col min="2781" max="3023" width="11.36328125" style="1"/>
-    <col min="3024" max="3024" width="17.08984375" style="1" customWidth="1"/>
+    <col min="2781" max="3023" width="11.33203125" style="1"/>
+    <col min="3024" max="3024" width="17.08203125" style="1" customWidth="1"/>
     <col min="3025" max="3025" width="23" style="1" customWidth="1"/>
-    <col min="3026" max="3026" width="9.08984375" style="1" customWidth="1"/>
+    <col min="3026" max="3026" width="9.08203125" style="1" customWidth="1"/>
     <col min="3027" max="3027" width="8" style="1" customWidth="1"/>
-    <col min="3028" max="3028" width="11.08984375" style="1" customWidth="1"/>
-    <col min="3029" max="3029" width="15.36328125" style="1" customWidth="1"/>
-    <col min="3030" max="3030" width="15.453125" style="1" customWidth="1"/>
-    <col min="3031" max="3031" width="11.453125" style="1" customWidth="1"/>
-    <col min="3032" max="3032" width="17.90625" style="1" customWidth="1"/>
-    <col min="3033" max="3033" width="15.36328125" style="1" customWidth="1"/>
-    <col min="3034" max="3034" width="14.6328125" style="1" customWidth="1"/>
-    <col min="3035" max="3035" width="2.90625" style="1" customWidth="1"/>
+    <col min="3028" max="3028" width="11.08203125" style="1" customWidth="1"/>
+    <col min="3029" max="3029" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3030" max="3030" width="15.4140625" style="1" customWidth="1"/>
+    <col min="3031" max="3031" width="11.4140625" style="1" customWidth="1"/>
+    <col min="3032" max="3032" width="17.9140625" style="1" customWidth="1"/>
+    <col min="3033" max="3033" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3034" max="3034" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3035" max="3035" width="2.9140625" style="1" customWidth="1"/>
     <col min="3036" max="3036" width="15" style="1" customWidth="1"/>
-    <col min="3037" max="3279" width="11.36328125" style="1"/>
-    <col min="3280" max="3280" width="17.08984375" style="1" customWidth="1"/>
+    <col min="3037" max="3279" width="11.33203125" style="1"/>
+    <col min="3280" max="3280" width="17.08203125" style="1" customWidth="1"/>
     <col min="3281" max="3281" width="23" style="1" customWidth="1"/>
-    <col min="3282" max="3282" width="9.08984375" style="1" customWidth="1"/>
+    <col min="3282" max="3282" width="9.08203125" style="1" customWidth="1"/>
     <col min="3283" max="3283" width="8" style="1" customWidth="1"/>
-    <col min="3284" max="3284" width="11.08984375" style="1" customWidth="1"/>
-    <col min="3285" max="3285" width="15.36328125" style="1" customWidth="1"/>
-    <col min="3286" max="3286" width="15.453125" style="1" customWidth="1"/>
-    <col min="3287" max="3287" width="11.453125" style="1" customWidth="1"/>
-    <col min="3288" max="3288" width="17.90625" style="1" customWidth="1"/>
-    <col min="3289" max="3289" width="15.36328125" style="1" customWidth="1"/>
-    <col min="3290" max="3290" width="14.6328125" style="1" customWidth="1"/>
-    <col min="3291" max="3291" width="2.90625" style="1" customWidth="1"/>
+    <col min="3284" max="3284" width="11.08203125" style="1" customWidth="1"/>
+    <col min="3285" max="3285" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3286" max="3286" width="15.4140625" style="1" customWidth="1"/>
+    <col min="3287" max="3287" width="11.4140625" style="1" customWidth="1"/>
+    <col min="3288" max="3288" width="17.9140625" style="1" customWidth="1"/>
+    <col min="3289" max="3289" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3290" max="3290" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3291" max="3291" width="2.9140625" style="1" customWidth="1"/>
     <col min="3292" max="3292" width="15" style="1" customWidth="1"/>
-    <col min="3293" max="3535" width="11.36328125" style="1"/>
-    <col min="3536" max="3536" width="17.08984375" style="1" customWidth="1"/>
+    <col min="3293" max="3535" width="11.33203125" style="1"/>
+    <col min="3536" max="3536" width="17.08203125" style="1" customWidth="1"/>
     <col min="3537" max="3537" width="23" style="1" customWidth="1"/>
-    <col min="3538" max="3538" width="9.08984375" style="1" customWidth="1"/>
+    <col min="3538" max="3538" width="9.08203125" style="1" customWidth="1"/>
     <col min="3539" max="3539" width="8" style="1" customWidth="1"/>
-    <col min="3540" max="3540" width="11.08984375" style="1" customWidth="1"/>
-    <col min="3541" max="3541" width="15.36328125" style="1" customWidth="1"/>
-    <col min="3542" max="3542" width="15.453125" style="1" customWidth="1"/>
-    <col min="3543" max="3543" width="11.453125" style="1" customWidth="1"/>
-    <col min="3544" max="3544" width="17.90625" style="1" customWidth="1"/>
-    <col min="3545" max="3545" width="15.36328125" style="1" customWidth="1"/>
-    <col min="3546" max="3546" width="14.6328125" style="1" customWidth="1"/>
-    <col min="3547" max="3547" width="2.90625" style="1" customWidth="1"/>
+    <col min="3540" max="3540" width="11.08203125" style="1" customWidth="1"/>
+    <col min="3541" max="3541" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3542" max="3542" width="15.4140625" style="1" customWidth="1"/>
+    <col min="3543" max="3543" width="11.4140625" style="1" customWidth="1"/>
+    <col min="3544" max="3544" width="17.9140625" style="1" customWidth="1"/>
+    <col min="3545" max="3545" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3546" max="3546" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3547" max="3547" width="2.9140625" style="1" customWidth="1"/>
     <col min="3548" max="3548" width="15" style="1" customWidth="1"/>
-    <col min="3549" max="3791" width="11.36328125" style="1"/>
-    <col min="3792" max="3792" width="17.08984375" style="1" customWidth="1"/>
+    <col min="3549" max="3791" width="11.33203125" style="1"/>
+    <col min="3792" max="3792" width="17.08203125" style="1" customWidth="1"/>
     <col min="3793" max="3793" width="23" style="1" customWidth="1"/>
-    <col min="3794" max="3794" width="9.08984375" style="1" customWidth="1"/>
+    <col min="3794" max="3794" width="9.08203125" style="1" customWidth="1"/>
     <col min="3795" max="3795" width="8" style="1" customWidth="1"/>
-    <col min="3796" max="3796" width="11.08984375" style="1" customWidth="1"/>
-    <col min="3797" max="3797" width="15.36328125" style="1" customWidth="1"/>
-    <col min="3798" max="3798" width="15.453125" style="1" customWidth="1"/>
-    <col min="3799" max="3799" width="11.453125" style="1" customWidth="1"/>
-    <col min="3800" max="3800" width="17.90625" style="1" customWidth="1"/>
-    <col min="3801" max="3801" width="15.36328125" style="1" customWidth="1"/>
-    <col min="3802" max="3802" width="14.6328125" style="1" customWidth="1"/>
-    <col min="3803" max="3803" width="2.90625" style="1" customWidth="1"/>
+    <col min="3796" max="3796" width="11.08203125" style="1" customWidth="1"/>
+    <col min="3797" max="3797" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3798" max="3798" width="15.4140625" style="1" customWidth="1"/>
+    <col min="3799" max="3799" width="11.4140625" style="1" customWidth="1"/>
+    <col min="3800" max="3800" width="17.9140625" style="1" customWidth="1"/>
+    <col min="3801" max="3801" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3802" max="3802" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3803" max="3803" width="2.9140625" style="1" customWidth="1"/>
     <col min="3804" max="3804" width="15" style="1" customWidth="1"/>
-    <col min="3805" max="4047" width="11.36328125" style="1"/>
-    <col min="4048" max="4048" width="17.08984375" style="1" customWidth="1"/>
+    <col min="3805" max="4047" width="11.33203125" style="1"/>
+    <col min="4048" max="4048" width="17.08203125" style="1" customWidth="1"/>
     <col min="4049" max="4049" width="23" style="1" customWidth="1"/>
-    <col min="4050" max="4050" width="9.08984375" style="1" customWidth="1"/>
+    <col min="4050" max="4050" width="9.08203125" style="1" customWidth="1"/>
     <col min="4051" max="4051" width="8" style="1" customWidth="1"/>
-    <col min="4052" max="4052" width="11.08984375" style="1" customWidth="1"/>
-    <col min="4053" max="4053" width="15.36328125" style="1" customWidth="1"/>
-    <col min="4054" max="4054" width="15.453125" style="1" customWidth="1"/>
-    <col min="4055" max="4055" width="11.453125" style="1" customWidth="1"/>
-    <col min="4056" max="4056" width="17.90625" style="1" customWidth="1"/>
-    <col min="4057" max="4057" width="15.36328125" style="1" customWidth="1"/>
-    <col min="4058" max="4058" width="14.6328125" style="1" customWidth="1"/>
-    <col min="4059" max="4059" width="2.90625" style="1" customWidth="1"/>
+    <col min="4052" max="4052" width="11.08203125" style="1" customWidth="1"/>
+    <col min="4053" max="4053" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4054" max="4054" width="15.4140625" style="1" customWidth="1"/>
+    <col min="4055" max="4055" width="11.4140625" style="1" customWidth="1"/>
+    <col min="4056" max="4056" width="17.9140625" style="1" customWidth="1"/>
+    <col min="4057" max="4057" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4058" max="4058" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4059" max="4059" width="2.9140625" style="1" customWidth="1"/>
     <col min="4060" max="4060" width="15" style="1" customWidth="1"/>
-    <col min="4061" max="4303" width="11.36328125" style="1"/>
-    <col min="4304" max="4304" width="17.08984375" style="1" customWidth="1"/>
+    <col min="4061" max="4303" width="11.33203125" style="1"/>
+    <col min="4304" max="4304" width="17.08203125" style="1" customWidth="1"/>
     <col min="4305" max="4305" width="23" style="1" customWidth="1"/>
-    <col min="4306" max="4306" width="9.08984375" style="1" customWidth="1"/>
+    <col min="4306" max="4306" width="9.08203125" style="1" customWidth="1"/>
     <col min="4307" max="4307" width="8" style="1" customWidth="1"/>
-    <col min="4308" max="4308" width="11.08984375" style="1" customWidth="1"/>
-    <col min="4309" max="4309" width="15.36328125" style="1" customWidth="1"/>
-    <col min="4310" max="4310" width="15.453125" style="1" customWidth="1"/>
-    <col min="4311" max="4311" width="11.453125" style="1" customWidth="1"/>
-    <col min="4312" max="4312" width="17.90625" style="1" customWidth="1"/>
-    <col min="4313" max="4313" width="15.36328125" style="1" customWidth="1"/>
-    <col min="4314" max="4314" width="14.6328125" style="1" customWidth="1"/>
-    <col min="4315" max="4315" width="2.90625" style="1" customWidth="1"/>
+    <col min="4308" max="4308" width="11.08203125" style="1" customWidth="1"/>
+    <col min="4309" max="4309" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4310" max="4310" width="15.4140625" style="1" customWidth="1"/>
+    <col min="4311" max="4311" width="11.4140625" style="1" customWidth="1"/>
+    <col min="4312" max="4312" width="17.9140625" style="1" customWidth="1"/>
+    <col min="4313" max="4313" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4314" max="4314" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4315" max="4315" width="2.9140625" style="1" customWidth="1"/>
     <col min="4316" max="4316" width="15" style="1" customWidth="1"/>
-    <col min="4317" max="4559" width="11.36328125" style="1"/>
-    <col min="4560" max="4560" width="17.08984375" style="1" customWidth="1"/>
+    <col min="4317" max="4559" width="11.33203125" style="1"/>
+    <col min="4560" max="4560" width="17.08203125" style="1" customWidth="1"/>
     <col min="4561" max="4561" width="23" style="1" customWidth="1"/>
-    <col min="4562" max="4562" width="9.08984375" style="1" customWidth="1"/>
+    <col min="4562" max="4562" width="9.08203125" style="1" customWidth="1"/>
     <col min="4563" max="4563" width="8" style="1" customWidth="1"/>
-    <col min="4564" max="4564" width="11.08984375" style="1" customWidth="1"/>
-    <col min="4565" max="4565" width="15.36328125" style="1" customWidth="1"/>
-    <col min="4566" max="4566" width="15.453125" style="1" customWidth="1"/>
-    <col min="4567" max="4567" width="11.453125" style="1" customWidth="1"/>
-    <col min="4568" max="4568" width="17.90625" style="1" customWidth="1"/>
-    <col min="4569" max="4569" width="15.36328125" style="1" customWidth="1"/>
-    <col min="4570" max="4570" width="14.6328125" style="1" customWidth="1"/>
-    <col min="4571" max="4571" width="2.90625" style="1" customWidth="1"/>
+    <col min="4564" max="4564" width="11.08203125" style="1" customWidth="1"/>
+    <col min="4565" max="4565" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4566" max="4566" width="15.4140625" style="1" customWidth="1"/>
+    <col min="4567" max="4567" width="11.4140625" style="1" customWidth="1"/>
+    <col min="4568" max="4568" width="17.9140625" style="1" customWidth="1"/>
+    <col min="4569" max="4569" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4570" max="4570" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4571" max="4571" width="2.9140625" style="1" customWidth="1"/>
     <col min="4572" max="4572" width="15" style="1" customWidth="1"/>
-    <col min="4573" max="4815" width="11.36328125" style="1"/>
-    <col min="4816" max="4816" width="17.08984375" style="1" customWidth="1"/>
+    <col min="4573" max="4815" width="11.33203125" style="1"/>
+    <col min="4816" max="4816" width="17.08203125" style="1" customWidth="1"/>
     <col min="4817" max="4817" width="23" style="1" customWidth="1"/>
-    <col min="4818" max="4818" width="9.08984375" style="1" customWidth="1"/>
+    <col min="4818" max="4818" width="9.08203125" style="1" customWidth="1"/>
     <col min="4819" max="4819" width="8" style="1" customWidth="1"/>
-    <col min="4820" max="4820" width="11.08984375" style="1" customWidth="1"/>
-    <col min="4821" max="4821" width="15.36328125" style="1" customWidth="1"/>
-    <col min="4822" max="4822" width="15.453125" style="1" customWidth="1"/>
-    <col min="4823" max="4823" width="11.453125" style="1" customWidth="1"/>
-    <col min="4824" max="4824" width="17.90625" style="1" customWidth="1"/>
-    <col min="4825" max="4825" width="15.36328125" style="1" customWidth="1"/>
-    <col min="4826" max="4826" width="14.6328125" style="1" customWidth="1"/>
-    <col min="4827" max="4827" width="2.90625" style="1" customWidth="1"/>
+    <col min="4820" max="4820" width="11.08203125" style="1" customWidth="1"/>
+    <col min="4821" max="4821" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4822" max="4822" width="15.4140625" style="1" customWidth="1"/>
+    <col min="4823" max="4823" width="11.4140625" style="1" customWidth="1"/>
+    <col min="4824" max="4824" width="17.9140625" style="1" customWidth="1"/>
+    <col min="4825" max="4825" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4826" max="4826" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4827" max="4827" width="2.9140625" style="1" customWidth="1"/>
     <col min="4828" max="4828" width="15" style="1" customWidth="1"/>
-    <col min="4829" max="5071" width="11.36328125" style="1"/>
-    <col min="5072" max="5072" width="17.08984375" style="1" customWidth="1"/>
+    <col min="4829" max="5071" width="11.33203125" style="1"/>
+    <col min="5072" max="5072" width="17.08203125" style="1" customWidth="1"/>
     <col min="5073" max="5073" width="23" style="1" customWidth="1"/>
-    <col min="5074" max="5074" width="9.08984375" style="1" customWidth="1"/>
+    <col min="5074" max="5074" width="9.08203125" style="1" customWidth="1"/>
     <col min="5075" max="5075" width="8" style="1" customWidth="1"/>
-    <col min="5076" max="5076" width="11.08984375" style="1" customWidth="1"/>
-    <col min="5077" max="5077" width="15.36328125" style="1" customWidth="1"/>
-    <col min="5078" max="5078" width="15.453125" style="1" customWidth="1"/>
-    <col min="5079" max="5079" width="11.453125" style="1" customWidth="1"/>
-    <col min="5080" max="5080" width="17.90625" style="1" customWidth="1"/>
-    <col min="5081" max="5081" width="15.36328125" style="1" customWidth="1"/>
-    <col min="5082" max="5082" width="14.6328125" style="1" customWidth="1"/>
-    <col min="5083" max="5083" width="2.90625" style="1" customWidth="1"/>
+    <col min="5076" max="5076" width="11.08203125" style="1" customWidth="1"/>
+    <col min="5077" max="5077" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5078" max="5078" width="15.4140625" style="1" customWidth="1"/>
+    <col min="5079" max="5079" width="11.4140625" style="1" customWidth="1"/>
+    <col min="5080" max="5080" width="17.9140625" style="1" customWidth="1"/>
+    <col min="5081" max="5081" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5082" max="5082" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5083" max="5083" width="2.9140625" style="1" customWidth="1"/>
     <col min="5084" max="5084" width="15" style="1" customWidth="1"/>
-    <col min="5085" max="5327" width="11.36328125" style="1"/>
-    <col min="5328" max="5328" width="17.08984375" style="1" customWidth="1"/>
+    <col min="5085" max="5327" width="11.33203125" style="1"/>
+    <col min="5328" max="5328" width="17.08203125" style="1" customWidth="1"/>
     <col min="5329" max="5329" width="23" style="1" customWidth="1"/>
-    <col min="5330" max="5330" width="9.08984375" style="1" customWidth="1"/>
+    <col min="5330" max="5330" width="9.08203125" style="1" customWidth="1"/>
     <col min="5331" max="5331" width="8" style="1" customWidth="1"/>
-    <col min="5332" max="5332" width="11.08984375" style="1" customWidth="1"/>
-    <col min="5333" max="5333" width="15.36328125" style="1" customWidth="1"/>
-    <col min="5334" max="5334" width="15.453125" style="1" customWidth="1"/>
-    <col min="5335" max="5335" width="11.453125" style="1" customWidth="1"/>
-    <col min="5336" max="5336" width="17.90625" style="1" customWidth="1"/>
-    <col min="5337" max="5337" width="15.36328125" style="1" customWidth="1"/>
-    <col min="5338" max="5338" width="14.6328125" style="1" customWidth="1"/>
-    <col min="5339" max="5339" width="2.90625" style="1" customWidth="1"/>
+    <col min="5332" max="5332" width="11.08203125" style="1" customWidth="1"/>
+    <col min="5333" max="5333" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5334" max="5334" width="15.4140625" style="1" customWidth="1"/>
+    <col min="5335" max="5335" width="11.4140625" style="1" customWidth="1"/>
+    <col min="5336" max="5336" width="17.9140625" style="1" customWidth="1"/>
+    <col min="5337" max="5337" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5338" max="5338" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5339" max="5339" width="2.9140625" style="1" customWidth="1"/>
     <col min="5340" max="5340" width="15" style="1" customWidth="1"/>
-    <col min="5341" max="5583" width="11.36328125" style="1"/>
-    <col min="5584" max="5584" width="17.08984375" style="1" customWidth="1"/>
+    <col min="5341" max="5583" width="11.33203125" style="1"/>
+    <col min="5584" max="5584" width="17.08203125" style="1" customWidth="1"/>
     <col min="5585" max="5585" width="23" style="1" customWidth="1"/>
-    <col min="5586" max="5586" width="9.08984375" style="1" customWidth="1"/>
+    <col min="5586" max="5586" width="9.08203125" style="1" customWidth="1"/>
     <col min="5587" max="5587" width="8" style="1" customWidth="1"/>
-    <col min="5588" max="5588" width="11.08984375" style="1" customWidth="1"/>
-    <col min="5589" max="5589" width="15.36328125" style="1" customWidth="1"/>
-    <col min="5590" max="5590" width="15.453125" style="1" customWidth="1"/>
-    <col min="5591" max="5591" width="11.453125" style="1" customWidth="1"/>
-    <col min="5592" max="5592" width="17.90625" style="1" customWidth="1"/>
-    <col min="5593" max="5593" width="15.36328125" style="1" customWidth="1"/>
-    <col min="5594" max="5594" width="14.6328125" style="1" customWidth="1"/>
-    <col min="5595" max="5595" width="2.90625" style="1" customWidth="1"/>
+    <col min="5588" max="5588" width="11.08203125" style="1" customWidth="1"/>
+    <col min="5589" max="5589" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5590" max="5590" width="15.4140625" style="1" customWidth="1"/>
+    <col min="5591" max="5591" width="11.4140625" style="1" customWidth="1"/>
+    <col min="5592" max="5592" width="17.9140625" style="1" customWidth="1"/>
+    <col min="5593" max="5593" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5594" max="5594" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5595" max="5595" width="2.9140625" style="1" customWidth="1"/>
     <col min="5596" max="5596" width="15" style="1" customWidth="1"/>
-    <col min="5597" max="5839" width="11.36328125" style="1"/>
-    <col min="5840" max="5840" width="17.08984375" style="1" customWidth="1"/>
+    <col min="5597" max="5839" width="11.33203125" style="1"/>
+    <col min="5840" max="5840" width="17.08203125" style="1" customWidth="1"/>
     <col min="5841" max="5841" width="23" style="1" customWidth="1"/>
-    <col min="5842" max="5842" width="9.08984375" style="1" customWidth="1"/>
+    <col min="5842" max="5842" width="9.08203125" style="1" customWidth="1"/>
     <col min="5843" max="5843" width="8" style="1" customWidth="1"/>
-    <col min="5844" max="5844" width="11.08984375" style="1" customWidth="1"/>
-    <col min="5845" max="5845" width="15.36328125" style="1" customWidth="1"/>
-    <col min="5846" max="5846" width="15.453125" style="1" customWidth="1"/>
-    <col min="5847" max="5847" width="11.453125" style="1" customWidth="1"/>
-    <col min="5848" max="5848" width="17.90625" style="1" customWidth="1"/>
-    <col min="5849" max="5849" width="15.36328125" style="1" customWidth="1"/>
-    <col min="5850" max="5850" width="14.6328125" style="1" customWidth="1"/>
-    <col min="5851" max="5851" width="2.90625" style="1" customWidth="1"/>
+    <col min="5844" max="5844" width="11.08203125" style="1" customWidth="1"/>
+    <col min="5845" max="5845" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5846" max="5846" width="15.4140625" style="1" customWidth="1"/>
+    <col min="5847" max="5847" width="11.4140625" style="1" customWidth="1"/>
+    <col min="5848" max="5848" width="17.9140625" style="1" customWidth="1"/>
+    <col min="5849" max="5849" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5850" max="5850" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5851" max="5851" width="2.9140625" style="1" customWidth="1"/>
     <col min="5852" max="5852" width="15" style="1" customWidth="1"/>
-    <col min="5853" max="6095" width="11.36328125" style="1"/>
-    <col min="6096" max="6096" width="17.08984375" style="1" customWidth="1"/>
+    <col min="5853" max="6095" width="11.33203125" style="1"/>
+    <col min="6096" max="6096" width="17.08203125" style="1" customWidth="1"/>
     <col min="6097" max="6097" width="23" style="1" customWidth="1"/>
-    <col min="6098" max="6098" width="9.08984375" style="1" customWidth="1"/>
+    <col min="6098" max="6098" width="9.08203125" style="1" customWidth="1"/>
     <col min="6099" max="6099" width="8" style="1" customWidth="1"/>
-    <col min="6100" max="6100" width="11.08984375" style="1" customWidth="1"/>
-    <col min="6101" max="6101" width="15.36328125" style="1" customWidth="1"/>
-    <col min="6102" max="6102" width="15.453125" style="1" customWidth="1"/>
-    <col min="6103" max="6103" width="11.453125" style="1" customWidth="1"/>
-    <col min="6104" max="6104" width="17.90625" style="1" customWidth="1"/>
-    <col min="6105" max="6105" width="15.36328125" style="1" customWidth="1"/>
-    <col min="6106" max="6106" width="14.6328125" style="1" customWidth="1"/>
-    <col min="6107" max="6107" width="2.90625" style="1" customWidth="1"/>
+    <col min="6100" max="6100" width="11.08203125" style="1" customWidth="1"/>
+    <col min="6101" max="6101" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6102" max="6102" width="15.4140625" style="1" customWidth="1"/>
+    <col min="6103" max="6103" width="11.4140625" style="1" customWidth="1"/>
+    <col min="6104" max="6104" width="17.9140625" style="1" customWidth="1"/>
+    <col min="6105" max="6105" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6106" max="6106" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6107" max="6107" width="2.9140625" style="1" customWidth="1"/>
     <col min="6108" max="6108" width="15" style="1" customWidth="1"/>
-    <col min="6109" max="6351" width="11.36328125" style="1"/>
-    <col min="6352" max="6352" width="17.08984375" style="1" customWidth="1"/>
+    <col min="6109" max="6351" width="11.33203125" style="1"/>
+    <col min="6352" max="6352" width="17.08203125" style="1" customWidth="1"/>
     <col min="6353" max="6353" width="23" style="1" customWidth="1"/>
-    <col min="6354" max="6354" width="9.08984375" style="1" customWidth="1"/>
+    <col min="6354" max="6354" width="9.08203125" style="1" customWidth="1"/>
     <col min="6355" max="6355" width="8" style="1" customWidth="1"/>
-    <col min="6356" max="6356" width="11.08984375" style="1" customWidth="1"/>
-    <col min="6357" max="6357" width="15.36328125" style="1" customWidth="1"/>
-    <col min="6358" max="6358" width="15.453125" style="1" customWidth="1"/>
-    <col min="6359" max="6359" width="11.453125" style="1" customWidth="1"/>
-    <col min="6360" max="6360" width="17.90625" style="1" customWidth="1"/>
-    <col min="6361" max="6361" width="15.36328125" style="1" customWidth="1"/>
-    <col min="6362" max="6362" width="14.6328125" style="1" customWidth="1"/>
-    <col min="6363" max="6363" width="2.90625" style="1" customWidth="1"/>
+    <col min="6356" max="6356" width="11.08203125" style="1" customWidth="1"/>
+    <col min="6357" max="6357" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6358" max="6358" width="15.4140625" style="1" customWidth="1"/>
+    <col min="6359" max="6359" width="11.4140625" style="1" customWidth="1"/>
+    <col min="6360" max="6360" width="17.9140625" style="1" customWidth="1"/>
+    <col min="6361" max="6361" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6362" max="6362" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6363" max="6363" width="2.9140625" style="1" customWidth="1"/>
     <col min="6364" max="6364" width="15" style="1" customWidth="1"/>
-    <col min="6365" max="6607" width="11.36328125" style="1"/>
-    <col min="6608" max="6608" width="17.08984375" style="1" customWidth="1"/>
+    <col min="6365" max="6607" width="11.33203125" style="1"/>
+    <col min="6608" max="6608" width="17.08203125" style="1" customWidth="1"/>
     <col min="6609" max="6609" width="23" style="1" customWidth="1"/>
-    <col min="6610" max="6610" width="9.08984375" style="1" customWidth="1"/>
+    <col min="6610" max="6610" width="9.08203125" style="1" customWidth="1"/>
     <col min="6611" max="6611" width="8" style="1" customWidth="1"/>
-    <col min="6612" max="6612" width="11.08984375" style="1" customWidth="1"/>
-    <col min="6613" max="6613" width="15.36328125" style="1" customWidth="1"/>
-    <col min="6614" max="6614" width="15.453125" style="1" customWidth="1"/>
-    <col min="6615" max="6615" width="11.453125" style="1" customWidth="1"/>
-    <col min="6616" max="6616" width="17.90625" style="1" customWidth="1"/>
-    <col min="6617" max="6617" width="15.36328125" style="1" customWidth="1"/>
-    <col min="6618" max="6618" width="14.6328125" style="1" customWidth="1"/>
-    <col min="6619" max="6619" width="2.90625" style="1" customWidth="1"/>
+    <col min="6612" max="6612" width="11.08203125" style="1" customWidth="1"/>
+    <col min="6613" max="6613" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6614" max="6614" width="15.4140625" style="1" customWidth="1"/>
+    <col min="6615" max="6615" width="11.4140625" style="1" customWidth="1"/>
+    <col min="6616" max="6616" width="17.9140625" style="1" customWidth="1"/>
+    <col min="6617" max="6617" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6618" max="6618" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6619" max="6619" width="2.9140625" style="1" customWidth="1"/>
     <col min="6620" max="6620" width="15" style="1" customWidth="1"/>
-    <col min="6621" max="6863" width="11.36328125" style="1"/>
-    <col min="6864" max="6864" width="17.08984375" style="1" customWidth="1"/>
+    <col min="6621" max="6863" width="11.33203125" style="1"/>
+    <col min="6864" max="6864" width="17.08203125" style="1" customWidth="1"/>
     <col min="6865" max="6865" width="23" style="1" customWidth="1"/>
-    <col min="6866" max="6866" width="9.08984375" style="1" customWidth="1"/>
+    <col min="6866" max="6866" width="9.08203125" style="1" customWidth="1"/>
     <col min="6867" max="6867" width="8" style="1" customWidth="1"/>
-    <col min="6868" max="6868" width="11.08984375" style="1" customWidth="1"/>
-    <col min="6869" max="6869" width="15.36328125" style="1" customWidth="1"/>
-    <col min="6870" max="6870" width="15.453125" style="1" customWidth="1"/>
-    <col min="6871" max="6871" width="11.453125" style="1" customWidth="1"/>
-    <col min="6872" max="6872" width="17.90625" style="1" customWidth="1"/>
-    <col min="6873" max="6873" width="15.36328125" style="1" customWidth="1"/>
-    <col min="6874" max="6874" width="14.6328125" style="1" customWidth="1"/>
-    <col min="6875" max="6875" width="2.90625" style="1" customWidth="1"/>
+    <col min="6868" max="6868" width="11.08203125" style="1" customWidth="1"/>
+    <col min="6869" max="6869" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6870" max="6870" width="15.4140625" style="1" customWidth="1"/>
+    <col min="6871" max="6871" width="11.4140625" style="1" customWidth="1"/>
+    <col min="6872" max="6872" width="17.9140625" style="1" customWidth="1"/>
+    <col min="6873" max="6873" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6874" max="6874" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6875" max="6875" width="2.9140625" style="1" customWidth="1"/>
     <col min="6876" max="6876" width="15" style="1" customWidth="1"/>
-    <col min="6877" max="7119" width="11.36328125" style="1"/>
-    <col min="7120" max="7120" width="17.08984375" style="1" customWidth="1"/>
+    <col min="6877" max="7119" width="11.33203125" style="1"/>
+    <col min="7120" max="7120" width="17.08203125" style="1" customWidth="1"/>
     <col min="7121" max="7121" width="23" style="1" customWidth="1"/>
-    <col min="7122" max="7122" width="9.08984375" style="1" customWidth="1"/>
+    <col min="7122" max="7122" width="9.08203125" style="1" customWidth="1"/>
     <col min="7123" max="7123" width="8" style="1" customWidth="1"/>
-    <col min="7124" max="7124" width="11.08984375" style="1" customWidth="1"/>
-    <col min="7125" max="7125" width="15.36328125" style="1" customWidth="1"/>
-    <col min="7126" max="7126" width="15.453125" style="1" customWidth="1"/>
-    <col min="7127" max="7127" width="11.453125" style="1" customWidth="1"/>
-    <col min="7128" max="7128" width="17.90625" style="1" customWidth="1"/>
-    <col min="7129" max="7129" width="15.36328125" style="1" customWidth="1"/>
-    <col min="7130" max="7130" width="14.6328125" style="1" customWidth="1"/>
-    <col min="7131" max="7131" width="2.90625" style="1" customWidth="1"/>
+    <col min="7124" max="7124" width="11.08203125" style="1" customWidth="1"/>
+    <col min="7125" max="7125" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7126" max="7126" width="15.4140625" style="1" customWidth="1"/>
+    <col min="7127" max="7127" width="11.4140625" style="1" customWidth="1"/>
+    <col min="7128" max="7128" width="17.9140625" style="1" customWidth="1"/>
+    <col min="7129" max="7129" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7130" max="7130" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7131" max="7131" width="2.9140625" style="1" customWidth="1"/>
     <col min="7132" max="7132" width="15" style="1" customWidth="1"/>
-    <col min="7133" max="7375" width="11.36328125" style="1"/>
-    <col min="7376" max="7376" width="17.08984375" style="1" customWidth="1"/>
+    <col min="7133" max="7375" width="11.33203125" style="1"/>
+    <col min="7376" max="7376" width="17.08203125" style="1" customWidth="1"/>
     <col min="7377" max="7377" width="23" style="1" customWidth="1"/>
-    <col min="7378" max="7378" width="9.08984375" style="1" customWidth="1"/>
+    <col min="7378" max="7378" width="9.08203125" style="1" customWidth="1"/>
     <col min="7379" max="7379" width="8" style="1" customWidth="1"/>
-    <col min="7380" max="7380" width="11.08984375" style="1" customWidth="1"/>
-    <col min="7381" max="7381" width="15.36328125" style="1" customWidth="1"/>
-    <col min="7382" max="7382" width="15.453125" style="1" customWidth="1"/>
-    <col min="7383" max="7383" width="11.453125" style="1" customWidth="1"/>
-    <col min="7384" max="7384" width="17.90625" style="1" customWidth="1"/>
-    <col min="7385" max="7385" width="15.36328125" style="1" customWidth="1"/>
-    <col min="7386" max="7386" width="14.6328125" style="1" customWidth="1"/>
-    <col min="7387" max="7387" width="2.90625" style="1" customWidth="1"/>
+    <col min="7380" max="7380" width="11.08203125" style="1" customWidth="1"/>
+    <col min="7381" max="7381" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7382" max="7382" width="15.4140625" style="1" customWidth="1"/>
+    <col min="7383" max="7383" width="11.4140625" style="1" customWidth="1"/>
+    <col min="7384" max="7384" width="17.9140625" style="1" customWidth="1"/>
+    <col min="7385" max="7385" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7386" max="7386" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7387" max="7387" width="2.9140625" style="1" customWidth="1"/>
     <col min="7388" max="7388" width="15" style="1" customWidth="1"/>
-    <col min="7389" max="7631" width="11.36328125" style="1"/>
-    <col min="7632" max="7632" width="17.08984375" style="1" customWidth="1"/>
+    <col min="7389" max="7631" width="11.33203125" style="1"/>
+    <col min="7632" max="7632" width="17.08203125" style="1" customWidth="1"/>
     <col min="7633" max="7633" width="23" style="1" customWidth="1"/>
-    <col min="7634" max="7634" width="9.08984375" style="1" customWidth="1"/>
+    <col min="7634" max="7634" width="9.08203125" style="1" customWidth="1"/>
     <col min="7635" max="7635" width="8" style="1" customWidth="1"/>
-    <col min="7636" max="7636" width="11.08984375" style="1" customWidth="1"/>
-    <col min="7637" max="7637" width="15.36328125" style="1" customWidth="1"/>
-    <col min="7638" max="7638" width="15.453125" style="1" customWidth="1"/>
-    <col min="7639" max="7639" width="11.453125" style="1" customWidth="1"/>
-    <col min="7640" max="7640" width="17.90625" style="1" customWidth="1"/>
-    <col min="7641" max="7641" width="15.36328125" style="1" customWidth="1"/>
-    <col min="7642" max="7642" width="14.6328125" style="1" customWidth="1"/>
-    <col min="7643" max="7643" width="2.90625" style="1" customWidth="1"/>
+    <col min="7636" max="7636" width="11.08203125" style="1" customWidth="1"/>
+    <col min="7637" max="7637" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7638" max="7638" width="15.4140625" style="1" customWidth="1"/>
+    <col min="7639" max="7639" width="11.4140625" style="1" customWidth="1"/>
+    <col min="7640" max="7640" width="17.9140625" style="1" customWidth="1"/>
+    <col min="7641" max="7641" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7642" max="7642" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7643" max="7643" width="2.9140625" style="1" customWidth="1"/>
     <col min="7644" max="7644" width="15" style="1" customWidth="1"/>
-    <col min="7645" max="7887" width="11.36328125" style="1"/>
-    <col min="7888" max="7888" width="17.08984375" style="1" customWidth="1"/>
+    <col min="7645" max="7887" width="11.33203125" style="1"/>
+    <col min="7888" max="7888" width="17.08203125" style="1" customWidth="1"/>
     <col min="7889" max="7889" width="23" style="1" customWidth="1"/>
-    <col min="7890" max="7890" width="9.08984375" style="1" customWidth="1"/>
+    <col min="7890" max="7890" width="9.08203125" style="1" customWidth="1"/>
     <col min="7891" max="7891" width="8" style="1" customWidth="1"/>
-    <col min="7892" max="7892" width="11.08984375" style="1" customWidth="1"/>
-    <col min="7893" max="7893" width="15.36328125" style="1" customWidth="1"/>
-    <col min="7894" max="7894" width="15.453125" style="1" customWidth="1"/>
-    <col min="7895" max="7895" width="11.453125" style="1" customWidth="1"/>
-    <col min="7896" max="7896" width="17.90625" style="1" customWidth="1"/>
-    <col min="7897" max="7897" width="15.36328125" style="1" customWidth="1"/>
-    <col min="7898" max="7898" width="14.6328125" style="1" customWidth="1"/>
-    <col min="7899" max="7899" width="2.90625" style="1" customWidth="1"/>
+    <col min="7892" max="7892" width="11.08203125" style="1" customWidth="1"/>
+    <col min="7893" max="7893" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7894" max="7894" width="15.4140625" style="1" customWidth="1"/>
+    <col min="7895" max="7895" width="11.4140625" style="1" customWidth="1"/>
+    <col min="7896" max="7896" width="17.9140625" style="1" customWidth="1"/>
+    <col min="7897" max="7897" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7898" max="7898" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7899" max="7899" width="2.9140625" style="1" customWidth="1"/>
     <col min="7900" max="7900" width="15" style="1" customWidth="1"/>
-    <col min="7901" max="8143" width="11.36328125" style="1"/>
-    <col min="8144" max="8144" width="17.08984375" style="1" customWidth="1"/>
+    <col min="7901" max="8143" width="11.33203125" style="1"/>
+    <col min="8144" max="8144" width="17.08203125" style="1" customWidth="1"/>
     <col min="8145" max="8145" width="23" style="1" customWidth="1"/>
-    <col min="8146" max="8146" width="9.08984375" style="1" customWidth="1"/>
+    <col min="8146" max="8146" width="9.08203125" style="1" customWidth="1"/>
     <col min="8147" max="8147" width="8" style="1" customWidth="1"/>
-    <col min="8148" max="8148" width="11.08984375" style="1" customWidth="1"/>
-    <col min="8149" max="8149" width="15.36328125" style="1" customWidth="1"/>
-    <col min="8150" max="8150" width="15.453125" style="1" customWidth="1"/>
-    <col min="8151" max="8151" width="11.453125" style="1" customWidth="1"/>
-    <col min="8152" max="8152" width="17.90625" style="1" customWidth="1"/>
-    <col min="8153" max="8153" width="15.36328125" style="1" customWidth="1"/>
-    <col min="8154" max="8154" width="14.6328125" style="1" customWidth="1"/>
-    <col min="8155" max="8155" width="2.90625" style="1" customWidth="1"/>
+    <col min="8148" max="8148" width="11.08203125" style="1" customWidth="1"/>
+    <col min="8149" max="8149" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8150" max="8150" width="15.4140625" style="1" customWidth="1"/>
+    <col min="8151" max="8151" width="11.4140625" style="1" customWidth="1"/>
+    <col min="8152" max="8152" width="17.9140625" style="1" customWidth="1"/>
+    <col min="8153" max="8153" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8154" max="8154" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8155" max="8155" width="2.9140625" style="1" customWidth="1"/>
     <col min="8156" max="8156" width="15" style="1" customWidth="1"/>
-    <col min="8157" max="8399" width="11.36328125" style="1"/>
-    <col min="8400" max="8400" width="17.08984375" style="1" customWidth="1"/>
+    <col min="8157" max="8399" width="11.33203125" style="1"/>
+    <col min="8400" max="8400" width="17.08203125" style="1" customWidth="1"/>
     <col min="8401" max="8401" width="23" style="1" customWidth="1"/>
-    <col min="8402" max="8402" width="9.08984375" style="1" customWidth="1"/>
+    <col min="8402" max="8402" width="9.08203125" style="1" customWidth="1"/>
     <col min="8403" max="8403" width="8" style="1" customWidth="1"/>
-    <col min="8404" max="8404" width="11.08984375" style="1" customWidth="1"/>
-    <col min="8405" max="8405" width="15.36328125" style="1" customWidth="1"/>
-    <col min="8406" max="8406" width="15.453125" style="1" customWidth="1"/>
-    <col min="8407" max="8407" width="11.453125" style="1" customWidth="1"/>
-    <col min="8408" max="8408" width="17.90625" style="1" customWidth="1"/>
-    <col min="8409" max="8409" width="15.36328125" style="1" customWidth="1"/>
-    <col min="8410" max="8410" width="14.6328125" style="1" customWidth="1"/>
-    <col min="8411" max="8411" width="2.90625" style="1" customWidth="1"/>
+    <col min="8404" max="8404" width="11.08203125" style="1" customWidth="1"/>
+    <col min="8405" max="8405" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8406" max="8406" width="15.4140625" style="1" customWidth="1"/>
+    <col min="8407" max="8407" width="11.4140625" style="1" customWidth="1"/>
+    <col min="8408" max="8408" width="17.9140625" style="1" customWidth="1"/>
+    <col min="8409" max="8409" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8410" max="8410" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8411" max="8411" width="2.9140625" style="1" customWidth="1"/>
     <col min="8412" max="8412" width="15" style="1" customWidth="1"/>
-    <col min="8413" max="8655" width="11.36328125" style="1"/>
-    <col min="8656" max="8656" width="17.08984375" style="1" customWidth="1"/>
+    <col min="8413" max="8655" width="11.33203125" style="1"/>
+    <col min="8656" max="8656" width="17.08203125" style="1" customWidth="1"/>
     <col min="8657" max="8657" width="23" style="1" customWidth="1"/>
-    <col min="8658" max="8658" width="9.08984375" style="1" customWidth="1"/>
+    <col min="8658" max="8658" width="9.08203125" style="1" customWidth="1"/>
     <col min="8659" max="8659" width="8" style="1" customWidth="1"/>
-    <col min="8660" max="8660" width="11.08984375" style="1" customWidth="1"/>
-    <col min="8661" max="8661" width="15.36328125" style="1" customWidth="1"/>
-    <col min="8662" max="8662" width="15.453125" style="1" customWidth="1"/>
-    <col min="8663" max="8663" width="11.453125" style="1" customWidth="1"/>
-    <col min="8664" max="8664" width="17.90625" style="1" customWidth="1"/>
-    <col min="8665" max="8665" width="15.36328125" style="1" customWidth="1"/>
-    <col min="8666" max="8666" width="14.6328125" style="1" customWidth="1"/>
-    <col min="8667" max="8667" width="2.90625" style="1" customWidth="1"/>
+    <col min="8660" max="8660" width="11.08203125" style="1" customWidth="1"/>
+    <col min="8661" max="8661" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8662" max="8662" width="15.4140625" style="1" customWidth="1"/>
+    <col min="8663" max="8663" width="11.4140625" style="1" customWidth="1"/>
+    <col min="8664" max="8664" width="17.9140625" style="1" customWidth="1"/>
+    <col min="8665" max="8665" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8666" max="8666" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8667" max="8667" width="2.9140625" style="1" customWidth="1"/>
     <col min="8668" max="8668" width="15" style="1" customWidth="1"/>
-    <col min="8669" max="8911" width="11.36328125" style="1"/>
-    <col min="8912" max="8912" width="17.08984375" style="1" customWidth="1"/>
+    <col min="8669" max="8911" width="11.33203125" style="1"/>
+    <col min="8912" max="8912" width="17.08203125" style="1" customWidth="1"/>
     <col min="8913" max="8913" width="23" style="1" customWidth="1"/>
-    <col min="8914" max="8914" width="9.08984375" style="1" customWidth="1"/>
+    <col min="8914" max="8914" width="9.08203125" style="1" customWidth="1"/>
     <col min="8915" max="8915" width="8" style="1" customWidth="1"/>
-    <col min="8916" max="8916" width="11.08984375" style="1" customWidth="1"/>
-    <col min="8917" max="8917" width="15.36328125" style="1" customWidth="1"/>
-    <col min="8918" max="8918" width="15.453125" style="1" customWidth="1"/>
-    <col min="8919" max="8919" width="11.453125" style="1" customWidth="1"/>
-    <col min="8920" max="8920" width="17.90625" style="1" customWidth="1"/>
-    <col min="8921" max="8921" width="15.36328125" style="1" customWidth="1"/>
-    <col min="8922" max="8922" width="14.6328125" style="1" customWidth="1"/>
-    <col min="8923" max="8923" width="2.90625" style="1" customWidth="1"/>
+    <col min="8916" max="8916" width="11.08203125" style="1" customWidth="1"/>
+    <col min="8917" max="8917" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8918" max="8918" width="15.4140625" style="1" customWidth="1"/>
+    <col min="8919" max="8919" width="11.4140625" style="1" customWidth="1"/>
+    <col min="8920" max="8920" width="17.9140625" style="1" customWidth="1"/>
+    <col min="8921" max="8921" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8922" max="8922" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8923" max="8923" width="2.9140625" style="1" customWidth="1"/>
     <col min="8924" max="8924" width="15" style="1" customWidth="1"/>
-    <col min="8925" max="9167" width="11.36328125" style="1"/>
-    <col min="9168" max="9168" width="17.08984375" style="1" customWidth="1"/>
+    <col min="8925" max="9167" width="11.33203125" style="1"/>
+    <col min="9168" max="9168" width="17.08203125" style="1" customWidth="1"/>
     <col min="9169" max="9169" width="23" style="1" customWidth="1"/>
-    <col min="9170" max="9170" width="9.08984375" style="1" customWidth="1"/>
+    <col min="9170" max="9170" width="9.08203125" style="1" customWidth="1"/>
     <col min="9171" max="9171" width="8" style="1" customWidth="1"/>
-    <col min="9172" max="9172" width="11.08984375" style="1" customWidth="1"/>
-    <col min="9173" max="9173" width="15.36328125" style="1" customWidth="1"/>
-    <col min="9174" max="9174" width="15.453125" style="1" customWidth="1"/>
-    <col min="9175" max="9175" width="11.453125" style="1" customWidth="1"/>
-    <col min="9176" max="9176" width="17.90625" style="1" customWidth="1"/>
-    <col min="9177" max="9177" width="15.36328125" style="1" customWidth="1"/>
-    <col min="9178" max="9178" width="14.6328125" style="1" customWidth="1"/>
-    <col min="9179" max="9179" width="2.90625" style="1" customWidth="1"/>
+    <col min="9172" max="9172" width="11.08203125" style="1" customWidth="1"/>
+    <col min="9173" max="9173" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9174" max="9174" width="15.4140625" style="1" customWidth="1"/>
+    <col min="9175" max="9175" width="11.4140625" style="1" customWidth="1"/>
+    <col min="9176" max="9176" width="17.9140625" style="1" customWidth="1"/>
+    <col min="9177" max="9177" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9178" max="9178" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9179" max="9179" width="2.9140625" style="1" customWidth="1"/>
     <col min="9180" max="9180" width="15" style="1" customWidth="1"/>
-    <col min="9181" max="9423" width="11.36328125" style="1"/>
-    <col min="9424" max="9424" width="17.08984375" style="1" customWidth="1"/>
+    <col min="9181" max="9423" width="11.33203125" style="1"/>
+    <col min="9424" max="9424" width="17.08203125" style="1" customWidth="1"/>
     <col min="9425" max="9425" width="23" style="1" customWidth="1"/>
-    <col min="9426" max="9426" width="9.08984375" style="1" customWidth="1"/>
+    <col min="9426" max="9426" width="9.08203125" style="1" customWidth="1"/>
     <col min="9427" max="9427" width="8" style="1" customWidth="1"/>
-    <col min="9428" max="9428" width="11.08984375" style="1" customWidth="1"/>
-    <col min="9429" max="9429" width="15.36328125" style="1" customWidth="1"/>
-    <col min="9430" max="9430" width="15.453125" style="1" customWidth="1"/>
-    <col min="9431" max="9431" width="11.453125" style="1" customWidth="1"/>
-    <col min="9432" max="9432" width="17.90625" style="1" customWidth="1"/>
-    <col min="9433" max="9433" width="15.36328125" style="1" customWidth="1"/>
-    <col min="9434" max="9434" width="14.6328125" style="1" customWidth="1"/>
-    <col min="9435" max="9435" width="2.90625" style="1" customWidth="1"/>
+    <col min="9428" max="9428" width="11.08203125" style="1" customWidth="1"/>
+    <col min="9429" max="9429" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9430" max="9430" width="15.4140625" style="1" customWidth="1"/>
+    <col min="9431" max="9431" width="11.4140625" style="1" customWidth="1"/>
+    <col min="9432" max="9432" width="17.9140625" style="1" customWidth="1"/>
+    <col min="9433" max="9433" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9434" max="9434" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9435" max="9435" width="2.9140625" style="1" customWidth="1"/>
     <col min="9436" max="9436" width="15" style="1" customWidth="1"/>
-    <col min="9437" max="9679" width="11.36328125" style="1"/>
-    <col min="9680" max="9680" width="17.08984375" style="1" customWidth="1"/>
+    <col min="9437" max="9679" width="11.33203125" style="1"/>
+    <col min="9680" max="9680" width="17.08203125" style="1" customWidth="1"/>
     <col min="9681" max="9681" width="23" style="1" customWidth="1"/>
-    <col min="9682" max="9682" width="9.08984375" style="1" customWidth="1"/>
+    <col min="9682" max="9682" width="9.08203125" style="1" customWidth="1"/>
     <col min="9683" max="9683" width="8" style="1" customWidth="1"/>
-    <col min="9684" max="9684" width="11.08984375" style="1" customWidth="1"/>
-    <col min="9685" max="9685" width="15.36328125" style="1" customWidth="1"/>
-    <col min="9686" max="9686" width="15.453125" style="1" customWidth="1"/>
-    <col min="9687" max="9687" width="11.453125" style="1" customWidth="1"/>
-    <col min="9688" max="9688" width="17.90625" style="1" customWidth="1"/>
-    <col min="9689" max="9689" width="15.36328125" style="1" customWidth="1"/>
-    <col min="9690" max="9690" width="14.6328125" style="1" customWidth="1"/>
-    <col min="9691" max="9691" width="2.90625" style="1" customWidth="1"/>
+    <col min="9684" max="9684" width="11.08203125" style="1" customWidth="1"/>
+    <col min="9685" max="9685" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9686" max="9686" width="15.4140625" style="1" customWidth="1"/>
+    <col min="9687" max="9687" width="11.4140625" style="1" customWidth="1"/>
+    <col min="9688" max="9688" width="17.9140625" style="1" customWidth="1"/>
+    <col min="9689" max="9689" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9690" max="9690" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9691" max="9691" width="2.9140625" style="1" customWidth="1"/>
     <col min="9692" max="9692" width="15" style="1" customWidth="1"/>
-    <col min="9693" max="9935" width="11.36328125" style="1"/>
-    <col min="9936" max="9936" width="17.08984375" style="1" customWidth="1"/>
+    <col min="9693" max="9935" width="11.33203125" style="1"/>
+    <col min="9936" max="9936" width="17.08203125" style="1" customWidth="1"/>
     <col min="9937" max="9937" width="23" style="1" customWidth="1"/>
-    <col min="9938" max="9938" width="9.08984375" style="1" customWidth="1"/>
+    <col min="9938" max="9938" width="9.08203125" style="1" customWidth="1"/>
     <col min="9939" max="9939" width="8" style="1" customWidth="1"/>
-    <col min="9940" max="9940" width="11.08984375" style="1" customWidth="1"/>
-    <col min="9941" max="9941" width="15.36328125" style="1" customWidth="1"/>
-    <col min="9942" max="9942" width="15.453125" style="1" customWidth="1"/>
-    <col min="9943" max="9943" width="11.453125" style="1" customWidth="1"/>
-    <col min="9944" max="9944" width="17.90625" style="1" customWidth="1"/>
-    <col min="9945" max="9945" width="15.36328125" style="1" customWidth="1"/>
-    <col min="9946" max="9946" width="14.6328125" style="1" customWidth="1"/>
-    <col min="9947" max="9947" width="2.90625" style="1" customWidth="1"/>
+    <col min="9940" max="9940" width="11.08203125" style="1" customWidth="1"/>
+    <col min="9941" max="9941" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9942" max="9942" width="15.4140625" style="1" customWidth="1"/>
+    <col min="9943" max="9943" width="11.4140625" style="1" customWidth="1"/>
+    <col min="9944" max="9944" width="17.9140625" style="1" customWidth="1"/>
+    <col min="9945" max="9945" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9946" max="9946" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9947" max="9947" width="2.9140625" style="1" customWidth="1"/>
     <col min="9948" max="9948" width="15" style="1" customWidth="1"/>
-    <col min="9949" max="10191" width="11.36328125" style="1"/>
-    <col min="10192" max="10192" width="17.08984375" style="1" customWidth="1"/>
+    <col min="9949" max="10191" width="11.33203125" style="1"/>
+    <col min="10192" max="10192" width="17.08203125" style="1" customWidth="1"/>
     <col min="10193" max="10193" width="23" style="1" customWidth="1"/>
-    <col min="10194" max="10194" width="9.08984375" style="1" customWidth="1"/>
+    <col min="10194" max="10194" width="9.08203125" style="1" customWidth="1"/>
     <col min="10195" max="10195" width="8" style="1" customWidth="1"/>
-    <col min="10196" max="10196" width="11.08984375" style="1" customWidth="1"/>
-    <col min="10197" max="10197" width="15.36328125" style="1" customWidth="1"/>
-    <col min="10198" max="10198" width="15.453125" style="1" customWidth="1"/>
-    <col min="10199" max="10199" width="11.453125" style="1" customWidth="1"/>
-    <col min="10200" max="10200" width="17.90625" style="1" customWidth="1"/>
-    <col min="10201" max="10201" width="15.36328125" style="1" customWidth="1"/>
-    <col min="10202" max="10202" width="14.6328125" style="1" customWidth="1"/>
-    <col min="10203" max="10203" width="2.90625" style="1" customWidth="1"/>
+    <col min="10196" max="10196" width="11.08203125" style="1" customWidth="1"/>
+    <col min="10197" max="10197" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10198" max="10198" width="15.4140625" style="1" customWidth="1"/>
+    <col min="10199" max="10199" width="11.4140625" style="1" customWidth="1"/>
+    <col min="10200" max="10200" width="17.9140625" style="1" customWidth="1"/>
+    <col min="10201" max="10201" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10202" max="10202" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10203" max="10203" width="2.9140625" style="1" customWidth="1"/>
     <col min="10204" max="10204" width="15" style="1" customWidth="1"/>
-    <col min="10205" max="10447" width="11.36328125" style="1"/>
-    <col min="10448" max="10448" width="17.08984375" style="1" customWidth="1"/>
+    <col min="10205" max="10447" width="11.33203125" style="1"/>
+    <col min="10448" max="10448" width="17.08203125" style="1" customWidth="1"/>
     <col min="10449" max="10449" width="23" style="1" customWidth="1"/>
-    <col min="10450" max="10450" width="9.08984375" style="1" customWidth="1"/>
+    <col min="10450" max="10450" width="9.08203125" style="1" customWidth="1"/>
     <col min="10451" max="10451" width="8" style="1" customWidth="1"/>
-    <col min="10452" max="10452" width="11.08984375" style="1" customWidth="1"/>
-    <col min="10453" max="10453" width="15.36328125" style="1" customWidth="1"/>
-    <col min="10454" max="10454" width="15.453125" style="1" customWidth="1"/>
-    <col min="10455" max="10455" width="11.453125" style="1" customWidth="1"/>
-    <col min="10456" max="10456" width="17.90625" style="1" customWidth="1"/>
-    <col min="10457" max="10457" width="15.36328125" style="1" customWidth="1"/>
-    <col min="10458" max="10458" width="14.6328125" style="1" customWidth="1"/>
-    <col min="10459" max="10459" width="2.90625" style="1" customWidth="1"/>
+    <col min="10452" max="10452" width="11.08203125" style="1" customWidth="1"/>
+    <col min="10453" max="10453" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10454" max="10454" width="15.4140625" style="1" customWidth="1"/>
+    <col min="10455" max="10455" width="11.4140625" style="1" customWidth="1"/>
+    <col min="10456" max="10456" width="17.9140625" style="1" customWidth="1"/>
+    <col min="10457" max="10457" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10458" max="10458" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10459" max="10459" width="2.9140625" style="1" customWidth="1"/>
     <col min="10460" max="10460" width="15" style="1" customWidth="1"/>
-    <col min="10461" max="10703" width="11.36328125" style="1"/>
-    <col min="10704" max="10704" width="17.08984375" style="1" customWidth="1"/>
+    <col min="10461" max="10703" width="11.33203125" style="1"/>
+    <col min="10704" max="10704" width="17.08203125" style="1" customWidth="1"/>
     <col min="10705" max="10705" width="23" style="1" customWidth="1"/>
-    <col min="10706" max="10706" width="9.08984375" style="1" customWidth="1"/>
+    <col min="10706" max="10706" width="9.08203125" style="1" customWidth="1"/>
     <col min="10707" max="10707" width="8" style="1" customWidth="1"/>
-    <col min="10708" max="10708" width="11.08984375" style="1" customWidth="1"/>
-    <col min="10709" max="10709" width="15.36328125" style="1" customWidth="1"/>
-    <col min="10710" max="10710" width="15.453125" style="1" customWidth="1"/>
-    <col min="10711" max="10711" width="11.453125" style="1" customWidth="1"/>
-    <col min="10712" max="10712" width="17.90625" style="1" customWidth="1"/>
-    <col min="10713" max="10713" width="15.36328125" style="1" customWidth="1"/>
-    <col min="10714" max="10714" width="14.6328125" style="1" customWidth="1"/>
-    <col min="10715" max="10715" width="2.90625" style="1" customWidth="1"/>
+    <col min="10708" max="10708" width="11.08203125" style="1" customWidth="1"/>
+    <col min="10709" max="10709" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10710" max="10710" width="15.4140625" style="1" customWidth="1"/>
+    <col min="10711" max="10711" width="11.4140625" style="1" customWidth="1"/>
+    <col min="10712" max="10712" width="17.9140625" style="1" customWidth="1"/>
+    <col min="10713" max="10713" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10714" max="10714" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10715" max="10715" width="2.9140625" style="1" customWidth="1"/>
     <col min="10716" max="10716" width="15" style="1" customWidth="1"/>
-    <col min="10717" max="10959" width="11.36328125" style="1"/>
-    <col min="10960" max="10960" width="17.08984375" style="1" customWidth="1"/>
+    <col min="10717" max="10959" width="11.33203125" style="1"/>
+    <col min="10960" max="10960" width="17.08203125" style="1" customWidth="1"/>
     <col min="10961" max="10961" width="23" style="1" customWidth="1"/>
-    <col min="10962" max="10962" width="9.08984375" style="1" customWidth="1"/>
+    <col min="10962" max="10962" width="9.08203125" style="1" customWidth="1"/>
     <col min="10963" max="10963" width="8" style="1" customWidth="1"/>
-    <col min="10964" max="10964" width="11.08984375" style="1" customWidth="1"/>
-    <col min="10965" max="10965" width="15.36328125" style="1" customWidth="1"/>
-    <col min="10966" max="10966" width="15.453125" style="1" customWidth="1"/>
-    <col min="10967" max="10967" width="11.453125" style="1" customWidth="1"/>
-    <col min="10968" max="10968" width="17.90625" style="1" customWidth="1"/>
-    <col min="10969" max="10969" width="15.36328125" style="1" customWidth="1"/>
-    <col min="10970" max="10970" width="14.6328125" style="1" customWidth="1"/>
-    <col min="10971" max="10971" width="2.90625" style="1" customWidth="1"/>
+    <col min="10964" max="10964" width="11.08203125" style="1" customWidth="1"/>
+    <col min="10965" max="10965" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10966" max="10966" width="15.4140625" style="1" customWidth="1"/>
+    <col min="10967" max="10967" width="11.4140625" style="1" customWidth="1"/>
+    <col min="10968" max="10968" width="17.9140625" style="1" customWidth="1"/>
+    <col min="10969" max="10969" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10970" max="10970" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10971" max="10971" width="2.9140625" style="1" customWidth="1"/>
     <col min="10972" max="10972" width="15" style="1" customWidth="1"/>
-    <col min="10973" max="11215" width="11.36328125" style="1"/>
-    <col min="11216" max="11216" width="17.08984375" style="1" customWidth="1"/>
+    <col min="10973" max="11215" width="11.33203125" style="1"/>
+    <col min="11216" max="11216" width="17.08203125" style="1" customWidth="1"/>
     <col min="11217" max="11217" width="23" style="1" customWidth="1"/>
-    <col min="11218" max="11218" width="9.08984375" style="1" customWidth="1"/>
+    <col min="11218" max="11218" width="9.08203125" style="1" customWidth="1"/>
     <col min="11219" max="11219" width="8" style="1" customWidth="1"/>
-    <col min="11220" max="11220" width="11.08984375" style="1" customWidth="1"/>
-    <col min="11221" max="11221" width="15.36328125" style="1" customWidth="1"/>
-    <col min="11222" max="11222" width="15.453125" style="1" customWidth="1"/>
-    <col min="11223" max="11223" width="11.453125" style="1" customWidth="1"/>
-    <col min="11224" max="11224" width="17.90625" style="1" customWidth="1"/>
-    <col min="11225" max="11225" width="15.36328125" style="1" customWidth="1"/>
-    <col min="11226" max="11226" width="14.6328125" style="1" customWidth="1"/>
-    <col min="11227" max="11227" width="2.90625" style="1" customWidth="1"/>
+    <col min="11220" max="11220" width="11.08203125" style="1" customWidth="1"/>
+    <col min="11221" max="11221" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11222" max="11222" width="15.4140625" style="1" customWidth="1"/>
+    <col min="11223" max="11223" width="11.4140625" style="1" customWidth="1"/>
+    <col min="11224" max="11224" width="17.9140625" style="1" customWidth="1"/>
+    <col min="11225" max="11225" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11226" max="11226" width="14.6640625" style="1" customWidth="1"/>
+    <col min="11227" max="11227" width="2.9140625" style="1" customWidth="1"/>
     <col min="11228" max="11228" width="15" style="1" customWidth="1"/>
-    <col min="11229" max="11471" width="11.36328125" style="1"/>
-    <col min="11472" max="11472" width="17.08984375" style="1" customWidth="1"/>
+    <col min="11229" max="11471" width="11.33203125" style="1"/>
+    <col min="11472" max="11472" width="17.08203125" style="1" customWidth="1"/>
     <col min="11473" max="11473" width="23" style="1" customWidth="1"/>
-    <col min="11474" max="11474" width="9.08984375" style="1" customWidth="1"/>
+    <col min="11474" max="11474" width="9.08203125" style="1" customWidth="1"/>
     <col min="11475" max="11475" width="8" style="1" customWidth="1"/>
-    <col min="11476" max="11476" width="11.08984375" style="1" customWidth="1"/>
-    <col min="11477" max="11477" width="15.36328125" style="1" customWidth="1"/>
-    <col min="11478" max="11478" width="15.453125" style="1" customWidth="1"/>
-    <col min="11479" max="11479" width="11.453125" style="1" customWidth="1"/>
-    <col min="11480" max="11480" width="17.90625" style="1" customWidth="1"/>
-    <col min="11481" max="11481" width="15.36328125" style="1" customWidth="1"/>
-    <col min="11482" max="11482" width="14.6328125" style="1" customWidth="1"/>
-    <col min="11483" max="11483" width="2.90625" style="1" customWidth="1"/>
+    <col min="11476" max="11476" width="11.08203125" style="1" customWidth="1"/>
+    <col min="11477" max="11477" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11478" max="11478" width="15.4140625" style="1" customWidth="1"/>
+    <col min="11479" max="11479" width="11.4140625" style="1" customWidth="1"/>
+    <col min="11480" max="11480" width="17.9140625" style="1" customWidth="1"/>
+    <col min="11481" max="11481" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11482" max="11482" width="14.6640625" style="1" customWidth="1"/>
+    <col min="11483" max="11483" width="2.9140625" style="1" customWidth="1"/>
     <col min="11484" max="11484" width="15" style="1" customWidth="1"/>
-    <col min="11485" max="11727" width="11.36328125" style="1"/>
-    <col min="11728" max="11728" width="17.08984375" style="1" customWidth="1"/>
+    <col min="11485" max="11727" width="11.33203125" style="1"/>
+    <col min="11728" max="11728" width="17.08203125" style="1" customWidth="1"/>
     <col min="11729" max="11729" width="23" style="1" customWidth="1"/>
-    <col min="11730" max="11730" width="9.08984375" style="1" customWidth="1"/>
+    <col min="11730" max="11730" width="9.08203125" style="1" customWidth="1"/>
     <col min="11731" max="11731" width="8" style="1" customWidth="1"/>
-    <col min="11732" max="11732" width="11.08984375" style="1" customWidth="1"/>
-    <col min="11733" max="11733" width="15.36328125" style="1" customWidth="1"/>
-    <col min="11734" max="11734" width="15.453125" style="1" customWidth="1"/>
-    <col min="11735" max="11735" width="11.453125" style="1" customWidth="1"/>
-    <col min="11736" max="11736" width="17.90625" style="1" customWidth="1"/>
-    <col min="11737" max="11737" width="15.36328125" style="1" customWidth="1"/>
-    <col min="11738" max="11738" width="14.6328125" style="1" customWidth="1"/>
-    <col min="11739" max="11739" width="2.90625" style="1" customWidth="1"/>
+    <col min="11732" max="11732" width="11.08203125" style="1" customWidth="1"/>
+    <col min="11733" max="11733" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11734" max="11734" width="15.4140625" style="1" customWidth="1"/>
+    <col min="11735" max="11735" width="11.4140625" style="1" customWidth="1"/>
+    <col min="11736" max="11736" width="17.9140625" style="1" customWidth="1"/>
+    <col min="11737" max="11737" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11738" max="11738" width="14.6640625" style="1" customWidth="1"/>
+    <col min="11739" max="11739" width="2.9140625" style="1" customWidth="1"/>
     <col min="11740" max="11740" width="15" style="1" customWidth="1"/>
-    <col min="11741" max="11983" width="11.36328125" style="1"/>
-    <col min="11984" max="11984" width="17.08984375" style="1" customWidth="1"/>
+    <col min="11741" max="11983" width="11.33203125" style="1"/>
+    <col min="11984" max="11984" width="17.08203125" style="1" customWidth="1"/>
     <col min="11985" max="11985" width="23" style="1" customWidth="1"/>
-    <col min="11986" max="11986" width="9.08984375" style="1" customWidth="1"/>
+    <col min="11986" max="11986" width="9.08203125" style="1" customWidth="1"/>
     <col min="11987" max="11987" width="8" style="1" customWidth="1"/>
-    <col min="11988" max="11988" width="11.08984375" style="1" customWidth="1"/>
-    <col min="11989" max="11989" width="15.36328125" style="1" customWidth="1"/>
-    <col min="11990" max="11990" width="15.453125" style="1" customWidth="1"/>
-    <col min="11991" max="11991" width="11.453125" style="1" customWidth="1"/>
-    <col min="11992" max="11992" width="17.90625" style="1" customWidth="1"/>
-    <col min="11993" max="11993" width="15.36328125" style="1" customWidth="1"/>
-    <col min="11994" max="11994" width="14.6328125" style="1" customWidth="1"/>
-    <col min="11995" max="11995" width="2.90625" style="1" customWidth="1"/>
+    <col min="11988" max="11988" width="11.08203125" style="1" customWidth="1"/>
+    <col min="11989" max="11989" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11990" max="11990" width="15.4140625" style="1" customWidth="1"/>
+    <col min="11991" max="11991" width="11.4140625" style="1" customWidth="1"/>
+    <col min="11992" max="11992" width="17.9140625" style="1" customWidth="1"/>
+    <col min="11993" max="11993" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11994" max="11994" width="14.6640625" style="1" customWidth="1"/>
+    <col min="11995" max="11995" width="2.9140625" style="1" customWidth="1"/>
     <col min="11996" max="11996" width="15" style="1" customWidth="1"/>
-    <col min="11997" max="12239" width="11.36328125" style="1"/>
-    <col min="12240" max="12240" width="17.08984375" style="1" customWidth="1"/>
+    <col min="11997" max="12239" width="11.33203125" style="1"/>
+    <col min="12240" max="12240" width="17.08203125" style="1" customWidth="1"/>
     <col min="12241" max="12241" width="23" style="1" customWidth="1"/>
-    <col min="12242" max="12242" width="9.08984375" style="1" customWidth="1"/>
+    <col min="12242" max="12242" width="9.08203125" style="1" customWidth="1"/>
     <col min="12243" max="12243" width="8" style="1" customWidth="1"/>
-    <col min="12244" max="12244" width="11.08984375" style="1" customWidth="1"/>
-    <col min="12245" max="12245" width="15.36328125" style="1" customWidth="1"/>
-    <col min="12246" max="12246" width="15.453125" style="1" customWidth="1"/>
-    <col min="12247" max="12247" width="11.453125" style="1" customWidth="1"/>
-    <col min="12248" max="12248" width="17.90625" style="1" customWidth="1"/>
-    <col min="12249" max="12249" width="15.36328125" style="1" customWidth="1"/>
-    <col min="12250" max="12250" width="14.6328125" style="1" customWidth="1"/>
-    <col min="12251" max="12251" width="2.90625" style="1" customWidth="1"/>
+    <col min="12244" max="12244" width="11.08203125" style="1" customWidth="1"/>
+    <col min="12245" max="12245" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12246" max="12246" width="15.4140625" style="1" customWidth="1"/>
+    <col min="12247" max="12247" width="11.4140625" style="1" customWidth="1"/>
+    <col min="12248" max="12248" width="17.9140625" style="1" customWidth="1"/>
+    <col min="12249" max="12249" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12250" max="12250" width="14.6640625" style="1" customWidth="1"/>
+    <col min="12251" max="12251" width="2.9140625" style="1" customWidth="1"/>
     <col min="12252" max="12252" width="15" style="1" customWidth="1"/>
-    <col min="12253" max="12495" width="11.36328125" style="1"/>
-    <col min="12496" max="12496" width="17.08984375" style="1" customWidth="1"/>
+    <col min="12253" max="12495" width="11.33203125" style="1"/>
+    <col min="12496" max="12496" width="17.08203125" style="1" customWidth="1"/>
     <col min="12497" max="12497" width="23" style="1" customWidth="1"/>
-    <col min="12498" max="12498" width="9.08984375" style="1" customWidth="1"/>
+    <col min="12498" max="12498" width="9.08203125" style="1" customWidth="1"/>
     <col min="12499" max="12499" width="8" style="1" customWidth="1"/>
-    <col min="12500" max="12500" width="11.08984375" style="1" customWidth="1"/>
-    <col min="12501" max="12501" width="15.36328125" style="1" customWidth="1"/>
-    <col min="12502" max="12502" width="15.453125" style="1" customWidth="1"/>
-    <col min="12503" max="12503" width="11.453125" style="1" customWidth="1"/>
-    <col min="12504" max="12504" width="17.90625" style="1" customWidth="1"/>
-    <col min="12505" max="12505" width="15.36328125" style="1" customWidth="1"/>
-    <col min="12506" max="12506" width="14.6328125" style="1" customWidth="1"/>
-    <col min="12507" max="12507" width="2.90625" style="1" customWidth="1"/>
+    <col min="12500" max="12500" width="11.08203125" style="1" customWidth="1"/>
+    <col min="12501" max="12501" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12502" max="12502" width="15.4140625" style="1" customWidth="1"/>
+    <col min="12503" max="12503" width="11.4140625" style="1" customWidth="1"/>
+    <col min="12504" max="12504" width="17.9140625" style="1" customWidth="1"/>
+    <col min="12505" max="12505" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12506" max="12506" width="14.6640625" style="1" customWidth="1"/>
+    <col min="12507" max="12507" width="2.9140625" style="1" customWidth="1"/>
     <col min="12508" max="12508" width="15" style="1" customWidth="1"/>
-    <col min="12509" max="12751" width="11.36328125" style="1"/>
-    <col min="12752" max="12752" width="17.08984375" style="1" customWidth="1"/>
+    <col min="12509" max="12751" width="11.33203125" style="1"/>
+    <col min="12752" max="12752" width="17.08203125" style="1" customWidth="1"/>
     <col min="12753" max="12753" width="23" style="1" customWidth="1"/>
-    <col min="12754" max="12754" width="9.08984375" style="1" customWidth="1"/>
+    <col min="12754" max="12754" width="9.08203125" style="1" customWidth="1"/>
     <col min="12755" max="12755" width="8" style="1" customWidth="1"/>
-    <col min="12756" max="12756" width="11.08984375" style="1" customWidth="1"/>
-    <col min="12757" max="12757" width="15.36328125" style="1" customWidth="1"/>
-    <col min="12758" max="12758" width="15.453125" style="1" customWidth="1"/>
-    <col min="12759" max="12759" width="11.453125" style="1" customWidth="1"/>
-    <col min="12760" max="12760" width="17.90625" style="1" customWidth="1"/>
-    <col min="12761" max="12761" width="15.36328125" style="1" customWidth="1"/>
-    <col min="12762" max="12762" width="14.6328125" style="1" customWidth="1"/>
-    <col min="12763" max="12763" width="2.90625" style="1" customWidth="1"/>
+    <col min="12756" max="12756" width="11.08203125" style="1" customWidth="1"/>
+    <col min="12757" max="12757" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12758" max="12758" width="15.4140625" style="1" customWidth="1"/>
+    <col min="12759" max="12759" width="11.4140625" style="1" customWidth="1"/>
+    <col min="12760" max="12760" width="17.9140625" style="1" customWidth="1"/>
+    <col min="12761" max="12761" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12762" max="12762" width="14.6640625" style="1" customWidth="1"/>
+    <col min="12763" max="12763" width="2.9140625" style="1" customWidth="1"/>
     <col min="12764" max="12764" width="15" style="1" customWidth="1"/>
-    <col min="12765" max="13007" width="11.36328125" style="1"/>
-    <col min="13008" max="13008" width="17.08984375" style="1" customWidth="1"/>
+    <col min="12765" max="13007" width="11.33203125" style="1"/>
+    <col min="13008" max="13008" width="17.08203125" style="1" customWidth="1"/>
     <col min="13009" max="13009" width="23" style="1" customWidth="1"/>
-    <col min="13010" max="13010" width="9.08984375" style="1" customWidth="1"/>
+    <col min="13010" max="13010" width="9.08203125" style="1" customWidth="1"/>
     <col min="13011" max="13011" width="8" style="1" customWidth="1"/>
-    <col min="13012" max="13012" width="11.08984375" style="1" customWidth="1"/>
-    <col min="13013" max="13013" width="15.36328125" style="1" customWidth="1"/>
-    <col min="13014" max="13014" width="15.453125" style="1" customWidth="1"/>
-    <col min="13015" max="13015" width="11.453125" style="1" customWidth="1"/>
-    <col min="13016" max="13016" width="17.90625" style="1" customWidth="1"/>
-    <col min="13017" max="13017" width="15.36328125" style="1" customWidth="1"/>
-    <col min="13018" max="13018" width="14.6328125" style="1" customWidth="1"/>
-    <col min="13019" max="13019" width="2.90625" style="1" customWidth="1"/>
+    <col min="13012" max="13012" width="11.08203125" style="1" customWidth="1"/>
+    <col min="13013" max="13013" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13014" max="13014" width="15.4140625" style="1" customWidth="1"/>
+    <col min="13015" max="13015" width="11.4140625" style="1" customWidth="1"/>
+    <col min="13016" max="13016" width="17.9140625" style="1" customWidth="1"/>
+    <col min="13017" max="13017" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13018" max="13018" width="14.6640625" style="1" customWidth="1"/>
+    <col min="13019" max="13019" width="2.9140625" style="1" customWidth="1"/>
     <col min="13020" max="13020" width="15" style="1" customWidth="1"/>
-    <col min="13021" max="13263" width="11.36328125" style="1"/>
-    <col min="13264" max="13264" width="17.08984375" style="1" customWidth="1"/>
+    <col min="13021" max="13263" width="11.33203125" style="1"/>
+    <col min="13264" max="13264" width="17.08203125" style="1" customWidth="1"/>
     <col min="13265" max="13265" width="23" style="1" customWidth="1"/>
-    <col min="13266" max="13266" width="9.08984375" style="1" customWidth="1"/>
+    <col min="13266" max="13266" width="9.08203125" style="1" customWidth="1"/>
     <col min="13267" max="13267" width="8" style="1" customWidth="1"/>
-    <col min="13268" max="13268" width="11.08984375" style="1" customWidth="1"/>
-    <col min="13269" max="13269" width="15.36328125" style="1" customWidth="1"/>
-    <col min="13270" max="13270" width="15.453125" style="1" customWidth="1"/>
-    <col min="13271" max="13271" width="11.453125" style="1" customWidth="1"/>
-    <col min="13272" max="13272" width="17.90625" style="1" customWidth="1"/>
-    <col min="13273" max="13273" width="15.36328125" style="1" customWidth="1"/>
-    <col min="13274" max="13274" width="14.6328125" style="1" customWidth="1"/>
-    <col min="13275" max="13275" width="2.90625" style="1" customWidth="1"/>
+    <col min="13268" max="13268" width="11.08203125" style="1" customWidth="1"/>
+    <col min="13269" max="13269" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13270" max="13270" width="15.4140625" style="1" customWidth="1"/>
+    <col min="13271" max="13271" width="11.4140625" style="1" customWidth="1"/>
+    <col min="13272" max="13272" width="17.9140625" style="1" customWidth="1"/>
+    <col min="13273" max="13273" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13274" max="13274" width="14.6640625" style="1" customWidth="1"/>
+    <col min="13275" max="13275" width="2.9140625" style="1" customWidth="1"/>
     <col min="13276" max="13276" width="15" style="1" customWidth="1"/>
-    <col min="13277" max="13519" width="11.36328125" style="1"/>
-    <col min="13520" max="13520" width="17.08984375" style="1" customWidth="1"/>
+    <col min="13277" max="13519" width="11.33203125" style="1"/>
+    <col min="13520" max="13520" width="17.08203125" style="1" customWidth="1"/>
     <col min="13521" max="13521" width="23" style="1" customWidth="1"/>
-    <col min="13522" max="13522" width="9.08984375" style="1" customWidth="1"/>
+    <col min="13522" max="13522" width="9.08203125" style="1" customWidth="1"/>
     <col min="13523" max="13523" width="8" style="1" customWidth="1"/>
-    <col min="13524" max="13524" width="11.08984375" style="1" customWidth="1"/>
-    <col min="13525" max="13525" width="15.36328125" style="1" customWidth="1"/>
-    <col min="13526" max="13526" width="15.453125" style="1" customWidth="1"/>
-    <col min="13527" max="13527" width="11.453125" style="1" customWidth="1"/>
-    <col min="13528" max="13528" width="17.90625" style="1" customWidth="1"/>
-    <col min="13529" max="13529" width="15.36328125" style="1" customWidth="1"/>
-    <col min="13530" max="13530" width="14.6328125" style="1" customWidth="1"/>
-    <col min="13531" max="13531" width="2.90625" style="1" customWidth="1"/>
+    <col min="13524" max="13524" width="11.08203125" style="1" customWidth="1"/>
+    <col min="13525" max="13525" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13526" max="13526" width="15.4140625" style="1" customWidth="1"/>
+    <col min="13527" max="13527" width="11.4140625" style="1" customWidth="1"/>
+    <col min="13528" max="13528" width="17.9140625" style="1" customWidth="1"/>
+    <col min="13529" max="13529" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13530" max="13530" width="14.6640625" style="1" customWidth="1"/>
+    <col min="13531" max="13531" width="2.9140625" style="1" customWidth="1"/>
     <col min="13532" max="13532" width="15" style="1" customWidth="1"/>
-    <col min="13533" max="13775" width="11.36328125" style="1"/>
-    <col min="13776" max="13776" width="17.08984375" style="1" customWidth="1"/>
+    <col min="13533" max="13775" width="11.33203125" style="1"/>
+    <col min="13776" max="13776" width="17.08203125" style="1" customWidth="1"/>
     <col min="13777" max="13777" width="23" style="1" customWidth="1"/>
-    <col min="13778" max="13778" width="9.08984375" style="1" customWidth="1"/>
+    <col min="13778" max="13778" width="9.08203125" style="1" customWidth="1"/>
     <col min="13779" max="13779" width="8" style="1" customWidth="1"/>
-    <col min="13780" max="13780" width="11.08984375" style="1" customWidth="1"/>
-    <col min="13781" max="13781" width="15.36328125" style="1" customWidth="1"/>
-    <col min="13782" max="13782" width="15.453125" style="1" customWidth="1"/>
-    <col min="13783" max="13783" width="11.453125" style="1" customWidth="1"/>
-    <col min="13784" max="13784" width="17.90625" style="1" customWidth="1"/>
-    <col min="13785" max="13785" width="15.36328125" style="1" customWidth="1"/>
-    <col min="13786" max="13786" width="14.6328125" style="1" customWidth="1"/>
-    <col min="13787" max="13787" width="2.90625" style="1" customWidth="1"/>
+    <col min="13780" max="13780" width="11.08203125" style="1" customWidth="1"/>
+    <col min="13781" max="13781" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13782" max="13782" width="15.4140625" style="1" customWidth="1"/>
+    <col min="13783" max="13783" width="11.4140625" style="1" customWidth="1"/>
+    <col min="13784" max="13784" width="17.9140625" style="1" customWidth="1"/>
+    <col min="13785" max="13785" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13786" max="13786" width="14.6640625" style="1" customWidth="1"/>
+    <col min="13787" max="13787" width="2.9140625" style="1" customWidth="1"/>
     <col min="13788" max="13788" width="15" style="1" customWidth="1"/>
-    <col min="13789" max="14031" width="11.36328125" style="1"/>
-    <col min="14032" max="14032" width="17.08984375" style="1" customWidth="1"/>
+    <col min="13789" max="14031" width="11.33203125" style="1"/>
+    <col min="14032" max="14032" width="17.08203125" style="1" customWidth="1"/>
     <col min="14033" max="14033" width="23" style="1" customWidth="1"/>
-    <col min="14034" max="14034" width="9.08984375" style="1" customWidth="1"/>
+    <col min="14034" max="14034" width="9.08203125" style="1" customWidth="1"/>
     <col min="14035" max="14035" width="8" style="1" customWidth="1"/>
-    <col min="14036" max="14036" width="11.08984375" style="1" customWidth="1"/>
-    <col min="14037" max="14037" width="15.36328125" style="1" customWidth="1"/>
-    <col min="14038" max="14038" width="15.453125" style="1" customWidth="1"/>
-    <col min="14039" max="14039" width="11.453125" style="1" customWidth="1"/>
-    <col min="14040" max="14040" width="17.90625" style="1" customWidth="1"/>
-    <col min="14041" max="14041" width="15.36328125" style="1" customWidth="1"/>
-    <col min="14042" max="14042" width="14.6328125" style="1" customWidth="1"/>
-    <col min="14043" max="14043" width="2.90625" style="1" customWidth="1"/>
+    <col min="14036" max="14036" width="11.08203125" style="1" customWidth="1"/>
+    <col min="14037" max="14037" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14038" max="14038" width="15.4140625" style="1" customWidth="1"/>
+    <col min="14039" max="14039" width="11.4140625" style="1" customWidth="1"/>
+    <col min="14040" max="14040" width="17.9140625" style="1" customWidth="1"/>
+    <col min="14041" max="14041" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14042" max="14042" width="14.6640625" style="1" customWidth="1"/>
+    <col min="14043" max="14043" width="2.9140625" style="1" customWidth="1"/>
     <col min="14044" max="14044" width="15" style="1" customWidth="1"/>
-    <col min="14045" max="14287" width="11.36328125" style="1"/>
-    <col min="14288" max="14288" width="17.08984375" style="1" customWidth="1"/>
+    <col min="14045" max="14287" width="11.33203125" style="1"/>
+    <col min="14288" max="14288" width="17.08203125" style="1" customWidth="1"/>
     <col min="14289" max="14289" width="23" style="1" customWidth="1"/>
-    <col min="14290" max="14290" width="9.08984375" style="1" customWidth="1"/>
+    <col min="14290" max="14290" width="9.08203125" style="1" customWidth="1"/>
     <col min="14291" max="14291" width="8" style="1" customWidth="1"/>
-    <col min="14292" max="14292" width="11.08984375" style="1" customWidth="1"/>
-    <col min="14293" max="14293" width="15.36328125" style="1" customWidth="1"/>
-    <col min="14294" max="14294" width="15.453125" style="1" customWidth="1"/>
-    <col min="14295" max="14295" width="11.453125" style="1" customWidth="1"/>
-    <col min="14296" max="14296" width="17.90625" style="1" customWidth="1"/>
-    <col min="14297" max="14297" width="15.36328125" style="1" customWidth="1"/>
-    <col min="14298" max="14298" width="14.6328125" style="1" customWidth="1"/>
-    <col min="14299" max="14299" width="2.90625" style="1" customWidth="1"/>
+    <col min="14292" max="14292" width="11.08203125" style="1" customWidth="1"/>
+    <col min="14293" max="14293" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14294" max="14294" width="15.4140625" style="1" customWidth="1"/>
+    <col min="14295" max="14295" width="11.4140625" style="1" customWidth="1"/>
+    <col min="14296" max="14296" width="17.9140625" style="1" customWidth="1"/>
+    <col min="14297" max="14297" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14298" max="14298" width="14.6640625" style="1" customWidth="1"/>
+    <col min="14299" max="14299" width="2.9140625" style="1" customWidth="1"/>
     <col min="14300" max="14300" width="15" style="1" customWidth="1"/>
-    <col min="14301" max="14543" width="11.36328125" style="1"/>
-    <col min="14544" max="14544" width="17.08984375" style="1" customWidth="1"/>
+    <col min="14301" max="14543" width="11.33203125" style="1"/>
+    <col min="14544" max="14544" width="17.08203125" style="1" customWidth="1"/>
     <col min="14545" max="14545" width="23" style="1" customWidth="1"/>
-    <col min="14546" max="14546" width="9.08984375" style="1" customWidth="1"/>
+    <col min="14546" max="14546" width="9.08203125" style="1" customWidth="1"/>
     <col min="14547" max="14547" width="8" style="1" customWidth="1"/>
-    <col min="14548" max="14548" width="11.08984375" style="1" customWidth="1"/>
-    <col min="14549" max="14549" width="15.36328125" style="1" customWidth="1"/>
-    <col min="14550" max="14550" width="15.453125" style="1" customWidth="1"/>
-    <col min="14551" max="14551" width="11.453125" style="1" customWidth="1"/>
-    <col min="14552" max="14552" width="17.90625" style="1" customWidth="1"/>
-    <col min="14553" max="14553" width="15.36328125" style="1" customWidth="1"/>
-    <col min="14554" max="14554" width="14.6328125" style="1" customWidth="1"/>
-    <col min="14555" max="14555" width="2.90625" style="1" customWidth="1"/>
+    <col min="14548" max="14548" width="11.08203125" style="1" customWidth="1"/>
+    <col min="14549" max="14549" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14550" max="14550" width="15.4140625" style="1" customWidth="1"/>
+    <col min="14551" max="14551" width="11.4140625" style="1" customWidth="1"/>
+    <col min="14552" max="14552" width="17.9140625" style="1" customWidth="1"/>
+    <col min="14553" max="14553" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14554" max="14554" width="14.6640625" style="1" customWidth="1"/>
+    <col min="14555" max="14555" width="2.9140625" style="1" customWidth="1"/>
     <col min="14556" max="14556" width="15" style="1" customWidth="1"/>
-    <col min="14557" max="14799" width="11.36328125" style="1"/>
-    <col min="14800" max="14800" width="17.08984375" style="1" customWidth="1"/>
+    <col min="14557" max="14799" width="11.33203125" style="1"/>
+    <col min="14800" max="14800" width="17.08203125" style="1" customWidth="1"/>
     <col min="14801" max="14801" width="23" style="1" customWidth="1"/>
-    <col min="14802" max="14802" width="9.08984375" style="1" customWidth="1"/>
+    <col min="14802" max="14802" width="9.08203125" style="1" customWidth="1"/>
     <col min="14803" max="14803" width="8" style="1" customWidth="1"/>
-    <col min="14804" max="14804" width="11.08984375" style="1" customWidth="1"/>
-    <col min="14805" max="14805" width="15.36328125" style="1" customWidth="1"/>
-    <col min="14806" max="14806" width="15.453125" style="1" customWidth="1"/>
-    <col min="14807" max="14807" width="11.453125" style="1" customWidth="1"/>
-    <col min="14808" max="14808" width="17.90625" style="1" customWidth="1"/>
-    <col min="14809" max="14809" width="15.36328125" style="1" customWidth="1"/>
-    <col min="14810" max="14810" width="14.6328125" style="1" customWidth="1"/>
-    <col min="14811" max="14811" width="2.90625" style="1" customWidth="1"/>
+    <col min="14804" max="14804" width="11.08203125" style="1" customWidth="1"/>
+    <col min="14805" max="14805" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14806" max="14806" width="15.4140625" style="1" customWidth="1"/>
+    <col min="14807" max="14807" width="11.4140625" style="1" customWidth="1"/>
+    <col min="14808" max="14808" width="17.9140625" style="1" customWidth="1"/>
+    <col min="14809" max="14809" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14810" max="14810" width="14.6640625" style="1" customWidth="1"/>
+    <col min="14811" max="14811" width="2.9140625" style="1" customWidth="1"/>
     <col min="14812" max="14812" width="15" style="1" customWidth="1"/>
-    <col min="14813" max="15055" width="11.36328125" style="1"/>
-    <col min="15056" max="15056" width="17.08984375" style="1" customWidth="1"/>
+    <col min="14813" max="15055" width="11.33203125" style="1"/>
+    <col min="15056" max="15056" width="17.08203125" style="1" customWidth="1"/>
     <col min="15057" max="15057" width="23" style="1" customWidth="1"/>
-    <col min="15058" max="15058" width="9.08984375" style="1" customWidth="1"/>
+    <col min="15058" max="15058" width="9.08203125" style="1" customWidth="1"/>
     <col min="15059" max="15059" width="8" style="1" customWidth="1"/>
-    <col min="15060" max="15060" width="11.08984375" style="1" customWidth="1"/>
-    <col min="15061" max="15061" width="15.36328125" style="1" customWidth="1"/>
-    <col min="15062" max="15062" width="15.453125" style="1" customWidth="1"/>
-    <col min="15063" max="15063" width="11.453125" style="1" customWidth="1"/>
-    <col min="15064" max="15064" width="17.90625" style="1" customWidth="1"/>
-    <col min="15065" max="15065" width="15.36328125" style="1" customWidth="1"/>
-    <col min="15066" max="15066" width="14.6328125" style="1" customWidth="1"/>
-    <col min="15067" max="15067" width="2.90625" style="1" customWidth="1"/>
+    <col min="15060" max="15060" width="11.08203125" style="1" customWidth="1"/>
+    <col min="15061" max="15061" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15062" max="15062" width="15.4140625" style="1" customWidth="1"/>
+    <col min="15063" max="15063" width="11.4140625" style="1" customWidth="1"/>
+    <col min="15064" max="15064" width="17.9140625" style="1" customWidth="1"/>
+    <col min="15065" max="15065" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15066" max="15066" width="14.6640625" style="1" customWidth="1"/>
+    <col min="15067" max="15067" width="2.9140625" style="1" customWidth="1"/>
     <col min="15068" max="15068" width="15" style="1" customWidth="1"/>
-    <col min="15069" max="15311" width="11.36328125" style="1"/>
-    <col min="15312" max="15312" width="17.08984375" style="1" customWidth="1"/>
+    <col min="15069" max="15311" width="11.33203125" style="1"/>
+    <col min="15312" max="15312" width="17.08203125" style="1" customWidth="1"/>
     <col min="15313" max="15313" width="23" style="1" customWidth="1"/>
-    <col min="15314" max="15314" width="9.08984375" style="1" customWidth="1"/>
+    <col min="15314" max="15314" width="9.08203125" style="1" customWidth="1"/>
     <col min="15315" max="15315" width="8" style="1" customWidth="1"/>
-    <col min="15316" max="15316" width="11.08984375" style="1" customWidth="1"/>
-    <col min="15317" max="15317" width="15.36328125" style="1" customWidth="1"/>
-    <col min="15318" max="15318" width="15.453125" style="1" customWidth="1"/>
-    <col min="15319" max="15319" width="11.453125" style="1" customWidth="1"/>
-    <col min="15320" max="15320" width="17.90625" style="1" customWidth="1"/>
-    <col min="15321" max="15321" width="15.36328125" style="1" customWidth="1"/>
-    <col min="15322" max="15322" width="14.6328125" style="1" customWidth="1"/>
-    <col min="15323" max="15323" width="2.90625" style="1" customWidth="1"/>
+    <col min="15316" max="15316" width="11.08203125" style="1" customWidth="1"/>
+    <col min="15317" max="15317" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15318" max="15318" width="15.4140625" style="1" customWidth="1"/>
+    <col min="15319" max="15319" width="11.4140625" style="1" customWidth="1"/>
+    <col min="15320" max="15320" width="17.9140625" style="1" customWidth="1"/>
+    <col min="15321" max="15321" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15322" max="15322" width="14.6640625" style="1" customWidth="1"/>
+    <col min="15323" max="15323" width="2.9140625" style="1" customWidth="1"/>
     <col min="15324" max="15324" width="15" style="1" customWidth="1"/>
-    <col min="15325" max="15567" width="11.36328125" style="1"/>
-    <col min="15568" max="15568" width="17.08984375" style="1" customWidth="1"/>
+    <col min="15325" max="15567" width="11.33203125" style="1"/>
+    <col min="15568" max="15568" width="17.08203125" style="1" customWidth="1"/>
     <col min="15569" max="15569" width="23" style="1" customWidth="1"/>
-    <col min="15570" max="15570" width="9.08984375" style="1" customWidth="1"/>
+    <col min="15570" max="15570" width="9.08203125" style="1" customWidth="1"/>
     <col min="15571" max="15571" width="8" style="1" customWidth="1"/>
-    <col min="15572" max="15572" width="11.08984375" style="1" customWidth="1"/>
-    <col min="15573" max="15573" width="15.36328125" style="1" customWidth="1"/>
-    <col min="15574" max="15574" width="15.453125" style="1" customWidth="1"/>
-    <col min="15575" max="15575" width="11.453125" style="1" customWidth="1"/>
-    <col min="15576" max="15576" width="17.90625" style="1" customWidth="1"/>
-    <col min="15577" max="15577" width="15.36328125" style="1" customWidth="1"/>
-    <col min="15578" max="15578" width="14.6328125" style="1" customWidth="1"/>
-    <col min="15579" max="15579" width="2.90625" style="1" customWidth="1"/>
+    <col min="15572" max="15572" width="11.08203125" style="1" customWidth="1"/>
+    <col min="15573" max="15573" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15574" max="15574" width="15.4140625" style="1" customWidth="1"/>
+    <col min="15575" max="15575" width="11.4140625" style="1" customWidth="1"/>
+    <col min="15576" max="15576" width="17.9140625" style="1" customWidth="1"/>
+    <col min="15577" max="15577" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15578" max="15578" width="14.6640625" style="1" customWidth="1"/>
+    <col min="15579" max="15579" width="2.9140625" style="1" customWidth="1"/>
     <col min="15580" max="15580" width="15" style="1" customWidth="1"/>
-    <col min="15581" max="15823" width="11.36328125" style="1"/>
-    <col min="15824" max="15824" width="17.08984375" style="1" customWidth="1"/>
+    <col min="15581" max="15823" width="11.33203125" style="1"/>
+    <col min="15824" max="15824" width="17.08203125" style="1" customWidth="1"/>
     <col min="15825" max="15825" width="23" style="1" customWidth="1"/>
-    <col min="15826" max="15826" width="9.08984375" style="1" customWidth="1"/>
+    <col min="15826" max="15826" width="9.08203125" style="1" customWidth="1"/>
     <col min="15827" max="15827" width="8" style="1" customWidth="1"/>
-    <col min="15828" max="15828" width="11.08984375" style="1" customWidth="1"/>
-    <col min="15829" max="15829" width="15.36328125" style="1" customWidth="1"/>
-    <col min="15830" max="15830" width="15.453125" style="1" customWidth="1"/>
-    <col min="15831" max="15831" width="11.453125" style="1" customWidth="1"/>
-    <col min="15832" max="15832" width="17.90625" style="1" customWidth="1"/>
-    <col min="15833" max="15833" width="15.36328125" style="1" customWidth="1"/>
-    <col min="15834" max="15834" width="14.6328125" style="1" customWidth="1"/>
-    <col min="15835" max="15835" width="2.90625" style="1" customWidth="1"/>
+    <col min="15828" max="15828" width="11.08203125" style="1" customWidth="1"/>
+    <col min="15829" max="15829" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15830" max="15830" width="15.4140625" style="1" customWidth="1"/>
+    <col min="15831" max="15831" width="11.4140625" style="1" customWidth="1"/>
+    <col min="15832" max="15832" width="17.9140625" style="1" customWidth="1"/>
+    <col min="15833" max="15833" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15834" max="15834" width="14.6640625" style="1" customWidth="1"/>
+    <col min="15835" max="15835" width="2.9140625" style="1" customWidth="1"/>
     <col min="15836" max="15836" width="15" style="1" customWidth="1"/>
-    <col min="15837" max="16079" width="11.36328125" style="1"/>
-    <col min="16080" max="16080" width="17.08984375" style="1" customWidth="1"/>
+    <col min="15837" max="16079" width="11.33203125" style="1"/>
+    <col min="16080" max="16080" width="17.08203125" style="1" customWidth="1"/>
     <col min="16081" max="16081" width="23" style="1" customWidth="1"/>
-    <col min="16082" max="16082" width="9.08984375" style="1" customWidth="1"/>
+    <col min="16082" max="16082" width="9.08203125" style="1" customWidth="1"/>
     <col min="16083" max="16083" width="8" style="1" customWidth="1"/>
-    <col min="16084" max="16084" width="11.08984375" style="1" customWidth="1"/>
-    <col min="16085" max="16085" width="15.36328125" style="1" customWidth="1"/>
-    <col min="16086" max="16086" width="15.453125" style="1" customWidth="1"/>
-    <col min="16087" max="16087" width="11.453125" style="1" customWidth="1"/>
-    <col min="16088" max="16088" width="17.90625" style="1" customWidth="1"/>
-    <col min="16089" max="16089" width="15.36328125" style="1" customWidth="1"/>
-    <col min="16090" max="16090" width="14.6328125" style="1" customWidth="1"/>
-    <col min="16091" max="16091" width="2.90625" style="1" customWidth="1"/>
+    <col min="16084" max="16084" width="11.08203125" style="1" customWidth="1"/>
+    <col min="16085" max="16085" width="15.33203125" style="1" customWidth="1"/>
+    <col min="16086" max="16086" width="15.4140625" style="1" customWidth="1"/>
+    <col min="16087" max="16087" width="11.4140625" style="1" customWidth="1"/>
+    <col min="16088" max="16088" width="17.9140625" style="1" customWidth="1"/>
+    <col min="16089" max="16089" width="15.33203125" style="1" customWidth="1"/>
+    <col min="16090" max="16090" width="14.6640625" style="1" customWidth="1"/>
+    <col min="16091" max="16091" width="2.9140625" style="1" customWidth="1"/>
     <col min="16092" max="16092" width="15" style="1" customWidth="1"/>
-    <col min="16093" max="16384" width="11.36328125" style="1"/>
+    <col min="16093" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" ht="25" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" s="9" customFormat="1" ht="25.05" customHeight="1">
+      <c r="A1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="12.5">
-      <c r="A2" s="13">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="12.65">
+      <c r="A2" s="10">
         <v>44197</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="10">
         <v>44245</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="11">
         <v>1049701.6599999999</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="12.5">
-      <c r="A3" s="13">
+    <row r="3" spans="1:7" s="2" customFormat="1" ht="12.65">
+      <c r="A3" s="10">
         <v>44228</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="10">
         <v>44271</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="11">
         <v>980907.98</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="12"/>
     </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="12.5">
-      <c r="A4" s="13">
+    <row r="4" spans="1:7" s="2" customFormat="1" ht="12.65">
+      <c r="A4" s="10">
         <v>44256</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>44302</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="11">
         <v>970699.5</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="12"/>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="12.5">
-      <c r="A5" s="13">
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="12.65">
+      <c r="A5" s="10">
         <v>44287</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>44334</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="11">
         <v>910843.84</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="12"/>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="12.5">
-      <c r="A6" s="13">
+    <row r="6" spans="1:7" s="2" customFormat="1" ht="12.65">
+      <c r="A6" s="10">
         <v>44317</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>44363</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="11">
         <v>872453.59</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="12.5">
-      <c r="A7" s="13">
+    <row r="7" spans="1:7" s="2" customFormat="1" ht="12.65">
+      <c r="A7" s="10">
         <v>44348</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="10">
         <v>44393</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="11">
         <v>909699.34</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="12.5">
-      <c r="A8" s="13">
+    <row r="8" spans="1:7" s="2" customFormat="1" ht="12.65">
+      <c r="A8" s="10">
         <v>44378</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <v>44426</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="11">
         <v>898519.07</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="12"/>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="12.5">
-      <c r="A9" s="13">
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="12.65">
+      <c r="A9" s="10">
         <v>44409</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <v>44455</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="11">
         <v>972874.76</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="12"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="12.5">
-      <c r="A10" s="13">
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="12.65">
+      <c r="A10" s="10">
         <v>44440</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <v>44487</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <v>1200555.97</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="12.5">
-      <c r="A11" s="13">
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="12.65">
+      <c r="A11" s="10">
         <v>44470</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="10">
         <v>44516</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <v>1252203.6599999999</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="12.5">
-      <c r="A12" s="13">
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="12.65">
+      <c r="A12" s="10">
         <v>44501</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="10">
         <v>44546</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="11">
         <v>1633095.81</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="12"/>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="12.5">
-      <c r="A13" s="13">
+    <row r="13" spans="1:7" s="2" customFormat="1" ht="12.65">
+      <c r="A13" s="10">
         <v>44531</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="10">
         <v>44579</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="11">
         <v>9254377.9900000002</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A14" s="13">
+    <row r="14" spans="1:7" ht="15.2" customHeight="1">
+      <c r="A14" s="10">
         <v>44562</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="10">
         <v>44608</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="11">
         <v>1496121.51</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="12"/>
     </row>
-    <row r="15" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A15" s="13">
+    <row r="15" spans="1:7" ht="15.2" customHeight="1">
+      <c r="A15" s="10">
         <v>44593</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="10">
         <v>44636</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="11">
         <v>1403817.6</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="12"/>
     </row>
-    <row r="16" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A16" s="13">
+    <row r="16" spans="1:7" ht="15.2" customHeight="1">
+      <c r="A16" s="10">
         <v>44621</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="10">
         <v>44670</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="11">
         <v>1541435.3</v>
       </c>
-      <c r="G16" s="15"/>
+      <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A17" s="13">
+    <row r="17" spans="1:7" ht="15.2" customHeight="1">
+      <c r="A17" s="10">
         <v>44652</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="10">
         <v>44698</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="11">
         <v>1476771.71</v>
       </c>
-      <c r="G17" s="15"/>
+      <c r="G17" s="12"/>
     </row>
-    <row r="18" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A18" s="13">
+    <row r="18" spans="1:7" ht="15.2" customHeight="1">
+      <c r="A18" s="10">
         <v>44682</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="10">
         <v>44728</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="11">
         <v>1652402.8</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="12"/>
     </row>
-    <row r="19" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A19" s="13">
+    <row r="19" spans="1:7" ht="15.2" customHeight="1">
+      <c r="A19" s="10">
         <v>44713</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="10">
         <v>44760</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="11">
         <v>1957556.31</v>
       </c>
-      <c r="G19" s="15"/>
+      <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A20" s="13">
+    <row r="20" spans="1:7" ht="15.2" customHeight="1">
+      <c r="A20" s="10">
         <v>44743</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="10">
         <v>44790</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="11">
         <v>3015291.35</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A21" s="13">
+    <row r="21" spans="1:7" ht="15.2" customHeight="1">
+      <c r="A21" s="10">
         <v>44774</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="10">
         <v>44820</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="11">
         <v>2613388.7999999998</v>
       </c>
-      <c r="G21" s="15"/>
+      <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A22" s="13">
+    <row r="22" spans="1:7" ht="15.2" customHeight="1">
+      <c r="A22" s="10">
         <v>44805</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="10">
         <v>44852</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="11">
         <v>2674546.46</v>
       </c>
-      <c r="G22" s="15"/>
+      <c r="G22" s="12"/>
     </row>
-    <row r="23" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A23" s="13">
+    <row r="23" spans="1:7" ht="15.2" customHeight="1">
+      <c r="A23" s="10">
         <v>44835</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="10">
         <v>44881</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="11">
         <v>2486449.64</v>
       </c>
-      <c r="G23" s="15"/>
+      <c r="G23" s="12"/>
     </row>
-    <row r="24" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A24" s="13">
+    <row r="24" spans="1:7" ht="15.2" customHeight="1">
+      <c r="A24" s="10">
         <v>44866</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="10">
         <v>44911</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="11">
         <v>2845086.27</v>
       </c>
-      <c r="G24" s="15"/>
+      <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" ht="15.25" customHeight="1">
-      <c r="A25" s="13">
+    <row r="25" spans="1:7" ht="15.2" customHeight="1">
+      <c r="A25" s="10">
         <v>44896</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="10">
         <v>44943</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="11">
         <v>37750817.140000001</v>
       </c>
-      <c r="G25" s="15"/>
+      <c r="G25" s="12"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -35513,1187 +35512,1187 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.26953125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="11.7"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="14.26953125" style="17"/>
-    <col min="3" max="3" width="13.90625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.08984375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="12" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9.7265625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.26953125" style="17" customWidth="1"/>
-    <col min="8" max="9" width="8.36328125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" style="17" customWidth="1"/>
-    <col min="11" max="12" width="11.1796875" style="17" customWidth="1"/>
-    <col min="13" max="16384" width="14.26953125" style="17"/>
+    <col min="1" max="1" width="12.08203125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="14"/>
+    <col min="3" max="3" width="13.9140625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="12" style="14" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="14" customWidth="1"/>
+    <col min="8" max="9" width="8.33203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="14" customWidth="1"/>
+    <col min="11" max="12" width="11.1640625" style="14" customWidth="1"/>
+    <col min="13" max="16384" width="14.25" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.5" customHeight="1">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="23" t="s">
+    <row r="1" spans="1:12" ht="15.55" customHeight="1">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
-    <row r="2" spans="1:12" ht="24">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:12" ht="23.4">
+      <c r="A2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="18">
+      <c r="A3" s="15">
         <v>44197</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="16">
         <v>44245</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="17">
         <v>1049701.6599999999</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="18">
         <v>682</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="18">
         <v>181</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="18">
         <v>184</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="18">
         <v>182</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="18">
         <v>184</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="18">
         <v>80</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="18">
         <v>2.3628200000000001</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="17">
         <v>2480256.08</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="17">
         <v>3529957.74</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="18">
+      <c r="A4" s="15">
         <v>44228</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="16">
         <v>44271</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>980907.98</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="18">
         <v>656</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="18">
         <v>181</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="18">
         <v>184</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="18">
         <v>182</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="18">
         <v>184</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="18">
         <v>80</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="18">
         <v>2.3368199999999999</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="17">
         <v>2292205.39</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="17">
         <v>3273113.37</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="18">
+      <c r="A5" s="15">
         <v>44256</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="16">
         <v>44302</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>970699.5</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="18">
         <v>625</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="18">
         <v>181</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="18">
         <v>184</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="18">
         <v>182</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="18">
         <v>184</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="18">
         <v>80</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="18">
         <v>2.3058200000000002</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="17">
         <v>2238258.3199999998</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="17">
         <v>3208957.82</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="18">
+      <c r="A6" s="15">
         <v>44287</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="16">
         <v>44334</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="17">
         <v>910843.84</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="18">
         <v>593</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="18">
         <v>181</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="18">
         <v>184</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="18">
         <v>182</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="18">
         <v>184</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="18">
         <v>80</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="18">
         <v>2.2738200000000002</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="17">
         <v>2071094.94</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="17">
         <v>2981938.78</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="18">
+      <c r="A7" s="15">
         <v>44317</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="16">
         <v>44363</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="17">
         <v>872453.59</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="18">
         <v>564</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="18">
         <v>181</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="18">
         <v>184</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="18">
         <v>182</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="18">
         <v>184</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="18">
         <v>80</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="18">
         <v>2.2448199999999998</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="17">
         <v>1958501.27</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="17">
         <v>2830954.86</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="18">
+      <c r="A8" s="15">
         <v>44348</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="16">
         <v>44393</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>909699.34</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="18">
         <v>534</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="18">
         <v>181</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="18">
         <v>184</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="18">
         <v>182</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="18">
         <v>184</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="18">
         <v>80</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="18">
         <v>2.21482</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="17">
         <v>2014820.29</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="17">
         <v>2924519.63</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="18">
+      <c r="A9" s="15">
         <v>44378</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="16">
         <v>44426</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>898519.07</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="18">
         <v>501</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="18">
         <v>181</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="18">
         <v>184</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="18">
         <v>182</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="18">
         <v>184</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="18">
         <v>80</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="18">
         <v>2.1818200000000001</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="17">
         <v>1960406.88</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="17">
         <v>2858925.95</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="18">
+      <c r="A10" s="15">
         <v>44409</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="16">
         <v>44455</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>972874.76</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="18">
         <v>472</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="18">
         <v>181</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="18">
         <v>184</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="18">
         <v>182</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="18">
         <v>184</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="18">
         <v>80</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="18">
         <v>2.1528200000000002</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="17">
         <v>2094424.24</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="17">
         <v>3067299</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="18">
+      <c r="A11" s="15">
         <v>44440</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="16">
         <v>44487</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>1200555.97</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="18">
         <v>440</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="18">
         <v>181</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="18">
         <v>184</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="18">
         <v>182</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="18">
         <v>184</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="18">
         <v>80</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="18">
         <v>2.1208200000000001</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="17">
         <v>2546163.11</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="17">
         <v>3746719.08</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="18">
+      <c r="A12" s="15">
         <v>44470</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="16">
         <v>44516</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>1252203.6599999999</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="18">
         <v>411</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="18">
         <v>181</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="18">
         <v>184</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="18">
         <v>182</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="18">
         <v>184</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="18">
         <v>80</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="18">
         <v>2.0918199999999998</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="17">
         <v>2619384.66</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="17">
         <v>3871588.32</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="18">
+      <c r="A13" s="15">
         <v>44501</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="16">
         <v>44546</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>1633095.81</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="18">
         <v>381</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="18">
         <v>181</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="18">
         <v>184</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="18">
         <v>182</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="18">
         <v>184</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="18">
         <v>80</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="18">
         <v>2.06182</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="17">
         <v>3367149.6</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="17">
         <v>5000245.41</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="18">
+      <c r="A14" s="15">
         <v>44531</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="16">
         <v>44579</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>9254377.9900000002</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="18">
         <v>348</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="18">
         <v>181</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="18">
         <v>184</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="18">
         <v>182</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="18">
         <v>184</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="18">
         <v>80</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="18">
         <v>2.0288200000000001</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="17">
         <v>18775467.149999999</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="17">
         <v>28029845.140000001</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="18">
+      <c r="A15" s="15">
         <v>44562</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="16">
         <v>44608</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="17">
         <v>1496121.51</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="18">
         <v>319</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="18">
         <v>181</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="18">
         <v>184</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="18">
         <v>182</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="18">
         <v>184</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="18">
         <v>80</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="18">
         <v>1.9998199999999999</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="17">
         <v>2991973.72</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="17">
         <v>4488095.2300000004</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="18">
+      <c r="A16" s="15">
         <v>44593</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="16">
         <v>44636</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="17">
         <v>1403817.6</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="18">
         <v>291</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="18">
         <v>181</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="18">
         <v>184</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="18">
         <v>182</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="18">
         <v>184</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="18">
         <v>80</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="18">
         <v>1.9718199999999999</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="17">
         <v>2768075.62</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16" s="17">
         <v>4171893.22</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="18">
+      <c r="A17" s="15">
         <v>44621</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="16">
         <v>44670</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="17">
         <v>1541435.3</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="18">
         <v>257</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="18">
         <v>181</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="18">
         <v>184</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="18">
         <v>182</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="18">
         <v>184</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="18">
         <v>80</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="18">
         <v>1.9378200000000001</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="17">
         <v>2987024.15</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="17">
         <v>4528459.45</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="18">
+      <c r="A18" s="15">
         <v>44652</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="16">
         <v>44698</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="17">
         <v>1476771.71</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="18">
         <v>229</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="18">
         <v>181</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="18">
         <v>184</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="18">
         <v>182</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="18">
         <v>184</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="18">
         <v>80</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="18">
         <v>1.9098200000000001</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="17">
         <v>2820368.15</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="17">
         <v>4297139.8600000003</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="18">
+      <c r="A19" s="15">
         <v>44682</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="16">
         <v>44728</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="17">
         <v>1652402.8</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="18">
         <v>199</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="18">
         <v>181</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="18">
         <v>184</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="18">
         <v>182</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="18">
         <v>184</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="18">
         <v>80</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="18">
         <v>1.87982</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="17">
         <v>3106219.83</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19" s="17">
         <v>4758622.63</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="18">
+      <c r="A20" s="15">
         <v>44713</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="16">
         <v>44760</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="17">
         <v>1957556.31</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="18">
         <v>167</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="18">
         <v>181</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="18">
         <v>184</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="18">
         <v>182</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="18">
         <v>184</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="18">
         <v>80</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="18">
         <v>1.84782</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="17">
         <v>3617211.7</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="17">
         <v>5574768.0099999998</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="18">
+      <c r="A21" s="15">
         <v>44743</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="16">
         <v>44790</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="17">
         <v>3015291.35</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="18">
         <v>137</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="18">
         <v>181</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="18">
         <v>184</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="18">
         <v>182</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="18">
         <v>184</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="18">
         <v>80</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="18">
         <v>1.81782</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="17">
         <v>5481256.9199999999</v>
       </c>
-      <c r="L21" s="20">
+      <c r="L21" s="17">
         <v>8496548.2699999996</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="18">
+      <c r="A22" s="15">
         <v>44774</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="16">
         <v>44820</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="17">
         <v>2613388.7999999998</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="18">
         <v>107</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="18">
         <v>181</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="18">
         <v>184</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="18">
         <v>182</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="18">
         <v>184</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="18">
         <v>80</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="18">
         <v>1.78782</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="17">
         <v>4672268.76</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L22" s="17">
         <v>7285657.5599999996</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="18">
+      <c r="A23" s="15">
         <v>44805</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="16">
         <v>44852</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="17">
         <v>2674546.46</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="18">
         <v>75</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="18">
         <v>181</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="18">
         <v>184</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="18">
         <v>182</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="18">
         <v>184</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="18">
         <v>80</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="18">
         <v>1.7558199999999999</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="17">
         <v>4696022.17</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="17">
         <v>7370568.6299999999</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="18">
+      <c r="A24" s="15">
         <v>44835</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="16">
         <v>44881</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="17">
         <v>2486449.64</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="18">
         <v>46</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="18">
         <v>181</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="18">
         <v>184</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="18">
         <v>182</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="18">
         <v>184</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="18">
         <v>80</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="18">
         <v>1.72682</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="17">
         <v>4293650.97</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="17">
         <v>6780100.6100000003</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="18">
+      <c r="A25" s="15">
         <v>44866</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="16">
         <v>44911</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="17">
         <v>2845086.27</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="18">
         <v>16</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="18">
         <v>181</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="18">
         <v>184</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="18">
         <v>182</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="18">
         <v>184</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="18">
         <v>80</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="18">
         <v>1.69682</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="17">
         <v>4827599.28</v>
       </c>
-      <c r="L25" s="20">
+      <c r="L25" s="17">
         <v>7672685.5499999998</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="18">
+      <c r="A26" s="15">
         <v>44896</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="16">
         <v>44943</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="17">
         <v>37750817.140000001</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="18">
         <v>0</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="18">
         <v>165</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="18">
         <v>184</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="18">
         <v>182</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="18">
         <v>184</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="18">
         <v>80</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="18">
         <v>1.65084667</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="17">
         <v>62320810.640000001</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="17">
         <v>100071627.78</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="16"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
     </row>
-    <row r="30" spans="1:12" ht="36">
-      <c r="A30" s="16"/>
-      <c r="B30" s="25" t="s">
+    <row r="30" spans="1:12" ht="35.1">
+      <c r="A30" s="13"/>
+      <c r="B30" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="16"/>
-      <c r="B31" s="21">
+      <c r="A31" s="13"/>
+      <c r="B31" s="18">
         <v>2021</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="17">
         <v>20905933.170000002</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="17">
         <v>44418131.93</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="17">
         <v>65324065.100000001</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="16"/>
-      <c r="B32" s="21">
+      <c r="A32" s="13"/>
+      <c r="B32" s="18">
         <v>2022</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="17">
         <v>60913684.890000001</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="17">
         <v>104582481.91</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="17">
         <v>165496166.80000001</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="16"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="27" t="s">
+      <c r="A34" s="13"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
     </row>
-    <row r="35" spans="1:12" ht="36">
-      <c r="A35" s="16"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="25" t="s">
+    <row r="35" spans="1:12" ht="35.1">
+      <c r="A35" s="13"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="20">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="17">
         <v>81819618.060000002</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="17">
         <v>149000613.84</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="17">
         <v>230820231.90000001</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/Tasas_y_Deuda.xlsx
+++ b/static/Tasas_y_Deuda.xlsx
@@ -33304,7 +33304,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15.2" customHeight="1"/>

--- a/static/Tasas_y_Deuda.xlsx
+++ b/static/Tasas_y_Deuda.xlsx
@@ -2858,7 +2858,7 @@
     <definedName name="Z_3A3B21B8_32D8_11D3_AD40_0060979BFA9E_.wvu.Rows" localSheetId="0" hidden="1">'[47]GMP|CIA'!#REF!</definedName>
     <definedName name="Z_3A3B21B8_32D8_11D3_AD40_0060979BFA9E_.wvu.Rows" hidden="1">'[47]GMP|CIA'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -3076,7 +3076,7 @@
     <numFmt numFmtId="291" formatCode="dd\-mm\-yyyy;@"/>
     <numFmt numFmtId="292" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
   </numFmts>
-  <fonts count="185">
+  <fonts count="184">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4287,12 +4287,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="130">
@@ -10559,7 +10553,7 @@
     <xf numFmtId="287" fontId="25" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="288" fontId="177" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -10580,10 +10574,19 @@
     <xf numFmtId="289" fontId="178" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="20" fillId="33" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="291" fontId="163" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
@@ -10628,13 +10631,6 @@
     </xf>
     <xf numFmtId="0" fontId="179" fillId="129" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="289" fontId="184" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="290" fontId="184" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -33301,10 +33297,10 @@
     <tabColor rgb="FF00CCFF"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15.2" customHeight="1"/>
@@ -34198,13 +34194,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27.5" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="29" t="s">
         <v>1</v>
       </c>
     </row>
@@ -34275,19 +34271,35 @@
       </c>
     </row>
     <row r="8" spans="1:4" s="2" customFormat="1" ht="11.25">
-      <c r="A8" s="27">
+      <c r="A8" s="6">
         <v>45839</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="6">
         <v>46022</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="5">
         <v>2.7799999999999998E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.2" customHeight="1">
-      <c r="B9" s="7"/>
-      <c r="D9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.2" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.2" customHeight="1">
+      <c r="A11" s="8"/>
+      <c r="B11" s="10"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.2" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="D12" s="9"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -34304,7 +34316,7 @@
   </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -35199,304 +35211,304 @@
     <col min="16093" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="25.05" customHeight="1">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:7" s="12" customFormat="1" ht="25.05" customHeight="1">
+      <c r="A1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="12.65">
-      <c r="A2" s="10">
+      <c r="A2" s="13">
         <v>44197</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="13">
         <v>44245</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="14">
         <v>1049701.6599999999</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="12.65">
-      <c r="A3" s="10">
+      <c r="A3" s="13">
         <v>44228</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="13">
         <v>44271</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="14">
         <v>980907.98</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="12.65">
-      <c r="A4" s="10">
+      <c r="A4" s="13">
         <v>44256</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="13">
         <v>44302</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="14">
         <v>970699.5</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="12.65">
-      <c r="A5" s="10">
+      <c r="A5" s="13">
         <v>44287</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="13">
         <v>44334</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="14">
         <v>910843.84</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="12.65">
-      <c r="A6" s="10">
+      <c r="A6" s="13">
         <v>44317</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="13">
         <v>44363</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="14">
         <v>872453.59</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="12.65">
-      <c r="A7" s="10">
+      <c r="A7" s="13">
         <v>44348</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="13">
         <v>44393</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="14">
         <v>909699.34</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="12.65">
-      <c r="A8" s="10">
+      <c r="A8" s="13">
         <v>44378</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="13">
         <v>44426</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="14">
         <v>898519.07</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="12.65">
-      <c r="A9" s="10">
+      <c r="A9" s="13">
         <v>44409</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="13">
         <v>44455</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="14">
         <v>972874.76</v>
       </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="12.65">
-      <c r="A10" s="10">
+      <c r="A10" s="13">
         <v>44440</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="13">
         <v>44487</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="14">
         <v>1200555.97</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="12.65">
-      <c r="A11" s="10">
+      <c r="A11" s="13">
         <v>44470</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="13">
         <v>44516</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="14">
         <v>1252203.6599999999</v>
       </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="12.65">
-      <c r="A12" s="10">
+      <c r="A12" s="13">
         <v>44501</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="13">
         <v>44546</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="14">
         <v>1633095.81</v>
       </c>
-      <c r="G12" s="12"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" ht="12.65">
-      <c r="A13" s="10">
+      <c r="A13" s="13">
         <v>44531</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="13">
         <v>44579</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="14">
         <v>9254377.9900000002</v>
       </c>
-      <c r="G13" s="12"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A14" s="10">
+      <c r="A14" s="13">
         <v>44562</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="13">
         <v>44608</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="14">
         <v>1496121.51</v>
       </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A15" s="10">
+      <c r="A15" s="13">
         <v>44593</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="13">
         <v>44636</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="14">
         <v>1403817.6</v>
       </c>
-      <c r="G15" s="12"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A16" s="10">
+      <c r="A16" s="13">
         <v>44621</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="13">
         <v>44670</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="14">
         <v>1541435.3</v>
       </c>
-      <c r="G16" s="12"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A17" s="10">
+      <c r="A17" s="13">
         <v>44652</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="13">
         <v>44698</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="14">
         <v>1476771.71</v>
       </c>
-      <c r="G17" s="12"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A18" s="10">
+      <c r="A18" s="13">
         <v>44682</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="13">
         <v>44728</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="14">
         <v>1652402.8</v>
       </c>
-      <c r="G18" s="12"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A19" s="10">
+      <c r="A19" s="13">
         <v>44713</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="13">
         <v>44760</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="14">
         <v>1957556.31</v>
       </c>
-      <c r="G19" s="12"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A20" s="10">
+      <c r="A20" s="13">
         <v>44743</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="13">
         <v>44790</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="14">
         <v>3015291.35</v>
       </c>
-      <c r="G20" s="12"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A21" s="10">
+      <c r="A21" s="13">
         <v>44774</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="13">
         <v>44820</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="14">
         <v>2613388.7999999998</v>
       </c>
-      <c r="G21" s="12"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A22" s="10">
+      <c r="A22" s="13">
         <v>44805</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="13">
         <v>44852</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="14">
         <v>2674546.46</v>
       </c>
-      <c r="G22" s="12"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A23" s="10">
+      <c r="A23" s="13">
         <v>44835</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="13">
         <v>44881</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="14">
         <v>2486449.64</v>
       </c>
-      <c r="G23" s="12"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A24" s="10">
+      <c r="A24" s="13">
         <v>44866</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="13">
         <v>44911</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="14">
         <v>2845086.27</v>
       </c>
-      <c r="G24" s="12"/>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A25" s="10">
+      <c r="A25" s="13">
         <v>44896</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="13">
         <v>44943</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="14">
         <v>37750817.140000001</v>
       </c>
-      <c r="G25" s="12"/>
+      <c r="G25" s="15"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -35513,7 +35525,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="I33" sqref="I33"/>
@@ -35521,1178 +35533,1178 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="11.7"/>
   <cols>
-    <col min="1" max="1" width="12.08203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="14"/>
-    <col min="3" max="3" width="13.9140625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="14.08203125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="12" style="14" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="14" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="14" customWidth="1"/>
-    <col min="8" max="9" width="8.33203125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="14" customWidth="1"/>
-    <col min="11" max="12" width="11.1640625" style="14" customWidth="1"/>
-    <col min="13" max="16384" width="14.25" style="14"/>
+    <col min="1" max="1" width="12.08203125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="17"/>
+    <col min="3" max="3" width="13.9140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="12" style="17" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="17" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="17" customWidth="1"/>
+    <col min="8" max="9" width="8.33203125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="17" customWidth="1"/>
+    <col min="11" max="12" width="11.1640625" style="17" customWidth="1"/>
+    <col min="13" max="16384" width="14.25" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.55" customHeight="1">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-      <c r="C1" s="20" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:12" ht="23.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="15">
+      <c r="A3" s="18">
         <v>44197</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="19">
         <v>44245</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="20">
         <v>1049701.6599999999</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="21">
         <v>682</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="21">
         <v>181</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="21">
         <v>184</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="21">
         <v>182</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="21">
         <v>184</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="21">
         <v>80</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="21">
         <v>2.3628200000000001</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="20">
         <v>2480256.08</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="20">
         <v>3529957.74</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="15">
+      <c r="A4" s="18">
         <v>44228</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="19">
         <v>44271</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="20">
         <v>980907.98</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="21">
         <v>656</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="21">
         <v>181</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="21">
         <v>184</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="21">
         <v>182</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="21">
         <v>184</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="21">
         <v>80</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="21">
         <v>2.3368199999999999</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="20">
         <v>2292205.39</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="20">
         <v>3273113.37</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="15">
+      <c r="A5" s="18">
         <v>44256</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="19">
         <v>44302</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="20">
         <v>970699.5</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="21">
         <v>625</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="21">
         <v>181</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="21">
         <v>184</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="21">
         <v>182</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="21">
         <v>184</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="21">
         <v>80</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="21">
         <v>2.3058200000000002</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="20">
         <v>2238258.3199999998</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="20">
         <v>3208957.82</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="15">
+      <c r="A6" s="18">
         <v>44287</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="19">
         <v>44334</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="20">
         <v>910843.84</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="21">
         <v>593</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="21">
         <v>181</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="21">
         <v>184</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="21">
         <v>182</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="21">
         <v>184</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="21">
         <v>80</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="21">
         <v>2.2738200000000002</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="20">
         <v>2071094.94</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="20">
         <v>2981938.78</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="15">
+      <c r="A7" s="18">
         <v>44317</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="19">
         <v>44363</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="20">
         <v>872453.59</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="21">
         <v>564</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="21">
         <v>181</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="21">
         <v>184</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="21">
         <v>182</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="21">
         <v>184</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="21">
         <v>80</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="21">
         <v>2.2448199999999998</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="20">
         <v>1958501.27</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="20">
         <v>2830954.86</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="15">
+      <c r="A8" s="18">
         <v>44348</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="19">
         <v>44393</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="20">
         <v>909699.34</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="21">
         <v>534</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="21">
         <v>181</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F8" s="21">
         <v>184</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="21">
         <v>182</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="21">
         <v>184</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="21">
         <v>80</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="21">
         <v>2.21482</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="20">
         <v>2014820.29</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="20">
         <v>2924519.63</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="15">
+      <c r="A9" s="18">
         <v>44378</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="19">
         <v>44426</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="20">
         <v>898519.07</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="21">
         <v>501</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="21">
         <v>181</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F9" s="21">
         <v>184</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="21">
         <v>182</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="21">
         <v>184</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="21">
         <v>80</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="21">
         <v>2.1818200000000001</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="20">
         <v>1960406.88</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="20">
         <v>2858925.95</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="15">
+      <c r="A10" s="18">
         <v>44409</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="19">
         <v>44455</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="20">
         <v>972874.76</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="21">
         <v>472</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="21">
         <v>181</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="21">
         <v>184</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="21">
         <v>182</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="21">
         <v>184</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="21">
         <v>80</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="21">
         <v>2.1528200000000002</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="20">
         <v>2094424.24</v>
       </c>
-      <c r="L10" s="17">
+      <c r="L10" s="20">
         <v>3067299</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="15">
+      <c r="A11" s="18">
         <v>44440</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="19">
         <v>44487</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="20">
         <v>1200555.97</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="21">
         <v>440</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="21">
         <v>181</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="21">
         <v>184</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="21">
         <v>182</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="21">
         <v>184</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="21">
         <v>80</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="21">
         <v>2.1208200000000001</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="20">
         <v>2546163.11</v>
       </c>
-      <c r="L11" s="17">
+      <c r="L11" s="20">
         <v>3746719.08</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="15">
+      <c r="A12" s="18">
         <v>44470</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="19">
         <v>44516</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="20">
         <v>1252203.6599999999</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="21">
         <v>411</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="21">
         <v>181</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="21">
         <v>184</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="21">
         <v>182</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="21">
         <v>184</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="21">
         <v>80</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="21">
         <v>2.0918199999999998</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="20">
         <v>2619384.66</v>
       </c>
-      <c r="L12" s="17">
+      <c r="L12" s="20">
         <v>3871588.32</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="15">
+      <c r="A13" s="18">
         <v>44501</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="19">
         <v>44546</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="20">
         <v>1633095.81</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="21">
         <v>381</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="21">
         <v>181</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="21">
         <v>184</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="21">
         <v>182</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="21">
         <v>184</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="21">
         <v>80</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="21">
         <v>2.06182</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="20">
         <v>3367149.6</v>
       </c>
-      <c r="L13" s="17">
+      <c r="L13" s="20">
         <v>5000245.41</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="15">
+      <c r="A14" s="18">
         <v>44531</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="19">
         <v>44579</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="20">
         <v>9254377.9900000002</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="21">
         <v>348</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="21">
         <v>181</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="21">
         <v>184</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="21">
         <v>182</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="21">
         <v>184</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="21">
         <v>80</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="21">
         <v>2.0288200000000001</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="20">
         <v>18775467.149999999</v>
       </c>
-      <c r="L14" s="17">
+      <c r="L14" s="20">
         <v>28029845.140000001</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="15">
+      <c r="A15" s="18">
         <v>44562</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="19">
         <v>44608</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="20">
         <v>1496121.51</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="21">
         <v>319</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="21">
         <v>181</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="21">
         <v>184</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="21">
         <v>182</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="21">
         <v>184</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="21">
         <v>80</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="21">
         <v>1.9998199999999999</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="20">
         <v>2991973.72</v>
       </c>
-      <c r="L15" s="17">
+      <c r="L15" s="20">
         <v>4488095.2300000004</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="15">
+      <c r="A16" s="18">
         <v>44593</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="19">
         <v>44636</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="20">
         <v>1403817.6</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="21">
         <v>291</v>
       </c>
-      <c r="E16" s="18">
+      <c r="E16" s="21">
         <v>181</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="21">
         <v>184</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="21">
         <v>182</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="21">
         <v>184</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="21">
         <v>80</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="21">
         <v>1.9718199999999999</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="20">
         <v>2768075.62</v>
       </c>
-      <c r="L16" s="17">
+      <c r="L16" s="20">
         <v>4171893.22</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="15">
+      <c r="A17" s="18">
         <v>44621</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="19">
         <v>44670</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="20">
         <v>1541435.3</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="21">
         <v>257</v>
       </c>
-      <c r="E17" s="18">
+      <c r="E17" s="21">
         <v>181</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="21">
         <v>184</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="21">
         <v>182</v>
       </c>
-      <c r="H17" s="18">
+      <c r="H17" s="21">
         <v>184</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="21">
         <v>80</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="21">
         <v>1.9378200000000001</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="20">
         <v>2987024.15</v>
       </c>
-      <c r="L17" s="17">
+      <c r="L17" s="20">
         <v>4528459.45</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="15">
+      <c r="A18" s="18">
         <v>44652</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="19">
         <v>44698</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="20">
         <v>1476771.71</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="21">
         <v>229</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="21">
         <v>181</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="21">
         <v>184</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="21">
         <v>182</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="21">
         <v>184</v>
       </c>
-      <c r="I18" s="18">
+      <c r="I18" s="21">
         <v>80</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="21">
         <v>1.9098200000000001</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="20">
         <v>2820368.15</v>
       </c>
-      <c r="L18" s="17">
+      <c r="L18" s="20">
         <v>4297139.8600000003</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="15">
+      <c r="A19" s="18">
         <v>44682</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="19">
         <v>44728</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="20">
         <v>1652402.8</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="21">
         <v>199</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="21">
         <v>181</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="21">
         <v>184</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="21">
         <v>182</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H19" s="21">
         <v>184</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="21">
         <v>80</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="21">
         <v>1.87982</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="20">
         <v>3106219.83</v>
       </c>
-      <c r="L19" s="17">
+      <c r="L19" s="20">
         <v>4758622.63</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="15">
+      <c r="A20" s="18">
         <v>44713</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="19">
         <v>44760</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="20">
         <v>1957556.31</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="21">
         <v>167</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="21">
         <v>181</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="21">
         <v>184</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="21">
         <v>182</v>
       </c>
-      <c r="H20" s="18">
+      <c r="H20" s="21">
         <v>184</v>
       </c>
-      <c r="I20" s="18">
+      <c r="I20" s="21">
         <v>80</v>
       </c>
-      <c r="J20" s="18">
+      <c r="J20" s="21">
         <v>1.84782</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="20">
         <v>3617211.7</v>
       </c>
-      <c r="L20" s="17">
+      <c r="L20" s="20">
         <v>5574768.0099999998</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="15">
+      <c r="A21" s="18">
         <v>44743</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="19">
         <v>44790</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="20">
         <v>3015291.35</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="21">
         <v>137</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E21" s="21">
         <v>181</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="21">
         <v>184</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="21">
         <v>182</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H21" s="21">
         <v>184</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="21">
         <v>80</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="21">
         <v>1.81782</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="20">
         <v>5481256.9199999999</v>
       </c>
-      <c r="L21" s="17">
+      <c r="L21" s="20">
         <v>8496548.2699999996</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="15">
+      <c r="A22" s="18">
         <v>44774</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="19">
         <v>44820</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="20">
         <v>2613388.7999999998</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="21">
         <v>107</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="21">
         <v>181</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="21">
         <v>184</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="21">
         <v>182</v>
       </c>
-      <c r="H22" s="18">
+      <c r="H22" s="21">
         <v>184</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="21">
         <v>80</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="21">
         <v>1.78782</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="20">
         <v>4672268.76</v>
       </c>
-      <c r="L22" s="17">
+      <c r="L22" s="20">
         <v>7285657.5599999996</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="15">
+      <c r="A23" s="18">
         <v>44805</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="19">
         <v>44852</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="20">
         <v>2674546.46</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="21">
         <v>75</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="21">
         <v>181</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="21">
         <v>184</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="21">
         <v>182</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="21">
         <v>184</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="21">
         <v>80</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="21">
         <v>1.7558199999999999</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="20">
         <v>4696022.17</v>
       </c>
-      <c r="L23" s="17">
+      <c r="L23" s="20">
         <v>7370568.6299999999</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="15">
+      <c r="A24" s="18">
         <v>44835</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="19">
         <v>44881</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="20">
         <v>2486449.64</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="21">
         <v>46</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="21">
         <v>181</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="21">
         <v>184</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="21">
         <v>182</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="21">
         <v>184</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="21">
         <v>80</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="21">
         <v>1.72682</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="20">
         <v>4293650.97</v>
       </c>
-      <c r="L24" s="17">
+      <c r="L24" s="20">
         <v>6780100.6100000003</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="15">
+      <c r="A25" s="18">
         <v>44866</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="19">
         <v>44911</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="20">
         <v>2845086.27</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="21">
         <v>16</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E25" s="21">
         <v>181</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="21">
         <v>184</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="21">
         <v>182</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="21">
         <v>184</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="21">
         <v>80</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="21">
         <v>1.69682</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="20">
         <v>4827599.28</v>
       </c>
-      <c r="L25" s="17">
+      <c r="L25" s="20">
         <v>7672685.5499999998</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="15">
+      <c r="A26" s="18">
         <v>44896</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="19">
         <v>44943</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="20">
         <v>37750817.140000001</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="21">
         <v>0</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="21">
         <v>165</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="21">
         <v>184</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="21">
         <v>182</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="21">
         <v>184</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="21">
         <v>80</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="21">
         <v>1.65084667</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="20">
         <v>62320810.640000001</v>
       </c>
-      <c r="L26" s="17">
+      <c r="L26" s="20">
         <v>100071627.78</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="13"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
     </row>
     <row r="30" spans="1:12" ht="35.1">
-      <c r="A30" s="13"/>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="13"/>
-      <c r="B31" s="18">
+      <c r="A31" s="16"/>
+      <c r="B31" s="21">
         <v>2021</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="20">
         <v>20905933.170000002</v>
       </c>
-      <c r="D31" s="17">
+      <c r="D31" s="20">
         <v>44418131.93</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="20">
         <v>65324065.100000001</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="13"/>
-      <c r="B32" s="18">
+      <c r="A32" s="16"/>
+      <c r="B32" s="21">
         <v>2022</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="20">
         <v>60913684.890000001</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D32" s="20">
         <v>104582481.91</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="20">
         <v>165496166.80000001</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="13"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="24" t="s">
+      <c r="A34" s="16"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
     </row>
     <row r="35" spans="1:12" ht="35.1">
-      <c r="A35" s="13"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="22" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="17">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="20">
         <v>81819618.060000002</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D36" s="20">
         <v>149000613.84</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="20">
         <v>230820231.90000001</v>
       </c>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/Tasas_y_Deuda.xlsx
+++ b/static/Tasas_y_Deuda.xlsx
@@ -2858,7 +2858,7 @@
     <definedName name="Z_3A3B21B8_32D8_11D3_AD40_0060979BFA9E_.wvu.Rows" localSheetId="0" hidden="1">'[47]GMP|CIA'!#REF!</definedName>
     <definedName name="Z_3A3B21B8_32D8_11D3_AD40_0060979BFA9E_.wvu.Rows" hidden="1">'[47]GMP|CIA'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -33300,7 +33300,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15.2" customHeight="1"/>

--- a/static/Tasas_y_Deuda.xlsx
+++ b/static/Tasas_y_Deuda.xlsx
@@ -10553,7 +10553,7 @@
     <xf numFmtId="287" fontId="25" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="288" fontId="177" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -10580,14 +10580,8 @@
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="291" fontId="163" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -33297,914 +33291,914 @@
     <tabColor rgb="FF00CCFF"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15.2" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" style="3" customWidth="1"/>
-    <col min="4" max="233" width="11.33203125" style="1"/>
-    <col min="234" max="234" width="17.08203125" style="1" customWidth="1"/>
-    <col min="235" max="235" width="23" style="1" customWidth="1"/>
-    <col min="236" max="236" width="9.08203125" style="1" customWidth="1"/>
-    <col min="237" max="237" width="8" style="1" customWidth="1"/>
-    <col min="238" max="238" width="11.08203125" style="1" customWidth="1"/>
-    <col min="239" max="239" width="15.33203125" style="1" customWidth="1"/>
-    <col min="240" max="240" width="15.4140625" style="1" customWidth="1"/>
-    <col min="241" max="241" width="11.4140625" style="1" customWidth="1"/>
-    <col min="242" max="242" width="17.9140625" style="1" customWidth="1"/>
-    <col min="243" max="243" width="15.33203125" style="1" customWidth="1"/>
-    <col min="244" max="244" width="14.6640625" style="1" customWidth="1"/>
-    <col min="245" max="245" width="2.9140625" style="1" customWidth="1"/>
-    <col min="246" max="246" width="15" style="1" customWidth="1"/>
-    <col min="247" max="489" width="11.33203125" style="1"/>
-    <col min="490" max="490" width="17.08203125" style="1" customWidth="1"/>
-    <col min="491" max="491" width="23" style="1" customWidth="1"/>
-    <col min="492" max="492" width="9.08203125" style="1" customWidth="1"/>
-    <col min="493" max="493" width="8" style="1" customWidth="1"/>
-    <col min="494" max="494" width="11.08203125" style="1" customWidth="1"/>
-    <col min="495" max="495" width="15.33203125" style="1" customWidth="1"/>
-    <col min="496" max="496" width="15.4140625" style="1" customWidth="1"/>
-    <col min="497" max="497" width="11.4140625" style="1" customWidth="1"/>
-    <col min="498" max="498" width="17.9140625" style="1" customWidth="1"/>
-    <col min="499" max="499" width="15.33203125" style="1" customWidth="1"/>
-    <col min="500" max="500" width="14.6640625" style="1" customWidth="1"/>
-    <col min="501" max="501" width="2.9140625" style="1" customWidth="1"/>
-    <col min="502" max="502" width="15" style="1" customWidth="1"/>
-    <col min="503" max="745" width="11.33203125" style="1"/>
-    <col min="746" max="746" width="17.08203125" style="1" customWidth="1"/>
-    <col min="747" max="747" width="23" style="1" customWidth="1"/>
-    <col min="748" max="748" width="9.08203125" style="1" customWidth="1"/>
-    <col min="749" max="749" width="8" style="1" customWidth="1"/>
-    <col min="750" max="750" width="11.08203125" style="1" customWidth="1"/>
-    <col min="751" max="751" width="15.33203125" style="1" customWidth="1"/>
-    <col min="752" max="752" width="15.4140625" style="1" customWidth="1"/>
-    <col min="753" max="753" width="11.4140625" style="1" customWidth="1"/>
-    <col min="754" max="754" width="17.9140625" style="1" customWidth="1"/>
-    <col min="755" max="755" width="15.33203125" style="1" customWidth="1"/>
-    <col min="756" max="756" width="14.6640625" style="1" customWidth="1"/>
-    <col min="757" max="757" width="2.9140625" style="1" customWidth="1"/>
-    <col min="758" max="758" width="15" style="1" customWidth="1"/>
-    <col min="759" max="1001" width="11.33203125" style="1"/>
-    <col min="1002" max="1002" width="17.08203125" style="1" customWidth="1"/>
-    <col min="1003" max="1003" width="23" style="1" customWidth="1"/>
-    <col min="1004" max="1004" width="9.08203125" style="1" customWidth="1"/>
-    <col min="1005" max="1005" width="8" style="1" customWidth="1"/>
-    <col min="1006" max="1006" width="11.08203125" style="1" customWidth="1"/>
-    <col min="1007" max="1007" width="15.33203125" style="1" customWidth="1"/>
-    <col min="1008" max="1008" width="15.4140625" style="1" customWidth="1"/>
-    <col min="1009" max="1009" width="11.4140625" style="1" customWidth="1"/>
-    <col min="1010" max="1010" width="17.9140625" style="1" customWidth="1"/>
-    <col min="1011" max="1011" width="15.33203125" style="1" customWidth="1"/>
-    <col min="1012" max="1012" width="14.6640625" style="1" customWidth="1"/>
-    <col min="1013" max="1013" width="2.9140625" style="1" customWidth="1"/>
-    <col min="1014" max="1014" width="15" style="1" customWidth="1"/>
-    <col min="1015" max="1257" width="11.33203125" style="1"/>
-    <col min="1258" max="1258" width="17.08203125" style="1" customWidth="1"/>
-    <col min="1259" max="1259" width="23" style="1" customWidth="1"/>
-    <col min="1260" max="1260" width="9.08203125" style="1" customWidth="1"/>
-    <col min="1261" max="1261" width="8" style="1" customWidth="1"/>
-    <col min="1262" max="1262" width="11.08203125" style="1" customWidth="1"/>
-    <col min="1263" max="1263" width="15.33203125" style="1" customWidth="1"/>
-    <col min="1264" max="1264" width="15.4140625" style="1" customWidth="1"/>
-    <col min="1265" max="1265" width="11.4140625" style="1" customWidth="1"/>
-    <col min="1266" max="1266" width="17.9140625" style="1" customWidth="1"/>
-    <col min="1267" max="1267" width="15.33203125" style="1" customWidth="1"/>
-    <col min="1268" max="1268" width="14.6640625" style="1" customWidth="1"/>
-    <col min="1269" max="1269" width="2.9140625" style="1" customWidth="1"/>
-    <col min="1270" max="1270" width="15" style="1" customWidth="1"/>
-    <col min="1271" max="1513" width="11.33203125" style="1"/>
-    <col min="1514" max="1514" width="17.08203125" style="1" customWidth="1"/>
-    <col min="1515" max="1515" width="23" style="1" customWidth="1"/>
-    <col min="1516" max="1516" width="9.08203125" style="1" customWidth="1"/>
-    <col min="1517" max="1517" width="8" style="1" customWidth="1"/>
-    <col min="1518" max="1518" width="11.08203125" style="1" customWidth="1"/>
-    <col min="1519" max="1519" width="15.33203125" style="1" customWidth="1"/>
-    <col min="1520" max="1520" width="15.4140625" style="1" customWidth="1"/>
-    <col min="1521" max="1521" width="11.4140625" style="1" customWidth="1"/>
-    <col min="1522" max="1522" width="17.9140625" style="1" customWidth="1"/>
-    <col min="1523" max="1523" width="15.33203125" style="1" customWidth="1"/>
-    <col min="1524" max="1524" width="14.6640625" style="1" customWidth="1"/>
-    <col min="1525" max="1525" width="2.9140625" style="1" customWidth="1"/>
-    <col min="1526" max="1526" width="15" style="1" customWidth="1"/>
-    <col min="1527" max="1769" width="11.33203125" style="1"/>
-    <col min="1770" max="1770" width="17.08203125" style="1" customWidth="1"/>
-    <col min="1771" max="1771" width="23" style="1" customWidth="1"/>
-    <col min="1772" max="1772" width="9.08203125" style="1" customWidth="1"/>
-    <col min="1773" max="1773" width="8" style="1" customWidth="1"/>
-    <col min="1774" max="1774" width="11.08203125" style="1" customWidth="1"/>
-    <col min="1775" max="1775" width="15.33203125" style="1" customWidth="1"/>
-    <col min="1776" max="1776" width="15.4140625" style="1" customWidth="1"/>
-    <col min="1777" max="1777" width="11.4140625" style="1" customWidth="1"/>
-    <col min="1778" max="1778" width="17.9140625" style="1" customWidth="1"/>
-    <col min="1779" max="1779" width="15.33203125" style="1" customWidth="1"/>
-    <col min="1780" max="1780" width="14.6640625" style="1" customWidth="1"/>
-    <col min="1781" max="1781" width="2.9140625" style="1" customWidth="1"/>
-    <col min="1782" max="1782" width="15" style="1" customWidth="1"/>
-    <col min="1783" max="2025" width="11.33203125" style="1"/>
-    <col min="2026" max="2026" width="17.08203125" style="1" customWidth="1"/>
-    <col min="2027" max="2027" width="23" style="1" customWidth="1"/>
-    <col min="2028" max="2028" width="9.08203125" style="1" customWidth="1"/>
-    <col min="2029" max="2029" width="8" style="1" customWidth="1"/>
-    <col min="2030" max="2030" width="11.08203125" style="1" customWidth="1"/>
-    <col min="2031" max="2031" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2032" max="2032" width="15.4140625" style="1" customWidth="1"/>
-    <col min="2033" max="2033" width="11.4140625" style="1" customWidth="1"/>
-    <col min="2034" max="2034" width="17.9140625" style="1" customWidth="1"/>
-    <col min="2035" max="2035" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2036" max="2036" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2037" max="2037" width="2.9140625" style="1" customWidth="1"/>
-    <col min="2038" max="2038" width="15" style="1" customWidth="1"/>
-    <col min="2039" max="2281" width="11.33203125" style="1"/>
-    <col min="2282" max="2282" width="17.08203125" style="1" customWidth="1"/>
-    <col min="2283" max="2283" width="23" style="1" customWidth="1"/>
-    <col min="2284" max="2284" width="9.08203125" style="1" customWidth="1"/>
-    <col min="2285" max="2285" width="8" style="1" customWidth="1"/>
-    <col min="2286" max="2286" width="11.08203125" style="1" customWidth="1"/>
-    <col min="2287" max="2287" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2288" max="2288" width="15.4140625" style="1" customWidth="1"/>
-    <col min="2289" max="2289" width="11.4140625" style="1" customWidth="1"/>
-    <col min="2290" max="2290" width="17.9140625" style="1" customWidth="1"/>
-    <col min="2291" max="2291" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2292" max="2292" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2293" max="2293" width="2.9140625" style="1" customWidth="1"/>
-    <col min="2294" max="2294" width="15" style="1" customWidth="1"/>
-    <col min="2295" max="2537" width="11.33203125" style="1"/>
-    <col min="2538" max="2538" width="17.08203125" style="1" customWidth="1"/>
-    <col min="2539" max="2539" width="23" style="1" customWidth="1"/>
-    <col min="2540" max="2540" width="9.08203125" style="1" customWidth="1"/>
-    <col min="2541" max="2541" width="8" style="1" customWidth="1"/>
-    <col min="2542" max="2542" width="11.08203125" style="1" customWidth="1"/>
-    <col min="2543" max="2543" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2544" max="2544" width="15.4140625" style="1" customWidth="1"/>
-    <col min="2545" max="2545" width="11.4140625" style="1" customWidth="1"/>
-    <col min="2546" max="2546" width="17.9140625" style="1" customWidth="1"/>
-    <col min="2547" max="2547" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2548" max="2548" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2549" max="2549" width="2.9140625" style="1" customWidth="1"/>
-    <col min="2550" max="2550" width="15" style="1" customWidth="1"/>
-    <col min="2551" max="2793" width="11.33203125" style="1"/>
-    <col min="2794" max="2794" width="17.08203125" style="1" customWidth="1"/>
-    <col min="2795" max="2795" width="23" style="1" customWidth="1"/>
-    <col min="2796" max="2796" width="9.08203125" style="1" customWidth="1"/>
-    <col min="2797" max="2797" width="8" style="1" customWidth="1"/>
-    <col min="2798" max="2798" width="11.08203125" style="1" customWidth="1"/>
-    <col min="2799" max="2799" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2800" max="2800" width="15.4140625" style="1" customWidth="1"/>
-    <col min="2801" max="2801" width="11.4140625" style="1" customWidth="1"/>
-    <col min="2802" max="2802" width="17.9140625" style="1" customWidth="1"/>
-    <col min="2803" max="2803" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2804" max="2804" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2805" max="2805" width="2.9140625" style="1" customWidth="1"/>
-    <col min="2806" max="2806" width="15" style="1" customWidth="1"/>
-    <col min="2807" max="3049" width="11.33203125" style="1"/>
-    <col min="3050" max="3050" width="17.08203125" style="1" customWidth="1"/>
-    <col min="3051" max="3051" width="23" style="1" customWidth="1"/>
-    <col min="3052" max="3052" width="9.08203125" style="1" customWidth="1"/>
-    <col min="3053" max="3053" width="8" style="1" customWidth="1"/>
-    <col min="3054" max="3054" width="11.08203125" style="1" customWidth="1"/>
-    <col min="3055" max="3055" width="15.33203125" style="1" customWidth="1"/>
-    <col min="3056" max="3056" width="15.4140625" style="1" customWidth="1"/>
-    <col min="3057" max="3057" width="11.4140625" style="1" customWidth="1"/>
-    <col min="3058" max="3058" width="17.9140625" style="1" customWidth="1"/>
-    <col min="3059" max="3059" width="15.33203125" style="1" customWidth="1"/>
-    <col min="3060" max="3060" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3061" max="3061" width="2.9140625" style="1" customWidth="1"/>
-    <col min="3062" max="3062" width="15" style="1" customWidth="1"/>
-    <col min="3063" max="3305" width="11.33203125" style="1"/>
-    <col min="3306" max="3306" width="17.08203125" style="1" customWidth="1"/>
-    <col min="3307" max="3307" width="23" style="1" customWidth="1"/>
-    <col min="3308" max="3308" width="9.08203125" style="1" customWidth="1"/>
-    <col min="3309" max="3309" width="8" style="1" customWidth="1"/>
-    <col min="3310" max="3310" width="11.08203125" style="1" customWidth="1"/>
-    <col min="3311" max="3311" width="15.33203125" style="1" customWidth="1"/>
-    <col min="3312" max="3312" width="15.4140625" style="1" customWidth="1"/>
-    <col min="3313" max="3313" width="11.4140625" style="1" customWidth="1"/>
-    <col min="3314" max="3314" width="17.9140625" style="1" customWidth="1"/>
-    <col min="3315" max="3315" width="15.33203125" style="1" customWidth="1"/>
-    <col min="3316" max="3316" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3317" max="3317" width="2.9140625" style="1" customWidth="1"/>
-    <col min="3318" max="3318" width="15" style="1" customWidth="1"/>
-    <col min="3319" max="3561" width="11.33203125" style="1"/>
-    <col min="3562" max="3562" width="17.08203125" style="1" customWidth="1"/>
-    <col min="3563" max="3563" width="23" style="1" customWidth="1"/>
-    <col min="3564" max="3564" width="9.08203125" style="1" customWidth="1"/>
-    <col min="3565" max="3565" width="8" style="1" customWidth="1"/>
-    <col min="3566" max="3566" width="11.08203125" style="1" customWidth="1"/>
-    <col min="3567" max="3567" width="15.33203125" style="1" customWidth="1"/>
-    <col min="3568" max="3568" width="15.4140625" style="1" customWidth="1"/>
-    <col min="3569" max="3569" width="11.4140625" style="1" customWidth="1"/>
-    <col min="3570" max="3570" width="17.9140625" style="1" customWidth="1"/>
-    <col min="3571" max="3571" width="15.33203125" style="1" customWidth="1"/>
-    <col min="3572" max="3572" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3573" max="3573" width="2.9140625" style="1" customWidth="1"/>
-    <col min="3574" max="3574" width="15" style="1" customWidth="1"/>
-    <col min="3575" max="3817" width="11.33203125" style="1"/>
-    <col min="3818" max="3818" width="17.08203125" style="1" customWidth="1"/>
-    <col min="3819" max="3819" width="23" style="1" customWidth="1"/>
-    <col min="3820" max="3820" width="9.08203125" style="1" customWidth="1"/>
-    <col min="3821" max="3821" width="8" style="1" customWidth="1"/>
-    <col min="3822" max="3822" width="11.08203125" style="1" customWidth="1"/>
-    <col min="3823" max="3823" width="15.33203125" style="1" customWidth="1"/>
-    <col min="3824" max="3824" width="15.4140625" style="1" customWidth="1"/>
-    <col min="3825" max="3825" width="11.4140625" style="1" customWidth="1"/>
-    <col min="3826" max="3826" width="17.9140625" style="1" customWidth="1"/>
-    <col min="3827" max="3827" width="15.33203125" style="1" customWidth="1"/>
-    <col min="3828" max="3828" width="14.6640625" style="1" customWidth="1"/>
-    <col min="3829" max="3829" width="2.9140625" style="1" customWidth="1"/>
-    <col min="3830" max="3830" width="15" style="1" customWidth="1"/>
-    <col min="3831" max="4073" width="11.33203125" style="1"/>
-    <col min="4074" max="4074" width="17.08203125" style="1" customWidth="1"/>
-    <col min="4075" max="4075" width="23" style="1" customWidth="1"/>
-    <col min="4076" max="4076" width="9.08203125" style="1" customWidth="1"/>
-    <col min="4077" max="4077" width="8" style="1" customWidth="1"/>
-    <col min="4078" max="4078" width="11.08203125" style="1" customWidth="1"/>
-    <col min="4079" max="4079" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4080" max="4080" width="15.4140625" style="1" customWidth="1"/>
-    <col min="4081" max="4081" width="11.4140625" style="1" customWidth="1"/>
-    <col min="4082" max="4082" width="17.9140625" style="1" customWidth="1"/>
-    <col min="4083" max="4083" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4084" max="4084" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4085" max="4085" width="2.9140625" style="1" customWidth="1"/>
-    <col min="4086" max="4086" width="15" style="1" customWidth="1"/>
-    <col min="4087" max="4329" width="11.33203125" style="1"/>
-    <col min="4330" max="4330" width="17.08203125" style="1" customWidth="1"/>
-    <col min="4331" max="4331" width="23" style="1" customWidth="1"/>
-    <col min="4332" max="4332" width="9.08203125" style="1" customWidth="1"/>
-    <col min="4333" max="4333" width="8" style="1" customWidth="1"/>
-    <col min="4334" max="4334" width="11.08203125" style="1" customWidth="1"/>
-    <col min="4335" max="4335" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4336" max="4336" width="15.4140625" style="1" customWidth="1"/>
-    <col min="4337" max="4337" width="11.4140625" style="1" customWidth="1"/>
-    <col min="4338" max="4338" width="17.9140625" style="1" customWidth="1"/>
-    <col min="4339" max="4339" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4340" max="4340" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4341" max="4341" width="2.9140625" style="1" customWidth="1"/>
-    <col min="4342" max="4342" width="15" style="1" customWidth="1"/>
-    <col min="4343" max="4585" width="11.33203125" style="1"/>
-    <col min="4586" max="4586" width="17.08203125" style="1" customWidth="1"/>
-    <col min="4587" max="4587" width="23" style="1" customWidth="1"/>
-    <col min="4588" max="4588" width="9.08203125" style="1" customWidth="1"/>
-    <col min="4589" max="4589" width="8" style="1" customWidth="1"/>
-    <col min="4590" max="4590" width="11.08203125" style="1" customWidth="1"/>
-    <col min="4591" max="4591" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4592" max="4592" width="15.4140625" style="1" customWidth="1"/>
-    <col min="4593" max="4593" width="11.4140625" style="1" customWidth="1"/>
-    <col min="4594" max="4594" width="17.9140625" style="1" customWidth="1"/>
-    <col min="4595" max="4595" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4596" max="4596" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4597" max="4597" width="2.9140625" style="1" customWidth="1"/>
-    <col min="4598" max="4598" width="15" style="1" customWidth="1"/>
-    <col min="4599" max="4841" width="11.33203125" style="1"/>
-    <col min="4842" max="4842" width="17.08203125" style="1" customWidth="1"/>
-    <col min="4843" max="4843" width="23" style="1" customWidth="1"/>
-    <col min="4844" max="4844" width="9.08203125" style="1" customWidth="1"/>
-    <col min="4845" max="4845" width="8" style="1" customWidth="1"/>
-    <col min="4846" max="4846" width="11.08203125" style="1" customWidth="1"/>
-    <col min="4847" max="4847" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4848" max="4848" width="15.4140625" style="1" customWidth="1"/>
-    <col min="4849" max="4849" width="11.4140625" style="1" customWidth="1"/>
-    <col min="4850" max="4850" width="17.9140625" style="1" customWidth="1"/>
-    <col min="4851" max="4851" width="15.33203125" style="1" customWidth="1"/>
-    <col min="4852" max="4852" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4853" max="4853" width="2.9140625" style="1" customWidth="1"/>
-    <col min="4854" max="4854" width="15" style="1" customWidth="1"/>
-    <col min="4855" max="5097" width="11.33203125" style="1"/>
-    <col min="5098" max="5098" width="17.08203125" style="1" customWidth="1"/>
-    <col min="5099" max="5099" width="23" style="1" customWidth="1"/>
-    <col min="5100" max="5100" width="9.08203125" style="1" customWidth="1"/>
-    <col min="5101" max="5101" width="8" style="1" customWidth="1"/>
-    <col min="5102" max="5102" width="11.08203125" style="1" customWidth="1"/>
-    <col min="5103" max="5103" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5104" max="5104" width="15.4140625" style="1" customWidth="1"/>
-    <col min="5105" max="5105" width="11.4140625" style="1" customWidth="1"/>
-    <col min="5106" max="5106" width="17.9140625" style="1" customWidth="1"/>
-    <col min="5107" max="5107" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5108" max="5108" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5109" max="5109" width="2.9140625" style="1" customWidth="1"/>
-    <col min="5110" max="5110" width="15" style="1" customWidth="1"/>
-    <col min="5111" max="5353" width="11.33203125" style="1"/>
-    <col min="5354" max="5354" width="17.08203125" style="1" customWidth="1"/>
-    <col min="5355" max="5355" width="23" style="1" customWidth="1"/>
-    <col min="5356" max="5356" width="9.08203125" style="1" customWidth="1"/>
-    <col min="5357" max="5357" width="8" style="1" customWidth="1"/>
-    <col min="5358" max="5358" width="11.08203125" style="1" customWidth="1"/>
-    <col min="5359" max="5359" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5360" max="5360" width="15.4140625" style="1" customWidth="1"/>
-    <col min="5361" max="5361" width="11.4140625" style="1" customWidth="1"/>
-    <col min="5362" max="5362" width="17.9140625" style="1" customWidth="1"/>
-    <col min="5363" max="5363" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5364" max="5364" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5365" max="5365" width="2.9140625" style="1" customWidth="1"/>
-    <col min="5366" max="5366" width="15" style="1" customWidth="1"/>
-    <col min="5367" max="5609" width="11.33203125" style="1"/>
-    <col min="5610" max="5610" width="17.08203125" style="1" customWidth="1"/>
-    <col min="5611" max="5611" width="23" style="1" customWidth="1"/>
-    <col min="5612" max="5612" width="9.08203125" style="1" customWidth="1"/>
-    <col min="5613" max="5613" width="8" style="1" customWidth="1"/>
-    <col min="5614" max="5614" width="11.08203125" style="1" customWidth="1"/>
-    <col min="5615" max="5615" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5616" max="5616" width="15.4140625" style="1" customWidth="1"/>
-    <col min="5617" max="5617" width="11.4140625" style="1" customWidth="1"/>
-    <col min="5618" max="5618" width="17.9140625" style="1" customWidth="1"/>
-    <col min="5619" max="5619" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5620" max="5620" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5621" max="5621" width="2.9140625" style="1" customWidth="1"/>
-    <col min="5622" max="5622" width="15" style="1" customWidth="1"/>
-    <col min="5623" max="5865" width="11.33203125" style="1"/>
-    <col min="5866" max="5866" width="17.08203125" style="1" customWidth="1"/>
-    <col min="5867" max="5867" width="23" style="1" customWidth="1"/>
-    <col min="5868" max="5868" width="9.08203125" style="1" customWidth="1"/>
-    <col min="5869" max="5869" width="8" style="1" customWidth="1"/>
-    <col min="5870" max="5870" width="11.08203125" style="1" customWidth="1"/>
-    <col min="5871" max="5871" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5872" max="5872" width="15.4140625" style="1" customWidth="1"/>
-    <col min="5873" max="5873" width="11.4140625" style="1" customWidth="1"/>
-    <col min="5874" max="5874" width="17.9140625" style="1" customWidth="1"/>
-    <col min="5875" max="5875" width="15.33203125" style="1" customWidth="1"/>
-    <col min="5876" max="5876" width="14.6640625" style="1" customWidth="1"/>
-    <col min="5877" max="5877" width="2.9140625" style="1" customWidth="1"/>
-    <col min="5878" max="5878" width="15" style="1" customWidth="1"/>
-    <col min="5879" max="6121" width="11.33203125" style="1"/>
-    <col min="6122" max="6122" width="17.08203125" style="1" customWidth="1"/>
-    <col min="6123" max="6123" width="23" style="1" customWidth="1"/>
-    <col min="6124" max="6124" width="9.08203125" style="1" customWidth="1"/>
-    <col min="6125" max="6125" width="8" style="1" customWidth="1"/>
-    <col min="6126" max="6126" width="11.08203125" style="1" customWidth="1"/>
-    <col min="6127" max="6127" width="15.33203125" style="1" customWidth="1"/>
-    <col min="6128" max="6128" width="15.4140625" style="1" customWidth="1"/>
-    <col min="6129" max="6129" width="11.4140625" style="1" customWidth="1"/>
-    <col min="6130" max="6130" width="17.9140625" style="1" customWidth="1"/>
-    <col min="6131" max="6131" width="15.33203125" style="1" customWidth="1"/>
-    <col min="6132" max="6132" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6133" max="6133" width="2.9140625" style="1" customWidth="1"/>
-    <col min="6134" max="6134" width="15" style="1" customWidth="1"/>
-    <col min="6135" max="6377" width="11.33203125" style="1"/>
-    <col min="6378" max="6378" width="17.08203125" style="1" customWidth="1"/>
-    <col min="6379" max="6379" width="23" style="1" customWidth="1"/>
-    <col min="6380" max="6380" width="9.08203125" style="1" customWidth="1"/>
-    <col min="6381" max="6381" width="8" style="1" customWidth="1"/>
-    <col min="6382" max="6382" width="11.08203125" style="1" customWidth="1"/>
-    <col min="6383" max="6383" width="15.33203125" style="1" customWidth="1"/>
-    <col min="6384" max="6384" width="15.4140625" style="1" customWidth="1"/>
-    <col min="6385" max="6385" width="11.4140625" style="1" customWidth="1"/>
-    <col min="6386" max="6386" width="17.9140625" style="1" customWidth="1"/>
-    <col min="6387" max="6387" width="15.33203125" style="1" customWidth="1"/>
-    <col min="6388" max="6388" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6389" max="6389" width="2.9140625" style="1" customWidth="1"/>
-    <col min="6390" max="6390" width="15" style="1" customWidth="1"/>
-    <col min="6391" max="6633" width="11.33203125" style="1"/>
-    <col min="6634" max="6634" width="17.08203125" style="1" customWidth="1"/>
-    <col min="6635" max="6635" width="23" style="1" customWidth="1"/>
-    <col min="6636" max="6636" width="9.08203125" style="1" customWidth="1"/>
-    <col min="6637" max="6637" width="8" style="1" customWidth="1"/>
-    <col min="6638" max="6638" width="11.08203125" style="1" customWidth="1"/>
-    <col min="6639" max="6639" width="15.33203125" style="1" customWidth="1"/>
-    <col min="6640" max="6640" width="15.4140625" style="1" customWidth="1"/>
-    <col min="6641" max="6641" width="11.4140625" style="1" customWidth="1"/>
-    <col min="6642" max="6642" width="17.9140625" style="1" customWidth="1"/>
-    <col min="6643" max="6643" width="15.33203125" style="1" customWidth="1"/>
-    <col min="6644" max="6644" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6645" max="6645" width="2.9140625" style="1" customWidth="1"/>
-    <col min="6646" max="6646" width="15" style="1" customWidth="1"/>
-    <col min="6647" max="6889" width="11.33203125" style="1"/>
-    <col min="6890" max="6890" width="17.08203125" style="1" customWidth="1"/>
-    <col min="6891" max="6891" width="23" style="1" customWidth="1"/>
-    <col min="6892" max="6892" width="9.08203125" style="1" customWidth="1"/>
-    <col min="6893" max="6893" width="8" style="1" customWidth="1"/>
-    <col min="6894" max="6894" width="11.08203125" style="1" customWidth="1"/>
-    <col min="6895" max="6895" width="15.33203125" style="1" customWidth="1"/>
-    <col min="6896" max="6896" width="15.4140625" style="1" customWidth="1"/>
-    <col min="6897" max="6897" width="11.4140625" style="1" customWidth="1"/>
-    <col min="6898" max="6898" width="17.9140625" style="1" customWidth="1"/>
-    <col min="6899" max="6899" width="15.33203125" style="1" customWidth="1"/>
-    <col min="6900" max="6900" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6901" max="6901" width="2.9140625" style="1" customWidth="1"/>
-    <col min="6902" max="6902" width="15" style="1" customWidth="1"/>
-    <col min="6903" max="7145" width="11.33203125" style="1"/>
-    <col min="7146" max="7146" width="17.08203125" style="1" customWidth="1"/>
-    <col min="7147" max="7147" width="23" style="1" customWidth="1"/>
-    <col min="7148" max="7148" width="9.08203125" style="1" customWidth="1"/>
-    <col min="7149" max="7149" width="8" style="1" customWidth="1"/>
-    <col min="7150" max="7150" width="11.08203125" style="1" customWidth="1"/>
-    <col min="7151" max="7151" width="15.33203125" style="1" customWidth="1"/>
-    <col min="7152" max="7152" width="15.4140625" style="1" customWidth="1"/>
-    <col min="7153" max="7153" width="11.4140625" style="1" customWidth="1"/>
-    <col min="7154" max="7154" width="17.9140625" style="1" customWidth="1"/>
-    <col min="7155" max="7155" width="15.33203125" style="1" customWidth="1"/>
-    <col min="7156" max="7156" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7157" max="7157" width="2.9140625" style="1" customWidth="1"/>
-    <col min="7158" max="7158" width="15" style="1" customWidth="1"/>
-    <col min="7159" max="7401" width="11.33203125" style="1"/>
-    <col min="7402" max="7402" width="17.08203125" style="1" customWidth="1"/>
-    <col min="7403" max="7403" width="23" style="1" customWidth="1"/>
-    <col min="7404" max="7404" width="9.08203125" style="1" customWidth="1"/>
-    <col min="7405" max="7405" width="8" style="1" customWidth="1"/>
-    <col min="7406" max="7406" width="11.08203125" style="1" customWidth="1"/>
-    <col min="7407" max="7407" width="15.33203125" style="1" customWidth="1"/>
-    <col min="7408" max="7408" width="15.4140625" style="1" customWidth="1"/>
-    <col min="7409" max="7409" width="11.4140625" style="1" customWidth="1"/>
-    <col min="7410" max="7410" width="17.9140625" style="1" customWidth="1"/>
-    <col min="7411" max="7411" width="15.33203125" style="1" customWidth="1"/>
-    <col min="7412" max="7412" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7413" max="7413" width="2.9140625" style="1" customWidth="1"/>
-    <col min="7414" max="7414" width="15" style="1" customWidth="1"/>
-    <col min="7415" max="7657" width="11.33203125" style="1"/>
-    <col min="7658" max="7658" width="17.08203125" style="1" customWidth="1"/>
-    <col min="7659" max="7659" width="23" style="1" customWidth="1"/>
-    <col min="7660" max="7660" width="9.08203125" style="1" customWidth="1"/>
-    <col min="7661" max="7661" width="8" style="1" customWidth="1"/>
-    <col min="7662" max="7662" width="11.08203125" style="1" customWidth="1"/>
-    <col min="7663" max="7663" width="15.33203125" style="1" customWidth="1"/>
-    <col min="7664" max="7664" width="15.4140625" style="1" customWidth="1"/>
-    <col min="7665" max="7665" width="11.4140625" style="1" customWidth="1"/>
-    <col min="7666" max="7666" width="17.9140625" style="1" customWidth="1"/>
-    <col min="7667" max="7667" width="15.33203125" style="1" customWidth="1"/>
-    <col min="7668" max="7668" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7669" max="7669" width="2.9140625" style="1" customWidth="1"/>
-    <col min="7670" max="7670" width="15" style="1" customWidth="1"/>
-    <col min="7671" max="7913" width="11.33203125" style="1"/>
-    <col min="7914" max="7914" width="17.08203125" style="1" customWidth="1"/>
-    <col min="7915" max="7915" width="23" style="1" customWidth="1"/>
-    <col min="7916" max="7916" width="9.08203125" style="1" customWidth="1"/>
-    <col min="7917" max="7917" width="8" style="1" customWidth="1"/>
-    <col min="7918" max="7918" width="11.08203125" style="1" customWidth="1"/>
-    <col min="7919" max="7919" width="15.33203125" style="1" customWidth="1"/>
-    <col min="7920" max="7920" width="15.4140625" style="1" customWidth="1"/>
-    <col min="7921" max="7921" width="11.4140625" style="1" customWidth="1"/>
-    <col min="7922" max="7922" width="17.9140625" style="1" customWidth="1"/>
-    <col min="7923" max="7923" width="15.33203125" style="1" customWidth="1"/>
-    <col min="7924" max="7924" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7925" max="7925" width="2.9140625" style="1" customWidth="1"/>
-    <col min="7926" max="7926" width="15" style="1" customWidth="1"/>
-    <col min="7927" max="8169" width="11.33203125" style="1"/>
-    <col min="8170" max="8170" width="17.08203125" style="1" customWidth="1"/>
-    <col min="8171" max="8171" width="23" style="1" customWidth="1"/>
-    <col min="8172" max="8172" width="9.08203125" style="1" customWidth="1"/>
-    <col min="8173" max="8173" width="8" style="1" customWidth="1"/>
-    <col min="8174" max="8174" width="11.08203125" style="1" customWidth="1"/>
-    <col min="8175" max="8175" width="15.33203125" style="1" customWidth="1"/>
-    <col min="8176" max="8176" width="15.4140625" style="1" customWidth="1"/>
-    <col min="8177" max="8177" width="11.4140625" style="1" customWidth="1"/>
-    <col min="8178" max="8178" width="17.9140625" style="1" customWidth="1"/>
-    <col min="8179" max="8179" width="15.33203125" style="1" customWidth="1"/>
-    <col min="8180" max="8180" width="14.6640625" style="1" customWidth="1"/>
-    <col min="8181" max="8181" width="2.9140625" style="1" customWidth="1"/>
-    <col min="8182" max="8182" width="15" style="1" customWidth="1"/>
-    <col min="8183" max="8425" width="11.33203125" style="1"/>
-    <col min="8426" max="8426" width="17.08203125" style="1" customWidth="1"/>
-    <col min="8427" max="8427" width="23" style="1" customWidth="1"/>
-    <col min="8428" max="8428" width="9.08203125" style="1" customWidth="1"/>
-    <col min="8429" max="8429" width="8" style="1" customWidth="1"/>
-    <col min="8430" max="8430" width="11.08203125" style="1" customWidth="1"/>
-    <col min="8431" max="8431" width="15.33203125" style="1" customWidth="1"/>
-    <col min="8432" max="8432" width="15.4140625" style="1" customWidth="1"/>
-    <col min="8433" max="8433" width="11.4140625" style="1" customWidth="1"/>
-    <col min="8434" max="8434" width="17.9140625" style="1" customWidth="1"/>
-    <col min="8435" max="8435" width="15.33203125" style="1" customWidth="1"/>
-    <col min="8436" max="8436" width="14.6640625" style="1" customWidth="1"/>
-    <col min="8437" max="8437" width="2.9140625" style="1" customWidth="1"/>
-    <col min="8438" max="8438" width="15" style="1" customWidth="1"/>
-    <col min="8439" max="8681" width="11.33203125" style="1"/>
-    <col min="8682" max="8682" width="17.08203125" style="1" customWidth="1"/>
-    <col min="8683" max="8683" width="23" style="1" customWidth="1"/>
-    <col min="8684" max="8684" width="9.08203125" style="1" customWidth="1"/>
-    <col min="8685" max="8685" width="8" style="1" customWidth="1"/>
-    <col min="8686" max="8686" width="11.08203125" style="1" customWidth="1"/>
-    <col min="8687" max="8687" width="15.33203125" style="1" customWidth="1"/>
-    <col min="8688" max="8688" width="15.4140625" style="1" customWidth="1"/>
-    <col min="8689" max="8689" width="11.4140625" style="1" customWidth="1"/>
-    <col min="8690" max="8690" width="17.9140625" style="1" customWidth="1"/>
-    <col min="8691" max="8691" width="15.33203125" style="1" customWidth="1"/>
-    <col min="8692" max="8692" width="14.6640625" style="1" customWidth="1"/>
-    <col min="8693" max="8693" width="2.9140625" style="1" customWidth="1"/>
-    <col min="8694" max="8694" width="15" style="1" customWidth="1"/>
-    <col min="8695" max="8937" width="11.33203125" style="1"/>
-    <col min="8938" max="8938" width="17.08203125" style="1" customWidth="1"/>
-    <col min="8939" max="8939" width="23" style="1" customWidth="1"/>
-    <col min="8940" max="8940" width="9.08203125" style="1" customWidth="1"/>
-    <col min="8941" max="8941" width="8" style="1" customWidth="1"/>
-    <col min="8942" max="8942" width="11.08203125" style="1" customWidth="1"/>
-    <col min="8943" max="8943" width="15.33203125" style="1" customWidth="1"/>
-    <col min="8944" max="8944" width="15.4140625" style="1" customWidth="1"/>
-    <col min="8945" max="8945" width="11.4140625" style="1" customWidth="1"/>
-    <col min="8946" max="8946" width="17.9140625" style="1" customWidth="1"/>
-    <col min="8947" max="8947" width="15.33203125" style="1" customWidth="1"/>
-    <col min="8948" max="8948" width="14.6640625" style="1" customWidth="1"/>
-    <col min="8949" max="8949" width="2.9140625" style="1" customWidth="1"/>
-    <col min="8950" max="8950" width="15" style="1" customWidth="1"/>
-    <col min="8951" max="9193" width="11.33203125" style="1"/>
-    <col min="9194" max="9194" width="17.08203125" style="1" customWidth="1"/>
-    <col min="9195" max="9195" width="23" style="1" customWidth="1"/>
-    <col min="9196" max="9196" width="9.08203125" style="1" customWidth="1"/>
-    <col min="9197" max="9197" width="8" style="1" customWidth="1"/>
-    <col min="9198" max="9198" width="11.08203125" style="1" customWidth="1"/>
-    <col min="9199" max="9199" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9200" max="9200" width="15.4140625" style="1" customWidth="1"/>
-    <col min="9201" max="9201" width="11.4140625" style="1" customWidth="1"/>
-    <col min="9202" max="9202" width="17.9140625" style="1" customWidth="1"/>
-    <col min="9203" max="9203" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9204" max="9204" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9205" max="9205" width="2.9140625" style="1" customWidth="1"/>
-    <col min="9206" max="9206" width="15" style="1" customWidth="1"/>
-    <col min="9207" max="9449" width="11.33203125" style="1"/>
-    <col min="9450" max="9450" width="17.08203125" style="1" customWidth="1"/>
-    <col min="9451" max="9451" width="23" style="1" customWidth="1"/>
-    <col min="9452" max="9452" width="9.08203125" style="1" customWidth="1"/>
-    <col min="9453" max="9453" width="8" style="1" customWidth="1"/>
-    <col min="9454" max="9454" width="11.08203125" style="1" customWidth="1"/>
-    <col min="9455" max="9455" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9456" max="9456" width="15.4140625" style="1" customWidth="1"/>
-    <col min="9457" max="9457" width="11.4140625" style="1" customWidth="1"/>
-    <col min="9458" max="9458" width="17.9140625" style="1" customWidth="1"/>
-    <col min="9459" max="9459" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9460" max="9460" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9461" max="9461" width="2.9140625" style="1" customWidth="1"/>
-    <col min="9462" max="9462" width="15" style="1" customWidth="1"/>
-    <col min="9463" max="9705" width="11.33203125" style="1"/>
-    <col min="9706" max="9706" width="17.08203125" style="1" customWidth="1"/>
-    <col min="9707" max="9707" width="23" style="1" customWidth="1"/>
-    <col min="9708" max="9708" width="9.08203125" style="1" customWidth="1"/>
-    <col min="9709" max="9709" width="8" style="1" customWidth="1"/>
-    <col min="9710" max="9710" width="11.08203125" style="1" customWidth="1"/>
-    <col min="9711" max="9711" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9712" max="9712" width="15.4140625" style="1" customWidth="1"/>
-    <col min="9713" max="9713" width="11.4140625" style="1" customWidth="1"/>
-    <col min="9714" max="9714" width="17.9140625" style="1" customWidth="1"/>
-    <col min="9715" max="9715" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9716" max="9716" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9717" max="9717" width="2.9140625" style="1" customWidth="1"/>
-    <col min="9718" max="9718" width="15" style="1" customWidth="1"/>
-    <col min="9719" max="9961" width="11.33203125" style="1"/>
-    <col min="9962" max="9962" width="17.08203125" style="1" customWidth="1"/>
-    <col min="9963" max="9963" width="23" style="1" customWidth="1"/>
-    <col min="9964" max="9964" width="9.08203125" style="1" customWidth="1"/>
-    <col min="9965" max="9965" width="8" style="1" customWidth="1"/>
-    <col min="9966" max="9966" width="11.08203125" style="1" customWidth="1"/>
-    <col min="9967" max="9967" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9968" max="9968" width="15.4140625" style="1" customWidth="1"/>
-    <col min="9969" max="9969" width="11.4140625" style="1" customWidth="1"/>
-    <col min="9970" max="9970" width="17.9140625" style="1" customWidth="1"/>
-    <col min="9971" max="9971" width="15.33203125" style="1" customWidth="1"/>
-    <col min="9972" max="9972" width="14.6640625" style="1" customWidth="1"/>
-    <col min="9973" max="9973" width="2.9140625" style="1" customWidth="1"/>
-    <col min="9974" max="9974" width="15" style="1" customWidth="1"/>
-    <col min="9975" max="10217" width="11.33203125" style="1"/>
-    <col min="10218" max="10218" width="17.08203125" style="1" customWidth="1"/>
-    <col min="10219" max="10219" width="23" style="1" customWidth="1"/>
-    <col min="10220" max="10220" width="9.08203125" style="1" customWidth="1"/>
-    <col min="10221" max="10221" width="8" style="1" customWidth="1"/>
-    <col min="10222" max="10222" width="11.08203125" style="1" customWidth="1"/>
-    <col min="10223" max="10223" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10224" max="10224" width="15.4140625" style="1" customWidth="1"/>
-    <col min="10225" max="10225" width="11.4140625" style="1" customWidth="1"/>
-    <col min="10226" max="10226" width="17.9140625" style="1" customWidth="1"/>
-    <col min="10227" max="10227" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10228" max="10228" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10229" max="10229" width="2.9140625" style="1" customWidth="1"/>
-    <col min="10230" max="10230" width="15" style="1" customWidth="1"/>
-    <col min="10231" max="10473" width="11.33203125" style="1"/>
-    <col min="10474" max="10474" width="17.08203125" style="1" customWidth="1"/>
-    <col min="10475" max="10475" width="23" style="1" customWidth="1"/>
-    <col min="10476" max="10476" width="9.08203125" style="1" customWidth="1"/>
-    <col min="10477" max="10477" width="8" style="1" customWidth="1"/>
-    <col min="10478" max="10478" width="11.08203125" style="1" customWidth="1"/>
-    <col min="10479" max="10479" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10480" max="10480" width="15.4140625" style="1" customWidth="1"/>
-    <col min="10481" max="10481" width="11.4140625" style="1" customWidth="1"/>
-    <col min="10482" max="10482" width="17.9140625" style="1" customWidth="1"/>
-    <col min="10483" max="10483" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10484" max="10484" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10485" max="10485" width="2.9140625" style="1" customWidth="1"/>
-    <col min="10486" max="10486" width="15" style="1" customWidth="1"/>
-    <col min="10487" max="10729" width="11.33203125" style="1"/>
-    <col min="10730" max="10730" width="17.08203125" style="1" customWidth="1"/>
-    <col min="10731" max="10731" width="23" style="1" customWidth="1"/>
-    <col min="10732" max="10732" width="9.08203125" style="1" customWidth="1"/>
-    <col min="10733" max="10733" width="8" style="1" customWidth="1"/>
-    <col min="10734" max="10734" width="11.08203125" style="1" customWidth="1"/>
-    <col min="10735" max="10735" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10736" max="10736" width="15.4140625" style="1" customWidth="1"/>
-    <col min="10737" max="10737" width="11.4140625" style="1" customWidth="1"/>
-    <col min="10738" max="10738" width="17.9140625" style="1" customWidth="1"/>
-    <col min="10739" max="10739" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10740" max="10740" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10741" max="10741" width="2.9140625" style="1" customWidth="1"/>
-    <col min="10742" max="10742" width="15" style="1" customWidth="1"/>
-    <col min="10743" max="10985" width="11.33203125" style="1"/>
-    <col min="10986" max="10986" width="17.08203125" style="1" customWidth="1"/>
-    <col min="10987" max="10987" width="23" style="1" customWidth="1"/>
-    <col min="10988" max="10988" width="9.08203125" style="1" customWidth="1"/>
-    <col min="10989" max="10989" width="8" style="1" customWidth="1"/>
-    <col min="10990" max="10990" width="11.08203125" style="1" customWidth="1"/>
-    <col min="10991" max="10991" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10992" max="10992" width="15.4140625" style="1" customWidth="1"/>
-    <col min="10993" max="10993" width="11.4140625" style="1" customWidth="1"/>
-    <col min="10994" max="10994" width="17.9140625" style="1" customWidth="1"/>
-    <col min="10995" max="10995" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10996" max="10996" width="14.6640625" style="1" customWidth="1"/>
-    <col min="10997" max="10997" width="2.9140625" style="1" customWidth="1"/>
-    <col min="10998" max="10998" width="15" style="1" customWidth="1"/>
-    <col min="10999" max="11241" width="11.33203125" style="1"/>
-    <col min="11242" max="11242" width="17.08203125" style="1" customWidth="1"/>
-    <col min="11243" max="11243" width="23" style="1" customWidth="1"/>
-    <col min="11244" max="11244" width="9.08203125" style="1" customWidth="1"/>
-    <col min="11245" max="11245" width="8" style="1" customWidth="1"/>
-    <col min="11246" max="11246" width="11.08203125" style="1" customWidth="1"/>
-    <col min="11247" max="11247" width="15.33203125" style="1" customWidth="1"/>
-    <col min="11248" max="11248" width="15.4140625" style="1" customWidth="1"/>
-    <col min="11249" max="11249" width="11.4140625" style="1" customWidth="1"/>
-    <col min="11250" max="11250" width="17.9140625" style="1" customWidth="1"/>
-    <col min="11251" max="11251" width="15.33203125" style="1" customWidth="1"/>
-    <col min="11252" max="11252" width="14.6640625" style="1" customWidth="1"/>
-    <col min="11253" max="11253" width="2.9140625" style="1" customWidth="1"/>
-    <col min="11254" max="11254" width="15" style="1" customWidth="1"/>
-    <col min="11255" max="11497" width="11.33203125" style="1"/>
-    <col min="11498" max="11498" width="17.08203125" style="1" customWidth="1"/>
-    <col min="11499" max="11499" width="23" style="1" customWidth="1"/>
-    <col min="11500" max="11500" width="9.08203125" style="1" customWidth="1"/>
-    <col min="11501" max="11501" width="8" style="1" customWidth="1"/>
-    <col min="11502" max="11502" width="11.08203125" style="1" customWidth="1"/>
-    <col min="11503" max="11503" width="15.33203125" style="1" customWidth="1"/>
-    <col min="11504" max="11504" width="15.4140625" style="1" customWidth="1"/>
-    <col min="11505" max="11505" width="11.4140625" style="1" customWidth="1"/>
-    <col min="11506" max="11506" width="17.9140625" style="1" customWidth="1"/>
-    <col min="11507" max="11507" width="15.33203125" style="1" customWidth="1"/>
-    <col min="11508" max="11508" width="14.6640625" style="1" customWidth="1"/>
-    <col min="11509" max="11509" width="2.9140625" style="1" customWidth="1"/>
-    <col min="11510" max="11510" width="15" style="1" customWidth="1"/>
-    <col min="11511" max="11753" width="11.33203125" style="1"/>
-    <col min="11754" max="11754" width="17.08203125" style="1" customWidth="1"/>
-    <col min="11755" max="11755" width="23" style="1" customWidth="1"/>
-    <col min="11756" max="11756" width="9.08203125" style="1" customWidth="1"/>
-    <col min="11757" max="11757" width="8" style="1" customWidth="1"/>
-    <col min="11758" max="11758" width="11.08203125" style="1" customWidth="1"/>
-    <col min="11759" max="11759" width="15.33203125" style="1" customWidth="1"/>
-    <col min="11760" max="11760" width="15.4140625" style="1" customWidth="1"/>
-    <col min="11761" max="11761" width="11.4140625" style="1" customWidth="1"/>
-    <col min="11762" max="11762" width="17.9140625" style="1" customWidth="1"/>
-    <col min="11763" max="11763" width="15.33203125" style="1" customWidth="1"/>
-    <col min="11764" max="11764" width="14.6640625" style="1" customWidth="1"/>
-    <col min="11765" max="11765" width="2.9140625" style="1" customWidth="1"/>
-    <col min="11766" max="11766" width="15" style="1" customWidth="1"/>
-    <col min="11767" max="12009" width="11.33203125" style="1"/>
-    <col min="12010" max="12010" width="17.08203125" style="1" customWidth="1"/>
-    <col min="12011" max="12011" width="23" style="1" customWidth="1"/>
-    <col min="12012" max="12012" width="9.08203125" style="1" customWidth="1"/>
-    <col min="12013" max="12013" width="8" style="1" customWidth="1"/>
-    <col min="12014" max="12014" width="11.08203125" style="1" customWidth="1"/>
-    <col min="12015" max="12015" width="15.33203125" style="1" customWidth="1"/>
-    <col min="12016" max="12016" width="15.4140625" style="1" customWidth="1"/>
-    <col min="12017" max="12017" width="11.4140625" style="1" customWidth="1"/>
-    <col min="12018" max="12018" width="17.9140625" style="1" customWidth="1"/>
-    <col min="12019" max="12019" width="15.33203125" style="1" customWidth="1"/>
-    <col min="12020" max="12020" width="14.6640625" style="1" customWidth="1"/>
-    <col min="12021" max="12021" width="2.9140625" style="1" customWidth="1"/>
-    <col min="12022" max="12022" width="15" style="1" customWidth="1"/>
-    <col min="12023" max="12265" width="11.33203125" style="1"/>
-    <col min="12266" max="12266" width="17.08203125" style="1" customWidth="1"/>
-    <col min="12267" max="12267" width="23" style="1" customWidth="1"/>
-    <col min="12268" max="12268" width="9.08203125" style="1" customWidth="1"/>
-    <col min="12269" max="12269" width="8" style="1" customWidth="1"/>
-    <col min="12270" max="12270" width="11.08203125" style="1" customWidth="1"/>
-    <col min="12271" max="12271" width="15.33203125" style="1" customWidth="1"/>
-    <col min="12272" max="12272" width="15.4140625" style="1" customWidth="1"/>
-    <col min="12273" max="12273" width="11.4140625" style="1" customWidth="1"/>
-    <col min="12274" max="12274" width="17.9140625" style="1" customWidth="1"/>
-    <col min="12275" max="12275" width="15.33203125" style="1" customWidth="1"/>
-    <col min="12276" max="12276" width="14.6640625" style="1" customWidth="1"/>
-    <col min="12277" max="12277" width="2.9140625" style="1" customWidth="1"/>
-    <col min="12278" max="12278" width="15" style="1" customWidth="1"/>
-    <col min="12279" max="12521" width="11.33203125" style="1"/>
-    <col min="12522" max="12522" width="17.08203125" style="1" customWidth="1"/>
-    <col min="12523" max="12523" width="23" style="1" customWidth="1"/>
-    <col min="12524" max="12524" width="9.08203125" style="1" customWidth="1"/>
-    <col min="12525" max="12525" width="8" style="1" customWidth="1"/>
-    <col min="12526" max="12526" width="11.08203125" style="1" customWidth="1"/>
-    <col min="12527" max="12527" width="15.33203125" style="1" customWidth="1"/>
-    <col min="12528" max="12528" width="15.4140625" style="1" customWidth="1"/>
-    <col min="12529" max="12529" width="11.4140625" style="1" customWidth="1"/>
-    <col min="12530" max="12530" width="17.9140625" style="1" customWidth="1"/>
-    <col min="12531" max="12531" width="15.33203125" style="1" customWidth="1"/>
-    <col min="12532" max="12532" width="14.6640625" style="1" customWidth="1"/>
-    <col min="12533" max="12533" width="2.9140625" style="1" customWidth="1"/>
-    <col min="12534" max="12534" width="15" style="1" customWidth="1"/>
-    <col min="12535" max="12777" width="11.33203125" style="1"/>
-    <col min="12778" max="12778" width="17.08203125" style="1" customWidth="1"/>
-    <col min="12779" max="12779" width="23" style="1" customWidth="1"/>
-    <col min="12780" max="12780" width="9.08203125" style="1" customWidth="1"/>
-    <col min="12781" max="12781" width="8" style="1" customWidth="1"/>
-    <col min="12782" max="12782" width="11.08203125" style="1" customWidth="1"/>
-    <col min="12783" max="12783" width="15.33203125" style="1" customWidth="1"/>
-    <col min="12784" max="12784" width="15.4140625" style="1" customWidth="1"/>
-    <col min="12785" max="12785" width="11.4140625" style="1" customWidth="1"/>
-    <col min="12786" max="12786" width="17.9140625" style="1" customWidth="1"/>
-    <col min="12787" max="12787" width="15.33203125" style="1" customWidth="1"/>
-    <col min="12788" max="12788" width="14.6640625" style="1" customWidth="1"/>
-    <col min="12789" max="12789" width="2.9140625" style="1" customWidth="1"/>
-    <col min="12790" max="12790" width="15" style="1" customWidth="1"/>
-    <col min="12791" max="13033" width="11.33203125" style="1"/>
-    <col min="13034" max="13034" width="17.08203125" style="1" customWidth="1"/>
-    <col min="13035" max="13035" width="23" style="1" customWidth="1"/>
-    <col min="13036" max="13036" width="9.08203125" style="1" customWidth="1"/>
-    <col min="13037" max="13037" width="8" style="1" customWidth="1"/>
-    <col min="13038" max="13038" width="11.08203125" style="1" customWidth="1"/>
-    <col min="13039" max="13039" width="15.33203125" style="1" customWidth="1"/>
-    <col min="13040" max="13040" width="15.4140625" style="1" customWidth="1"/>
-    <col min="13041" max="13041" width="11.4140625" style="1" customWidth="1"/>
-    <col min="13042" max="13042" width="17.9140625" style="1" customWidth="1"/>
-    <col min="13043" max="13043" width="15.33203125" style="1" customWidth="1"/>
-    <col min="13044" max="13044" width="14.6640625" style="1" customWidth="1"/>
-    <col min="13045" max="13045" width="2.9140625" style="1" customWidth="1"/>
-    <col min="13046" max="13046" width="15" style="1" customWidth="1"/>
-    <col min="13047" max="13289" width="11.33203125" style="1"/>
-    <col min="13290" max="13290" width="17.08203125" style="1" customWidth="1"/>
-    <col min="13291" max="13291" width="23" style="1" customWidth="1"/>
-    <col min="13292" max="13292" width="9.08203125" style="1" customWidth="1"/>
-    <col min="13293" max="13293" width="8" style="1" customWidth="1"/>
-    <col min="13294" max="13294" width="11.08203125" style="1" customWidth="1"/>
-    <col min="13295" max="13295" width="15.33203125" style="1" customWidth="1"/>
-    <col min="13296" max="13296" width="15.4140625" style="1" customWidth="1"/>
-    <col min="13297" max="13297" width="11.4140625" style="1" customWidth="1"/>
-    <col min="13298" max="13298" width="17.9140625" style="1" customWidth="1"/>
-    <col min="13299" max="13299" width="15.33203125" style="1" customWidth="1"/>
-    <col min="13300" max="13300" width="14.6640625" style="1" customWidth="1"/>
-    <col min="13301" max="13301" width="2.9140625" style="1" customWidth="1"/>
-    <col min="13302" max="13302" width="15" style="1" customWidth="1"/>
-    <col min="13303" max="13545" width="11.33203125" style="1"/>
-    <col min="13546" max="13546" width="17.08203125" style="1" customWidth="1"/>
-    <col min="13547" max="13547" width="23" style="1" customWidth="1"/>
-    <col min="13548" max="13548" width="9.08203125" style="1" customWidth="1"/>
-    <col min="13549" max="13549" width="8" style="1" customWidth="1"/>
-    <col min="13550" max="13550" width="11.08203125" style="1" customWidth="1"/>
-    <col min="13551" max="13551" width="15.33203125" style="1" customWidth="1"/>
-    <col min="13552" max="13552" width="15.4140625" style="1" customWidth="1"/>
-    <col min="13553" max="13553" width="11.4140625" style="1" customWidth="1"/>
-    <col min="13554" max="13554" width="17.9140625" style="1" customWidth="1"/>
-    <col min="13555" max="13555" width="15.33203125" style="1" customWidth="1"/>
-    <col min="13556" max="13556" width="14.6640625" style="1" customWidth="1"/>
-    <col min="13557" max="13557" width="2.9140625" style="1" customWidth="1"/>
-    <col min="13558" max="13558" width="15" style="1" customWidth="1"/>
-    <col min="13559" max="13801" width="11.33203125" style="1"/>
-    <col min="13802" max="13802" width="17.08203125" style="1" customWidth="1"/>
-    <col min="13803" max="13803" width="23" style="1" customWidth="1"/>
-    <col min="13804" max="13804" width="9.08203125" style="1" customWidth="1"/>
-    <col min="13805" max="13805" width="8" style="1" customWidth="1"/>
-    <col min="13806" max="13806" width="11.08203125" style="1" customWidth="1"/>
-    <col min="13807" max="13807" width="15.33203125" style="1" customWidth="1"/>
-    <col min="13808" max="13808" width="15.4140625" style="1" customWidth="1"/>
-    <col min="13809" max="13809" width="11.4140625" style="1" customWidth="1"/>
-    <col min="13810" max="13810" width="17.9140625" style="1" customWidth="1"/>
-    <col min="13811" max="13811" width="15.33203125" style="1" customWidth="1"/>
-    <col min="13812" max="13812" width="14.6640625" style="1" customWidth="1"/>
-    <col min="13813" max="13813" width="2.9140625" style="1" customWidth="1"/>
-    <col min="13814" max="13814" width="15" style="1" customWidth="1"/>
-    <col min="13815" max="14057" width="11.33203125" style="1"/>
-    <col min="14058" max="14058" width="17.08203125" style="1" customWidth="1"/>
-    <col min="14059" max="14059" width="23" style="1" customWidth="1"/>
-    <col min="14060" max="14060" width="9.08203125" style="1" customWidth="1"/>
-    <col min="14061" max="14061" width="8" style="1" customWidth="1"/>
-    <col min="14062" max="14062" width="11.08203125" style="1" customWidth="1"/>
-    <col min="14063" max="14063" width="15.33203125" style="1" customWidth="1"/>
-    <col min="14064" max="14064" width="15.4140625" style="1" customWidth="1"/>
-    <col min="14065" max="14065" width="11.4140625" style="1" customWidth="1"/>
-    <col min="14066" max="14066" width="17.9140625" style="1" customWidth="1"/>
-    <col min="14067" max="14067" width="15.33203125" style="1" customWidth="1"/>
-    <col min="14068" max="14068" width="14.6640625" style="1" customWidth="1"/>
-    <col min="14069" max="14069" width="2.9140625" style="1" customWidth="1"/>
-    <col min="14070" max="14070" width="15" style="1" customWidth="1"/>
-    <col min="14071" max="14313" width="11.33203125" style="1"/>
-    <col min="14314" max="14314" width="17.08203125" style="1" customWidth="1"/>
-    <col min="14315" max="14315" width="23" style="1" customWidth="1"/>
-    <col min="14316" max="14316" width="9.08203125" style="1" customWidth="1"/>
-    <col min="14317" max="14317" width="8" style="1" customWidth="1"/>
-    <col min="14318" max="14318" width="11.08203125" style="1" customWidth="1"/>
-    <col min="14319" max="14319" width="15.33203125" style="1" customWidth="1"/>
-    <col min="14320" max="14320" width="15.4140625" style="1" customWidth="1"/>
-    <col min="14321" max="14321" width="11.4140625" style="1" customWidth="1"/>
-    <col min="14322" max="14322" width="17.9140625" style="1" customWidth="1"/>
-    <col min="14323" max="14323" width="15.33203125" style="1" customWidth="1"/>
-    <col min="14324" max="14324" width="14.6640625" style="1" customWidth="1"/>
-    <col min="14325" max="14325" width="2.9140625" style="1" customWidth="1"/>
-    <col min="14326" max="14326" width="15" style="1" customWidth="1"/>
-    <col min="14327" max="14569" width="11.33203125" style="1"/>
-    <col min="14570" max="14570" width="17.08203125" style="1" customWidth="1"/>
-    <col min="14571" max="14571" width="23" style="1" customWidth="1"/>
-    <col min="14572" max="14572" width="9.08203125" style="1" customWidth="1"/>
-    <col min="14573" max="14573" width="8" style="1" customWidth="1"/>
-    <col min="14574" max="14574" width="11.08203125" style="1" customWidth="1"/>
-    <col min="14575" max="14575" width="15.33203125" style="1" customWidth="1"/>
-    <col min="14576" max="14576" width="15.4140625" style="1" customWidth="1"/>
-    <col min="14577" max="14577" width="11.4140625" style="1" customWidth="1"/>
-    <col min="14578" max="14578" width="17.9140625" style="1" customWidth="1"/>
-    <col min="14579" max="14579" width="15.33203125" style="1" customWidth="1"/>
-    <col min="14580" max="14580" width="14.6640625" style="1" customWidth="1"/>
-    <col min="14581" max="14581" width="2.9140625" style="1" customWidth="1"/>
-    <col min="14582" max="14582" width="15" style="1" customWidth="1"/>
-    <col min="14583" max="14825" width="11.33203125" style="1"/>
-    <col min="14826" max="14826" width="17.08203125" style="1" customWidth="1"/>
-    <col min="14827" max="14827" width="23" style="1" customWidth="1"/>
-    <col min="14828" max="14828" width="9.08203125" style="1" customWidth="1"/>
-    <col min="14829" max="14829" width="8" style="1" customWidth="1"/>
-    <col min="14830" max="14830" width="11.08203125" style="1" customWidth="1"/>
-    <col min="14831" max="14831" width="15.33203125" style="1" customWidth="1"/>
-    <col min="14832" max="14832" width="15.4140625" style="1" customWidth="1"/>
-    <col min="14833" max="14833" width="11.4140625" style="1" customWidth="1"/>
-    <col min="14834" max="14834" width="17.9140625" style="1" customWidth="1"/>
-    <col min="14835" max="14835" width="15.33203125" style="1" customWidth="1"/>
-    <col min="14836" max="14836" width="14.6640625" style="1" customWidth="1"/>
-    <col min="14837" max="14837" width="2.9140625" style="1" customWidth="1"/>
-    <col min="14838" max="14838" width="15" style="1" customWidth="1"/>
-    <col min="14839" max="15081" width="11.33203125" style="1"/>
-    <col min="15082" max="15082" width="17.08203125" style="1" customWidth="1"/>
-    <col min="15083" max="15083" width="23" style="1" customWidth="1"/>
-    <col min="15084" max="15084" width="9.08203125" style="1" customWidth="1"/>
-    <col min="15085" max="15085" width="8" style="1" customWidth="1"/>
-    <col min="15086" max="15086" width="11.08203125" style="1" customWidth="1"/>
-    <col min="15087" max="15087" width="15.33203125" style="1" customWidth="1"/>
-    <col min="15088" max="15088" width="15.4140625" style="1" customWidth="1"/>
-    <col min="15089" max="15089" width="11.4140625" style="1" customWidth="1"/>
-    <col min="15090" max="15090" width="17.9140625" style="1" customWidth="1"/>
-    <col min="15091" max="15091" width="15.33203125" style="1" customWidth="1"/>
-    <col min="15092" max="15092" width="14.6640625" style="1" customWidth="1"/>
-    <col min="15093" max="15093" width="2.9140625" style="1" customWidth="1"/>
-    <col min="15094" max="15094" width="15" style="1" customWidth="1"/>
-    <col min="15095" max="15337" width="11.33203125" style="1"/>
-    <col min="15338" max="15338" width="17.08203125" style="1" customWidth="1"/>
-    <col min="15339" max="15339" width="23" style="1" customWidth="1"/>
-    <col min="15340" max="15340" width="9.08203125" style="1" customWidth="1"/>
-    <col min="15341" max="15341" width="8" style="1" customWidth="1"/>
-    <col min="15342" max="15342" width="11.08203125" style="1" customWidth="1"/>
-    <col min="15343" max="15343" width="15.33203125" style="1" customWidth="1"/>
-    <col min="15344" max="15344" width="15.4140625" style="1" customWidth="1"/>
-    <col min="15345" max="15345" width="11.4140625" style="1" customWidth="1"/>
-    <col min="15346" max="15346" width="17.9140625" style="1" customWidth="1"/>
-    <col min="15347" max="15347" width="15.33203125" style="1" customWidth="1"/>
-    <col min="15348" max="15348" width="14.6640625" style="1" customWidth="1"/>
-    <col min="15349" max="15349" width="2.9140625" style="1" customWidth="1"/>
-    <col min="15350" max="15350" width="15" style="1" customWidth="1"/>
-    <col min="15351" max="15593" width="11.33203125" style="1"/>
-    <col min="15594" max="15594" width="17.08203125" style="1" customWidth="1"/>
-    <col min="15595" max="15595" width="23" style="1" customWidth="1"/>
-    <col min="15596" max="15596" width="9.08203125" style="1" customWidth="1"/>
-    <col min="15597" max="15597" width="8" style="1" customWidth="1"/>
-    <col min="15598" max="15598" width="11.08203125" style="1" customWidth="1"/>
-    <col min="15599" max="15599" width="15.33203125" style="1" customWidth="1"/>
-    <col min="15600" max="15600" width="15.4140625" style="1" customWidth="1"/>
-    <col min="15601" max="15601" width="11.4140625" style="1" customWidth="1"/>
-    <col min="15602" max="15602" width="17.9140625" style="1" customWidth="1"/>
-    <col min="15603" max="15603" width="15.33203125" style="1" customWidth="1"/>
-    <col min="15604" max="15604" width="14.6640625" style="1" customWidth="1"/>
-    <col min="15605" max="15605" width="2.9140625" style="1" customWidth="1"/>
-    <col min="15606" max="15606" width="15" style="1" customWidth="1"/>
-    <col min="15607" max="15849" width="11.33203125" style="1"/>
-    <col min="15850" max="15850" width="17.08203125" style="1" customWidth="1"/>
-    <col min="15851" max="15851" width="23" style="1" customWidth="1"/>
-    <col min="15852" max="15852" width="9.08203125" style="1" customWidth="1"/>
-    <col min="15853" max="15853" width="8" style="1" customWidth="1"/>
-    <col min="15854" max="15854" width="11.08203125" style="1" customWidth="1"/>
-    <col min="15855" max="15855" width="15.33203125" style="1" customWidth="1"/>
-    <col min="15856" max="15856" width="15.4140625" style="1" customWidth="1"/>
-    <col min="15857" max="15857" width="11.4140625" style="1" customWidth="1"/>
-    <col min="15858" max="15858" width="17.9140625" style="1" customWidth="1"/>
-    <col min="15859" max="15859" width="15.33203125" style="1" customWidth="1"/>
-    <col min="15860" max="15860" width="14.6640625" style="1" customWidth="1"/>
-    <col min="15861" max="15861" width="2.9140625" style="1" customWidth="1"/>
-    <col min="15862" max="15862" width="15" style="1" customWidth="1"/>
-    <col min="15863" max="16105" width="11.33203125" style="1"/>
-    <col min="16106" max="16106" width="17.08203125" style="1" customWidth="1"/>
-    <col min="16107" max="16107" width="23" style="1" customWidth="1"/>
-    <col min="16108" max="16108" width="9.08203125" style="1" customWidth="1"/>
-    <col min="16109" max="16109" width="8" style="1" customWidth="1"/>
-    <col min="16110" max="16110" width="11.08203125" style="1" customWidth="1"/>
-    <col min="16111" max="16111" width="15.33203125" style="1" customWidth="1"/>
-    <col min="16112" max="16112" width="15.4140625" style="1" customWidth="1"/>
-    <col min="16113" max="16113" width="11.4140625" style="1" customWidth="1"/>
-    <col min="16114" max="16114" width="17.9140625" style="1" customWidth="1"/>
-    <col min="16115" max="16115" width="15.33203125" style="1" customWidth="1"/>
-    <col min="16116" max="16116" width="14.6640625" style="1" customWidth="1"/>
-    <col min="16117" max="16117" width="2.9140625" style="1" customWidth="1"/>
-    <col min="16118" max="16118" width="15" style="1" customWidth="1"/>
-    <col min="16119" max="16384" width="11.33203125" style="1"/>
+    <col min="3" max="3" width="10.1640625" style="3" customWidth="1"/>
+    <col min="4" max="232" width="11.33203125" style="1"/>
+    <col min="233" max="233" width="17.08203125" style="1" customWidth="1"/>
+    <col min="234" max="234" width="23" style="1" customWidth="1"/>
+    <col min="235" max="235" width="9.08203125" style="1" customWidth="1"/>
+    <col min="236" max="236" width="8" style="1" customWidth="1"/>
+    <col min="237" max="237" width="11.08203125" style="1" customWidth="1"/>
+    <col min="238" max="238" width="15.33203125" style="1" customWidth="1"/>
+    <col min="239" max="239" width="15.4140625" style="1" customWidth="1"/>
+    <col min="240" max="240" width="11.4140625" style="1" customWidth="1"/>
+    <col min="241" max="241" width="17.9140625" style="1" customWidth="1"/>
+    <col min="242" max="242" width="15.33203125" style="1" customWidth="1"/>
+    <col min="243" max="243" width="14.6640625" style="1" customWidth="1"/>
+    <col min="244" max="244" width="2.9140625" style="1" customWidth="1"/>
+    <col min="245" max="245" width="15" style="1" customWidth="1"/>
+    <col min="246" max="488" width="11.33203125" style="1"/>
+    <col min="489" max="489" width="17.08203125" style="1" customWidth="1"/>
+    <col min="490" max="490" width="23" style="1" customWidth="1"/>
+    <col min="491" max="491" width="9.08203125" style="1" customWidth="1"/>
+    <col min="492" max="492" width="8" style="1" customWidth="1"/>
+    <col min="493" max="493" width="11.08203125" style="1" customWidth="1"/>
+    <col min="494" max="494" width="15.33203125" style="1" customWidth="1"/>
+    <col min="495" max="495" width="15.4140625" style="1" customWidth="1"/>
+    <col min="496" max="496" width="11.4140625" style="1" customWidth="1"/>
+    <col min="497" max="497" width="17.9140625" style="1" customWidth="1"/>
+    <col min="498" max="498" width="15.33203125" style="1" customWidth="1"/>
+    <col min="499" max="499" width="14.6640625" style="1" customWidth="1"/>
+    <col min="500" max="500" width="2.9140625" style="1" customWidth="1"/>
+    <col min="501" max="501" width="15" style="1" customWidth="1"/>
+    <col min="502" max="744" width="11.33203125" style="1"/>
+    <col min="745" max="745" width="17.08203125" style="1" customWidth="1"/>
+    <col min="746" max="746" width="23" style="1" customWidth="1"/>
+    <col min="747" max="747" width="9.08203125" style="1" customWidth="1"/>
+    <col min="748" max="748" width="8" style="1" customWidth="1"/>
+    <col min="749" max="749" width="11.08203125" style="1" customWidth="1"/>
+    <col min="750" max="750" width="15.33203125" style="1" customWidth="1"/>
+    <col min="751" max="751" width="15.4140625" style="1" customWidth="1"/>
+    <col min="752" max="752" width="11.4140625" style="1" customWidth="1"/>
+    <col min="753" max="753" width="17.9140625" style="1" customWidth="1"/>
+    <col min="754" max="754" width="15.33203125" style="1" customWidth="1"/>
+    <col min="755" max="755" width="14.6640625" style="1" customWidth="1"/>
+    <col min="756" max="756" width="2.9140625" style="1" customWidth="1"/>
+    <col min="757" max="757" width="15" style="1" customWidth="1"/>
+    <col min="758" max="1000" width="11.33203125" style="1"/>
+    <col min="1001" max="1001" width="17.08203125" style="1" customWidth="1"/>
+    <col min="1002" max="1002" width="23" style="1" customWidth="1"/>
+    <col min="1003" max="1003" width="9.08203125" style="1" customWidth="1"/>
+    <col min="1004" max="1004" width="8" style="1" customWidth="1"/>
+    <col min="1005" max="1005" width="11.08203125" style="1" customWidth="1"/>
+    <col min="1006" max="1006" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1007" max="1007" width="15.4140625" style="1" customWidth="1"/>
+    <col min="1008" max="1008" width="11.4140625" style="1" customWidth="1"/>
+    <col min="1009" max="1009" width="17.9140625" style="1" customWidth="1"/>
+    <col min="1010" max="1010" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1011" max="1011" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1012" max="1012" width="2.9140625" style="1" customWidth="1"/>
+    <col min="1013" max="1013" width="15" style="1" customWidth="1"/>
+    <col min="1014" max="1256" width="11.33203125" style="1"/>
+    <col min="1257" max="1257" width="17.08203125" style="1" customWidth="1"/>
+    <col min="1258" max="1258" width="23" style="1" customWidth="1"/>
+    <col min="1259" max="1259" width="9.08203125" style="1" customWidth="1"/>
+    <col min="1260" max="1260" width="8" style="1" customWidth="1"/>
+    <col min="1261" max="1261" width="11.08203125" style="1" customWidth="1"/>
+    <col min="1262" max="1262" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1263" max="1263" width="15.4140625" style="1" customWidth="1"/>
+    <col min="1264" max="1264" width="11.4140625" style="1" customWidth="1"/>
+    <col min="1265" max="1265" width="17.9140625" style="1" customWidth="1"/>
+    <col min="1266" max="1266" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1267" max="1267" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1268" max="1268" width="2.9140625" style="1" customWidth="1"/>
+    <col min="1269" max="1269" width="15" style="1" customWidth="1"/>
+    <col min="1270" max="1512" width="11.33203125" style="1"/>
+    <col min="1513" max="1513" width="17.08203125" style="1" customWidth="1"/>
+    <col min="1514" max="1514" width="23" style="1" customWidth="1"/>
+    <col min="1515" max="1515" width="9.08203125" style="1" customWidth="1"/>
+    <col min="1516" max="1516" width="8" style="1" customWidth="1"/>
+    <col min="1517" max="1517" width="11.08203125" style="1" customWidth="1"/>
+    <col min="1518" max="1518" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1519" max="1519" width="15.4140625" style="1" customWidth="1"/>
+    <col min="1520" max="1520" width="11.4140625" style="1" customWidth="1"/>
+    <col min="1521" max="1521" width="17.9140625" style="1" customWidth="1"/>
+    <col min="1522" max="1522" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1523" max="1523" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1524" max="1524" width="2.9140625" style="1" customWidth="1"/>
+    <col min="1525" max="1525" width="15" style="1" customWidth="1"/>
+    <col min="1526" max="1768" width="11.33203125" style="1"/>
+    <col min="1769" max="1769" width="17.08203125" style="1" customWidth="1"/>
+    <col min="1770" max="1770" width="23" style="1" customWidth="1"/>
+    <col min="1771" max="1771" width="9.08203125" style="1" customWidth="1"/>
+    <col min="1772" max="1772" width="8" style="1" customWidth="1"/>
+    <col min="1773" max="1773" width="11.08203125" style="1" customWidth="1"/>
+    <col min="1774" max="1774" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1775" max="1775" width="15.4140625" style="1" customWidth="1"/>
+    <col min="1776" max="1776" width="11.4140625" style="1" customWidth="1"/>
+    <col min="1777" max="1777" width="17.9140625" style="1" customWidth="1"/>
+    <col min="1778" max="1778" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1779" max="1779" width="14.6640625" style="1" customWidth="1"/>
+    <col min="1780" max="1780" width="2.9140625" style="1" customWidth="1"/>
+    <col min="1781" max="1781" width="15" style="1" customWidth="1"/>
+    <col min="1782" max="2024" width="11.33203125" style="1"/>
+    <col min="2025" max="2025" width="17.08203125" style="1" customWidth="1"/>
+    <col min="2026" max="2026" width="23" style="1" customWidth="1"/>
+    <col min="2027" max="2027" width="9.08203125" style="1" customWidth="1"/>
+    <col min="2028" max="2028" width="8" style="1" customWidth="1"/>
+    <col min="2029" max="2029" width="11.08203125" style="1" customWidth="1"/>
+    <col min="2030" max="2030" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2031" max="2031" width="15.4140625" style="1" customWidth="1"/>
+    <col min="2032" max="2032" width="11.4140625" style="1" customWidth="1"/>
+    <col min="2033" max="2033" width="17.9140625" style="1" customWidth="1"/>
+    <col min="2034" max="2034" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2035" max="2035" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2036" max="2036" width="2.9140625" style="1" customWidth="1"/>
+    <col min="2037" max="2037" width="15" style="1" customWidth="1"/>
+    <col min="2038" max="2280" width="11.33203125" style="1"/>
+    <col min="2281" max="2281" width="17.08203125" style="1" customWidth="1"/>
+    <col min="2282" max="2282" width="23" style="1" customWidth="1"/>
+    <col min="2283" max="2283" width="9.08203125" style="1" customWidth="1"/>
+    <col min="2284" max="2284" width="8" style="1" customWidth="1"/>
+    <col min="2285" max="2285" width="11.08203125" style="1" customWidth="1"/>
+    <col min="2286" max="2286" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2287" max="2287" width="15.4140625" style="1" customWidth="1"/>
+    <col min="2288" max="2288" width="11.4140625" style="1" customWidth="1"/>
+    <col min="2289" max="2289" width="17.9140625" style="1" customWidth="1"/>
+    <col min="2290" max="2290" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2291" max="2291" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2292" max="2292" width="2.9140625" style="1" customWidth="1"/>
+    <col min="2293" max="2293" width="15" style="1" customWidth="1"/>
+    <col min="2294" max="2536" width="11.33203125" style="1"/>
+    <col min="2537" max="2537" width="17.08203125" style="1" customWidth="1"/>
+    <col min="2538" max="2538" width="23" style="1" customWidth="1"/>
+    <col min="2539" max="2539" width="9.08203125" style="1" customWidth="1"/>
+    <col min="2540" max="2540" width="8" style="1" customWidth="1"/>
+    <col min="2541" max="2541" width="11.08203125" style="1" customWidth="1"/>
+    <col min="2542" max="2542" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2543" max="2543" width="15.4140625" style="1" customWidth="1"/>
+    <col min="2544" max="2544" width="11.4140625" style="1" customWidth="1"/>
+    <col min="2545" max="2545" width="17.9140625" style="1" customWidth="1"/>
+    <col min="2546" max="2546" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2547" max="2547" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2548" max="2548" width="2.9140625" style="1" customWidth="1"/>
+    <col min="2549" max="2549" width="15" style="1" customWidth="1"/>
+    <col min="2550" max="2792" width="11.33203125" style="1"/>
+    <col min="2793" max="2793" width="17.08203125" style="1" customWidth="1"/>
+    <col min="2794" max="2794" width="23" style="1" customWidth="1"/>
+    <col min="2795" max="2795" width="9.08203125" style="1" customWidth="1"/>
+    <col min="2796" max="2796" width="8" style="1" customWidth="1"/>
+    <col min="2797" max="2797" width="11.08203125" style="1" customWidth="1"/>
+    <col min="2798" max="2798" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2799" max="2799" width="15.4140625" style="1" customWidth="1"/>
+    <col min="2800" max="2800" width="11.4140625" style="1" customWidth="1"/>
+    <col min="2801" max="2801" width="17.9140625" style="1" customWidth="1"/>
+    <col min="2802" max="2802" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2803" max="2803" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2804" max="2804" width="2.9140625" style="1" customWidth="1"/>
+    <col min="2805" max="2805" width="15" style="1" customWidth="1"/>
+    <col min="2806" max="3048" width="11.33203125" style="1"/>
+    <col min="3049" max="3049" width="17.08203125" style="1" customWidth="1"/>
+    <col min="3050" max="3050" width="23" style="1" customWidth="1"/>
+    <col min="3051" max="3051" width="9.08203125" style="1" customWidth="1"/>
+    <col min="3052" max="3052" width="8" style="1" customWidth="1"/>
+    <col min="3053" max="3053" width="11.08203125" style="1" customWidth="1"/>
+    <col min="3054" max="3054" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3055" max="3055" width="15.4140625" style="1" customWidth="1"/>
+    <col min="3056" max="3056" width="11.4140625" style="1" customWidth="1"/>
+    <col min="3057" max="3057" width="17.9140625" style="1" customWidth="1"/>
+    <col min="3058" max="3058" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3059" max="3059" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3060" max="3060" width="2.9140625" style="1" customWidth="1"/>
+    <col min="3061" max="3061" width="15" style="1" customWidth="1"/>
+    <col min="3062" max="3304" width="11.33203125" style="1"/>
+    <col min="3305" max="3305" width="17.08203125" style="1" customWidth="1"/>
+    <col min="3306" max="3306" width="23" style="1" customWidth="1"/>
+    <col min="3307" max="3307" width="9.08203125" style="1" customWidth="1"/>
+    <col min="3308" max="3308" width="8" style="1" customWidth="1"/>
+    <col min="3309" max="3309" width="11.08203125" style="1" customWidth="1"/>
+    <col min="3310" max="3310" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3311" max="3311" width="15.4140625" style="1" customWidth="1"/>
+    <col min="3312" max="3312" width="11.4140625" style="1" customWidth="1"/>
+    <col min="3313" max="3313" width="17.9140625" style="1" customWidth="1"/>
+    <col min="3314" max="3314" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3315" max="3315" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3316" max="3316" width="2.9140625" style="1" customWidth="1"/>
+    <col min="3317" max="3317" width="15" style="1" customWidth="1"/>
+    <col min="3318" max="3560" width="11.33203125" style="1"/>
+    <col min="3561" max="3561" width="17.08203125" style="1" customWidth="1"/>
+    <col min="3562" max="3562" width="23" style="1" customWidth="1"/>
+    <col min="3563" max="3563" width="9.08203125" style="1" customWidth="1"/>
+    <col min="3564" max="3564" width="8" style="1" customWidth="1"/>
+    <col min="3565" max="3565" width="11.08203125" style="1" customWidth="1"/>
+    <col min="3566" max="3566" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3567" max="3567" width="15.4140625" style="1" customWidth="1"/>
+    <col min="3568" max="3568" width="11.4140625" style="1" customWidth="1"/>
+    <col min="3569" max="3569" width="17.9140625" style="1" customWidth="1"/>
+    <col min="3570" max="3570" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3571" max="3571" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3572" max="3572" width="2.9140625" style="1" customWidth="1"/>
+    <col min="3573" max="3573" width="15" style="1" customWidth="1"/>
+    <col min="3574" max="3816" width="11.33203125" style="1"/>
+    <col min="3817" max="3817" width="17.08203125" style="1" customWidth="1"/>
+    <col min="3818" max="3818" width="23" style="1" customWidth="1"/>
+    <col min="3819" max="3819" width="9.08203125" style="1" customWidth="1"/>
+    <col min="3820" max="3820" width="8" style="1" customWidth="1"/>
+    <col min="3821" max="3821" width="11.08203125" style="1" customWidth="1"/>
+    <col min="3822" max="3822" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3823" max="3823" width="15.4140625" style="1" customWidth="1"/>
+    <col min="3824" max="3824" width="11.4140625" style="1" customWidth="1"/>
+    <col min="3825" max="3825" width="17.9140625" style="1" customWidth="1"/>
+    <col min="3826" max="3826" width="15.33203125" style="1" customWidth="1"/>
+    <col min="3827" max="3827" width="14.6640625" style="1" customWidth="1"/>
+    <col min="3828" max="3828" width="2.9140625" style="1" customWidth="1"/>
+    <col min="3829" max="3829" width="15" style="1" customWidth="1"/>
+    <col min="3830" max="4072" width="11.33203125" style="1"/>
+    <col min="4073" max="4073" width="17.08203125" style="1" customWidth="1"/>
+    <col min="4074" max="4074" width="23" style="1" customWidth="1"/>
+    <col min="4075" max="4075" width="9.08203125" style="1" customWidth="1"/>
+    <col min="4076" max="4076" width="8" style="1" customWidth="1"/>
+    <col min="4077" max="4077" width="11.08203125" style="1" customWidth="1"/>
+    <col min="4078" max="4078" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4079" max="4079" width="15.4140625" style="1" customWidth="1"/>
+    <col min="4080" max="4080" width="11.4140625" style="1" customWidth="1"/>
+    <col min="4081" max="4081" width="17.9140625" style="1" customWidth="1"/>
+    <col min="4082" max="4082" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4083" max="4083" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4084" max="4084" width="2.9140625" style="1" customWidth="1"/>
+    <col min="4085" max="4085" width="15" style="1" customWidth="1"/>
+    <col min="4086" max="4328" width="11.33203125" style="1"/>
+    <col min="4329" max="4329" width="17.08203125" style="1" customWidth="1"/>
+    <col min="4330" max="4330" width="23" style="1" customWidth="1"/>
+    <col min="4331" max="4331" width="9.08203125" style="1" customWidth="1"/>
+    <col min="4332" max="4332" width="8" style="1" customWidth="1"/>
+    <col min="4333" max="4333" width="11.08203125" style="1" customWidth="1"/>
+    <col min="4334" max="4334" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4335" max="4335" width="15.4140625" style="1" customWidth="1"/>
+    <col min="4336" max="4336" width="11.4140625" style="1" customWidth="1"/>
+    <col min="4337" max="4337" width="17.9140625" style="1" customWidth="1"/>
+    <col min="4338" max="4338" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4339" max="4339" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4340" max="4340" width="2.9140625" style="1" customWidth="1"/>
+    <col min="4341" max="4341" width="15" style="1" customWidth="1"/>
+    <col min="4342" max="4584" width="11.33203125" style="1"/>
+    <col min="4585" max="4585" width="17.08203125" style="1" customWidth="1"/>
+    <col min="4586" max="4586" width="23" style="1" customWidth="1"/>
+    <col min="4587" max="4587" width="9.08203125" style="1" customWidth="1"/>
+    <col min="4588" max="4588" width="8" style="1" customWidth="1"/>
+    <col min="4589" max="4589" width="11.08203125" style="1" customWidth="1"/>
+    <col min="4590" max="4590" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4591" max="4591" width="15.4140625" style="1" customWidth="1"/>
+    <col min="4592" max="4592" width="11.4140625" style="1" customWidth="1"/>
+    <col min="4593" max="4593" width="17.9140625" style="1" customWidth="1"/>
+    <col min="4594" max="4594" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4595" max="4595" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4596" max="4596" width="2.9140625" style="1" customWidth="1"/>
+    <col min="4597" max="4597" width="15" style="1" customWidth="1"/>
+    <col min="4598" max="4840" width="11.33203125" style="1"/>
+    <col min="4841" max="4841" width="17.08203125" style="1" customWidth="1"/>
+    <col min="4842" max="4842" width="23" style="1" customWidth="1"/>
+    <col min="4843" max="4843" width="9.08203125" style="1" customWidth="1"/>
+    <col min="4844" max="4844" width="8" style="1" customWidth="1"/>
+    <col min="4845" max="4845" width="11.08203125" style="1" customWidth="1"/>
+    <col min="4846" max="4846" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4847" max="4847" width="15.4140625" style="1" customWidth="1"/>
+    <col min="4848" max="4848" width="11.4140625" style="1" customWidth="1"/>
+    <col min="4849" max="4849" width="17.9140625" style="1" customWidth="1"/>
+    <col min="4850" max="4850" width="15.33203125" style="1" customWidth="1"/>
+    <col min="4851" max="4851" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4852" max="4852" width="2.9140625" style="1" customWidth="1"/>
+    <col min="4853" max="4853" width="15" style="1" customWidth="1"/>
+    <col min="4854" max="5096" width="11.33203125" style="1"/>
+    <col min="5097" max="5097" width="17.08203125" style="1" customWidth="1"/>
+    <col min="5098" max="5098" width="23" style="1" customWidth="1"/>
+    <col min="5099" max="5099" width="9.08203125" style="1" customWidth="1"/>
+    <col min="5100" max="5100" width="8" style="1" customWidth="1"/>
+    <col min="5101" max="5101" width="11.08203125" style="1" customWidth="1"/>
+    <col min="5102" max="5102" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5103" max="5103" width="15.4140625" style="1" customWidth="1"/>
+    <col min="5104" max="5104" width="11.4140625" style="1" customWidth="1"/>
+    <col min="5105" max="5105" width="17.9140625" style="1" customWidth="1"/>
+    <col min="5106" max="5106" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5107" max="5107" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5108" max="5108" width="2.9140625" style="1" customWidth="1"/>
+    <col min="5109" max="5109" width="15" style="1" customWidth="1"/>
+    <col min="5110" max="5352" width="11.33203125" style="1"/>
+    <col min="5353" max="5353" width="17.08203125" style="1" customWidth="1"/>
+    <col min="5354" max="5354" width="23" style="1" customWidth="1"/>
+    <col min="5355" max="5355" width="9.08203125" style="1" customWidth="1"/>
+    <col min="5356" max="5356" width="8" style="1" customWidth="1"/>
+    <col min="5357" max="5357" width="11.08203125" style="1" customWidth="1"/>
+    <col min="5358" max="5358" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5359" max="5359" width="15.4140625" style="1" customWidth="1"/>
+    <col min="5360" max="5360" width="11.4140625" style="1" customWidth="1"/>
+    <col min="5361" max="5361" width="17.9140625" style="1" customWidth="1"/>
+    <col min="5362" max="5362" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5363" max="5363" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5364" max="5364" width="2.9140625" style="1" customWidth="1"/>
+    <col min="5365" max="5365" width="15" style="1" customWidth="1"/>
+    <col min="5366" max="5608" width="11.33203125" style="1"/>
+    <col min="5609" max="5609" width="17.08203125" style="1" customWidth="1"/>
+    <col min="5610" max="5610" width="23" style="1" customWidth="1"/>
+    <col min="5611" max="5611" width="9.08203125" style="1" customWidth="1"/>
+    <col min="5612" max="5612" width="8" style="1" customWidth="1"/>
+    <col min="5613" max="5613" width="11.08203125" style="1" customWidth="1"/>
+    <col min="5614" max="5614" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5615" max="5615" width="15.4140625" style="1" customWidth="1"/>
+    <col min="5616" max="5616" width="11.4140625" style="1" customWidth="1"/>
+    <col min="5617" max="5617" width="17.9140625" style="1" customWidth="1"/>
+    <col min="5618" max="5618" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5619" max="5619" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5620" max="5620" width="2.9140625" style="1" customWidth="1"/>
+    <col min="5621" max="5621" width="15" style="1" customWidth="1"/>
+    <col min="5622" max="5864" width="11.33203125" style="1"/>
+    <col min="5865" max="5865" width="17.08203125" style="1" customWidth="1"/>
+    <col min="5866" max="5866" width="23" style="1" customWidth="1"/>
+    <col min="5867" max="5867" width="9.08203125" style="1" customWidth="1"/>
+    <col min="5868" max="5868" width="8" style="1" customWidth="1"/>
+    <col min="5869" max="5869" width="11.08203125" style="1" customWidth="1"/>
+    <col min="5870" max="5870" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5871" max="5871" width="15.4140625" style="1" customWidth="1"/>
+    <col min="5872" max="5872" width="11.4140625" style="1" customWidth="1"/>
+    <col min="5873" max="5873" width="17.9140625" style="1" customWidth="1"/>
+    <col min="5874" max="5874" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5875" max="5875" width="14.6640625" style="1" customWidth="1"/>
+    <col min="5876" max="5876" width="2.9140625" style="1" customWidth="1"/>
+    <col min="5877" max="5877" width="15" style="1" customWidth="1"/>
+    <col min="5878" max="6120" width="11.33203125" style="1"/>
+    <col min="6121" max="6121" width="17.08203125" style="1" customWidth="1"/>
+    <col min="6122" max="6122" width="23" style="1" customWidth="1"/>
+    <col min="6123" max="6123" width="9.08203125" style="1" customWidth="1"/>
+    <col min="6124" max="6124" width="8" style="1" customWidth="1"/>
+    <col min="6125" max="6125" width="11.08203125" style="1" customWidth="1"/>
+    <col min="6126" max="6126" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6127" max="6127" width="15.4140625" style="1" customWidth="1"/>
+    <col min="6128" max="6128" width="11.4140625" style="1" customWidth="1"/>
+    <col min="6129" max="6129" width="17.9140625" style="1" customWidth="1"/>
+    <col min="6130" max="6130" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6131" max="6131" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6132" max="6132" width="2.9140625" style="1" customWidth="1"/>
+    <col min="6133" max="6133" width="15" style="1" customWidth="1"/>
+    <col min="6134" max="6376" width="11.33203125" style="1"/>
+    <col min="6377" max="6377" width="17.08203125" style="1" customWidth="1"/>
+    <col min="6378" max="6378" width="23" style="1" customWidth="1"/>
+    <col min="6379" max="6379" width="9.08203125" style="1" customWidth="1"/>
+    <col min="6380" max="6380" width="8" style="1" customWidth="1"/>
+    <col min="6381" max="6381" width="11.08203125" style="1" customWidth="1"/>
+    <col min="6382" max="6382" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6383" max="6383" width="15.4140625" style="1" customWidth="1"/>
+    <col min="6384" max="6384" width="11.4140625" style="1" customWidth="1"/>
+    <col min="6385" max="6385" width="17.9140625" style="1" customWidth="1"/>
+    <col min="6386" max="6386" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6387" max="6387" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6388" max="6388" width="2.9140625" style="1" customWidth="1"/>
+    <col min="6389" max="6389" width="15" style="1" customWidth="1"/>
+    <col min="6390" max="6632" width="11.33203125" style="1"/>
+    <col min="6633" max="6633" width="17.08203125" style="1" customWidth="1"/>
+    <col min="6634" max="6634" width="23" style="1" customWidth="1"/>
+    <col min="6635" max="6635" width="9.08203125" style="1" customWidth="1"/>
+    <col min="6636" max="6636" width="8" style="1" customWidth="1"/>
+    <col min="6637" max="6637" width="11.08203125" style="1" customWidth="1"/>
+    <col min="6638" max="6638" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6639" max="6639" width="15.4140625" style="1" customWidth="1"/>
+    <col min="6640" max="6640" width="11.4140625" style="1" customWidth="1"/>
+    <col min="6641" max="6641" width="17.9140625" style="1" customWidth="1"/>
+    <col min="6642" max="6642" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6643" max="6643" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6644" max="6644" width="2.9140625" style="1" customWidth="1"/>
+    <col min="6645" max="6645" width="15" style="1" customWidth="1"/>
+    <col min="6646" max="6888" width="11.33203125" style="1"/>
+    <col min="6889" max="6889" width="17.08203125" style="1" customWidth="1"/>
+    <col min="6890" max="6890" width="23" style="1" customWidth="1"/>
+    <col min="6891" max="6891" width="9.08203125" style="1" customWidth="1"/>
+    <col min="6892" max="6892" width="8" style="1" customWidth="1"/>
+    <col min="6893" max="6893" width="11.08203125" style="1" customWidth="1"/>
+    <col min="6894" max="6894" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6895" max="6895" width="15.4140625" style="1" customWidth="1"/>
+    <col min="6896" max="6896" width="11.4140625" style="1" customWidth="1"/>
+    <col min="6897" max="6897" width="17.9140625" style="1" customWidth="1"/>
+    <col min="6898" max="6898" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6899" max="6899" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6900" max="6900" width="2.9140625" style="1" customWidth="1"/>
+    <col min="6901" max="6901" width="15" style="1" customWidth="1"/>
+    <col min="6902" max="7144" width="11.33203125" style="1"/>
+    <col min="7145" max="7145" width="17.08203125" style="1" customWidth="1"/>
+    <col min="7146" max="7146" width="23" style="1" customWidth="1"/>
+    <col min="7147" max="7147" width="9.08203125" style="1" customWidth="1"/>
+    <col min="7148" max="7148" width="8" style="1" customWidth="1"/>
+    <col min="7149" max="7149" width="11.08203125" style="1" customWidth="1"/>
+    <col min="7150" max="7150" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7151" max="7151" width="15.4140625" style="1" customWidth="1"/>
+    <col min="7152" max="7152" width="11.4140625" style="1" customWidth="1"/>
+    <col min="7153" max="7153" width="17.9140625" style="1" customWidth="1"/>
+    <col min="7154" max="7154" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7155" max="7155" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7156" max="7156" width="2.9140625" style="1" customWidth="1"/>
+    <col min="7157" max="7157" width="15" style="1" customWidth="1"/>
+    <col min="7158" max="7400" width="11.33203125" style="1"/>
+    <col min="7401" max="7401" width="17.08203125" style="1" customWidth="1"/>
+    <col min="7402" max="7402" width="23" style="1" customWidth="1"/>
+    <col min="7403" max="7403" width="9.08203125" style="1" customWidth="1"/>
+    <col min="7404" max="7404" width="8" style="1" customWidth="1"/>
+    <col min="7405" max="7405" width="11.08203125" style="1" customWidth="1"/>
+    <col min="7406" max="7406" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7407" max="7407" width="15.4140625" style="1" customWidth="1"/>
+    <col min="7408" max="7408" width="11.4140625" style="1" customWidth="1"/>
+    <col min="7409" max="7409" width="17.9140625" style="1" customWidth="1"/>
+    <col min="7410" max="7410" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7411" max="7411" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7412" max="7412" width="2.9140625" style="1" customWidth="1"/>
+    <col min="7413" max="7413" width="15" style="1" customWidth="1"/>
+    <col min="7414" max="7656" width="11.33203125" style="1"/>
+    <col min="7657" max="7657" width="17.08203125" style="1" customWidth="1"/>
+    <col min="7658" max="7658" width="23" style="1" customWidth="1"/>
+    <col min="7659" max="7659" width="9.08203125" style="1" customWidth="1"/>
+    <col min="7660" max="7660" width="8" style="1" customWidth="1"/>
+    <col min="7661" max="7661" width="11.08203125" style="1" customWidth="1"/>
+    <col min="7662" max="7662" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7663" max="7663" width="15.4140625" style="1" customWidth="1"/>
+    <col min="7664" max="7664" width="11.4140625" style="1" customWidth="1"/>
+    <col min="7665" max="7665" width="17.9140625" style="1" customWidth="1"/>
+    <col min="7666" max="7666" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7667" max="7667" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7668" max="7668" width="2.9140625" style="1" customWidth="1"/>
+    <col min="7669" max="7669" width="15" style="1" customWidth="1"/>
+    <col min="7670" max="7912" width="11.33203125" style="1"/>
+    <col min="7913" max="7913" width="17.08203125" style="1" customWidth="1"/>
+    <col min="7914" max="7914" width="23" style="1" customWidth="1"/>
+    <col min="7915" max="7915" width="9.08203125" style="1" customWidth="1"/>
+    <col min="7916" max="7916" width="8" style="1" customWidth="1"/>
+    <col min="7917" max="7917" width="11.08203125" style="1" customWidth="1"/>
+    <col min="7918" max="7918" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7919" max="7919" width="15.4140625" style="1" customWidth="1"/>
+    <col min="7920" max="7920" width="11.4140625" style="1" customWidth="1"/>
+    <col min="7921" max="7921" width="17.9140625" style="1" customWidth="1"/>
+    <col min="7922" max="7922" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7923" max="7923" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7924" max="7924" width="2.9140625" style="1" customWidth="1"/>
+    <col min="7925" max="7925" width="15" style="1" customWidth="1"/>
+    <col min="7926" max="8168" width="11.33203125" style="1"/>
+    <col min="8169" max="8169" width="17.08203125" style="1" customWidth="1"/>
+    <col min="8170" max="8170" width="23" style="1" customWidth="1"/>
+    <col min="8171" max="8171" width="9.08203125" style="1" customWidth="1"/>
+    <col min="8172" max="8172" width="8" style="1" customWidth="1"/>
+    <col min="8173" max="8173" width="11.08203125" style="1" customWidth="1"/>
+    <col min="8174" max="8174" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8175" max="8175" width="15.4140625" style="1" customWidth="1"/>
+    <col min="8176" max="8176" width="11.4140625" style="1" customWidth="1"/>
+    <col min="8177" max="8177" width="17.9140625" style="1" customWidth="1"/>
+    <col min="8178" max="8178" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8179" max="8179" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8180" max="8180" width="2.9140625" style="1" customWidth="1"/>
+    <col min="8181" max="8181" width="15" style="1" customWidth="1"/>
+    <col min="8182" max="8424" width="11.33203125" style="1"/>
+    <col min="8425" max="8425" width="17.08203125" style="1" customWidth="1"/>
+    <col min="8426" max="8426" width="23" style="1" customWidth="1"/>
+    <col min="8427" max="8427" width="9.08203125" style="1" customWidth="1"/>
+    <col min="8428" max="8428" width="8" style="1" customWidth="1"/>
+    <col min="8429" max="8429" width="11.08203125" style="1" customWidth="1"/>
+    <col min="8430" max="8430" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8431" max="8431" width="15.4140625" style="1" customWidth="1"/>
+    <col min="8432" max="8432" width="11.4140625" style="1" customWidth="1"/>
+    <col min="8433" max="8433" width="17.9140625" style="1" customWidth="1"/>
+    <col min="8434" max="8434" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8435" max="8435" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8436" max="8436" width="2.9140625" style="1" customWidth="1"/>
+    <col min="8437" max="8437" width="15" style="1" customWidth="1"/>
+    <col min="8438" max="8680" width="11.33203125" style="1"/>
+    <col min="8681" max="8681" width="17.08203125" style="1" customWidth="1"/>
+    <col min="8682" max="8682" width="23" style="1" customWidth="1"/>
+    <col min="8683" max="8683" width="9.08203125" style="1" customWidth="1"/>
+    <col min="8684" max="8684" width="8" style="1" customWidth="1"/>
+    <col min="8685" max="8685" width="11.08203125" style="1" customWidth="1"/>
+    <col min="8686" max="8686" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8687" max="8687" width="15.4140625" style="1" customWidth="1"/>
+    <col min="8688" max="8688" width="11.4140625" style="1" customWidth="1"/>
+    <col min="8689" max="8689" width="17.9140625" style="1" customWidth="1"/>
+    <col min="8690" max="8690" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8691" max="8691" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8692" max="8692" width="2.9140625" style="1" customWidth="1"/>
+    <col min="8693" max="8693" width="15" style="1" customWidth="1"/>
+    <col min="8694" max="8936" width="11.33203125" style="1"/>
+    <col min="8937" max="8937" width="17.08203125" style="1" customWidth="1"/>
+    <col min="8938" max="8938" width="23" style="1" customWidth="1"/>
+    <col min="8939" max="8939" width="9.08203125" style="1" customWidth="1"/>
+    <col min="8940" max="8940" width="8" style="1" customWidth="1"/>
+    <col min="8941" max="8941" width="11.08203125" style="1" customWidth="1"/>
+    <col min="8942" max="8942" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8943" max="8943" width="15.4140625" style="1" customWidth="1"/>
+    <col min="8944" max="8944" width="11.4140625" style="1" customWidth="1"/>
+    <col min="8945" max="8945" width="17.9140625" style="1" customWidth="1"/>
+    <col min="8946" max="8946" width="15.33203125" style="1" customWidth="1"/>
+    <col min="8947" max="8947" width="14.6640625" style="1" customWidth="1"/>
+    <col min="8948" max="8948" width="2.9140625" style="1" customWidth="1"/>
+    <col min="8949" max="8949" width="15" style="1" customWidth="1"/>
+    <col min="8950" max="9192" width="11.33203125" style="1"/>
+    <col min="9193" max="9193" width="17.08203125" style="1" customWidth="1"/>
+    <col min="9194" max="9194" width="23" style="1" customWidth="1"/>
+    <col min="9195" max="9195" width="9.08203125" style="1" customWidth="1"/>
+    <col min="9196" max="9196" width="8" style="1" customWidth="1"/>
+    <col min="9197" max="9197" width="11.08203125" style="1" customWidth="1"/>
+    <col min="9198" max="9198" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9199" max="9199" width="15.4140625" style="1" customWidth="1"/>
+    <col min="9200" max="9200" width="11.4140625" style="1" customWidth="1"/>
+    <col min="9201" max="9201" width="17.9140625" style="1" customWidth="1"/>
+    <col min="9202" max="9202" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9203" max="9203" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9204" max="9204" width="2.9140625" style="1" customWidth="1"/>
+    <col min="9205" max="9205" width="15" style="1" customWidth="1"/>
+    <col min="9206" max="9448" width="11.33203125" style="1"/>
+    <col min="9449" max="9449" width="17.08203125" style="1" customWidth="1"/>
+    <col min="9450" max="9450" width="23" style="1" customWidth="1"/>
+    <col min="9451" max="9451" width="9.08203125" style="1" customWidth="1"/>
+    <col min="9452" max="9452" width="8" style="1" customWidth="1"/>
+    <col min="9453" max="9453" width="11.08203125" style="1" customWidth="1"/>
+    <col min="9454" max="9454" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9455" max="9455" width="15.4140625" style="1" customWidth="1"/>
+    <col min="9456" max="9456" width="11.4140625" style="1" customWidth="1"/>
+    <col min="9457" max="9457" width="17.9140625" style="1" customWidth="1"/>
+    <col min="9458" max="9458" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9459" max="9459" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9460" max="9460" width="2.9140625" style="1" customWidth="1"/>
+    <col min="9461" max="9461" width="15" style="1" customWidth="1"/>
+    <col min="9462" max="9704" width="11.33203125" style="1"/>
+    <col min="9705" max="9705" width="17.08203125" style="1" customWidth="1"/>
+    <col min="9706" max="9706" width="23" style="1" customWidth="1"/>
+    <col min="9707" max="9707" width="9.08203125" style="1" customWidth="1"/>
+    <col min="9708" max="9708" width="8" style="1" customWidth="1"/>
+    <col min="9709" max="9709" width="11.08203125" style="1" customWidth="1"/>
+    <col min="9710" max="9710" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9711" max="9711" width="15.4140625" style="1" customWidth="1"/>
+    <col min="9712" max="9712" width="11.4140625" style="1" customWidth="1"/>
+    <col min="9713" max="9713" width="17.9140625" style="1" customWidth="1"/>
+    <col min="9714" max="9714" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9715" max="9715" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9716" max="9716" width="2.9140625" style="1" customWidth="1"/>
+    <col min="9717" max="9717" width="15" style="1" customWidth="1"/>
+    <col min="9718" max="9960" width="11.33203125" style="1"/>
+    <col min="9961" max="9961" width="17.08203125" style="1" customWidth="1"/>
+    <col min="9962" max="9962" width="23" style="1" customWidth="1"/>
+    <col min="9963" max="9963" width="9.08203125" style="1" customWidth="1"/>
+    <col min="9964" max="9964" width="8" style="1" customWidth="1"/>
+    <col min="9965" max="9965" width="11.08203125" style="1" customWidth="1"/>
+    <col min="9966" max="9966" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9967" max="9967" width="15.4140625" style="1" customWidth="1"/>
+    <col min="9968" max="9968" width="11.4140625" style="1" customWidth="1"/>
+    <col min="9969" max="9969" width="17.9140625" style="1" customWidth="1"/>
+    <col min="9970" max="9970" width="15.33203125" style="1" customWidth="1"/>
+    <col min="9971" max="9971" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9972" max="9972" width="2.9140625" style="1" customWidth="1"/>
+    <col min="9973" max="9973" width="15" style="1" customWidth="1"/>
+    <col min="9974" max="10216" width="11.33203125" style="1"/>
+    <col min="10217" max="10217" width="17.08203125" style="1" customWidth="1"/>
+    <col min="10218" max="10218" width="23" style="1" customWidth="1"/>
+    <col min="10219" max="10219" width="9.08203125" style="1" customWidth="1"/>
+    <col min="10220" max="10220" width="8" style="1" customWidth="1"/>
+    <col min="10221" max="10221" width="11.08203125" style="1" customWidth="1"/>
+    <col min="10222" max="10222" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10223" max="10223" width="15.4140625" style="1" customWidth="1"/>
+    <col min="10224" max="10224" width="11.4140625" style="1" customWidth="1"/>
+    <col min="10225" max="10225" width="17.9140625" style="1" customWidth="1"/>
+    <col min="10226" max="10226" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10227" max="10227" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10228" max="10228" width="2.9140625" style="1" customWidth="1"/>
+    <col min="10229" max="10229" width="15" style="1" customWidth="1"/>
+    <col min="10230" max="10472" width="11.33203125" style="1"/>
+    <col min="10473" max="10473" width="17.08203125" style="1" customWidth="1"/>
+    <col min="10474" max="10474" width="23" style="1" customWidth="1"/>
+    <col min="10475" max="10475" width="9.08203125" style="1" customWidth="1"/>
+    <col min="10476" max="10476" width="8" style="1" customWidth="1"/>
+    <col min="10477" max="10477" width="11.08203125" style="1" customWidth="1"/>
+    <col min="10478" max="10478" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10479" max="10479" width="15.4140625" style="1" customWidth="1"/>
+    <col min="10480" max="10480" width="11.4140625" style="1" customWidth="1"/>
+    <col min="10481" max="10481" width="17.9140625" style="1" customWidth="1"/>
+    <col min="10482" max="10482" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10483" max="10483" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10484" max="10484" width="2.9140625" style="1" customWidth="1"/>
+    <col min="10485" max="10485" width="15" style="1" customWidth="1"/>
+    <col min="10486" max="10728" width="11.33203125" style="1"/>
+    <col min="10729" max="10729" width="17.08203125" style="1" customWidth="1"/>
+    <col min="10730" max="10730" width="23" style="1" customWidth="1"/>
+    <col min="10731" max="10731" width="9.08203125" style="1" customWidth="1"/>
+    <col min="10732" max="10732" width="8" style="1" customWidth="1"/>
+    <col min="10733" max="10733" width="11.08203125" style="1" customWidth="1"/>
+    <col min="10734" max="10734" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10735" max="10735" width="15.4140625" style="1" customWidth="1"/>
+    <col min="10736" max="10736" width="11.4140625" style="1" customWidth="1"/>
+    <col min="10737" max="10737" width="17.9140625" style="1" customWidth="1"/>
+    <col min="10738" max="10738" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10739" max="10739" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10740" max="10740" width="2.9140625" style="1" customWidth="1"/>
+    <col min="10741" max="10741" width="15" style="1" customWidth="1"/>
+    <col min="10742" max="10984" width="11.33203125" style="1"/>
+    <col min="10985" max="10985" width="17.08203125" style="1" customWidth="1"/>
+    <col min="10986" max="10986" width="23" style="1" customWidth="1"/>
+    <col min="10987" max="10987" width="9.08203125" style="1" customWidth="1"/>
+    <col min="10988" max="10988" width="8" style="1" customWidth="1"/>
+    <col min="10989" max="10989" width="11.08203125" style="1" customWidth="1"/>
+    <col min="10990" max="10990" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10991" max="10991" width="15.4140625" style="1" customWidth="1"/>
+    <col min="10992" max="10992" width="11.4140625" style="1" customWidth="1"/>
+    <col min="10993" max="10993" width="17.9140625" style="1" customWidth="1"/>
+    <col min="10994" max="10994" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10995" max="10995" width="14.6640625" style="1" customWidth="1"/>
+    <col min="10996" max="10996" width="2.9140625" style="1" customWidth="1"/>
+    <col min="10997" max="10997" width="15" style="1" customWidth="1"/>
+    <col min="10998" max="11240" width="11.33203125" style="1"/>
+    <col min="11241" max="11241" width="17.08203125" style="1" customWidth="1"/>
+    <col min="11242" max="11242" width="23" style="1" customWidth="1"/>
+    <col min="11243" max="11243" width="9.08203125" style="1" customWidth="1"/>
+    <col min="11244" max="11244" width="8" style="1" customWidth="1"/>
+    <col min="11245" max="11245" width="11.08203125" style="1" customWidth="1"/>
+    <col min="11246" max="11246" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11247" max="11247" width="15.4140625" style="1" customWidth="1"/>
+    <col min="11248" max="11248" width="11.4140625" style="1" customWidth="1"/>
+    <col min="11249" max="11249" width="17.9140625" style="1" customWidth="1"/>
+    <col min="11250" max="11250" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11251" max="11251" width="14.6640625" style="1" customWidth="1"/>
+    <col min="11252" max="11252" width="2.9140625" style="1" customWidth="1"/>
+    <col min="11253" max="11253" width="15" style="1" customWidth="1"/>
+    <col min="11254" max="11496" width="11.33203125" style="1"/>
+    <col min="11497" max="11497" width="17.08203125" style="1" customWidth="1"/>
+    <col min="11498" max="11498" width="23" style="1" customWidth="1"/>
+    <col min="11499" max="11499" width="9.08203125" style="1" customWidth="1"/>
+    <col min="11500" max="11500" width="8" style="1" customWidth="1"/>
+    <col min="11501" max="11501" width="11.08203125" style="1" customWidth="1"/>
+    <col min="11502" max="11502" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11503" max="11503" width="15.4140625" style="1" customWidth="1"/>
+    <col min="11504" max="11504" width="11.4140625" style="1" customWidth="1"/>
+    <col min="11505" max="11505" width="17.9140625" style="1" customWidth="1"/>
+    <col min="11506" max="11506" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11507" max="11507" width="14.6640625" style="1" customWidth="1"/>
+    <col min="11508" max="11508" width="2.9140625" style="1" customWidth="1"/>
+    <col min="11509" max="11509" width="15" style="1" customWidth="1"/>
+    <col min="11510" max="11752" width="11.33203125" style="1"/>
+    <col min="11753" max="11753" width="17.08203125" style="1" customWidth="1"/>
+    <col min="11754" max="11754" width="23" style="1" customWidth="1"/>
+    <col min="11755" max="11755" width="9.08203125" style="1" customWidth="1"/>
+    <col min="11756" max="11756" width="8" style="1" customWidth="1"/>
+    <col min="11757" max="11757" width="11.08203125" style="1" customWidth="1"/>
+    <col min="11758" max="11758" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11759" max="11759" width="15.4140625" style="1" customWidth="1"/>
+    <col min="11760" max="11760" width="11.4140625" style="1" customWidth="1"/>
+    <col min="11761" max="11761" width="17.9140625" style="1" customWidth="1"/>
+    <col min="11762" max="11762" width="15.33203125" style="1" customWidth="1"/>
+    <col min="11763" max="11763" width="14.6640625" style="1" customWidth="1"/>
+    <col min="11764" max="11764" width="2.9140625" style="1" customWidth="1"/>
+    <col min="11765" max="11765" width="15" style="1" customWidth="1"/>
+    <col min="11766" max="12008" width="11.33203125" style="1"/>
+    <col min="12009" max="12009" width="17.08203125" style="1" customWidth="1"/>
+    <col min="12010" max="12010" width="23" style="1" customWidth="1"/>
+    <col min="12011" max="12011" width="9.08203125" style="1" customWidth="1"/>
+    <col min="12012" max="12012" width="8" style="1" customWidth="1"/>
+    <col min="12013" max="12013" width="11.08203125" style="1" customWidth="1"/>
+    <col min="12014" max="12014" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12015" max="12015" width="15.4140625" style="1" customWidth="1"/>
+    <col min="12016" max="12016" width="11.4140625" style="1" customWidth="1"/>
+    <col min="12017" max="12017" width="17.9140625" style="1" customWidth="1"/>
+    <col min="12018" max="12018" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12019" max="12019" width="14.6640625" style="1" customWidth="1"/>
+    <col min="12020" max="12020" width="2.9140625" style="1" customWidth="1"/>
+    <col min="12021" max="12021" width="15" style="1" customWidth="1"/>
+    <col min="12022" max="12264" width="11.33203125" style="1"/>
+    <col min="12265" max="12265" width="17.08203125" style="1" customWidth="1"/>
+    <col min="12266" max="12266" width="23" style="1" customWidth="1"/>
+    <col min="12267" max="12267" width="9.08203125" style="1" customWidth="1"/>
+    <col min="12268" max="12268" width="8" style="1" customWidth="1"/>
+    <col min="12269" max="12269" width="11.08203125" style="1" customWidth="1"/>
+    <col min="12270" max="12270" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12271" max="12271" width="15.4140625" style="1" customWidth="1"/>
+    <col min="12272" max="12272" width="11.4140625" style="1" customWidth="1"/>
+    <col min="12273" max="12273" width="17.9140625" style="1" customWidth="1"/>
+    <col min="12274" max="12274" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12275" max="12275" width="14.6640625" style="1" customWidth="1"/>
+    <col min="12276" max="12276" width="2.9140625" style="1" customWidth="1"/>
+    <col min="12277" max="12277" width="15" style="1" customWidth="1"/>
+    <col min="12278" max="12520" width="11.33203125" style="1"/>
+    <col min="12521" max="12521" width="17.08203125" style="1" customWidth="1"/>
+    <col min="12522" max="12522" width="23" style="1" customWidth="1"/>
+    <col min="12523" max="12523" width="9.08203125" style="1" customWidth="1"/>
+    <col min="12524" max="12524" width="8" style="1" customWidth="1"/>
+    <col min="12525" max="12525" width="11.08203125" style="1" customWidth="1"/>
+    <col min="12526" max="12526" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12527" max="12527" width="15.4140625" style="1" customWidth="1"/>
+    <col min="12528" max="12528" width="11.4140625" style="1" customWidth="1"/>
+    <col min="12529" max="12529" width="17.9140625" style="1" customWidth="1"/>
+    <col min="12530" max="12530" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12531" max="12531" width="14.6640625" style="1" customWidth="1"/>
+    <col min="12532" max="12532" width="2.9140625" style="1" customWidth="1"/>
+    <col min="12533" max="12533" width="15" style="1" customWidth="1"/>
+    <col min="12534" max="12776" width="11.33203125" style="1"/>
+    <col min="12777" max="12777" width="17.08203125" style="1" customWidth="1"/>
+    <col min="12778" max="12778" width="23" style="1" customWidth="1"/>
+    <col min="12779" max="12779" width="9.08203125" style="1" customWidth="1"/>
+    <col min="12780" max="12780" width="8" style="1" customWidth="1"/>
+    <col min="12781" max="12781" width="11.08203125" style="1" customWidth="1"/>
+    <col min="12782" max="12782" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12783" max="12783" width="15.4140625" style="1" customWidth="1"/>
+    <col min="12784" max="12784" width="11.4140625" style="1" customWidth="1"/>
+    <col min="12785" max="12785" width="17.9140625" style="1" customWidth="1"/>
+    <col min="12786" max="12786" width="15.33203125" style="1" customWidth="1"/>
+    <col min="12787" max="12787" width="14.6640625" style="1" customWidth="1"/>
+    <col min="12788" max="12788" width="2.9140625" style="1" customWidth="1"/>
+    <col min="12789" max="12789" width="15" style="1" customWidth="1"/>
+    <col min="12790" max="13032" width="11.33203125" style="1"/>
+    <col min="13033" max="13033" width="17.08203125" style="1" customWidth="1"/>
+    <col min="13034" max="13034" width="23" style="1" customWidth="1"/>
+    <col min="13035" max="13035" width="9.08203125" style="1" customWidth="1"/>
+    <col min="13036" max="13036" width="8" style="1" customWidth="1"/>
+    <col min="13037" max="13037" width="11.08203125" style="1" customWidth="1"/>
+    <col min="13038" max="13038" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13039" max="13039" width="15.4140625" style="1" customWidth="1"/>
+    <col min="13040" max="13040" width="11.4140625" style="1" customWidth="1"/>
+    <col min="13041" max="13041" width="17.9140625" style="1" customWidth="1"/>
+    <col min="13042" max="13042" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13043" max="13043" width="14.6640625" style="1" customWidth="1"/>
+    <col min="13044" max="13044" width="2.9140625" style="1" customWidth="1"/>
+    <col min="13045" max="13045" width="15" style="1" customWidth="1"/>
+    <col min="13046" max="13288" width="11.33203125" style="1"/>
+    <col min="13289" max="13289" width="17.08203125" style="1" customWidth="1"/>
+    <col min="13290" max="13290" width="23" style="1" customWidth="1"/>
+    <col min="13291" max="13291" width="9.08203125" style="1" customWidth="1"/>
+    <col min="13292" max="13292" width="8" style="1" customWidth="1"/>
+    <col min="13293" max="13293" width="11.08203125" style="1" customWidth="1"/>
+    <col min="13294" max="13294" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13295" max="13295" width="15.4140625" style="1" customWidth="1"/>
+    <col min="13296" max="13296" width="11.4140625" style="1" customWidth="1"/>
+    <col min="13297" max="13297" width="17.9140625" style="1" customWidth="1"/>
+    <col min="13298" max="13298" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13299" max="13299" width="14.6640625" style="1" customWidth="1"/>
+    <col min="13300" max="13300" width="2.9140625" style="1" customWidth="1"/>
+    <col min="13301" max="13301" width="15" style="1" customWidth="1"/>
+    <col min="13302" max="13544" width="11.33203125" style="1"/>
+    <col min="13545" max="13545" width="17.08203125" style="1" customWidth="1"/>
+    <col min="13546" max="13546" width="23" style="1" customWidth="1"/>
+    <col min="13547" max="13547" width="9.08203125" style="1" customWidth="1"/>
+    <col min="13548" max="13548" width="8" style="1" customWidth="1"/>
+    <col min="13549" max="13549" width="11.08203125" style="1" customWidth="1"/>
+    <col min="13550" max="13550" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13551" max="13551" width="15.4140625" style="1" customWidth="1"/>
+    <col min="13552" max="13552" width="11.4140625" style="1" customWidth="1"/>
+    <col min="13553" max="13553" width="17.9140625" style="1" customWidth="1"/>
+    <col min="13554" max="13554" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13555" max="13555" width="14.6640625" style="1" customWidth="1"/>
+    <col min="13556" max="13556" width="2.9140625" style="1" customWidth="1"/>
+    <col min="13557" max="13557" width="15" style="1" customWidth="1"/>
+    <col min="13558" max="13800" width="11.33203125" style="1"/>
+    <col min="13801" max="13801" width="17.08203125" style="1" customWidth="1"/>
+    <col min="13802" max="13802" width="23" style="1" customWidth="1"/>
+    <col min="13803" max="13803" width="9.08203125" style="1" customWidth="1"/>
+    <col min="13804" max="13804" width="8" style="1" customWidth="1"/>
+    <col min="13805" max="13805" width="11.08203125" style="1" customWidth="1"/>
+    <col min="13806" max="13806" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13807" max="13807" width="15.4140625" style="1" customWidth="1"/>
+    <col min="13808" max="13808" width="11.4140625" style="1" customWidth="1"/>
+    <col min="13809" max="13809" width="17.9140625" style="1" customWidth="1"/>
+    <col min="13810" max="13810" width="15.33203125" style="1" customWidth="1"/>
+    <col min="13811" max="13811" width="14.6640625" style="1" customWidth="1"/>
+    <col min="13812" max="13812" width="2.9140625" style="1" customWidth="1"/>
+    <col min="13813" max="13813" width="15" style="1" customWidth="1"/>
+    <col min="13814" max="14056" width="11.33203125" style="1"/>
+    <col min="14057" max="14057" width="17.08203125" style="1" customWidth="1"/>
+    <col min="14058" max="14058" width="23" style="1" customWidth="1"/>
+    <col min="14059" max="14059" width="9.08203125" style="1" customWidth="1"/>
+    <col min="14060" max="14060" width="8" style="1" customWidth="1"/>
+    <col min="14061" max="14061" width="11.08203125" style="1" customWidth="1"/>
+    <col min="14062" max="14062" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14063" max="14063" width="15.4140625" style="1" customWidth="1"/>
+    <col min="14064" max="14064" width="11.4140625" style="1" customWidth="1"/>
+    <col min="14065" max="14065" width="17.9140625" style="1" customWidth="1"/>
+    <col min="14066" max="14066" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14067" max="14067" width="14.6640625" style="1" customWidth="1"/>
+    <col min="14068" max="14068" width="2.9140625" style="1" customWidth="1"/>
+    <col min="14069" max="14069" width="15" style="1" customWidth="1"/>
+    <col min="14070" max="14312" width="11.33203125" style="1"/>
+    <col min="14313" max="14313" width="17.08203125" style="1" customWidth="1"/>
+    <col min="14314" max="14314" width="23" style="1" customWidth="1"/>
+    <col min="14315" max="14315" width="9.08203125" style="1" customWidth="1"/>
+    <col min="14316" max="14316" width="8" style="1" customWidth="1"/>
+    <col min="14317" max="14317" width="11.08203125" style="1" customWidth="1"/>
+    <col min="14318" max="14318" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14319" max="14319" width="15.4140625" style="1" customWidth="1"/>
+    <col min="14320" max="14320" width="11.4140625" style="1" customWidth="1"/>
+    <col min="14321" max="14321" width="17.9140625" style="1" customWidth="1"/>
+    <col min="14322" max="14322" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14323" max="14323" width="14.6640625" style="1" customWidth="1"/>
+    <col min="14324" max="14324" width="2.9140625" style="1" customWidth="1"/>
+    <col min="14325" max="14325" width="15" style="1" customWidth="1"/>
+    <col min="14326" max="14568" width="11.33203125" style="1"/>
+    <col min="14569" max="14569" width="17.08203125" style="1" customWidth="1"/>
+    <col min="14570" max="14570" width="23" style="1" customWidth="1"/>
+    <col min="14571" max="14571" width="9.08203125" style="1" customWidth="1"/>
+    <col min="14572" max="14572" width="8" style="1" customWidth="1"/>
+    <col min="14573" max="14573" width="11.08203125" style="1" customWidth="1"/>
+    <col min="14574" max="14574" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14575" max="14575" width="15.4140625" style="1" customWidth="1"/>
+    <col min="14576" max="14576" width="11.4140625" style="1" customWidth="1"/>
+    <col min="14577" max="14577" width="17.9140625" style="1" customWidth="1"/>
+    <col min="14578" max="14578" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14579" max="14579" width="14.6640625" style="1" customWidth="1"/>
+    <col min="14580" max="14580" width="2.9140625" style="1" customWidth="1"/>
+    <col min="14581" max="14581" width="15" style="1" customWidth="1"/>
+    <col min="14582" max="14824" width="11.33203125" style="1"/>
+    <col min="14825" max="14825" width="17.08203125" style="1" customWidth="1"/>
+    <col min="14826" max="14826" width="23" style="1" customWidth="1"/>
+    <col min="14827" max="14827" width="9.08203125" style="1" customWidth="1"/>
+    <col min="14828" max="14828" width="8" style="1" customWidth="1"/>
+    <col min="14829" max="14829" width="11.08203125" style="1" customWidth="1"/>
+    <col min="14830" max="14830" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14831" max="14831" width="15.4140625" style="1" customWidth="1"/>
+    <col min="14832" max="14832" width="11.4140625" style="1" customWidth="1"/>
+    <col min="14833" max="14833" width="17.9140625" style="1" customWidth="1"/>
+    <col min="14834" max="14834" width="15.33203125" style="1" customWidth="1"/>
+    <col min="14835" max="14835" width="14.6640625" style="1" customWidth="1"/>
+    <col min="14836" max="14836" width="2.9140625" style="1" customWidth="1"/>
+    <col min="14837" max="14837" width="15" style="1" customWidth="1"/>
+    <col min="14838" max="15080" width="11.33203125" style="1"/>
+    <col min="15081" max="15081" width="17.08203125" style="1" customWidth="1"/>
+    <col min="15082" max="15082" width="23" style="1" customWidth="1"/>
+    <col min="15083" max="15083" width="9.08203125" style="1" customWidth="1"/>
+    <col min="15084" max="15084" width="8" style="1" customWidth="1"/>
+    <col min="15085" max="15085" width="11.08203125" style="1" customWidth="1"/>
+    <col min="15086" max="15086" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15087" max="15087" width="15.4140625" style="1" customWidth="1"/>
+    <col min="15088" max="15088" width="11.4140625" style="1" customWidth="1"/>
+    <col min="15089" max="15089" width="17.9140625" style="1" customWidth="1"/>
+    <col min="15090" max="15090" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15091" max="15091" width="14.6640625" style="1" customWidth="1"/>
+    <col min="15092" max="15092" width="2.9140625" style="1" customWidth="1"/>
+    <col min="15093" max="15093" width="15" style="1" customWidth="1"/>
+    <col min="15094" max="15336" width="11.33203125" style="1"/>
+    <col min="15337" max="15337" width="17.08203125" style="1" customWidth="1"/>
+    <col min="15338" max="15338" width="23" style="1" customWidth="1"/>
+    <col min="15339" max="15339" width="9.08203125" style="1" customWidth="1"/>
+    <col min="15340" max="15340" width="8" style="1" customWidth="1"/>
+    <col min="15341" max="15341" width="11.08203125" style="1" customWidth="1"/>
+    <col min="15342" max="15342" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15343" max="15343" width="15.4140625" style="1" customWidth="1"/>
+    <col min="15344" max="15344" width="11.4140625" style="1" customWidth="1"/>
+    <col min="15345" max="15345" width="17.9140625" style="1" customWidth="1"/>
+    <col min="15346" max="15346" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15347" max="15347" width="14.6640625" style="1" customWidth="1"/>
+    <col min="15348" max="15348" width="2.9140625" style="1" customWidth="1"/>
+    <col min="15349" max="15349" width="15" style="1" customWidth="1"/>
+    <col min="15350" max="15592" width="11.33203125" style="1"/>
+    <col min="15593" max="15593" width="17.08203125" style="1" customWidth="1"/>
+    <col min="15594" max="15594" width="23" style="1" customWidth="1"/>
+    <col min="15595" max="15595" width="9.08203125" style="1" customWidth="1"/>
+    <col min="15596" max="15596" width="8" style="1" customWidth="1"/>
+    <col min="15597" max="15597" width="11.08203125" style="1" customWidth="1"/>
+    <col min="15598" max="15598" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15599" max="15599" width="15.4140625" style="1" customWidth="1"/>
+    <col min="15600" max="15600" width="11.4140625" style="1" customWidth="1"/>
+    <col min="15601" max="15601" width="17.9140625" style="1" customWidth="1"/>
+    <col min="15602" max="15602" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15603" max="15603" width="14.6640625" style="1" customWidth="1"/>
+    <col min="15604" max="15604" width="2.9140625" style="1" customWidth="1"/>
+    <col min="15605" max="15605" width="15" style="1" customWidth="1"/>
+    <col min="15606" max="15848" width="11.33203125" style="1"/>
+    <col min="15849" max="15849" width="17.08203125" style="1" customWidth="1"/>
+    <col min="15850" max="15850" width="23" style="1" customWidth="1"/>
+    <col min="15851" max="15851" width="9.08203125" style="1" customWidth="1"/>
+    <col min="15852" max="15852" width="8" style="1" customWidth="1"/>
+    <col min="15853" max="15853" width="11.08203125" style="1" customWidth="1"/>
+    <col min="15854" max="15854" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15855" max="15855" width="15.4140625" style="1" customWidth="1"/>
+    <col min="15856" max="15856" width="11.4140625" style="1" customWidth="1"/>
+    <col min="15857" max="15857" width="17.9140625" style="1" customWidth="1"/>
+    <col min="15858" max="15858" width="15.33203125" style="1" customWidth="1"/>
+    <col min="15859" max="15859" width="14.6640625" style="1" customWidth="1"/>
+    <col min="15860" max="15860" width="2.9140625" style="1" customWidth="1"/>
+    <col min="15861" max="15861" width="15" style="1" customWidth="1"/>
+    <col min="15862" max="16104" width="11.33203125" style="1"/>
+    <col min="16105" max="16105" width="17.08203125" style="1" customWidth="1"/>
+    <col min="16106" max="16106" width="23" style="1" customWidth="1"/>
+    <col min="16107" max="16107" width="9.08203125" style="1" customWidth="1"/>
+    <col min="16108" max="16108" width="8" style="1" customWidth="1"/>
+    <col min="16109" max="16109" width="11.08203125" style="1" customWidth="1"/>
+    <col min="16110" max="16110" width="15.33203125" style="1" customWidth="1"/>
+    <col min="16111" max="16111" width="15.4140625" style="1" customWidth="1"/>
+    <col min="16112" max="16112" width="11.4140625" style="1" customWidth="1"/>
+    <col min="16113" max="16113" width="17.9140625" style="1" customWidth="1"/>
+    <col min="16114" max="16114" width="15.33203125" style="1" customWidth="1"/>
+    <col min="16115" max="16115" width="14.6640625" style="1" customWidth="1"/>
+    <col min="16116" max="16116" width="2.9140625" style="1" customWidth="1"/>
+    <col min="16117" max="16117" width="15" style="1" customWidth="1"/>
+    <col min="16118" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.5" customHeight="1">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:3" ht="27.5" customHeight="1">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.5" customHeight="1">
+    <row r="2" spans="1:3" ht="14.5" customHeight="1">
       <c r="A2" s="6">
         <v>41760</v>
       </c>
@@ -34215,7 +34209,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" ht="11.25">
+    <row r="3" spans="1:3" s="2" customFormat="1" ht="11.25">
       <c r="A3" s="6">
         <v>44927</v>
       </c>
@@ -34226,7 +34220,7 @@
         <v>5.62E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" ht="11.25">
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="11.25">
       <c r="A4" s="6">
         <v>45108</v>
       </c>
@@ -34237,7 +34231,7 @@
         <v>5.8299999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" ht="11.25">
+    <row r="5" spans="1:3" s="2" customFormat="1" ht="11.25">
       <c r="A5" s="6">
         <v>45292</v>
       </c>
@@ -34248,7 +34242,7 @@
         <v>8.8200000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" ht="11.25">
+    <row r="6" spans="1:3" s="2" customFormat="1" ht="11.25">
       <c r="A6" s="6">
         <v>45474</v>
       </c>
@@ -34259,7 +34253,7 @@
         <v>5.7700000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" ht="11.25">
+    <row r="7" spans="1:3" s="2" customFormat="1" ht="11.25">
       <c r="A7" s="6">
         <v>45658</v>
       </c>
@@ -34270,7 +34264,7 @@
         <v>3.5700000000000003E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" ht="11.25">
+    <row r="8" spans="1:3" s="2" customFormat="1" ht="11.25">
       <c r="A8" s="6">
         <v>45839</v>
       </c>
@@ -34278,28 +34272,32 @@
         <v>46022</v>
       </c>
       <c r="C8" s="5">
-        <v>2.7799999999999998E-2</v>
+        <v>2.7779999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.2" customHeight="1">
-      <c r="B9" s="8"/>
-      <c r="D9" s="9"/>
+    <row r="9" spans="1:3" ht="12.65" customHeight="1">
+      <c r="A9" s="6">
+        <v>46023</v>
+      </c>
+      <c r="B9" s="6">
+        <v>46203</v>
+      </c>
+      <c r="C9" s="5">
+        <v>3.8067999999999998E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" ht="15.2" customHeight="1">
+    <row r="10" spans="1:3" ht="15.2" customHeight="1">
       <c r="A10" s="8"/>
-      <c r="B10" s="10"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="1:4" ht="15.2" customHeight="1">
+    <row r="11" spans="1:3" ht="15.2" customHeight="1">
       <c r="A11" s="8"/>
-      <c r="B11" s="10"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="9"/>
     </row>
-    <row r="12" spans="1:4" ht="15.2" customHeight="1">
+    <row r="12" spans="1:3" ht="15.2" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
-      <c r="D12" s="9"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -35211,304 +35209,304 @@
     <col min="16093" max="16384" width="11.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" ht="25.05" customHeight="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="25.05" customHeight="1">
+      <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="12.65">
-      <c r="A2" s="13">
+      <c r="A2" s="11">
         <v>44197</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="11">
         <v>44245</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="12">
         <v>1049701.6599999999</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="12.65">
-      <c r="A3" s="13">
+      <c r="A3" s="11">
         <v>44228</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>44271</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>980907.98</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="12.65">
-      <c r="A4" s="13">
+      <c r="A4" s="11">
         <v>44256</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>44302</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="12">
         <v>970699.5</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="12.65">
-      <c r="A5" s="13">
+      <c r="A5" s="11">
         <v>44287</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>44334</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="12">
         <v>910843.84</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="12.65">
-      <c r="A6" s="13">
+      <c r="A6" s="11">
         <v>44317</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>44363</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>872453.59</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="12.65">
-      <c r="A7" s="13">
+      <c r="A7" s="11">
         <v>44348</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>44393</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>909699.34</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="12.65">
-      <c r="A8" s="13">
+      <c r="A8" s="11">
         <v>44378</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="11">
         <v>44426</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>898519.07</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="12.65">
-      <c r="A9" s="13">
+      <c r="A9" s="11">
         <v>44409</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <v>44455</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>972874.76</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="12.65">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>44440</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="11">
         <v>44487</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>1200555.97</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="12.65">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <v>44470</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>44516</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>1252203.6599999999</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="12.65">
-      <c r="A12" s="13">
+      <c r="A12" s="11">
         <v>44501</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>44546</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>1633095.81</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" ht="12.65">
-      <c r="A13" s="13">
+      <c r="A13" s="11">
         <v>44531</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <v>44579</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <v>9254377.9900000002</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>44562</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="11">
         <v>44608</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="12">
         <v>1496121.51</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A15" s="13">
+      <c r="A15" s="11">
         <v>44593</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>44636</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="12">
         <v>1403817.6</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A16" s="13">
+      <c r="A16" s="11">
         <v>44621</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="11">
         <v>44670</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="12">
         <v>1541435.3</v>
       </c>
-      <c r="G16" s="15"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A17" s="13">
+      <c r="A17" s="11">
         <v>44652</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>44698</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="12">
         <v>1476771.71</v>
       </c>
-      <c r="G17" s="15"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A18" s="13">
+      <c r="A18" s="11">
         <v>44682</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="11">
         <v>44728</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="12">
         <v>1652402.8</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A19" s="13">
+      <c r="A19" s="11">
         <v>44713</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>44760</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="12">
         <v>1957556.31</v>
       </c>
-      <c r="G19" s="15"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A20" s="13">
+      <c r="A20" s="11">
         <v>44743</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="11">
         <v>44790</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="12">
         <v>3015291.35</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A21" s="13">
+      <c r="A21" s="11">
         <v>44774</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="11">
         <v>44820</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="12">
         <v>2613388.7999999998</v>
       </c>
-      <c r="G21" s="15"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A22" s="13">
+      <c r="A22" s="11">
         <v>44805</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="11">
         <v>44852</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="12">
         <v>2674546.46</v>
       </c>
-      <c r="G22" s="15"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A23" s="13">
+      <c r="A23" s="11">
         <v>44835</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="11">
         <v>44881</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="12">
         <v>2486449.64</v>
       </c>
-      <c r="G23" s="15"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A24" s="13">
+      <c r="A24" s="11">
         <v>44866</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="11">
         <v>44911</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="12">
         <v>2845086.27</v>
       </c>
-      <c r="G24" s="15"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" ht="15.2" customHeight="1">
-      <c r="A25" s="13">
+      <c r="A25" s="11">
         <v>44896</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="11">
         <v>44943</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="12">
         <v>37750817.140000001</v>
       </c>
-      <c r="G25" s="15"/>
+      <c r="G25" s="13"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
@@ -35533,1178 +35531,1178 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.25" defaultRowHeight="11.7"/>
   <cols>
-    <col min="1" max="1" width="12.08203125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="14.25" style="17"/>
-    <col min="3" max="3" width="13.9140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.08203125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="12" style="17" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="17" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="17" customWidth="1"/>
-    <col min="8" max="9" width="8.33203125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="17" customWidth="1"/>
-    <col min="11" max="12" width="11.1640625" style="17" customWidth="1"/>
-    <col min="13" max="16384" width="14.25" style="17"/>
+    <col min="1" max="1" width="12.08203125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="15"/>
+    <col min="3" max="3" width="13.9140625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="12" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9.75" style="15" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="15" customWidth="1"/>
+    <col min="8" max="9" width="8.33203125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="15" customWidth="1"/>
+    <col min="11" max="12" width="11.1640625" style="15" customWidth="1"/>
+    <col min="13" max="16384" width="14.25" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.55" customHeight="1">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="23.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="18">
+      <c r="A3" s="16">
         <v>44197</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="17">
         <v>44245</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="18">
         <v>1049701.6599999999</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="19">
         <v>682</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="19">
         <v>181</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="19">
         <v>184</v>
       </c>
-      <c r="G3" s="21">
+      <c r="G3" s="19">
         <v>182</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="19">
         <v>184</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="19">
         <v>80</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="19">
         <v>2.3628200000000001</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="18">
         <v>2480256.08</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="18">
         <v>3529957.74</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="18">
+      <c r="A4" s="16">
         <v>44228</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="17">
         <v>44271</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="18">
         <v>980907.98</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="19">
         <v>656</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="19">
         <v>181</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="19">
         <v>184</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="19">
         <v>182</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="19">
         <v>184</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="19">
         <v>80</v>
       </c>
-      <c r="J4" s="21">
+      <c r="J4" s="19">
         <v>2.3368199999999999</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="18">
         <v>2292205.39</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="18">
         <v>3273113.37</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="18">
+      <c r="A5" s="16">
         <v>44256</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="17">
         <v>44302</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>970699.5</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="19">
         <v>625</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="19">
         <v>181</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>184</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="19">
         <v>182</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="19">
         <v>184</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="19">
         <v>80</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="19">
         <v>2.3058200000000002</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="18">
         <v>2238258.3199999998</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="18">
         <v>3208957.82</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="18">
+      <c r="A6" s="16">
         <v>44287</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="17">
         <v>44334</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="18">
         <v>910843.84</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="19">
         <v>593</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <v>181</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>184</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="19">
         <v>182</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="19">
         <v>184</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="19">
         <v>80</v>
       </c>
-      <c r="J6" s="21">
+      <c r="J6" s="19">
         <v>2.2738200000000002</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="18">
         <v>2071094.94</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="18">
         <v>2981938.78</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="18">
+      <c r="A7" s="16">
         <v>44317</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="17">
         <v>44363</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <v>872453.59</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>564</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <v>181</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>184</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="19">
         <v>182</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="19">
         <v>184</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="19">
         <v>80</v>
       </c>
-      <c r="J7" s="21">
+      <c r="J7" s="19">
         <v>2.2448199999999998</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="18">
         <v>1958501.27</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="18">
         <v>2830954.86</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="18">
+      <c r="A8" s="16">
         <v>44348</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="17">
         <v>44393</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>909699.34</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="19">
         <v>534</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <v>181</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <v>184</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="19">
         <v>182</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="19">
         <v>184</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="19">
         <v>80</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="19">
         <v>2.21482</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="18">
         <v>2014820.29</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="18">
         <v>2924519.63</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="18">
+      <c r="A9" s="16">
         <v>44378</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="17">
         <v>44426</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="18">
         <v>898519.07</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <v>501</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>181</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <v>184</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="19">
         <v>182</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="19">
         <v>184</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="19">
         <v>80</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="19">
         <v>2.1818200000000001</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="18">
         <v>1960406.88</v>
       </c>
-      <c r="L9" s="20">
+      <c r="L9" s="18">
         <v>2858925.95</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="18">
+      <c r="A10" s="16">
         <v>44409</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="17">
         <v>44455</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="18">
         <v>972874.76</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="19">
         <v>472</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="19">
         <v>181</v>
       </c>
-      <c r="F10" s="21">
+      <c r="F10" s="19">
         <v>184</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="19">
         <v>182</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="19">
         <v>184</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="19">
         <v>80</v>
       </c>
-      <c r="J10" s="21">
+      <c r="J10" s="19">
         <v>2.1528200000000002</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="18">
         <v>2094424.24</v>
       </c>
-      <c r="L10" s="20">
+      <c r="L10" s="18">
         <v>3067299</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="18">
+      <c r="A11" s="16">
         <v>44440</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="17">
         <v>44487</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="18">
         <v>1200555.97</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="19">
         <v>440</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="19">
         <v>181</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="19">
         <v>184</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="19">
         <v>182</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="19">
         <v>184</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="19">
         <v>80</v>
       </c>
-      <c r="J11" s="21">
+      <c r="J11" s="19">
         <v>2.1208200000000001</v>
       </c>
-      <c r="K11" s="20">
+      <c r="K11" s="18">
         <v>2546163.11</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="18">
         <v>3746719.08</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="18">
+      <c r="A12" s="16">
         <v>44470</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="17">
         <v>44516</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="18">
         <v>1252203.6599999999</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="19">
         <v>411</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="19">
         <v>181</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="19">
         <v>184</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="19">
         <v>182</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="19">
         <v>184</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="19">
         <v>80</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="19">
         <v>2.0918199999999998</v>
       </c>
-      <c r="K12" s="20">
+      <c r="K12" s="18">
         <v>2619384.66</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="18">
         <v>3871588.32</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="18">
+      <c r="A13" s="16">
         <v>44501</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="17">
         <v>44546</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="18">
         <v>1633095.81</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="19">
         <v>381</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="19">
         <v>181</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="19">
         <v>184</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="19">
         <v>182</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="19">
         <v>184</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="19">
         <v>80</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J13" s="19">
         <v>2.06182</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K13" s="18">
         <v>3367149.6</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="18">
         <v>5000245.41</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="18">
+      <c r="A14" s="16">
         <v>44531</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="17">
         <v>44579</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="18">
         <v>9254377.9900000002</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="19">
         <v>348</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="19">
         <v>181</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="19">
         <v>184</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="19">
         <v>182</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="19">
         <v>184</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="19">
         <v>80</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J14" s="19">
         <v>2.0288200000000001</v>
       </c>
-      <c r="K14" s="20">
+      <c r="K14" s="18">
         <v>18775467.149999999</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="18">
         <v>28029845.140000001</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="18">
+      <c r="A15" s="16">
         <v>44562</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="17">
         <v>44608</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="18">
         <v>1496121.51</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="19">
         <v>319</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="19">
         <v>181</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="19">
         <v>184</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="19">
         <v>182</v>
       </c>
-      <c r="H15" s="21">
+      <c r="H15" s="19">
         <v>184</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="19">
         <v>80</v>
       </c>
-      <c r="J15" s="21">
+      <c r="J15" s="19">
         <v>1.9998199999999999</v>
       </c>
-      <c r="K15" s="20">
+      <c r="K15" s="18">
         <v>2991973.72</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="18">
         <v>4488095.2300000004</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="18">
+      <c r="A16" s="16">
         <v>44593</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="17">
         <v>44636</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="18">
         <v>1403817.6</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="19">
         <v>291</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="19">
         <v>181</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="19">
         <v>184</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="19">
         <v>182</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="19">
         <v>184</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="19">
         <v>80</v>
       </c>
-      <c r="J16" s="21">
+      <c r="J16" s="19">
         <v>1.9718199999999999</v>
       </c>
-      <c r="K16" s="20">
+      <c r="K16" s="18">
         <v>2768075.62</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16" s="18">
         <v>4171893.22</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="18">
+      <c r="A17" s="16">
         <v>44621</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="17">
         <v>44670</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="18">
         <v>1541435.3</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="19">
         <v>257</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="19">
         <v>181</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="19">
         <v>184</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="19">
         <v>182</v>
       </c>
-      <c r="H17" s="21">
+      <c r="H17" s="19">
         <v>184</v>
       </c>
-      <c r="I17" s="21">
+      <c r="I17" s="19">
         <v>80</v>
       </c>
-      <c r="J17" s="21">
+      <c r="J17" s="19">
         <v>1.9378200000000001</v>
       </c>
-      <c r="K17" s="20">
+      <c r="K17" s="18">
         <v>2987024.15</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="18">
         <v>4528459.45</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="18">
+      <c r="A18" s="16">
         <v>44652</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="17">
         <v>44698</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="18">
         <v>1476771.71</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="19">
         <v>229</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="19">
         <v>181</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="19">
         <v>184</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="19">
         <v>182</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="19">
         <v>184</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="19">
         <v>80</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="19">
         <v>1.9098200000000001</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="18">
         <v>2820368.15</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="18">
         <v>4297139.8600000003</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="18">
+      <c r="A19" s="16">
         <v>44682</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="17">
         <v>44728</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="18">
         <v>1652402.8</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="19">
         <v>199</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="19">
         <v>181</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="19">
         <v>184</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="19">
         <v>182</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="19">
         <v>184</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="19">
         <v>80</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="19">
         <v>1.87982</v>
       </c>
-      <c r="K19" s="20">
+      <c r="K19" s="18">
         <v>3106219.83</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19" s="18">
         <v>4758622.63</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="18">
+      <c r="A20" s="16">
         <v>44713</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="17">
         <v>44760</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="18">
         <v>1957556.31</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="19">
         <v>167</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="19">
         <v>181</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="19">
         <v>184</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="19">
         <v>182</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="19">
         <v>184</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="19">
         <v>80</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="19">
         <v>1.84782</v>
       </c>
-      <c r="K20" s="20">
+      <c r="K20" s="18">
         <v>3617211.7</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="18">
         <v>5574768.0099999998</v>
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="18">
+      <c r="A21" s="16">
         <v>44743</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="17">
         <v>44790</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="18">
         <v>3015291.35</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="19">
         <v>137</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="19">
         <v>181</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="19">
         <v>184</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="19">
         <v>182</v>
       </c>
-      <c r="H21" s="21">
+      <c r="H21" s="19">
         <v>184</v>
       </c>
-      <c r="I21" s="21">
+      <c r="I21" s="19">
         <v>80</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="19">
         <v>1.81782</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="18">
         <v>5481256.9199999999</v>
       </c>
-      <c r="L21" s="20">
+      <c r="L21" s="18">
         <v>8496548.2699999996</v>
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="18">
+      <c r="A22" s="16">
         <v>44774</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="17">
         <v>44820</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="18">
         <v>2613388.7999999998</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="19">
         <v>107</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="19">
         <v>181</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="19">
         <v>184</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="19">
         <v>182</v>
       </c>
-      <c r="H22" s="21">
+      <c r="H22" s="19">
         <v>184</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="19">
         <v>80</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="19">
         <v>1.78782</v>
       </c>
-      <c r="K22" s="20">
+      <c r="K22" s="18">
         <v>4672268.76</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L22" s="18">
         <v>7285657.5599999996</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="18">
+      <c r="A23" s="16">
         <v>44805</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="17">
         <v>44852</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="18">
         <v>2674546.46</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="19">
         <v>75</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="19">
         <v>181</v>
       </c>
-      <c r="F23" s="21">
+      <c r="F23" s="19">
         <v>184</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="19">
         <v>182</v>
       </c>
-      <c r="H23" s="21">
+      <c r="H23" s="19">
         <v>184</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="19">
         <v>80</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="19">
         <v>1.7558199999999999</v>
       </c>
-      <c r="K23" s="20">
+      <c r="K23" s="18">
         <v>4696022.17</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="18">
         <v>7370568.6299999999</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="18">
+      <c r="A24" s="16">
         <v>44835</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="17">
         <v>44881</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="18">
         <v>2486449.64</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="19">
         <v>46</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="19">
         <v>181</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="19">
         <v>184</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="19">
         <v>182</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="19">
         <v>184</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="19">
         <v>80</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="19">
         <v>1.72682</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="18">
         <v>4293650.97</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="18">
         <v>6780100.6100000003</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="18">
+      <c r="A25" s="16">
         <v>44866</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="17">
         <v>44911</v>
       </c>
-      <c r="C25" s="20">
+      <c r="C25" s="18">
         <v>2845086.27</v>
       </c>
-      <c r="D25" s="21">
+      <c r="D25" s="19">
         <v>16</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="19">
         <v>181</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="19">
         <v>184</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="19">
         <v>182</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="19">
         <v>184</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="19">
         <v>80</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="19">
         <v>1.69682</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="18">
         <v>4827599.28</v>
       </c>
-      <c r="L25" s="20">
+      <c r="L25" s="18">
         <v>7672685.5499999998</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="18">
+      <c r="A26" s="16">
         <v>44896</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="17">
         <v>44943</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="18">
         <v>37750817.140000001</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="19">
         <v>0</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="19">
         <v>165</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="19">
         <v>184</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="19">
         <v>182</v>
       </c>
-      <c r="H26" s="21">
+      <c r="H26" s="19">
         <v>184</v>
       </c>
-      <c r="I26" s="21">
+      <c r="I26" s="19">
         <v>80</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="19">
         <v>1.65084667</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="18">
         <v>62320810.640000001</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="18">
         <v>100071627.78</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="16"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
     </row>
     <row r="30" spans="1:12" ht="35.1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="25" t="s">
+      <c r="A30" s="14"/>
+      <c r="B30" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="C30" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="25" t="s">
+      <c r="E30" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="16"/>
-      <c r="B31" s="21">
+      <c r="A31" s="14"/>
+      <c r="B31" s="19">
         <v>2021</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="18">
         <v>20905933.170000002</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="18">
         <v>44418131.93</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="18">
         <v>65324065.100000001</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="16"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="16"/>
-      <c r="B32" s="21">
+      <c r="A32" s="14"/>
+      <c r="B32" s="19">
         <v>2022</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="18">
         <v>60913684.890000001</v>
       </c>
-      <c r="D32" s="20">
+      <c r="D32" s="18">
         <v>104582481.91</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="18">
         <v>165496166.80000001</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="16"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
     </row>
     <row r="34" spans="1:12">
-      <c r="A34" s="16"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="27" t="s">
+      <c r="A34" s="14"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
     </row>
     <row r="35" spans="1:12" ht="35.1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="25" t="s">
+      <c r="A35" s="14"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D35" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="25" t="s">
+      <c r="E35" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
     </row>
     <row r="36" spans="1:12">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="20">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="18">
         <v>81819618.060000002</v>
       </c>
-      <c r="D36" s="20">
+      <c r="D36" s="18">
         <v>149000613.84</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="18">
         <v>230820231.90000001</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
